--- a/results/results_2_frequencies_subsetted_by_domain.xlsx
+++ b/results/results_2_frequencies_subsetted_by_domain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4EE396-F4F1-4917-A5A7-F6A99467B76C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A081012D-7413-4D54-B7D7-95637279544F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" tabRatio="818" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="10200" tabRatio="818" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary" sheetId="30" r:id="rId1"/>
@@ -13089,7 +13089,7 @@
   <dimension ref="A1:O134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>

--- a/results/results_2_frequencies_subsetted_by_domain.xlsx
+++ b/results/results_2_frequencies_subsetted_by_domain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A081012D-7413-4D54-B7D7-95637279544F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870ABCDD-9DBD-4A24-9FD8-0BCE2AD77BBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="10200" tabRatio="818" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="10140" tabRatio="818" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary" sheetId="30" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="189">
   <si>
     <t>epochs</t>
   </si>
@@ -13088,8 +13088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE7B9D6-777D-4E85-8CF2-7950AA0B2522}">
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
@@ -17858,11 +17858,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916E5D1D-E0B0-4535-9497-2DBD8C30A89E}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M40" sqref="M40:O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17879,6 +17879,7 @@
     <col min="10" max="10" width="4.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -18224,7 +18225,7 @@
         <v>20</v>
       </c>
       <c r="O15" s="9">
-        <f t="shared" ref="O15:O16" si="1">(32*L15*K15)/B15</f>
+        <f t="shared" ref="O15:O23" si="1">(32*L15*K15)/B15</f>
         <v>15.974440894568691</v>
       </c>
     </row>
@@ -18278,22 +18279,102 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D17" s="36">
-        <f>AVERAGE(D14:D16)</f>
-        <v>0.94247178103718088</v>
-      </c>
-      <c r="E17" s="36">
-        <f t="shared" ref="E17" si="2">AVERAGE(E14:E16)</f>
-        <v>1.0532143333333335</v>
-      </c>
-      <c r="F17" s="36">
-        <f t="shared" ref="F17" si="3">AVERAGE(F14:F16)</f>
-        <v>0.145394</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="O17" s="9"/>
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17">
+        <v>10016</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" ref="D17:D23" si="2">((E17/$E$6)+(F17/$F$6))/2</f>
+        <v>0.97360999256869041</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1.1435169999999999</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.14244499999999999</v>
+      </c>
+      <c r="G17" s="7">
+        <v>15.67272</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.12931500000000001</v>
+      </c>
+      <c r="I17" s="7">
+        <v>8.0575999999999995E-2</v>
+      </c>
+      <c r="J17">
+        <v>45</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <v>50</v>
+      </c>
+      <c r="M17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="9">
+        <f t="shared" si="1"/>
+        <v>15.974440894568691</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18">
+        <v>10016</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="2"/>
+        <v>0.96347198376532917</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1.0877270000000001</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.147091</v>
+      </c>
+      <c r="G18" s="7">
+        <v>17.608975999999998</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.13161800000000001</v>
+      </c>
+      <c r="I18" s="7">
+        <v>7.6136999999999996E-2</v>
+      </c>
+      <c r="J18">
+        <v>46</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <v>50</v>
+      </c>
+      <c r="M18" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="9">
+        <f t="shared" si="1"/>
+        <v>15.974440894568691</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -18306,32 +18387,32 @@
         <v>6</v>
       </c>
       <c r="D19" s="7">
-        <f>((E19/$E$6)+(F19/$F$6))/2</f>
-        <v>0.9319142299464227</v>
-      </c>
-      <c r="E19">
-        <v>1.0458430000000001</v>
-      </c>
-      <c r="F19">
-        <v>0.143147</v>
-      </c>
-      <c r="G19">
-        <v>18.232894000000002</v>
-      </c>
-      <c r="H19">
-        <v>0.12853200000000001</v>
-      </c>
-      <c r="I19">
-        <v>7.5294E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.98043364874872685</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1.134981</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.145755</v>
+      </c>
+      <c r="G19" s="7">
+        <v>23.007358</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.13293199999999999</v>
+      </c>
+      <c r="I19" s="7">
+        <v>9.3198000000000003E-2</v>
       </c>
       <c r="J19">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K19">
         <v>100</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M19" t="s">
         <v>15</v>
@@ -18340,8 +18421,8 @@
         <v>20</v>
       </c>
       <c r="O19" s="9">
-        <f>(32*L19*K19)/B19</f>
-        <v>31.948881789137381</v>
+        <f t="shared" si="1"/>
+        <v>15.974440894568691</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
@@ -18355,32 +18436,32 @@
         <v>6</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" ref="D20:D21" si="4">((E20/$E$6)+(F20/$F$6))/2</f>
-        <v>0.94399180217518452</v>
-      </c>
-      <c r="E20">
-        <v>1.0575870000000001</v>
-      </c>
-      <c r="F20">
-        <v>0.145255</v>
-      </c>
-      <c r="G20">
-        <v>21.421385000000001</v>
-      </c>
-      <c r="H20">
-        <v>0.13070799999999999</v>
-      </c>
-      <c r="I20">
-        <v>7.9573000000000005E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.95208551643071027</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1.065555</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.14665400000000001</v>
+      </c>
+      <c r="G20" s="7">
+        <v>16.439907999999999</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.13361000000000001</v>
+      </c>
+      <c r="I20" s="7">
+        <v>7.8317999999999999E-2</v>
       </c>
       <c r="J20">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K20">
         <v>100</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M20" t="s">
         <v>15</v>
@@ -18389,8 +18470,8 @@
         <v>20</v>
       </c>
       <c r="O20" s="9">
-        <f t="shared" ref="O20:O21" si="5">(32*L20*K20)/B20</f>
-        <v>31.948881789137381</v>
+        <f t="shared" si="1"/>
+        <v>15.974440894568691</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
@@ -18404,32 +18485,32 @@
         <v>6</v>
       </c>
       <c r="D21" s="7">
-        <f t="shared" si="4"/>
-        <v>0.98080198038943323</v>
-      </c>
-      <c r="E21">
-        <v>1.1237999999999999</v>
-      </c>
-      <c r="F21">
-        <v>0.14743100000000001</v>
-      </c>
-      <c r="G21">
-        <v>17.777781000000001</v>
-      </c>
-      <c r="H21">
-        <v>0.13519</v>
-      </c>
-      <c r="I21">
-        <v>7.7076000000000006E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.0207660753670176</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1.1904699999999999</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.15052199999999999</v>
+      </c>
+      <c r="G21" s="7">
+        <v>20.067703999999999</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.134295</v>
+      </c>
+      <c r="I21" s="7">
+        <v>7.4996999999999994E-2</v>
       </c>
       <c r="J21">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K21">
         <v>100</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M21" t="s">
         <v>15</v>
@@ -18438,145 +18519,143 @@
         <v>20</v>
       </c>
       <c r="O21" s="9">
-        <f t="shared" si="5"/>
-        <v>31.948881789137381</v>
+        <f t="shared" si="1"/>
+        <v>15.974440894568691</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D22" s="36">
-        <f>AVERAGE(D19:D21)</f>
-        <v>0.95223600417034682</v>
-      </c>
-      <c r="E22" s="36">
-        <f t="shared" ref="E22:F22" si="6">AVERAGE(E19:E21)</f>
-        <v>1.0757433333333335</v>
-      </c>
-      <c r="F22" s="36">
-        <f t="shared" si="6"/>
-        <v>0.14527766666666667</v>
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22">
+        <v>10016</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="2"/>
+        <v>0.9349436572174975</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1.065569</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.14133200000000001</v>
+      </c>
+      <c r="G22" s="7">
+        <v>15.707335</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.12895599999999999</v>
+      </c>
+      <c r="I22" s="7">
+        <v>7.5886999999999996E-2</v>
+      </c>
+      <c r="J22">
+        <v>50</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+      <c r="L22">
+        <v>50</v>
+      </c>
+      <c r="M22" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="9">
+        <f t="shared" si="1"/>
+        <v>15.974440894568691</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-    </row>
-    <row r="24" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23">
+        <v>10016</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="2"/>
+        <v>0.92158508118834848</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1.044535</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.140124</v>
+      </c>
+      <c r="G23" s="7">
+        <v>17.864245</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.12895499999999999</v>
+      </c>
+      <c r="I23" s="7">
+        <v>7.9241000000000006E-2</v>
+      </c>
+      <c r="J23">
+        <v>51</v>
+      </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="9">
+        <f t="shared" si="1"/>
+        <v>15.974440894568691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D24" s="36">
+        <f>AVERAGE(D14:D23)</f>
+        <v>0.95743112983978629</v>
+      </c>
+      <c r="E24" s="36">
+        <f>AVERAGE(E14:E23)</f>
+        <v>1.0891997</v>
+      </c>
+      <c r="F24" s="36">
+        <f>AVERAGE(F14:F23)</f>
+        <v>0.14501049999999999</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="O24" s="9"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25">
-        <v>10016</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="7">
-        <f t="shared" ref="D25:D27" si="7">((E25/$E$6)+(F25/$F$6))/2</f>
-        <v>1.0627197140320823</v>
-      </c>
-      <c r="E25">
-        <v>1.1606609999999999</v>
-      </c>
-      <c r="F25">
-        <v>0.16770599999999999</v>
-      </c>
-      <c r="G25">
-        <v>19.854458000000001</v>
-      </c>
-      <c r="H25">
-        <v>0.14902799999999999</v>
-      </c>
-      <c r="I25">
-        <v>9.3433000000000002E-2</v>
-      </c>
-      <c r="J25">
-        <v>42</v>
-      </c>
-      <c r="K25">
-        <v>100</v>
-      </c>
-      <c r="L25">
-        <v>50</v>
-      </c>
-      <c r="M25" t="s">
-        <v>15</v>
-      </c>
-      <c r="N25" t="s">
-        <v>20</v>
-      </c>
-      <c r="O25" s="9">
-        <f>(32*L25*K25)/B25</f>
-        <v>15.974440894568691</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26">
-        <v>10016</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="7">
-        <f t="shared" si="7"/>
-        <v>1.0479630054520301</v>
-      </c>
-      <c r="E26">
-        <v>1.15351</v>
-      </c>
-      <c r="F26">
-        <v>0.16412499999999999</v>
-      </c>
-      <c r="G26">
-        <v>18.926577000000002</v>
-      </c>
-      <c r="H26">
-        <v>0.146811</v>
-      </c>
-      <c r="I26">
-        <v>8.9091000000000004E-2</v>
-      </c>
-      <c r="J26">
-        <v>43</v>
-      </c>
-      <c r="K26">
-        <v>100</v>
-      </c>
-      <c r="L26">
-        <v>50</v>
-      </c>
-      <c r="M26" t="s">
-        <v>15</v>
-      </c>
-      <c r="N26" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" s="9">
-        <f t="shared" ref="O26:O27" si="8">(32*L26*K26)/B26</f>
-        <v>15.974440894568691</v>
-      </c>
+      <c r="D25" s="36">
+        <f>MEDIAN(D14:D23)</f>
+        <v>0.95423218158988932</v>
+      </c>
+      <c r="E25" s="36">
+        <f>MEDIAN(E14:E23)</f>
+        <v>1.067196</v>
+      </c>
+      <c r="F25" s="36">
+        <f>MEDIAN(F14:F23)</f>
+        <v>0.14620450000000002</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="O25" s="9"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
@@ -18586,35 +18665,35 @@
         <v>10016</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" si="7"/>
-        <v>1.0572605325429403</v>
+        <f>((E27/$E$6)+(F27/$F$6))/2</f>
+        <v>0.9319142299464227</v>
       </c>
       <c r="E27">
-        <v>1.1547810000000001</v>
+        <v>1.0458430000000001</v>
       </c>
       <c r="F27">
-        <v>0.16683300000000001</v>
+        <v>0.143147</v>
       </c>
       <c r="G27">
-        <v>19.718022999999999</v>
+        <v>18.232894000000002</v>
       </c>
       <c r="H27">
-        <v>0.148535</v>
+        <v>0.12853200000000001</v>
       </c>
       <c r="I27">
-        <v>9.1805999999999999E-2</v>
+        <v>7.5294E-2</v>
       </c>
       <c r="J27">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K27">
         <v>100</v>
       </c>
       <c r="L27">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M27" t="s">
         <v>15</v>
@@ -18623,22 +18702,106 @@
         <v>20</v>
       </c>
       <c r="O27" s="9">
-        <f t="shared" si="8"/>
-        <v>15.974440894568691</v>
+        <f>(32*L27*K27)/B27</f>
+        <v>31.948881789137381</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D28" s="36">
-        <f>AVERAGE(D25:D27)</f>
-        <v>1.0559810840090176</v>
-      </c>
-      <c r="E28" s="36">
-        <f t="shared" ref="E28:F28" si="9">AVERAGE(E25:E27)</f>
-        <v>1.1563173333333332</v>
-      </c>
-      <c r="F28" s="36">
-        <f t="shared" si="9"/>
-        <v>0.16622133333333333</v>
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28">
+        <v>10016</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" ref="D28:D31" si="3">((E28/$E$6)+(F28/$F$6))/2</f>
+        <v>0.94399180217518452</v>
+      </c>
+      <c r="E28">
+        <v>1.0575870000000001</v>
+      </c>
+      <c r="F28">
+        <v>0.145255</v>
+      </c>
+      <c r="G28">
+        <v>21.421385000000001</v>
+      </c>
+      <c r="H28">
+        <v>0.13070799999999999</v>
+      </c>
+      <c r="I28">
+        <v>7.9573000000000005E-2</v>
+      </c>
+      <c r="J28">
+        <v>43</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28">
+        <v>100</v>
+      </c>
+      <c r="M28" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="9">
+        <f t="shared" ref="O28:O36" si="4">(32*L28*K28)/B28</f>
+        <v>31.948881789137381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <v>10016</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="3"/>
+        <v>0.98080198038943323</v>
+      </c>
+      <c r="E29">
+        <v>1.1237999999999999</v>
+      </c>
+      <c r="F29">
+        <v>0.14743100000000001</v>
+      </c>
+      <c r="G29">
+        <v>17.777781000000001</v>
+      </c>
+      <c r="H29">
+        <v>0.13519</v>
+      </c>
+      <c r="I29">
+        <v>7.7076000000000006E-2</v>
+      </c>
+      <c r="J29">
+        <v>44</v>
+      </c>
+      <c r="K29">
+        <v>100</v>
+      </c>
+      <c r="L29">
+        <v>100</v>
+      </c>
+      <c r="M29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="9">
+        <f t="shared" si="4"/>
+        <v>31.948881789137381</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
@@ -18649,29 +18812,29 @@
         <v>10016</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D30" s="7">
-        <f t="shared" ref="D30:D32" si="10">((E30/$E$6)+(F30/$F$6))/2</f>
-        <v>1.0109785696333864</v>
+        <f t="shared" si="3"/>
+        <v>0.93302191237766996</v>
       </c>
       <c r="E30">
-        <v>1.1159490000000001</v>
+        <v>1.052106</v>
       </c>
       <c r="F30">
-        <v>0.15789300000000001</v>
+        <v>0.14261599999999999</v>
       </c>
       <c r="G30">
-        <v>17.09544</v>
+        <v>16.102139999999999</v>
       </c>
       <c r="H30">
-        <v>0.14149500000000001</v>
+        <v>0.12948299999999999</v>
       </c>
       <c r="I30">
-        <v>7.9537999999999998E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="J30">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>100</v>
@@ -18686,7 +18849,7 @@
         <v>20</v>
       </c>
       <c r="O30" s="9">
-        <f>(32*L30*K30)/B30</f>
+        <f t="shared" si="4"/>
         <v>31.948881789137381</v>
       </c>
     </row>
@@ -18698,29 +18861,29 @@
         <v>10016</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D31" s="7">
-        <f t="shared" si="10"/>
-        <v>1.034951600653792</v>
+        <f t="shared" si="3"/>
+        <v>0.95957752188701539</v>
       </c>
       <c r="E31">
-        <v>1.1420680000000001</v>
+        <v>1.0656350000000001</v>
       </c>
       <c r="F31">
-        <v>0.161685</v>
+        <v>0.14896799999999999</v>
       </c>
       <c r="G31">
-        <v>17.331627000000001</v>
+        <v>21.697790999999999</v>
       </c>
       <c r="H31">
-        <v>0.14571500000000001</v>
+        <v>0.13231999999999999</v>
       </c>
       <c r="I31">
-        <v>7.7091000000000007E-2</v>
+        <v>7.6830999999999997E-2</v>
       </c>
       <c r="J31">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K31">
         <v>100</v>
@@ -18735,7 +18898,7 @@
         <v>20</v>
       </c>
       <c r="O31" s="9">
-        <f t="shared" ref="O31:O32" si="11">(32*L31*K31)/B31</f>
+        <f t="shared" si="4"/>
         <v>31.948881789137381</v>
       </c>
     </row>
@@ -18747,29 +18910,29 @@
         <v>10016</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D32" s="7">
-        <f t="shared" si="10"/>
-        <v>1.0363073168378722</v>
+        <f t="shared" ref="D32:D36" si="5">((E32/$E$6)+(F32/$F$6))/2</f>
+        <v>0.97376810198918795</v>
       </c>
       <c r="E32">
-        <v>1.160946</v>
+        <v>1.1438539999999999</v>
       </c>
       <c r="F32">
-        <v>0.159469</v>
+        <v>0.14244699999999999</v>
       </c>
       <c r="G32">
-        <v>18.747761000000001</v>
+        <v>16.354856000000002</v>
       </c>
       <c r="H32">
-        <v>0.142624</v>
+        <v>0.130386</v>
       </c>
       <c r="I32">
-        <v>7.9880000000000007E-2</v>
+        <v>7.5313000000000005E-2</v>
       </c>
       <c r="J32">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K32">
         <v>100</v>
@@ -18784,22 +18947,106 @@
         <v>20</v>
       </c>
       <c r="O32" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>31.948881789137381</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D33" s="36">
-        <f>AVERAGE(D30:D32)</f>
-        <v>1.0274124957083501</v>
-      </c>
-      <c r="E33" s="36">
-        <f t="shared" ref="E33:F33" si="12">AVERAGE(E30:E32)</f>
-        <v>1.1396543333333333</v>
-      </c>
-      <c r="F33" s="36">
-        <f t="shared" si="12"/>
-        <v>0.15968233333333334</v>
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33">
+        <v>10016</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="7">
+        <f t="shared" si="5"/>
+        <v>0.95137297641651875</v>
+      </c>
+      <c r="E33">
+        <v>1.093283</v>
+      </c>
+      <c r="F33">
+        <v>0.14255999999999999</v>
+      </c>
+      <c r="G33">
+        <v>21.569157000000001</v>
+      </c>
+      <c r="H33">
+        <v>0.13083700000000001</v>
+      </c>
+      <c r="I33">
+        <v>8.6296999999999999E-2</v>
+      </c>
+      <c r="J33">
+        <v>48</v>
+      </c>
+      <c r="K33">
+        <v>100</v>
+      </c>
+      <c r="L33">
+        <v>100</v>
+      </c>
+      <c r="M33" t="s">
+        <v>15</v>
+      </c>
+      <c r="N33" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="9">
+        <f t="shared" si="4"/>
+        <v>31.948881789137381</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34">
+        <v>10016</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" si="5"/>
+        <v>0.93372912927856189</v>
+      </c>
+      <c r="E34">
+        <v>1.0351269999999999</v>
+      </c>
+      <c r="F34">
+        <v>0.145207</v>
+      </c>
+      <c r="G34">
+        <v>18.399675999999999</v>
+      </c>
+      <c r="H34">
+        <v>0.12975400000000001</v>
+      </c>
+      <c r="I34">
+        <v>7.4263999999999997E-2</v>
+      </c>
+      <c r="J34">
+        <v>49</v>
+      </c>
+      <c r="K34">
+        <v>100</v>
+      </c>
+      <c r="L34">
+        <v>100</v>
+      </c>
+      <c r="M34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N34" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="9">
+        <f t="shared" si="4"/>
+        <v>31.948881789137381</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
@@ -18810,32 +19057,32 @@
         <v>10016</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D35" s="7">
-        <f t="shared" ref="D35:D37" si="13">((E35/$E$6)+(F35/$F$6))/2</f>
-        <v>1.0997695660152249</v>
+        <f t="shared" si="5"/>
+        <v>0.93935165968571055</v>
       </c>
       <c r="E35">
-        <v>1.293339</v>
+        <v>1.044692</v>
       </c>
       <c r="F35">
-        <v>0.16067300000000001</v>
+        <v>0.145616</v>
       </c>
       <c r="G35">
-        <v>21.499818999999999</v>
+        <v>18.796061000000002</v>
       </c>
       <c r="H35">
-        <v>0.154029</v>
+        <v>0.12973399999999999</v>
       </c>
       <c r="I35">
-        <v>8.4608000000000003E-2</v>
+        <v>7.3622999999999994E-2</v>
       </c>
       <c r="J35">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>313</v>
+        <v>100</v>
       </c>
       <c r="L35">
         <v>100</v>
@@ -18847,8 +19094,8 @@
         <v>20</v>
       </c>
       <c r="O35" s="9">
-        <f>(32*L35*K35)/B35</f>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>31.948881789137381</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -18859,32 +19106,32 @@
         <v>10016</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" si="13"/>
-        <v>1.0622170038723586</v>
+        <f t="shared" si="5"/>
+        <v>0.98320278851802378</v>
       </c>
       <c r="E36">
-        <v>1.223214</v>
+        <v>1.1290629999999999</v>
       </c>
       <c r="F36">
-        <v>0.15881300000000001</v>
+        <v>0.14744099999999999</v>
       </c>
       <c r="G36">
-        <v>21.255455000000001</v>
+        <v>20.884457999999999</v>
       </c>
       <c r="H36">
-        <v>0.149396</v>
+        <v>0.13273699999999999</v>
       </c>
       <c r="I36">
-        <v>8.9910000000000004E-2</v>
+        <v>7.9099000000000003E-2</v>
       </c>
       <c r="J36">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>313</v>
+        <v>100</v>
       </c>
       <c r="L36">
         <v>100</v>
@@ -18896,89 +19143,1104 @@
         <v>20</v>
       </c>
       <c r="O36" s="9">
-        <f t="shared" ref="O36:O37" si="14">(32*L36*K36)/B36</f>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>31.948881789137381</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37">
-        <v>10016</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="7">
-        <f t="shared" si="13"/>
-        <v>1.0868528944302951</v>
-      </c>
-      <c r="E37">
-        <v>1.2705090000000001</v>
-      </c>
-      <c r="F37">
-        <v>0.159853</v>
-      </c>
-      <c r="G37">
-        <v>21.748798000000001</v>
-      </c>
-      <c r="H37">
-        <v>0.15092900000000001</v>
-      </c>
-      <c r="I37">
-        <v>8.4783999999999998E-2</v>
-      </c>
-      <c r="J37">
-        <v>44</v>
-      </c>
-      <c r="K37">
-        <v>313</v>
-      </c>
-      <c r="L37">
-        <v>100</v>
-      </c>
-      <c r="M37" t="s">
-        <v>15</v>
-      </c>
-      <c r="N37" t="s">
-        <v>20</v>
-      </c>
-      <c r="O37" s="9">
-        <f t="shared" si="14"/>
-        <v>100</v>
-      </c>
+      <c r="D37" s="36">
+        <f>AVERAGE(D27:D36)</f>
+        <v>0.95307321026637282</v>
+      </c>
+      <c r="E37" s="36">
+        <f>AVERAGE(E27:E36)</f>
+        <v>1.079099</v>
+      </c>
+      <c r="F37" s="36">
+        <f>AVERAGE(F27:F36)</f>
+        <v>0.1450688</v>
+      </c>
+      <c r="O37" s="9"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D38" s="36">
-        <f>AVERAGE(D35:D37)</f>
+        <f>MEDIAN(D27:D36)</f>
+        <v>0.94768238929585169</v>
+      </c>
+      <c r="E38" s="36">
+        <f>MEDIAN(E27:E36)</f>
+        <v>1.0616110000000001</v>
+      </c>
+      <c r="F38" s="36">
+        <f>MEDIAN(F27:F36)</f>
+        <v>0.145231</v>
+      </c>
+      <c r="O38" s="9"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D39" s="7"/>
+      <c r="O39" s="9"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40">
+        <v>10016</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="7">
+        <f>((E40/$E$6)+(F40/$F$6))/2</f>
+        <v>0.92215861762329909</v>
+      </c>
+      <c r="E40">
+        <v>1.022011</v>
+      </c>
+      <c r="F40">
+        <v>0.14344799999999999</v>
+      </c>
+      <c r="G40">
+        <v>13.831625000000001</v>
+      </c>
+      <c r="H40">
+        <v>0.12933800000000001</v>
+      </c>
+      <c r="I40">
+        <v>7.1252999999999997E-2</v>
+      </c>
+      <c r="J40">
+        <v>42</v>
+      </c>
+      <c r="K40">
+        <v>200</v>
+      </c>
+      <c r="L40">
+        <v>100</v>
+      </c>
+      <c r="M40" t="s">
+        <v>15</v>
+      </c>
+      <c r="N40" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="9">
+        <f t="shared" ref="O40:O49" si="6">(32*L40*K40)/B40</f>
+        <v>63.897763578274763</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41">
+        <v>10016</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" ref="D41:D49" si="7">((E41/$E$6)+(F41/$F$6))/2</f>
+        <v>0.92205230485124079</v>
+      </c>
+      <c r="E41">
+        <v>1.018689</v>
+      </c>
+      <c r="F41">
+        <v>0.14387900000000001</v>
+      </c>
+      <c r="G41">
+        <v>14.700203999999999</v>
+      </c>
+      <c r="H41">
+        <v>0.129299</v>
+      </c>
+      <c r="I41">
+        <v>7.1757000000000001E-2</v>
+      </c>
+      <c r="J41">
+        <v>43</v>
+      </c>
+      <c r="K41">
+        <v>200</v>
+      </c>
+      <c r="L41">
+        <v>100</v>
+      </c>
+      <c r="M41" t="s">
+        <v>15</v>
+      </c>
+      <c r="N41" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="9">
+        <f t="shared" si="6"/>
+        <v>63.897763578274763</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42">
+        <v>10016</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="7">
+        <f t="shared" si="7"/>
+        <v>0.93403684993508218</v>
+      </c>
+      <c r="E42">
+        <v>1.044975</v>
+      </c>
+      <c r="F42">
+        <v>0.143927</v>
+      </c>
+      <c r="G42">
+        <v>13.530369</v>
+      </c>
+      <c r="H42">
+        <v>0.13109899999999999</v>
+      </c>
+      <c r="I42">
+        <v>7.1579000000000004E-2</v>
+      </c>
+      <c r="J42">
+        <v>44</v>
+      </c>
+      <c r="K42">
+        <v>200</v>
+      </c>
+      <c r="L42">
+        <v>100</v>
+      </c>
+      <c r="M42" t="s">
+        <v>15</v>
+      </c>
+      <c r="N42" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="9">
+        <f t="shared" si="6"/>
+        <v>63.897763578274763</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43">
+        <v>10016</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="7">
+        <f t="shared" si="7"/>
+        <v>0.93617339659463927</v>
+      </c>
+      <c r="E43">
+        <v>1.0518130000000001</v>
+      </c>
+      <c r="F43">
+        <v>0.14363500000000001</v>
+      </c>
+      <c r="G43">
+        <v>14.455102</v>
+      </c>
+      <c r="H43">
+        <v>0.13037799999999999</v>
+      </c>
+      <c r="I43">
+        <v>7.3134000000000005E-2</v>
+      </c>
+      <c r="J43">
+        <v>45</v>
+      </c>
+      <c r="K43">
+        <v>200</v>
+      </c>
+      <c r="L43">
+        <v>100</v>
+      </c>
+      <c r="M43" t="s">
+        <v>15</v>
+      </c>
+      <c r="N43" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="9">
+        <f t="shared" si="6"/>
+        <v>63.897763578274763</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44">
+        <v>10016</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="7">
+        <f t="shared" si="7"/>
+        <v>0.94344493895409243</v>
+      </c>
+      <c r="E44">
+        <v>1.0634669999999999</v>
+      </c>
+      <c r="F44">
+        <v>0.144264</v>
+      </c>
+      <c r="G44">
+        <v>14.228698</v>
+      </c>
+      <c r="H44">
+        <v>0.131052</v>
+      </c>
+      <c r="I44">
+        <v>7.1785000000000002E-2</v>
+      </c>
+      <c r="J44">
+        <v>46</v>
+      </c>
+      <c r="K44">
+        <v>200</v>
+      </c>
+      <c r="L44">
+        <v>100</v>
+      </c>
+      <c r="M44" t="s">
+        <v>15</v>
+      </c>
+      <c r="N44" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="9">
+        <f t="shared" si="6"/>
+        <v>63.897763578274763</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45">
+        <v>10016</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="7">
+        <f t="shared" si="7"/>
+        <v>0.93253799366255485</v>
+      </c>
+      <c r="E45">
+        <v>1.0314350000000001</v>
+      </c>
+      <c r="F45">
+        <v>0.14535300000000001</v>
+      </c>
+      <c r="G45">
+        <v>14.167994999999999</v>
+      </c>
+      <c r="H45">
+        <v>0.130881</v>
+      </c>
+      <c r="I45">
+        <v>7.1865999999999999E-2</v>
+      </c>
+      <c r="J45">
+        <v>47</v>
+      </c>
+      <c r="K45">
+        <v>200</v>
+      </c>
+      <c r="L45">
+        <v>100</v>
+      </c>
+      <c r="M45" t="s">
+        <v>15</v>
+      </c>
+      <c r="N45" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" s="9">
+        <f t="shared" si="6"/>
+        <v>63.897763578274763</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46">
+        <v>10016</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="7">
+        <f t="shared" si="7"/>
+        <v>0.94746879577374332</v>
+      </c>
+      <c r="E46">
+        <v>1.0441849999999999</v>
+      </c>
+      <c r="F46">
+        <v>0.148206</v>
+      </c>
+      <c r="G46">
+        <v>14.754908</v>
+      </c>
+      <c r="H46">
+        <v>0.13303100000000001</v>
+      </c>
+      <c r="I46">
+        <v>7.2192000000000006E-2</v>
+      </c>
+      <c r="J46">
+        <v>48</v>
+      </c>
+      <c r="K46">
+        <v>200</v>
+      </c>
+      <c r="L46">
+        <v>100</v>
+      </c>
+      <c r="M46" t="s">
+        <v>15</v>
+      </c>
+      <c r="N46" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="9">
+        <f t="shared" si="6"/>
+        <v>63.897763578274763</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47">
+        <v>10016</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="7"/>
+        <v>0.93083303180392463</v>
+      </c>
+      <c r="E47">
+        <v>1.02789</v>
+      </c>
+      <c r="F47">
+        <v>0.145319</v>
+      </c>
+      <c r="G47">
+        <v>14.283336</v>
+      </c>
+      <c r="H47">
+        <v>0.12939999999999999</v>
+      </c>
+      <c r="I47">
+        <v>7.0682999999999996E-2</v>
+      </c>
+      <c r="J47">
+        <v>49</v>
+      </c>
+      <c r="K47">
+        <v>200</v>
+      </c>
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="M47" t="s">
+        <v>15</v>
+      </c>
+      <c r="N47" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="9">
+        <f t="shared" si="6"/>
+        <v>63.897763578274763</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>10016</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="7">
+        <f t="shared" si="7"/>
+        <v>0.93836305484947014</v>
+      </c>
+      <c r="E48">
+        <v>1.0616399999999999</v>
+      </c>
+      <c r="F48">
+        <v>0.14294200000000001</v>
+      </c>
+      <c r="G48">
+        <v>13.593717</v>
+      </c>
+      <c r="H48">
+        <v>0.128251</v>
+      </c>
+      <c r="I48">
+        <v>7.0037000000000002E-2</v>
+      </c>
+      <c r="J48">
+        <v>50</v>
+      </c>
+      <c r="K48">
+        <v>200</v>
+      </c>
+      <c r="L48">
+        <v>100</v>
+      </c>
+      <c r="M48" t="s">
+        <v>15</v>
+      </c>
+      <c r="N48" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="9">
+        <f t="shared" si="6"/>
+        <v>63.897763578274763</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>10016</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="7">
+        <f t="shared" si="7"/>
+        <v>0.9386868912772045</v>
+      </c>
+      <c r="E49">
+        <v>1.044611</v>
+      </c>
+      <c r="F49">
+        <v>0.14542099999999999</v>
+      </c>
+      <c r="G49">
+        <v>14.364846</v>
+      </c>
+      <c r="H49">
+        <v>0.12951599999999999</v>
+      </c>
+      <c r="I49">
+        <v>7.1148000000000003E-2</v>
+      </c>
+      <c r="J49">
+        <v>51</v>
+      </c>
+      <c r="K49">
+        <v>200</v>
+      </c>
+      <c r="L49">
+        <v>100</v>
+      </c>
+      <c r="M49" t="s">
+        <v>15</v>
+      </c>
+      <c r="N49" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="9">
+        <f t="shared" si="6"/>
+        <v>63.897763578274763</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D50" s="36">
+        <f>AVERAGE(D40:D49)</f>
+        <v>0.93457558753252512</v>
+      </c>
+      <c r="E50" s="36">
+        <f>AVERAGE(E40:E49)</f>
+        <v>1.0410716</v>
+      </c>
+      <c r="F50" s="36">
+        <f>AVERAGE(F40:F49)</f>
+        <v>0.1446394</v>
+      </c>
+      <c r="O50" s="9"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D51" s="36">
+        <f>MEDIAN(D40:D49)</f>
+        <v>0.93510512326486073</v>
+      </c>
+      <c r="E51" s="36">
+        <f>MEDIAN(E40:E49)</f>
+        <v>1.0443979999999999</v>
+      </c>
+      <c r="F51" s="36">
+        <f>MEDIAN(F40:F49)</f>
+        <v>0.14409549999999999</v>
+      </c>
+      <c r="O51" s="9"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D52" s="7"/>
+      <c r="O52" s="9"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D53" s="7"/>
+      <c r="O53" s="9"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D54" s="7"/>
+      <c r="O54" s="9"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D55" s="7"/>
+      <c r="O55" s="9"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+    </row>
+    <row r="57" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A57" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="50"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>10016</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="7">
+        <f t="shared" ref="D58:D60" si="8">((E58/$E$6)+(F58/$F$6))/2</f>
+        <v>1.0627197140320823</v>
+      </c>
+      <c r="E58">
+        <v>1.1606609999999999</v>
+      </c>
+      <c r="F58">
+        <v>0.16770599999999999</v>
+      </c>
+      <c r="G58">
+        <v>19.854458000000001</v>
+      </c>
+      <c r="H58">
+        <v>0.14902799999999999</v>
+      </c>
+      <c r="I58">
+        <v>9.3433000000000002E-2</v>
+      </c>
+      <c r="J58">
+        <v>42</v>
+      </c>
+      <c r="K58">
+        <v>100</v>
+      </c>
+      <c r="L58">
+        <v>50</v>
+      </c>
+      <c r="M58" t="s">
+        <v>15</v>
+      </c>
+      <c r="N58" t="s">
+        <v>20</v>
+      </c>
+      <c r="O58" s="9">
+        <f>(32*L58*K58)/B58</f>
+        <v>15.974440894568691</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>10016</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="7">
+        <f t="shared" si="8"/>
+        <v>1.0479630054520301</v>
+      </c>
+      <c r="E59">
+        <v>1.15351</v>
+      </c>
+      <c r="F59">
+        <v>0.16412499999999999</v>
+      </c>
+      <c r="G59">
+        <v>18.926577000000002</v>
+      </c>
+      <c r="H59">
+        <v>0.146811</v>
+      </c>
+      <c r="I59">
+        <v>8.9091000000000004E-2</v>
+      </c>
+      <c r="J59">
+        <v>43</v>
+      </c>
+      <c r="K59">
+        <v>100</v>
+      </c>
+      <c r="L59">
+        <v>50</v>
+      </c>
+      <c r="M59" t="s">
+        <v>15</v>
+      </c>
+      <c r="N59" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" s="9">
+        <f t="shared" ref="O59:O60" si="9">(32*L59*K59)/B59</f>
+        <v>15.974440894568691</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>10016</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="7">
+        <f t="shared" si="8"/>
+        <v>1.0572605325429403</v>
+      </c>
+      <c r="E60">
+        <v>1.1547810000000001</v>
+      </c>
+      <c r="F60">
+        <v>0.16683300000000001</v>
+      </c>
+      <c r="G60">
+        <v>19.718022999999999</v>
+      </c>
+      <c r="H60">
+        <v>0.148535</v>
+      </c>
+      <c r="I60">
+        <v>9.1805999999999999E-2</v>
+      </c>
+      <c r="J60">
+        <v>44</v>
+      </c>
+      <c r="K60">
+        <v>100</v>
+      </c>
+      <c r="L60">
+        <v>50</v>
+      </c>
+      <c r="M60" t="s">
+        <v>15</v>
+      </c>
+      <c r="N60" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" s="9">
+        <f t="shared" si="9"/>
+        <v>15.974440894568691</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D61" s="36">
+        <f>AVERAGE(D58:D60)</f>
+        <v>1.0559810840090176</v>
+      </c>
+      <c r="E61" s="36">
+        <f t="shared" ref="E61:F61" si="10">AVERAGE(E58:E60)</f>
+        <v>1.1563173333333332</v>
+      </c>
+      <c r="F61" s="36">
+        <f t="shared" si="10"/>
+        <v>0.16622133333333333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63">
+        <v>10016</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="7">
+        <f t="shared" ref="D63:D65" si="11">((E63/$E$6)+(F63/$F$6))/2</f>
+        <v>1.0109785696333864</v>
+      </c>
+      <c r="E63">
+        <v>1.1159490000000001</v>
+      </c>
+      <c r="F63">
+        <v>0.15789300000000001</v>
+      </c>
+      <c r="G63">
+        <v>17.09544</v>
+      </c>
+      <c r="H63">
+        <v>0.14149500000000001</v>
+      </c>
+      <c r="I63">
+        <v>7.9537999999999998E-2</v>
+      </c>
+      <c r="J63">
+        <v>42</v>
+      </c>
+      <c r="K63">
+        <v>100</v>
+      </c>
+      <c r="L63">
+        <v>100</v>
+      </c>
+      <c r="M63" t="s">
+        <v>15</v>
+      </c>
+      <c r="N63" t="s">
+        <v>20</v>
+      </c>
+      <c r="O63" s="9">
+        <f>(32*L63*K63)/B63</f>
+        <v>31.948881789137381</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64">
+        <v>10016</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="7">
+        <f t="shared" si="11"/>
+        <v>1.034951600653792</v>
+      </c>
+      <c r="E64">
+        <v>1.1420680000000001</v>
+      </c>
+      <c r="F64">
+        <v>0.161685</v>
+      </c>
+      <c r="G64">
+        <v>17.331627000000001</v>
+      </c>
+      <c r="H64">
+        <v>0.14571500000000001</v>
+      </c>
+      <c r="I64">
+        <v>7.7091000000000007E-2</v>
+      </c>
+      <c r="J64">
+        <v>43</v>
+      </c>
+      <c r="K64">
+        <v>100</v>
+      </c>
+      <c r="L64">
+        <v>100</v>
+      </c>
+      <c r="M64" t="s">
+        <v>15</v>
+      </c>
+      <c r="N64" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64" s="9">
+        <f t="shared" ref="O64:O65" si="12">(32*L64*K64)/B64</f>
+        <v>31.948881789137381</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65">
+        <v>10016</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="7">
+        <f t="shared" si="11"/>
+        <v>1.0363073168378722</v>
+      </c>
+      <c r="E65">
+        <v>1.160946</v>
+      </c>
+      <c r="F65">
+        <v>0.159469</v>
+      </c>
+      <c r="G65">
+        <v>18.747761000000001</v>
+      </c>
+      <c r="H65">
+        <v>0.142624</v>
+      </c>
+      <c r="I65">
+        <v>7.9880000000000007E-2</v>
+      </c>
+      <c r="J65">
+        <v>44</v>
+      </c>
+      <c r="K65">
+        <v>100</v>
+      </c>
+      <c r="L65">
+        <v>100</v>
+      </c>
+      <c r="M65" t="s">
+        <v>15</v>
+      </c>
+      <c r="N65" t="s">
+        <v>20</v>
+      </c>
+      <c r="O65" s="9">
+        <f t="shared" si="12"/>
+        <v>31.948881789137381</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D66" s="36">
+        <f>AVERAGE(D63:D65)</f>
+        <v>1.0274124957083501</v>
+      </c>
+      <c r="E66" s="36">
+        <f t="shared" ref="E66:F66" si="13">AVERAGE(E63:E65)</f>
+        <v>1.1396543333333333</v>
+      </c>
+      <c r="F66" s="36">
+        <f t="shared" si="13"/>
+        <v>0.15968233333333334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68">
+        <v>10016</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="7">
+        <f t="shared" ref="D68:D70" si="14">((E68/$E$6)+(F68/$F$6))/2</f>
+        <v>1.0997695660152249</v>
+      </c>
+      <c r="E68">
+        <v>1.293339</v>
+      </c>
+      <c r="F68">
+        <v>0.16067300000000001</v>
+      </c>
+      <c r="G68">
+        <v>21.499818999999999</v>
+      </c>
+      <c r="H68">
+        <v>0.154029</v>
+      </c>
+      <c r="I68">
+        <v>8.4608000000000003E-2</v>
+      </c>
+      <c r="J68">
+        <v>42</v>
+      </c>
+      <c r="K68">
+        <v>313</v>
+      </c>
+      <c r="L68">
+        <v>100</v>
+      </c>
+      <c r="M68" t="s">
+        <v>15</v>
+      </c>
+      <c r="N68" t="s">
+        <v>20</v>
+      </c>
+      <c r="O68" s="9">
+        <f>(32*L68*K68)/B68</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69">
+        <v>10016</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="7">
+        <f t="shared" si="14"/>
+        <v>1.0622170038723586</v>
+      </c>
+      <c r="E69">
+        <v>1.223214</v>
+      </c>
+      <c r="F69">
+        <v>0.15881300000000001</v>
+      </c>
+      <c r="G69">
+        <v>21.255455000000001</v>
+      </c>
+      <c r="H69">
+        <v>0.149396</v>
+      </c>
+      <c r="I69">
+        <v>8.9910000000000004E-2</v>
+      </c>
+      <c r="J69">
+        <v>43</v>
+      </c>
+      <c r="K69">
+        <v>313</v>
+      </c>
+      <c r="L69">
+        <v>100</v>
+      </c>
+      <c r="M69" t="s">
+        <v>15</v>
+      </c>
+      <c r="N69" t="s">
+        <v>20</v>
+      </c>
+      <c r="O69" s="9">
+        <f t="shared" ref="O69:O70" si="15">(32*L69*K69)/B69</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70">
+        <v>10016</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="7">
+        <f t="shared" si="14"/>
+        <v>1.0868528944302951</v>
+      </c>
+      <c r="E70">
+        <v>1.2705090000000001</v>
+      </c>
+      <c r="F70">
+        <v>0.159853</v>
+      </c>
+      <c r="G70">
+        <v>21.748798000000001</v>
+      </c>
+      <c r="H70">
+        <v>0.15092900000000001</v>
+      </c>
+      <c r="I70">
+        <v>8.4783999999999998E-2</v>
+      </c>
+      <c r="J70">
+        <v>44</v>
+      </c>
+      <c r="K70">
+        <v>313</v>
+      </c>
+      <c r="L70">
+        <v>100</v>
+      </c>
+      <c r="M70" t="s">
+        <v>15</v>
+      </c>
+      <c r="N70" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="9">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D71" s="36">
+        <f>AVERAGE(D68:D70)</f>
         <v>1.0829464881059596</v>
       </c>
-      <c r="E38" s="36">
-        <f t="shared" ref="E38:F38" si="15">AVERAGE(E35:E37)</f>
+      <c r="E71" s="36">
+        <f t="shared" ref="E71:F71" si="16">AVERAGE(E68:E70)</f>
         <v>1.262354</v>
       </c>
-      <c r="F38" s="36">
-        <f t="shared" si="15"/>
+      <c r="F71" s="36">
+        <f t="shared" si="16"/>
         <v>0.15977966666666668</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A13:O13"/>
-    <mergeCell ref="A24:O24"/>
+    <mergeCell ref="A57:O57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E4179B-291C-43EA-ACC3-6101CBE12D43}">
-  <dimension ref="A1:P129"/>
+  <dimension ref="A1:P132"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C132" sqref="C132"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19232,197 +20494,150 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="50" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>56</v>
       </c>
-      <c r="B16">
+      <c r="B19">
         <v>10987</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C19" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="7">
-        <f t="shared" ref="D16:D18" si="1">((E16/$D$8)+(E16/$E$8))/2</f>
+      <c r="D19" s="7">
+        <f t="shared" ref="D19:D21" si="1">((E19/$D$8)+(E19/$E$8))/2</f>
         <v>1.0476125645013723</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E19" s="7">
         <v>1.0941620000000001</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F19" s="7">
         <v>0.14987200000000001</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G19" s="7">
         <v>23.473488</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H19" s="7">
         <v>0.13944100000000001</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I19" s="7">
         <v>0.11609</v>
       </c>
-      <c r="J16">
+      <c r="J19">
         <v>42</v>
       </c>
-      <c r="K16">
-        <v>100</v>
-      </c>
-      <c r="L16">
+      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="L19">
         <v>50</v>
       </c>
-      <c r="M16" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="M19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="9">
-        <f>(32*L16*K16)/B16</f>
+      <c r="O19" s="9">
+        <f>(32*L19*K19)/B19</f>
         <v>14.562664967689088</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="B17">
+      <c r="B20">
         <v>10987</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C20" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D20" s="7">
         <f t="shared" si="1"/>
         <v>1.0672279766697164</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E20" s="7">
         <v>1.114649</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F20" s="7">
         <v>0.15004700000000001</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G20" s="7">
         <v>21.761671</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H20" s="7">
         <v>0.13942399999999999</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I20" s="7">
         <v>0.113512</v>
       </c>
-      <c r="J17">
+      <c r="J20">
         <v>43</v>
       </c>
-      <c r="K17">
-        <v>100</v>
-      </c>
-      <c r="L17">
+      <c r="K20">
+        <v>100</v>
+      </c>
+      <c r="L20">
         <v>50</v>
       </c>
-      <c r="M17" t="s">
-        <v>15</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="M20" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" t="s">
         <v>20</v>
       </c>
-      <c r="O17" s="9">
-        <f t="shared" ref="O17:O23" si="2">(32*L17*K17)/B17</f>
+      <c r="O20" s="9">
+        <f t="shared" ref="O20:O26" si="2">(32*L20*K20)/B20</f>
         <v>14.562664967689088</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18">
-        <v>10987</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="7">
-        <f t="shared" si="1"/>
-        <v>1.0509674922232388</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1.097666</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0.14991299999999999</v>
-      </c>
-      <c r="G18" s="7">
-        <v>23.809612999999999</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0.13972000000000001</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0.114991</v>
-      </c>
-      <c r="J18">
-        <v>44</v>
-      </c>
-      <c r="K18">
-        <v>100</v>
-      </c>
-      <c r="L18">
-        <v>50</v>
-      </c>
-      <c r="M18" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="9">
-        <f t="shared" si="2"/>
-        <v>14.562664967689088</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D19" s="36">
-        <f>AVERAGE(D16:D18)</f>
-        <v>1.0552693444647758</v>
-      </c>
-      <c r="E19" s="36">
-        <f t="shared" ref="E19:F19" si="3">AVERAGE(E16:E18)</f>
-        <v>1.1021590000000001</v>
-      </c>
-      <c r="F19" s="36">
-        <f t="shared" si="3"/>
-        <v>0.14994399999999999</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="O19" s="9"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D20" s="7"/>
-      <c r="O20" s="9"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
@@ -19435,32 +20650,32 @@
         <v>6</v>
       </c>
       <c r="D21" s="7">
-        <f>((E21/$D$8)+(E21/$E$8))/2</f>
-        <v>1.0517009039341263</v>
+        <f t="shared" si="1"/>
+        <v>1.0509674922232388</v>
       </c>
       <c r="E21" s="7">
-        <v>1.0984320000000001</v>
+        <v>1.097666</v>
       </c>
       <c r="F21" s="7">
-        <v>0.14627200000000001</v>
+        <v>0.14991299999999999</v>
       </c>
       <c r="G21" s="7">
-        <v>18.877072999999999</v>
+        <v>23.809612999999999</v>
       </c>
       <c r="H21" s="7">
-        <v>0.13535</v>
+        <v>0.13972000000000001</v>
       </c>
       <c r="I21" s="7">
-        <v>9.7134999999999999E-2</v>
+        <v>0.114991</v>
       </c>
       <c r="J21">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K21">
         <v>100</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M21" t="s">
         <v>15</v>
@@ -19470,125 +20685,128 @@
       </c>
       <c r="O21" s="9">
         <f t="shared" si="2"/>
-        <v>29.125329935378176</v>
+        <v>14.562664967689088</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="D22" s="36">
+        <f>AVERAGE(D19:D21)</f>
+        <v>1.0552693444647758</v>
+      </c>
+      <c r="E22" s="36">
+        <f t="shared" ref="E22:F22" si="3">AVERAGE(E19:E21)</f>
+        <v>1.1021590000000001</v>
+      </c>
+      <c r="F22" s="36">
+        <f t="shared" si="3"/>
+        <v>0.14994399999999999</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D23" s="7"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>56</v>
       </c>
-      <c r="B22">
+      <c r="B24">
         <v>10987</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="7">
-        <f t="shared" ref="D22:D23" si="4">((E22/$D$8)+(E22/$E$8))/2</f>
-        <v>1.1476045384263496</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1.1985969999999999</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0.15098400000000001</v>
-      </c>
-      <c r="G22" s="7">
-        <v>18.510760000000001</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0.141536</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0.10037500000000001</v>
-      </c>
-      <c r="J22">
-        <v>43</v>
-      </c>
-      <c r="K22">
-        <v>100</v>
-      </c>
-      <c r="L22">
-        <v>100</v>
-      </c>
-      <c r="M22" t="s">
-        <v>15</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="D24" s="7">
+        <f>((E24/$D$8)+(E24/$E$8))/2</f>
+        <v>1.0517009039341263</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1.0984320000000001</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.14627200000000001</v>
+      </c>
+      <c r="G24" s="7">
+        <v>18.877072999999999</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.13535</v>
+      </c>
+      <c r="I24" s="7">
+        <v>9.7134999999999999E-2</v>
+      </c>
+      <c r="J24">
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <v>100</v>
+      </c>
+      <c r="L24">
+        <v>100</v>
+      </c>
+      <c r="M24" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O24" s="9">
         <f t="shared" si="2"/>
         <v>29.125329935378176</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="B23">
+      <c r="B25">
         <v>10987</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="7">
-        <f t="shared" si="4"/>
-        <v>1.1114136386093323</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1.160798</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0.14939</v>
-      </c>
-      <c r="G23" s="7">
-        <v>17.372661000000001</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0.139407</v>
-      </c>
-      <c r="I23" s="7">
-        <v>9.7533999999999996E-2</v>
-      </c>
-      <c r="J23">
-        <v>44</v>
-      </c>
-      <c r="K23">
-        <v>100</v>
-      </c>
-      <c r="L23">
-        <v>100</v>
-      </c>
-      <c r="M23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="D25" s="7">
+        <f t="shared" ref="D25:D26" si="4">((E25/$D$8)+(E25/$E$8))/2</f>
+        <v>1.1476045384263496</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1.1985969999999999</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.15098400000000001</v>
+      </c>
+      <c r="G25" s="7">
+        <v>18.510760000000001</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.141536</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0.10037500000000001</v>
+      </c>
+      <c r="J25">
+        <v>43</v>
+      </c>
+      <c r="K25">
+        <v>100</v>
+      </c>
+      <c r="L25">
+        <v>100</v>
+      </c>
+      <c r="M25" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O25" s="9">
         <f t="shared" si="2"/>
         <v>29.125329935378176</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D24" s="36">
-        <f t="shared" ref="D24:F24" si="5">AVERAGE(D21:D23)</f>
-        <v>1.1035730269899362</v>
-      </c>
-      <c r="E24" s="36">
-        <f t="shared" si="5"/>
-        <v>1.152609</v>
-      </c>
-      <c r="F24" s="36">
-        <f t="shared" si="5"/>
-        <v>0.14888199999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
@@ -19601,32 +20819,32 @@
         <v>6</v>
       </c>
       <c r="D26" s="7">
-        <f t="shared" ref="D26:D35" si="6">((E26/$D$8)+(E26/$E$8))/2</f>
-        <v>1.0356060594693506</v>
-      </c>
-      <c r="E26" s="38">
-        <v>1.0816220000000001</v>
-      </c>
-      <c r="F26" s="38">
-        <v>0.149282</v>
+        <f t="shared" si="4"/>
+        <v>1.1114136386093323</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1.160798</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.14939</v>
       </c>
       <c r="G26" s="7">
-        <v>15.423351</v>
+        <v>17.372661000000001</v>
       </c>
       <c r="H26" s="7">
-        <v>0.137629</v>
+        <v>0.139407</v>
       </c>
       <c r="I26" s="7">
-        <v>9.6448000000000006E-2</v>
+        <v>9.7533999999999996E-2</v>
       </c>
       <c r="J26">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K26">
         <v>100</v>
       </c>
       <c r="L26">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M26" t="s">
         <v>15</v>
@@ -19635,107 +20853,28 @@
         <v>20</v>
       </c>
       <c r="O26" s="9">
-        <f t="shared" ref="O26:O35" si="7">(32*L26*K26)/B26</f>
-        <v>14.562664967689088</v>
+        <f t="shared" si="2"/>
+        <v>29.125329935378176</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27">
-        <v>10987</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="7">
-        <f t="shared" si="6"/>
-        <v>1.1502002031107046</v>
-      </c>
-      <c r="E27" s="38">
-        <v>1.201308</v>
-      </c>
-      <c r="F27" s="38">
-        <v>0.155505</v>
-      </c>
-      <c r="G27" s="7">
-        <v>21.054427</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0.145929</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0.113081</v>
-      </c>
-      <c r="J27">
-        <v>43</v>
-      </c>
-      <c r="K27">
-        <v>100</v>
-      </c>
-      <c r="L27">
-        <v>50</v>
-      </c>
-      <c r="M27" t="s">
-        <v>15</v>
-      </c>
-      <c r="N27" t="s">
-        <v>20</v>
-      </c>
-      <c r="O27" s="9">
-        <f t="shared" si="7"/>
-        <v>14.562664967689088</v>
+      <c r="D27" s="36">
+        <f t="shared" ref="D27:F27" si="5">AVERAGE(D24:D26)</f>
+        <v>1.1035730269899362</v>
+      </c>
+      <c r="E27" s="36">
+        <f t="shared" si="5"/>
+        <v>1.152609</v>
+      </c>
+      <c r="F27" s="36">
+        <f t="shared" si="5"/>
+        <v>0.14888199999999999</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28">
-        <v>10987</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="7">
-        <f t="shared" si="6"/>
-        <v>1.0666372259835315</v>
-      </c>
-      <c r="E28" s="38">
-        <v>1.1140319999999999</v>
-      </c>
-      <c r="F28" s="38">
-        <v>0.15287300000000001</v>
-      </c>
-      <c r="G28" s="7">
-        <v>25.22814</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0.14207</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0.10963299999999999</v>
-      </c>
-      <c r="J28">
-        <v>44</v>
-      </c>
-      <c r="K28">
-        <v>100</v>
-      </c>
-      <c r="L28">
-        <v>50</v>
-      </c>
-      <c r="M28" t="s">
-        <v>15</v>
-      </c>
-      <c r="N28" t="s">
-        <v>20</v>
-      </c>
-      <c r="O28" s="9">
-        <f t="shared" si="7"/>
-        <v>14.562664967689088</v>
-      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
@@ -19748,26 +20887,26 @@
         <v>6</v>
       </c>
       <c r="D29" s="7">
-        <f t="shared" si="6"/>
-        <v>1.0584232063129004</v>
+        <f t="shared" ref="D29:D38" si="6">((E29/$D$8)+(E29/$E$8))/2</f>
+        <v>1.0356060594693506</v>
       </c>
       <c r="E29" s="38">
-        <v>1.105453</v>
+        <v>1.0816220000000001</v>
       </c>
       <c r="F29" s="38">
-        <v>0.152027</v>
+        <v>0.149282</v>
       </c>
       <c r="G29" s="7">
-        <v>22.626515000000001</v>
+        <v>15.423351</v>
       </c>
       <c r="H29" s="7">
-        <v>0.140067</v>
+        <v>0.137629</v>
       </c>
       <c r="I29" s="7">
-        <v>0.10957799999999999</v>
+        <v>9.6448000000000006E-2</v>
       </c>
       <c r="J29">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K29">
         <v>100</v>
@@ -19782,7 +20921,7 @@
         <v>20</v>
       </c>
       <c r="O29" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="O29:O38" si="7">(32*L29*K29)/B29</f>
         <v>14.562664967689088</v>
       </c>
     </row>
@@ -19798,25 +20937,25 @@
       </c>
       <c r="D30" s="7">
         <f t="shared" si="6"/>
-        <v>1.0324253888380603</v>
+        <v>1.1502002031107046</v>
       </c>
       <c r="E30" s="38">
-        <v>1.0783</v>
+        <v>1.201308</v>
       </c>
       <c r="F30" s="38">
-        <v>0.14841499999999999</v>
+        <v>0.155505</v>
       </c>
       <c r="G30" s="7">
-        <v>22.991723</v>
+        <v>21.054427</v>
       </c>
       <c r="H30" s="7">
-        <v>0.13830200000000001</v>
+        <v>0.145929</v>
       </c>
       <c r="I30" s="7">
-        <v>0.113119</v>
+        <v>0.113081</v>
       </c>
       <c r="J30">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K30">
         <v>100</v>
@@ -19847,25 +20986,25 @@
       </c>
       <c r="D31" s="7">
         <f t="shared" si="6"/>
-        <v>1.0300154707227813</v>
+        <v>1.0666372259835315</v>
       </c>
       <c r="E31" s="38">
-        <v>1.0757829999999999</v>
+        <v>1.1140319999999999</v>
       </c>
       <c r="F31" s="38">
-        <v>0.149925</v>
+        <v>0.15287300000000001</v>
       </c>
       <c r="G31" s="7">
-        <v>22.885131999999999</v>
+        <v>25.22814</v>
       </c>
       <c r="H31" s="7">
-        <v>0.13833200000000001</v>
+        <v>0.14207</v>
       </c>
       <c r="I31" s="7">
-        <v>0.110281</v>
+        <v>0.10963299999999999</v>
       </c>
       <c r="J31">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K31">
         <v>100</v>
@@ -19896,25 +21035,25 @@
       </c>
       <c r="D32" s="7">
         <f t="shared" si="6"/>
-        <v>1.044515192589204</v>
+        <v>1.0584232063129004</v>
       </c>
       <c r="E32" s="38">
-        <v>1.090927</v>
+        <v>1.105453</v>
       </c>
       <c r="F32" s="38">
-        <v>0.14879200000000001</v>
+        <v>0.152027</v>
       </c>
       <c r="G32" s="7">
-        <v>25.431231</v>
+        <v>22.626515000000001</v>
       </c>
       <c r="H32" s="7">
-        <v>0.13894500000000001</v>
+        <v>0.140067</v>
       </c>
       <c r="I32" s="7">
-        <v>0.118849</v>
+        <v>0.10957799999999999</v>
       </c>
       <c r="J32">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K32">
         <v>100</v>
@@ -19945,25 +21084,25 @@
       </c>
       <c r="D33" s="7">
         <f t="shared" si="6"/>
-        <v>1.1769630283623056</v>
+        <v>1.0324253888380603</v>
       </c>
       <c r="E33" s="38">
-        <v>1.22926</v>
+        <v>1.0783</v>
       </c>
       <c r="F33" s="38">
-        <v>0.155366</v>
+        <v>0.14841499999999999</v>
       </c>
       <c r="G33" s="7">
-        <v>25.751211999999999</v>
+        <v>22.991723</v>
       </c>
       <c r="H33" s="7">
-        <v>0.146255</v>
+        <v>0.13830200000000001</v>
       </c>
       <c r="I33" s="7">
-        <v>0.12722600000000001</v>
+        <v>0.113119</v>
       </c>
       <c r="J33">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K33">
         <v>100</v>
@@ -19994,25 +21133,25 @@
       </c>
       <c r="D34" s="7">
         <f t="shared" si="6"/>
-        <v>1.0826439844464775</v>
+        <v>1.0300154707227813</v>
       </c>
       <c r="E34" s="38">
-        <v>1.1307499999999999</v>
+        <v>1.0757829999999999</v>
       </c>
       <c r="F34" s="38">
-        <v>0.148673</v>
+        <v>0.149925</v>
       </c>
       <c r="G34" s="7">
-        <v>19.405784000000001</v>
+        <v>22.885131999999999</v>
       </c>
       <c r="H34" s="7">
-        <v>0.13856399999999999</v>
+        <v>0.13833200000000001</v>
       </c>
       <c r="I34" s="7">
-        <v>0.105222</v>
+        <v>0.110281</v>
       </c>
       <c r="J34">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K34">
         <v>100</v>
@@ -20043,25 +21182,25 @@
       </c>
       <c r="D35" s="7">
         <f t="shared" si="6"/>
-        <v>1.3151441139066788</v>
+        <v>1.044515192589204</v>
       </c>
       <c r="E35" s="38">
-        <v>1.3735809999999999</v>
+        <v>1.090927</v>
       </c>
       <c r="F35" s="38">
-        <v>0.162053</v>
+        <v>0.14879200000000001</v>
       </c>
       <c r="G35" s="7">
-        <v>24.155819999999999</v>
+        <v>25.431231</v>
       </c>
       <c r="H35" s="7">
-        <v>0.15165300000000001</v>
+        <v>0.13894500000000001</v>
       </c>
       <c r="I35" s="7">
-        <v>0.120681</v>
+        <v>0.118849</v>
       </c>
       <c r="J35">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K35">
         <v>100</v>
@@ -20081,187 +21220,184 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D36" s="36">
-        <f>AVERAGE(D26:D35)</f>
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36">
+        <v>10987</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" si="6"/>
+        <v>1.1769630283623056</v>
+      </c>
+      <c r="E36" s="38">
+        <v>1.22926</v>
+      </c>
+      <c r="F36" s="38">
+        <v>0.155366</v>
+      </c>
+      <c r="G36" s="7">
+        <v>25.751211999999999</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.146255</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0.12722600000000001</v>
+      </c>
+      <c r="J36">
+        <v>49</v>
+      </c>
+      <c r="K36">
+        <v>100</v>
+      </c>
+      <c r="L36">
+        <v>50</v>
+      </c>
+      <c r="M36" t="s">
+        <v>15</v>
+      </c>
+      <c r="N36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="9">
+        <f t="shared" si="7"/>
+        <v>14.562664967689088</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37">
+        <v>10987</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="7">
+        <f t="shared" si="6"/>
+        <v>1.0826439844464775</v>
+      </c>
+      <c r="E37" s="38">
+        <v>1.1307499999999999</v>
+      </c>
+      <c r="F37" s="38">
+        <v>0.148673</v>
+      </c>
+      <c r="G37" s="7">
+        <v>19.405784000000001</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.13856399999999999</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0.105222</v>
+      </c>
+      <c r="J37">
+        <v>50</v>
+      </c>
+      <c r="K37">
+        <v>100</v>
+      </c>
+      <c r="L37">
+        <v>50</v>
+      </c>
+      <c r="M37" t="s">
+        <v>15</v>
+      </c>
+      <c r="N37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="9">
+        <f t="shared" si="7"/>
+        <v>14.562664967689088</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38">
+        <v>10987</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="7">
+        <f t="shared" si="6"/>
+        <v>1.3151441139066788</v>
+      </c>
+      <c r="E38" s="38">
+        <v>1.3735809999999999</v>
+      </c>
+      <c r="F38" s="38">
+        <v>0.162053</v>
+      </c>
+      <c r="G38" s="7">
+        <v>24.155819999999999</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.15165300000000001</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0.120681</v>
+      </c>
+      <c r="J38">
+        <v>51</v>
+      </c>
+      <c r="K38">
+        <v>100</v>
+      </c>
+      <c r="L38">
+        <v>50</v>
+      </c>
+      <c r="M38" t="s">
+        <v>15</v>
+      </c>
+      <c r="N38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="9">
+        <f t="shared" si="7"/>
+        <v>14.562664967689088</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D39" s="36">
+        <f>AVERAGE(D29:D38)</f>
         <v>1.0992573873741993</v>
       </c>
-      <c r="E36" s="36">
-        <f>AVERAGE(E26:E35)</f>
+      <c r="E39" s="36">
+        <f>AVERAGE(E29:E38)</f>
         <v>1.1481015999999999</v>
       </c>
-      <c r="F36" s="36">
-        <f>AVERAGE(F26:F35)</f>
+      <c r="F39" s="36">
+        <f>AVERAGE(F29:F38)</f>
         <v>0.15229109999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D37" s="36">
-        <f>MEDIAN(D26:D35)</f>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D40" s="36">
+        <f>MEDIAN(D29:D38)</f>
         <v>1.062530216148216</v>
       </c>
-      <c r="E37" s="36">
-        <f>MEDIAN(E26:E35)</f>
+      <c r="E40" s="36">
+        <f>MEDIAN(E29:E38)</f>
         <v>1.1097424999999999</v>
       </c>
-      <c r="F37" s="36">
-        <f>MEDIAN(F26:F35)</f>
+      <c r="F40" s="36">
+        <f>MEDIAN(F29:F38)</f>
         <v>0.150976</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D38" s="7"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39">
-        <v>10987</v>
-      </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="7">
-        <f t="shared" ref="D39:D48" si="8">((E39/$D$8)+(E39/$E$8))/2</f>
-        <v>1.1289188165599269</v>
-      </c>
-      <c r="E39" s="38">
-        <v>1.179081</v>
-      </c>
-      <c r="F39" s="38">
-        <v>0.15016499999999999</v>
-      </c>
-      <c r="G39" s="7">
-        <v>22.575161000000001</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0.138848</v>
-      </c>
-      <c r="I39" s="7">
-        <v>0.10698100000000001</v>
-      </c>
-      <c r="J39">
-        <v>42</v>
-      </c>
-      <c r="K39">
-        <v>100</v>
-      </c>
-      <c r="L39">
-        <v>100</v>
-      </c>
-      <c r="M39" t="s">
-        <v>15</v>
-      </c>
-      <c r="N39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O39" s="9">
-        <f t="shared" ref="O39:O48" si="9">(32*L39*K39)/B39</f>
-        <v>29.125329935378176</v>
-      </c>
-      <c r="P39">
-        <v>580513</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40">
-        <v>10987</v>
-      </c>
-      <c r="C40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="7">
-        <f t="shared" si="8"/>
-        <v>1.1263260242451967</v>
-      </c>
-      <c r="E40" s="38">
-        <v>1.1763729999999999</v>
-      </c>
-      <c r="F40" s="38">
-        <v>0.15171000000000001</v>
-      </c>
-      <c r="G40" s="7">
-        <v>14.096615999999999</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0.14181099999999999</v>
-      </c>
-      <c r="I40" s="7">
-        <v>9.5794000000000004E-2</v>
-      </c>
-      <c r="J40">
-        <v>43</v>
-      </c>
-      <c r="K40">
-        <v>100</v>
-      </c>
-      <c r="L40">
-        <v>100</v>
-      </c>
-      <c r="M40" t="s">
-        <v>15</v>
-      </c>
-      <c r="N40" t="s">
-        <v>20</v>
-      </c>
-      <c r="O40" s="9">
-        <f t="shared" si="9"/>
-        <v>29.125329935378176</v>
-      </c>
-    </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41">
-        <v>10987</v>
-      </c>
-      <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="7">
-        <f t="shared" si="8"/>
-        <v>1.1163550718206769</v>
-      </c>
-      <c r="E41" s="38">
-        <v>1.165959</v>
-      </c>
-      <c r="F41" s="38">
-        <v>0.149372</v>
-      </c>
-      <c r="G41" s="7">
-        <v>17.652321000000001</v>
-      </c>
-      <c r="H41" s="7">
-        <v>0.13954800000000001</v>
-      </c>
-      <c r="I41" s="7">
-        <v>9.7680000000000003E-2</v>
-      </c>
-      <c r="J41">
-        <v>44</v>
-      </c>
-      <c r="K41">
-        <v>100</v>
-      </c>
-      <c r="L41">
-        <v>100</v>
-      </c>
-      <c r="M41" t="s">
-        <v>15</v>
-      </c>
-      <c r="N41" t="s">
-        <v>20</v>
-      </c>
-      <c r="O41" s="9">
-        <f t="shared" si="9"/>
-        <v>29.125329935378176</v>
-      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
@@ -20274,26 +21410,26 @@
         <v>6</v>
       </c>
       <c r="D42" s="7">
-        <f t="shared" si="8"/>
-        <v>1.081418440073193</v>
+        <f t="shared" ref="D42:D51" si="8">((E42/$D$8)+(E42/$E$8))/2</f>
+        <v>1.1289188165599269</v>
       </c>
       <c r="E42" s="38">
-        <v>1.12947</v>
+        <v>1.179081</v>
       </c>
       <c r="F42" s="38">
-        <v>0.14974799999999999</v>
+        <v>0.15016499999999999</v>
       </c>
       <c r="G42" s="7">
-        <v>17.102211</v>
+        <v>22.575161000000001</v>
       </c>
       <c r="H42" s="7">
-        <v>0.13850899999999999</v>
+        <v>0.138848</v>
       </c>
       <c r="I42" s="7">
-        <v>9.4727000000000006E-2</v>
+        <v>0.10698100000000001</v>
       </c>
       <c r="J42">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K42">
         <v>100</v>
@@ -20308,8 +21444,11 @@
         <v>20</v>
       </c>
       <c r="O42" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="O42:O51" si="9">(32*L42*K42)/B42</f>
         <v>29.125329935378176</v>
+      </c>
+      <c r="P42">
+        <v>580513</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
@@ -20324,25 +21463,25 @@
       </c>
       <c r="D43" s="7">
         <f t="shared" si="8"/>
-        <v>1.0240629634034768</v>
+        <v>1.1263260242451967</v>
       </c>
       <c r="E43" s="38">
-        <v>1.069566</v>
+        <v>1.1763729999999999</v>
       </c>
       <c r="F43" s="38">
-        <v>0.147148</v>
+        <v>0.15171000000000001</v>
       </c>
       <c r="G43" s="7">
-        <v>16.451456</v>
+        <v>14.096615999999999</v>
       </c>
       <c r="H43" s="7">
-        <v>0.13733799999999999</v>
+        <v>0.14181099999999999</v>
       </c>
       <c r="I43" s="7">
-        <v>9.7905000000000006E-2</v>
+        <v>9.5794000000000004E-2</v>
       </c>
       <c r="J43">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K43">
         <v>100</v>
@@ -20373,25 +21512,25 @@
       </c>
       <c r="D44" s="7">
         <f t="shared" si="8"/>
-        <v>1.0609585512351327</v>
+        <v>1.1163550718206769</v>
       </c>
       <c r="E44" s="38">
-        <v>1.108101</v>
+        <v>1.165959</v>
       </c>
       <c r="F44" s="38">
-        <v>0.151285</v>
+        <v>0.149372</v>
       </c>
       <c r="G44" s="7">
-        <v>12.815326000000001</v>
+        <v>17.652321000000001</v>
       </c>
       <c r="H44" s="7">
-        <v>0.13994500000000001</v>
+        <v>0.13954800000000001</v>
       </c>
       <c r="I44" s="7">
-        <v>9.0298000000000003E-2</v>
+        <v>9.7680000000000003E-2</v>
       </c>
       <c r="J44">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K44">
         <v>100</v>
@@ -20422,25 +21561,25 @@
       </c>
       <c r="D45" s="7">
         <f t="shared" si="8"/>
-        <v>1.0221739016468436</v>
+        <v>1.081418440073193</v>
       </c>
       <c r="E45" s="38">
-        <v>1.067593</v>
+        <v>1.12947</v>
       </c>
       <c r="F45" s="38">
-        <v>0.146763</v>
+        <v>0.14974799999999999</v>
       </c>
       <c r="G45" s="7">
-        <v>19.664928</v>
+        <v>17.102211</v>
       </c>
       <c r="H45" s="7">
-        <v>0.13717599999999999</v>
+        <v>0.13850899999999999</v>
       </c>
       <c r="I45" s="7">
-        <v>0.103324</v>
+        <v>9.4727000000000006E-2</v>
       </c>
       <c r="J45">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K45">
         <v>100</v>
@@ -20471,25 +21610,25 @@
       </c>
       <c r="D46" s="7">
         <f t="shared" si="8"/>
-        <v>1.0556772209515095</v>
+        <v>1.0240629634034768</v>
       </c>
       <c r="E46" s="38">
-        <v>1.1025849999999999</v>
+        <v>1.069566</v>
       </c>
       <c r="F46" s="38">
-        <v>0.14940500000000001</v>
+        <v>0.147148</v>
       </c>
       <c r="G46" s="7">
-        <v>18.052688</v>
+        <v>16.451456</v>
       </c>
       <c r="H46" s="7">
-        <v>0.138596</v>
+        <v>0.13733799999999999</v>
       </c>
       <c r="I46" s="7">
-        <v>9.6554000000000001E-2</v>
+        <v>9.7905000000000006E-2</v>
       </c>
       <c r="J46">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K46">
         <v>100</v>
@@ -20520,25 +21659,25 @@
       </c>
       <c r="D47" s="7">
         <f t="shared" si="8"/>
-        <v>1.2085332429094235</v>
+        <v>1.0609585512351327</v>
       </c>
       <c r="E47" s="38">
-        <v>1.2622329999999999</v>
+        <v>1.108101</v>
       </c>
       <c r="F47" s="38">
-        <v>0.15221499999999999</v>
+        <v>0.151285</v>
       </c>
       <c r="G47" s="7">
-        <v>23.380935999999998</v>
+        <v>12.815326000000001</v>
       </c>
       <c r="H47" s="7">
-        <v>0.142155</v>
+        <v>0.13994500000000001</v>
       </c>
       <c r="I47" s="7">
-        <v>9.1419E-2</v>
+        <v>9.0298000000000003E-2</v>
       </c>
       <c r="J47">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K47">
         <v>100</v>
@@ -20569,25 +21708,25 @@
       </c>
       <c r="D48" s="7">
         <f t="shared" si="8"/>
-        <v>1.0405111093321135</v>
-      </c>
-      <c r="E48" s="7">
-        <v>1.0867450000000001</v>
+        <v>1.0221739016468436</v>
+      </c>
+      <c r="E48" s="38">
+        <v>1.067593</v>
       </c>
       <c r="F48" s="38">
-        <v>0.14834600000000001</v>
-      </c>
-      <c r="G48" s="38">
-        <v>15.621933</v>
+        <v>0.146763</v>
+      </c>
+      <c r="G48" s="7">
+        <v>19.664928</v>
       </c>
       <c r="H48" s="7">
-        <v>0.13772999999999999</v>
+        <v>0.13717599999999999</v>
       </c>
       <c r="I48" s="7">
-        <v>9.5336000000000004E-2</v>
+        <v>0.103324</v>
       </c>
       <c r="J48">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K48">
         <v>100</v>
@@ -20606,645 +21745,729 @@
         <v>29.125329935378176</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D49" s="36">
-        <f>AVERAGE(D39:D48)</f>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49">
+        <v>10987</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="7">
+        <f t="shared" si="8"/>
+        <v>1.0556772209515095</v>
+      </c>
+      <c r="E49" s="38">
+        <v>1.1025849999999999</v>
+      </c>
+      <c r="F49" s="38">
+        <v>0.14940500000000001</v>
+      </c>
+      <c r="G49" s="7">
+        <v>18.052688</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0.138596</v>
+      </c>
+      <c r="I49" s="7">
+        <v>9.6554000000000001E-2</v>
+      </c>
+      <c r="J49">
+        <v>49</v>
+      </c>
+      <c r="K49">
+        <v>100</v>
+      </c>
+      <c r="L49">
+        <v>100</v>
+      </c>
+      <c r="M49" t="s">
+        <v>15</v>
+      </c>
+      <c r="N49" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="9">
+        <f t="shared" si="9"/>
+        <v>29.125329935378176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50">
+        <v>10987</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="7">
+        <f t="shared" si="8"/>
+        <v>1.2085332429094235</v>
+      </c>
+      <c r="E50" s="38">
+        <v>1.2622329999999999</v>
+      </c>
+      <c r="F50" s="38">
+        <v>0.15221499999999999</v>
+      </c>
+      <c r="G50" s="7">
+        <v>23.380935999999998</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0.142155</v>
+      </c>
+      <c r="I50" s="7">
+        <v>9.1419E-2</v>
+      </c>
+      <c r="J50">
+        <v>50</v>
+      </c>
+      <c r="K50">
+        <v>100</v>
+      </c>
+      <c r="L50">
+        <v>100</v>
+      </c>
+      <c r="M50" t="s">
+        <v>15</v>
+      </c>
+      <c r="N50" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" s="9">
+        <f t="shared" si="9"/>
+        <v>29.125329935378176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>10987</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="7">
+        <f t="shared" si="8"/>
+        <v>1.0405111093321135</v>
+      </c>
+      <c r="E51" s="7">
+        <v>1.0867450000000001</v>
+      </c>
+      <c r="F51" s="38">
+        <v>0.14834600000000001</v>
+      </c>
+      <c r="G51" s="38">
+        <v>15.621933</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0.13772999999999999</v>
+      </c>
+      <c r="I51" s="7">
+        <v>9.5336000000000004E-2</v>
+      </c>
+      <c r="J51">
+        <v>51</v>
+      </c>
+      <c r="K51">
+        <v>100</v>
+      </c>
+      <c r="L51">
+        <v>100</v>
+      </c>
+      <c r="M51" t="s">
+        <v>15</v>
+      </c>
+      <c r="N51" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" s="9">
+        <f t="shared" si="9"/>
+        <v>29.125329935378176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D52" s="36">
+        <f>AVERAGE(D42:D51)</f>
         <v>1.0864935342177493</v>
       </c>
-      <c r="E49" s="36">
-        <f>AVERAGE(E39:E48)</f>
+      <c r="E52" s="36">
+        <f>AVERAGE(E42:E51)</f>
         <v>1.1347706</v>
       </c>
-      <c r="F49" s="36">
-        <f>AVERAGE(F39:F48)</f>
+      <c r="F52" s="36">
+        <f>AVERAGE(F42:F51)</f>
         <v>0.14961570000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D50" s="36">
-        <f>MEDIAN(D39:D48)</f>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D53" s="36">
+        <f>MEDIAN(D42:D51)</f>
         <v>1.0711884956541629</v>
       </c>
-      <c r="E50" s="36">
-        <f>MEDIAN(E39:E48)</f>
+      <c r="E53" s="36">
+        <f>MEDIAN(E42:E51)</f>
         <v>1.1187855</v>
       </c>
-      <c r="F50" s="36">
-        <f>MEDIAN(F39:F48)</f>
+      <c r="F53" s="36">
+        <f>MEDIAN(F42:F51)</f>
         <v>0.1495765</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D51" s="7"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D54" s="7"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>56</v>
       </c>
-      <c r="B52">
+      <c r="B55">
         <v>10987</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C55" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="7">
-        <f t="shared" ref="D52:D61" si="10">((E52/$D$8)+(E52/$E$8))/2</f>
+      <c r="D55" s="7">
+        <f t="shared" ref="D55:D64" si="10">((E55/$D$8)+(E55/$E$8))/2</f>
         <v>1.042786026075023</v>
       </c>
-      <c r="E52" s="38">
+      <c r="E55" s="38">
         <v>1.089121</v>
       </c>
-      <c r="F52" s="38">
+      <c r="F55" s="38">
         <v>0.14859900000000001</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G55" s="7">
         <v>13.333159999999999</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H55" s="7">
         <v>0.138379</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I55" s="7">
         <v>9.0347999999999998E-2</v>
       </c>
-      <c r="J52">
+      <c r="J55">
         <v>42</v>
       </c>
-      <c r="K52">
+      <c r="K55">
         <v>200</v>
       </c>
-      <c r="L52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="L55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B53">
+      <c r="B56">
         <v>10987</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C56" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D56" s="7">
         <f t="shared" si="10"/>
         <v>1.0509521729185729</v>
       </c>
-      <c r="E53" s="38">
+      <c r="E56" s="38">
         <v>1.09765</v>
       </c>
-      <c r="F53" s="38">
+      <c r="F56" s="38">
         <v>0.14886199999999999</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G56" s="7">
         <v>13.317655999999999</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H56" s="7">
         <v>0.139433</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I56" s="7">
         <v>9.0938000000000005E-2</v>
       </c>
-      <c r="J53">
+      <c r="J56">
         <v>43</v>
       </c>
-      <c r="K53">
+      <c r="K56">
         <v>200</v>
       </c>
-      <c r="L53">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="L56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B54">
+      <c r="B57">
         <v>10987</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C57" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D57" s="7">
         <f t="shared" si="10"/>
         <v>1.0807807740164683</v>
       </c>
-      <c r="E54" s="38">
+      <c r="E57" s="38">
         <v>1.1288039999999999</v>
       </c>
-      <c r="F54" s="38">
+      <c r="F57" s="38">
         <v>0.14769099999999999</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G57" s="7">
         <v>13.800029</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H57" s="7">
         <v>0.13783599999999999</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I57" s="7">
         <v>9.0013999999999997E-2</v>
       </c>
-      <c r="J54">
+      <c r="J57">
         <v>44</v>
       </c>
-      <c r="K54">
+      <c r="K57">
         <v>200</v>
       </c>
-      <c r="L54">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="L57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>56</v>
       </c>
-      <c r="B55">
+      <c r="B58">
         <v>10987</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C58" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D58" s="7">
         <f t="shared" si="10"/>
         <v>1.1269196473010064</v>
       </c>
-      <c r="E55" s="38">
+      <c r="E58" s="38">
         <v>1.176993</v>
       </c>
-      <c r="F55" s="38">
+      <c r="F58" s="38">
         <v>0.15354200000000001</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G58" s="7">
         <v>15.25468</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H58" s="7">
         <v>0.143761</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I58" s="7">
         <v>9.5181000000000002E-2</v>
       </c>
-      <c r="J55">
+      <c r="J58">
         <v>45</v>
       </c>
-      <c r="K55">
+      <c r="K58">
         <v>200</v>
       </c>
-      <c r="L55">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="L58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>56</v>
       </c>
-      <c r="B56">
+      <c r="B59">
         <v>10987</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C59" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D59" s="7">
         <f t="shared" si="10"/>
         <v>1.0183402456541628</v>
       </c>
-      <c r="E56" s="38">
+      <c r="E59" s="38">
         <v>1.0635889999999999</v>
       </c>
-      <c r="F56" s="38">
+      <c r="F59" s="38">
         <v>0.145703</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G59" s="7">
         <v>12.67545</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H59" s="7">
         <v>0.13536899999999999</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I59" s="7">
         <v>8.9314000000000004E-2</v>
       </c>
-      <c r="J56">
+      <c r="J59">
         <v>46</v>
       </c>
-      <c r="K56">
+      <c r="K59">
         <v>200</v>
       </c>
-      <c r="L56">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="L59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B60">
         <v>10987</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C60" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D60" s="7">
         <f t="shared" si="10"/>
         <v>1.0478653330283623</v>
       </c>
-      <c r="E57" s="38">
+      <c r="E60" s="38">
         <v>1.0944259999999999</v>
       </c>
-      <c r="F57" s="38">
+      <c r="F60" s="38">
         <v>0.14724899999999999</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G60" s="7">
         <v>12.625679</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H60" s="7">
         <v>0.137269</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I60" s="7">
         <v>8.8215000000000002E-2</v>
       </c>
-      <c r="J57">
+      <c r="J60">
         <v>47</v>
       </c>
-      <c r="K57">
+      <c r="K60">
         <v>200</v>
       </c>
-      <c r="L57">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="L60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>56</v>
       </c>
-      <c r="B58">
+      <c r="B61">
         <v>10987</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C61" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D61" s="7">
         <f t="shared" si="10"/>
         <v>1.0246690333943276</v>
       </c>
-      <c r="E58" s="38">
+      <c r="E61" s="38">
         <v>1.0701989999999999</v>
       </c>
-      <c r="F58" s="38">
+      <c r="F61" s="38">
         <v>0.147838</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G61" s="7">
         <v>13.372878</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H61" s="7">
         <v>0.13722999999999999</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I61" s="7">
         <v>9.0395000000000003E-2</v>
       </c>
-      <c r="J58">
+      <c r="J61">
         <v>48</v>
       </c>
-      <c r="K58">
+      <c r="K61">
         <v>200</v>
       </c>
-      <c r="L58">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="L61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>56</v>
       </c>
-      <c r="B59">
+      <c r="B62">
         <v>10987</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C62" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D62" s="7">
         <f t="shared" si="10"/>
         <v>1.0257241505032022</v>
       </c>
-      <c r="E59" s="38">
+      <c r="E62" s="38">
         <v>1.0713010000000001</v>
       </c>
-      <c r="F59" s="38">
+      <c r="F62" s="38">
         <v>0.14896200000000001</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G62" s="7">
         <v>13.403022</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H62" s="7">
         <v>0.137655</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I62" s="7">
         <v>9.1717000000000007E-2</v>
       </c>
-      <c r="J59">
+      <c r="J62">
         <v>49</v>
       </c>
-      <c r="K59">
+      <c r="K62">
         <v>200</v>
       </c>
-      <c r="L59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="L62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>56</v>
       </c>
-      <c r="B60">
+      <c r="B63">
         <v>10987</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C63" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D63" s="7">
         <f t="shared" si="10"/>
         <v>1.068095432296432</v>
       </c>
-      <c r="E60" s="38">
+      <c r="E63" s="38">
         <v>1.1155550000000001</v>
       </c>
-      <c r="F60" s="38">
+      <c r="F63" s="38">
         <v>0.14994299999999999</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G63" s="7">
         <v>14.321935</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H63" s="7">
         <v>0.13925199999999999</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I63" s="7">
         <v>9.2427999999999996E-2</v>
       </c>
-      <c r="J60">
+      <c r="J63">
         <v>50</v>
       </c>
-      <c r="K60">
+      <c r="K63">
         <v>200</v>
       </c>
-      <c r="L60">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="L63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>56</v>
       </c>
-      <c r="B61">
+      <c r="B64">
         <v>10987</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C64" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D64" s="7">
         <f t="shared" si="10"/>
         <v>1.0544861450137235</v>
       </c>
-      <c r="E61" s="38">
+      <c r="E64" s="38">
         <v>1.1013409999999999</v>
       </c>
-      <c r="F61" s="38">
+      <c r="F64" s="38">
         <v>0.149066</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G64" s="7">
         <v>13.392416000000001</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H64" s="7">
         <v>0.13871</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I64" s="7">
         <v>9.1298000000000004E-2</v>
       </c>
-      <c r="J61">
+      <c r="J64">
         <v>51</v>
       </c>
-      <c r="K61">
+      <c r="K64">
         <v>200</v>
       </c>
-      <c r="L61">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D62" s="36">
-        <f>AVERAGE(D52:D61)</f>
+      <c r="L64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D65" s="36">
+        <f>AVERAGE(D55:D64)</f>
         <v>1.0540618960201278</v>
       </c>
-      <c r="E62" s="36">
-        <f>AVERAGE(E52:E61)</f>
+      <c r="E65" s="36">
+        <f>AVERAGE(E55:E64)</f>
         <v>1.1008979000000001</v>
       </c>
-      <c r="F62" s="36">
-        <f>AVERAGE(F52:F61)</f>
+      <c r="F65" s="36">
+        <f>AVERAGE(F55:F64)</f>
         <v>0.1487455</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D63" s="36">
-        <f>MEDIAN(D52:D61)</f>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D66" s="36">
+        <f>MEDIAN(D55:D64)</f>
         <v>1.0494087529734677</v>
       </c>
-      <c r="E63" s="36">
-        <f>MEDIAN(E52:E61)</f>
+      <c r="E66" s="36">
+        <f>MEDIAN(E55:E64)</f>
         <v>1.0960380000000001</v>
       </c>
-      <c r="F63" s="36">
-        <f>MEDIAN(F52:F61)</f>
+      <c r="F66" s="36">
+        <f>MEDIAN(F55:F64)</f>
         <v>0.14873049999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D64" s="7"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-    </row>
-    <row r="66" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A66" s="50" t="s">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D67" s="7"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+    </row>
+    <row r="69" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A69" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="50"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="50"/>
-      <c r="I66" s="50"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="50"/>
-      <c r="L66" s="50"/>
-      <c r="M66" s="50"/>
-      <c r="N66" s="50"/>
-      <c r="O66" s="50"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="B69" s="50"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="50"/>
+      <c r="M69" s="50"/>
+      <c r="N69" s="50"/>
+      <c r="O69" s="50"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>56</v>
       </c>
-      <c r="B67">
+      <c r="B70">
         <v>10987</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C70" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="7">
-        <f>((E67/$D$8)+(E67/$E$8))/2</f>
+      <c r="D70" s="7">
+        <f>((E70/$D$8)+(E70/$E$8))/2</f>
         <v>1.1798669940530651</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E70" s="7">
         <v>1.2322930000000001</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F70" s="7">
         <v>0.17486299999999999</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G70" s="7">
         <v>19.907909</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H70" s="7">
         <v>0.16248299999999999</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I70" s="7">
         <v>0.114179</v>
       </c>
-      <c r="J67">
+      <c r="J70">
         <v>42</v>
       </c>
-      <c r="K67">
-        <v>100</v>
-      </c>
-      <c r="L67">
+      <c r="K70">
+        <v>100</v>
+      </c>
+      <c r="L70">
         <v>50</v>
       </c>
-      <c r="M67" t="s">
-        <v>15</v>
-      </c>
-      <c r="N67" t="s">
+      <c r="M70" t="s">
+        <v>15</v>
+      </c>
+      <c r="N70" t="s">
         <v>20</v>
       </c>
-      <c r="O67" s="9">
-        <f t="shared" ref="O67:O69" si="11">(32*L67*K67)/B67</f>
+      <c r="O70" s="9">
+        <f t="shared" ref="O70:O72" si="11">(32*L70*K70)/B70</f>
         <v>14.562664967689088</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>56</v>
       </c>
-      <c r="B68">
+      <c r="B71">
         <v>10987</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C71" t="s">
         <v>3</v>
       </c>
-      <c r="D68" s="7">
-        <f t="shared" ref="D68:D69" si="12">((E68/$D$8)+(E68/$E$8))/2</f>
+      <c r="D71" s="7">
+        <f t="shared" ref="D71:D72" si="12">((E71/$D$8)+(E71/$E$8))/2</f>
         <v>1.1948645933211344</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E71" s="7">
         <v>1.247957</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F71" s="7">
         <v>0.17571899999999999</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G71" s="7">
         <v>19.419625</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H71" s="7">
         <v>0.163246</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I71" s="7">
         <v>0.113192</v>
       </c>
-      <c r="J68">
+      <c r="J71">
         <v>43</v>
       </c>
-      <c r="K68">
-        <v>100</v>
-      </c>
-      <c r="L68">
+      <c r="K71">
+        <v>100</v>
+      </c>
+      <c r="L71">
         <v>50</v>
       </c>
-      <c r="M68" t="s">
-        <v>15</v>
-      </c>
-      <c r="N68" t="s">
+      <c r="M71" t="s">
+        <v>15</v>
+      </c>
+      <c r="N71" t="s">
         <v>20</v>
       </c>
-      <c r="O68" s="9">
+      <c r="O71" s="9">
         <f t="shared" si="11"/>
         <v>14.562664967689088</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>56</v>
-      </c>
-      <c r="B69">
-        <v>10987</v>
-      </c>
-      <c r="C69" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="7">
-        <f t="shared" si="12"/>
-        <v>1.1274022053979871</v>
-      </c>
-      <c r="E69" s="7">
-        <v>1.177497</v>
-      </c>
-      <c r="F69" s="7">
-        <v>0.164941</v>
-      </c>
-      <c r="G69" s="7">
-        <v>25.232595</v>
-      </c>
-      <c r="H69" s="7">
-        <v>0.15296899999999999</v>
-      </c>
-      <c r="I69" s="7">
-        <v>0.12441099999999999</v>
-      </c>
-      <c r="J69">
-        <v>44</v>
-      </c>
-      <c r="K69">
-        <v>100</v>
-      </c>
-      <c r="L69">
-        <v>50</v>
-      </c>
-      <c r="M69" t="s">
-        <v>15</v>
-      </c>
-      <c r="N69" t="s">
-        <v>20</v>
-      </c>
-      <c r="O69" s="9">
-        <f t="shared" si="11"/>
-        <v>14.562664967689088</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D70" s="36">
-        <f t="shared" ref="D70:F70" si="13">AVERAGE(D67:D69)</f>
-        <v>1.1673779309240622</v>
-      </c>
-      <c r="E70" s="36">
-        <f t="shared" si="13"/>
-        <v>1.2192489999999998</v>
-      </c>
-      <c r="F70" s="36">
-        <f t="shared" si="13"/>
-        <v>0.17184099999999999</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
@@ -21258,32 +22481,32 @@
         <v>3</v>
       </c>
       <c r="D72" s="7">
-        <f t="shared" ref="D72:D74" si="14">((E72/$D$8)+(E72/$E$8))/2</f>
-        <v>1.1479607122598354</v>
+        <f t="shared" si="12"/>
+        <v>1.1274022053979871</v>
       </c>
       <c r="E72" s="7">
-        <v>1.198969</v>
+        <v>1.177497</v>
       </c>
       <c r="F72" s="7">
-        <v>0.16498399999999999</v>
+        <v>0.164941</v>
       </c>
       <c r="G72" s="7">
-        <v>19.436844000000001</v>
+        <v>25.232595</v>
       </c>
       <c r="H72" s="7">
-        <v>0.15676100000000001</v>
+        <v>0.15296899999999999</v>
       </c>
       <c r="I72" s="7">
-        <v>0.101368</v>
+        <v>0.12441099999999999</v>
       </c>
       <c r="J72">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K72">
         <v>100</v>
       </c>
       <c r="L72">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M72" t="s">
         <v>15</v>
@@ -21292,120 +22515,120 @@
         <v>20</v>
       </c>
       <c r="O72" s="9">
-        <f t="shared" ref="O72:O74" si="15">(32*L72*K72)/B72</f>
+        <f t="shared" si="11"/>
+        <v>14.562664967689088</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D73" s="36">
+        <f t="shared" ref="D73:F73" si="13">AVERAGE(D70:D72)</f>
+        <v>1.1673779309240622</v>
+      </c>
+      <c r="E73" s="36">
+        <f t="shared" si="13"/>
+        <v>1.2192489999999998</v>
+      </c>
+      <c r="F73" s="36">
+        <f t="shared" si="13"/>
+        <v>0.17184099999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75">
+        <v>10987</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="7">
+        <f t="shared" ref="D75:D77" si="14">((E75/$D$8)+(E75/$E$8))/2</f>
+        <v>1.1479607122598354</v>
+      </c>
+      <c r="E75" s="7">
+        <v>1.198969</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0.16498399999999999</v>
+      </c>
+      <c r="G75" s="7">
+        <v>19.436844000000001</v>
+      </c>
+      <c r="H75" s="7">
+        <v>0.15676100000000001</v>
+      </c>
+      <c r="I75" s="7">
+        <v>0.101368</v>
+      </c>
+      <c r="J75">
+        <v>42</v>
+      </c>
+      <c r="K75">
+        <v>100</v>
+      </c>
+      <c r="L75">
+        <v>100</v>
+      </c>
+      <c r="M75" t="s">
+        <v>15</v>
+      </c>
+      <c r="N75" t="s">
+        <v>20</v>
+      </c>
+      <c r="O75" s="9">
+        <f t="shared" ref="O75:O77" si="15">(32*L75*K75)/B75</f>
         <v>29.125329935378176</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>56</v>
       </c>
-      <c r="B73">
+      <c r="B76">
         <v>10987</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C76" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D76" s="7">
         <f t="shared" si="14"/>
         <v>1.0731756967063131</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E76" s="7">
         <v>1.1208610000000001</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F76" s="7">
         <v>0.15604799999999999</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G76" s="7">
         <v>18.544347999999999</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H76" s="7">
         <v>0.14652100000000001</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I76" s="7">
         <v>9.8779000000000006E-2</v>
       </c>
-      <c r="J73">
+      <c r="J76">
         <v>43</v>
       </c>
-      <c r="K73">
-        <v>100</v>
-      </c>
-      <c r="L73">
-        <v>100</v>
-      </c>
-      <c r="M73" t="s">
-        <v>15</v>
-      </c>
-      <c r="N73" t="s">
+      <c r="K76">
+        <v>100</v>
+      </c>
+      <c r="L76">
+        <v>100</v>
+      </c>
+      <c r="M76" t="s">
+        <v>15</v>
+      </c>
+      <c r="N76" t="s">
         <v>20</v>
       </c>
-      <c r="O73" s="9">
+      <c r="O76" s="9">
         <f t="shared" si="15"/>
         <v>29.125329935378176</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>56</v>
-      </c>
-      <c r="B74">
-        <v>10987</v>
-      </c>
-      <c r="C74" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="7">
-        <f t="shared" si="14"/>
-        <v>1.1450002566331201</v>
-      </c>
-      <c r="E74" s="7">
-        <v>1.1958770000000001</v>
-      </c>
-      <c r="F74" s="7">
-        <v>0.165406</v>
-      </c>
-      <c r="G74" s="7">
-        <v>20.539697</v>
-      </c>
-      <c r="H74" s="7">
-        <v>0.159413</v>
-      </c>
-      <c r="I74" s="7">
-        <v>0.100018</v>
-      </c>
-      <c r="J74">
-        <v>44</v>
-      </c>
-      <c r="K74">
-        <v>100</v>
-      </c>
-      <c r="L74">
-        <v>100</v>
-      </c>
-      <c r="M74" t="s">
-        <v>15</v>
-      </c>
-      <c r="N74" t="s">
-        <v>20</v>
-      </c>
-      <c r="O74" s="9">
-        <f t="shared" si="15"/>
-        <v>29.125329935378176</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D75" s="36">
-        <f t="shared" ref="D75:F75" si="16">AVERAGE(D72:D74)</f>
-        <v>1.1220455551997561</v>
-      </c>
-      <c r="E75" s="36">
-        <f t="shared" si="16"/>
-        <v>1.1719023333333334</v>
-      </c>
-      <c r="F75" s="36">
-        <f t="shared" si="16"/>
-        <v>0.16214599999999998</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
@@ -21419,32 +22642,32 @@
         <v>3</v>
       </c>
       <c r="D77" s="7">
-        <f t="shared" ref="D77" si="17">((E77/$D$8)+(E77/$E$8))/2</f>
-        <v>1.1646376903019213</v>
+        <f t="shared" si="14"/>
+        <v>1.1450002566331201</v>
       </c>
       <c r="E77" s="7">
-        <v>1.2163870000000001</v>
+        <v>1.1958770000000001</v>
       </c>
       <c r="F77" s="7">
-        <v>0.1666</v>
+        <v>0.165406</v>
       </c>
       <c r="G77" s="7">
-        <v>23.876085</v>
+        <v>20.539697</v>
       </c>
       <c r="H77" s="7">
-        <v>0.15624499999999999</v>
+        <v>0.159413</v>
       </c>
       <c r="I77" s="7">
-        <v>0.121716</v>
+        <v>0.100018</v>
       </c>
       <c r="J77">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K77">
         <v>100</v>
       </c>
       <c r="L77">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M77" t="s">
         <v>15</v>
@@ -21453,120 +22676,120 @@
         <v>20</v>
       </c>
       <c r="O77" s="9">
-        <f t="shared" ref="O77:O79" si="18">(32*L77*K77)/B77</f>
+        <f t="shared" si="15"/>
+        <v>29.125329935378176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D78" s="36">
+        <f t="shared" ref="D78:F78" si="16">AVERAGE(D75:D77)</f>
+        <v>1.1220455551997561</v>
+      </c>
+      <c r="E78" s="36">
+        <f t="shared" si="16"/>
+        <v>1.1719023333333334</v>
+      </c>
+      <c r="F78" s="36">
+        <f t="shared" si="16"/>
+        <v>0.16214599999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80">
+        <v>10987</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="7">
+        <f t="shared" ref="D80" si="17">((E80/$D$8)+(E80/$E$8))/2</f>
+        <v>1.1646376903019213</v>
+      </c>
+      <c r="E80" s="7">
+        <v>1.2163870000000001</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0.1666</v>
+      </c>
+      <c r="G80" s="7">
+        <v>23.876085</v>
+      </c>
+      <c r="H80" s="7">
+        <v>0.15624499999999999</v>
+      </c>
+      <c r="I80" s="7">
+        <v>0.121716</v>
+      </c>
+      <c r="J80">
+        <v>42</v>
+      </c>
+      <c r="K80">
+        <v>100</v>
+      </c>
+      <c r="L80">
+        <v>200</v>
+      </c>
+      <c r="M80" t="s">
+        <v>15</v>
+      </c>
+      <c r="N80" t="s">
+        <v>20</v>
+      </c>
+      <c r="O80" s="9">
+        <f t="shared" ref="O80:O82" si="18">(32*L80*K80)/B80</f>
         <v>58.250659870756351</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>56</v>
       </c>
-      <c r="B78">
+      <c r="B81">
         <v>10987</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C81" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="7">
-        <f t="shared" ref="D78:D79" si="19">((E78/$D$8)+(E78/$E$8))/2</f>
+      <c r="D81" s="7">
+        <f t="shared" ref="D81:D82" si="19">((E81/$D$8)+(E81/$E$8))/2</f>
         <v>1.2102662392497714</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E81" s="7">
         <v>1.264043</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F81" s="7">
         <v>0.17772299999999999</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G81" s="7">
         <v>28.471319000000001</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H81" s="7">
         <v>0.16067799999999999</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I81" s="7">
         <v>0.14185600000000001</v>
       </c>
-      <c r="J78">
+      <c r="J81">
         <v>43</v>
       </c>
-      <c r="K78">
-        <v>100</v>
-      </c>
-      <c r="L78">
+      <c r="K81">
+        <v>100</v>
+      </c>
+      <c r="L81">
         <v>200</v>
       </c>
-      <c r="M78" t="s">
-        <v>15</v>
-      </c>
-      <c r="N78" t="s">
+      <c r="M81" t="s">
+        <v>15</v>
+      </c>
+      <c r="N81" t="s">
         <v>20</v>
       </c>
-      <c r="O78" s="9">
+      <c r="O81" s="9">
         <f t="shared" si="18"/>
         <v>58.250659870756351</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>56</v>
-      </c>
-      <c r="B79">
-        <v>10987</v>
-      </c>
-      <c r="C79" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="7">
-        <f t="shared" si="19"/>
-        <v>1.2621163408051235</v>
-      </c>
-      <c r="E79" s="7">
-        <v>1.3181970000000001</v>
-      </c>
-      <c r="F79" s="7">
-        <v>0.185255</v>
-      </c>
-      <c r="G79" s="7">
-        <v>29.934011999999999</v>
-      </c>
-      <c r="H79" s="7">
-        <v>0.17483399999999999</v>
-      </c>
-      <c r="I79" s="7">
-        <v>0.13478399999999999</v>
-      </c>
-      <c r="J79">
-        <v>44</v>
-      </c>
-      <c r="K79">
-        <v>100</v>
-      </c>
-      <c r="L79">
-        <v>200</v>
-      </c>
-      <c r="M79" t="s">
-        <v>15</v>
-      </c>
-      <c r="N79" t="s">
-        <v>20</v>
-      </c>
-      <c r="O79" s="9">
-        <f t="shared" si="18"/>
-        <v>58.250659870756351</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D80" s="36">
-        <f t="shared" ref="D80:F80" si="20">AVERAGE(D77:D79)</f>
-        <v>1.2123400901189387</v>
-      </c>
-      <c r="E80" s="36">
-        <f t="shared" si="20"/>
-        <v>1.2662090000000001</v>
-      </c>
-      <c r="F80" s="36">
-        <f t="shared" si="20"/>
-        <v>0.17652599999999999</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
@@ -21580,32 +22803,32 @@
         <v>3</v>
       </c>
       <c r="D82" s="7">
-        <f t="shared" ref="D82:D84" si="21">((E82/$D$8)+(E82/$E$8))/2</f>
-        <v>1.1510590416285451</v>
+        <f t="shared" si="19"/>
+        <v>1.2621163408051235</v>
       </c>
       <c r="E82" s="7">
-        <v>1.202205</v>
+        <v>1.3181970000000001</v>
       </c>
       <c r="F82" s="7">
-        <v>0.16897899999999999</v>
+        <v>0.185255</v>
       </c>
       <c r="G82" s="7">
-        <v>19.611668999999999</v>
+        <v>29.934011999999999</v>
       </c>
       <c r="H82" s="7">
-        <v>0.15919700000000001</v>
+        <v>0.17483399999999999</v>
       </c>
       <c r="I82" s="7">
-        <v>9.7892000000000007E-2</v>
+        <v>0.13478399999999999</v>
       </c>
       <c r="J82">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K82">
+        <v>100</v>
+      </c>
+      <c r="L82">
         <v>200</v>
-      </c>
-      <c r="L82">
-        <v>100</v>
       </c>
       <c r="M82" t="s">
         <v>15</v>
@@ -21614,120 +22837,120 @@
         <v>20</v>
       </c>
       <c r="O82" s="9">
-        <f t="shared" ref="O82:O84" si="22">(32*L82*K82)/B82</f>
+        <f t="shared" si="18"/>
         <v>58.250659870756351</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="D83" s="36">
+        <f t="shared" ref="D83:F83" si="20">AVERAGE(D80:D82)</f>
+        <v>1.2123400901189387</v>
+      </c>
+      <c r="E83" s="36">
+        <f t="shared" si="20"/>
+        <v>1.2662090000000001</v>
+      </c>
+      <c r="F83" s="36">
+        <f t="shared" si="20"/>
+        <v>0.17652599999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>56</v>
       </c>
-      <c r="B83">
+      <c r="B85">
         <v>10987</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C85" t="s">
         <v>3</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D85" s="7">
+        <f t="shared" ref="D85:D87" si="21">((E85/$D$8)+(E85/$E$8))/2</f>
+        <v>1.1510590416285451</v>
+      </c>
+      <c r="E85" s="7">
+        <v>1.202205</v>
+      </c>
+      <c r="F85" s="7">
+        <v>0.16897899999999999</v>
+      </c>
+      <c r="G85" s="7">
+        <v>19.611668999999999</v>
+      </c>
+      <c r="H85" s="7">
+        <v>0.15919700000000001</v>
+      </c>
+      <c r="I85" s="7">
+        <v>9.7892000000000007E-2</v>
+      </c>
+      <c r="J85">
+        <v>42</v>
+      </c>
+      <c r="K85">
+        <v>200</v>
+      </c>
+      <c r="L85">
+        <v>100</v>
+      </c>
+      <c r="M85" t="s">
+        <v>15</v>
+      </c>
+      <c r="N85" t="s">
+        <v>20</v>
+      </c>
+      <c r="O85" s="9">
+        <f t="shared" ref="O85:O87" si="22">(32*L85*K85)/B85</f>
+        <v>58.250659870756351</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86">
+        <v>10987</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="7">
         <f t="shared" si="21"/>
         <v>1.1131705713632205</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E86" s="7">
         <v>1.162633</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F86" s="7">
         <v>0.16370799999999999</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G86" s="7">
         <v>19.917041000000001</v>
       </c>
-      <c r="H83" s="7">
+      <c r="H86" s="7">
         <v>0.15221000000000001</v>
       </c>
-      <c r="I83" s="7">
+      <c r="I86" s="7">
         <v>0.104086</v>
       </c>
-      <c r="J83">
+      <c r="J86">
         <v>43</v>
       </c>
-      <c r="K83">
+      <c r="K86">
         <v>200</v>
       </c>
-      <c r="L83">
-        <v>100</v>
-      </c>
-      <c r="M83" t="s">
-        <v>15</v>
-      </c>
-      <c r="N83" t="s">
+      <c r="L86">
+        <v>100</v>
+      </c>
+      <c r="M86" t="s">
+        <v>15</v>
+      </c>
+      <c r="N86" t="s">
         <v>20</v>
       </c>
-      <c r="O83" s="9">
+      <c r="O86" s="9">
         <f t="shared" si="22"/>
         <v>58.250659870756351</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>56</v>
-      </c>
-      <c r="B84">
-        <v>10987</v>
-      </c>
-      <c r="C84" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="7">
-        <f t="shared" si="21"/>
-        <v>1.144144290484904</v>
-      </c>
-      <c r="E84" s="7">
-        <v>1.1949829999999999</v>
-      </c>
-      <c r="F84" s="7">
-        <v>0.16921700000000001</v>
-      </c>
-      <c r="G84" s="7">
-        <v>20.177575000000001</v>
-      </c>
-      <c r="H84" s="7">
-        <v>0.163302</v>
-      </c>
-      <c r="I84" s="7">
-        <v>9.6074999999999994E-2</v>
-      </c>
-      <c r="J84">
-        <v>44</v>
-      </c>
-      <c r="K84">
-        <v>200</v>
-      </c>
-      <c r="L84">
-        <v>100</v>
-      </c>
-      <c r="M84" t="s">
-        <v>15</v>
-      </c>
-      <c r="N84" t="s">
-        <v>20</v>
-      </c>
-      <c r="O84" s="9">
-        <f t="shared" si="22"/>
-        <v>58.250659870756351</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D85" s="36">
-        <f t="shared" ref="D85:F85" si="23">AVERAGE(D82:D84)</f>
-        <v>1.1361246344922231</v>
-      </c>
-      <c r="E85" s="36">
-        <f t="shared" si="23"/>
-        <v>1.1866069999999997</v>
-      </c>
-      <c r="F85" s="36">
-        <f t="shared" si="23"/>
-        <v>0.1673013333333333</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
@@ -21741,29 +22964,29 @@
         <v>3</v>
       </c>
       <c r="D87" s="7">
-        <f t="shared" ref="D87:D89" si="24">((E87/$D$8)+(E87/$E$8))/2</f>
-        <v>1.2767453193046663</v>
+        <f t="shared" si="21"/>
+        <v>1.144144290484904</v>
       </c>
       <c r="E87" s="7">
-        <v>1.3334760000000001</v>
+        <v>1.1949829999999999</v>
       </c>
       <c r="F87" s="7">
-        <v>0.187944</v>
+        <v>0.16921700000000001</v>
       </c>
       <c r="G87" s="7">
-        <v>24.904685000000001</v>
+        <v>20.177575000000001</v>
       </c>
       <c r="H87" s="7">
-        <v>0.17991099999999999</v>
+        <v>0.163302</v>
       </c>
       <c r="I87" s="7">
-        <v>0.125642</v>
+        <v>9.6074999999999994E-2</v>
       </c>
       <c r="J87">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K87">
-        <v>344</v>
+        <v>200</v>
       </c>
       <c r="L87">
         <v>100</v>
@@ -21775,122 +22998,121 @@
         <v>20</v>
       </c>
       <c r="O87" s="9">
-        <f t="shared" ref="O87:O89" si="25">(32*L87*K87)/B87</f>
+        <f t="shared" si="22"/>
+        <v>58.250659870756351</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D88" s="36">
+        <f t="shared" ref="D88:F88" si="23">AVERAGE(D85:D87)</f>
+        <v>1.1361246344922231</v>
+      </c>
+      <c r="E88" s="36">
+        <f t="shared" si="23"/>
+        <v>1.1866069999999997</v>
+      </c>
+      <c r="F88" s="36">
+        <f t="shared" si="23"/>
+        <v>0.1673013333333333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>56</v>
+      </c>
+      <c r="B90">
+        <v>10987</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="7">
+        <f t="shared" ref="D90:D92" si="24">((E90/$D$8)+(E90/$E$8))/2</f>
+        <v>1.2767453193046663</v>
+      </c>
+      <c r="E90" s="7">
+        <v>1.3334760000000001</v>
+      </c>
+      <c r="F90" s="7">
+        <v>0.187944</v>
+      </c>
+      <c r="G90" s="7">
+        <v>24.904685000000001</v>
+      </c>
+      <c r="H90" s="7">
+        <v>0.17991099999999999</v>
+      </c>
+      <c r="I90" s="7">
+        <v>0.125642</v>
+      </c>
+      <c r="J90">
+        <v>42</v>
+      </c>
+      <c r="K90">
+        <v>344</v>
+      </c>
+      <c r="L90">
+        <v>100</v>
+      </c>
+      <c r="M90" t="s">
+        <v>15</v>
+      </c>
+      <c r="N90" t="s">
+        <v>20</v>
+      </c>
+      <c r="O90" s="9">
+        <f t="shared" ref="O90:O92" si="25">(32*L90*K90)/B90</f>
         <v>100.19113497770093</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>56</v>
       </c>
-      <c r="B88">
+      <c r="B91">
         <v>10987</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C91" t="s">
         <v>3</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D91" s="7">
         <f t="shared" si="24"/>
         <v>1.1933575567246111</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E91" s="7">
         <v>1.246383</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F91" s="7">
         <v>0.17480299999999999</v>
       </c>
-      <c r="G88" s="7">
+      <c r="G91" s="7">
         <v>24.467533</v>
       </c>
-      <c r="H88" s="7">
+      <c r="H91" s="7">
         <v>0.162552</v>
       </c>
-      <c r="I88" s="7">
+      <c r="I91" s="7">
         <v>0.120666</v>
       </c>
-      <c r="J88">
+      <c r="J91">
         <v>43</v>
       </c>
-      <c r="K88">
+      <c r="K91">
         <v>344</v>
       </c>
-      <c r="L88">
-        <v>100</v>
-      </c>
-      <c r="M88" t="s">
-        <v>15</v>
-      </c>
-      <c r="N88" t="s">
+      <c r="L91">
+        <v>100</v>
+      </c>
+      <c r="M91" t="s">
+        <v>15</v>
+      </c>
+      <c r="N91" t="s">
         <v>20</v>
       </c>
-      <c r="O88" s="9">
+      <c r="O91" s="9">
         <f t="shared" si="25"/>
         <v>100.19113497770093</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>56</v>
-      </c>
-      <c r="B89">
-        <v>10987</v>
-      </c>
-      <c r="C89" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="7">
-        <f t="shared" si="24"/>
-        <v>1.2437820054894786</v>
-      </c>
-      <c r="E89" s="7">
-        <v>1.299048</v>
-      </c>
-      <c r="F89" s="7">
-        <v>0.18410599999999999</v>
-      </c>
-      <c r="G89" s="7">
-        <v>20.602916</v>
-      </c>
-      <c r="H89" s="7">
-        <v>0.179261</v>
-      </c>
-      <c r="I89" s="7">
-        <v>0.10452</v>
-      </c>
-      <c r="J89">
-        <v>44</v>
-      </c>
-      <c r="K89">
-        <v>344</v>
-      </c>
-      <c r="L89">
-        <v>100</v>
-      </c>
-      <c r="M89" t="s">
-        <v>15</v>
-      </c>
-      <c r="N89" t="s">
-        <v>20</v>
-      </c>
-      <c r="O89" s="9">
-        <f t="shared" si="25"/>
-        <v>100.19113497770093</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D90" s="36">
-        <f t="shared" ref="D90:F90" si="26">AVERAGE(D87:D89)</f>
-        <v>1.2379616271729186</v>
-      </c>
-      <c r="E90" s="36">
-        <f t="shared" si="26"/>
-        <v>1.292969</v>
-      </c>
-      <c r="F90" s="36">
-        <f t="shared" si="26"/>
-        <v>0.18228433333333335</v>
-      </c>
-      <c r="O90" s="9"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
@@ -21903,32 +23125,32 @@
         <v>3</v>
       </c>
       <c r="D92" s="7">
-        <f t="shared" ref="D92:D101" si="27">((E92/$D$8)+(E92/$E$8))/2</f>
-        <v>1.1798669940530651</v>
+        <f t="shared" si="24"/>
+        <v>1.2437820054894786</v>
       </c>
       <c r="E92" s="7">
-        <v>1.2322930000000001</v>
+        <v>1.299048</v>
       </c>
       <c r="F92" s="7">
-        <v>0.17486299999999999</v>
+        <v>0.18410599999999999</v>
       </c>
       <c r="G92" s="7">
-        <v>19.907909</v>
+        <v>20.602916</v>
       </c>
       <c r="H92" s="7">
-        <v>0.16248299999999999</v>
+        <v>0.179261</v>
       </c>
       <c r="I92" s="7">
-        <v>0.114179</v>
+        <v>0.10452</v>
       </c>
       <c r="J92">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K92">
-        <v>100</v>
+        <v>344</v>
       </c>
       <c r="L92">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M92" t="s">
         <v>15</v>
@@ -21936,96 +23158,25 @@
       <c r="N92" t="s">
         <v>20</v>
       </c>
+      <c r="O92" s="9">
+        <f t="shared" si="25"/>
+        <v>100.19113497770093</v>
+      </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>56</v>
-      </c>
-      <c r="B93">
-        <v>10987</v>
-      </c>
-      <c r="C93" t="s">
-        <v>3</v>
-      </c>
-      <c r="D93" s="7">
-        <f t="shared" si="27"/>
-        <v>1.1948645933211344</v>
-      </c>
-      <c r="E93" s="7">
-        <v>1.247957</v>
-      </c>
-      <c r="F93" s="7">
-        <v>0.17571899999999999</v>
-      </c>
-      <c r="G93" s="7">
-        <v>19.419625</v>
-      </c>
-      <c r="H93" s="7">
-        <v>0.163246</v>
-      </c>
-      <c r="I93" s="7">
-        <v>0.113192</v>
-      </c>
-      <c r="J93">
-        <v>43</v>
-      </c>
-      <c r="K93">
-        <v>100</v>
-      </c>
-      <c r="L93">
-        <v>50</v>
-      </c>
-      <c r="M93" t="s">
-        <v>15</v>
-      </c>
-      <c r="N93" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>56</v>
-      </c>
-      <c r="B94">
-        <v>10987</v>
-      </c>
-      <c r="C94" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" s="7">
-        <f t="shared" si="27"/>
-        <v>1.1274022053979871</v>
-      </c>
-      <c r="E94" s="7">
-        <v>1.177497</v>
-      </c>
-      <c r="F94" s="7">
-        <v>0.164941</v>
-      </c>
-      <c r="G94" s="7">
-        <v>25.232595</v>
-      </c>
-      <c r="H94" s="7">
-        <v>0.15296899999999999</v>
-      </c>
-      <c r="I94" s="7">
-        <v>0.12441099999999999</v>
-      </c>
-      <c r="J94">
-        <v>44</v>
-      </c>
-      <c r="K94">
-        <v>100</v>
-      </c>
-      <c r="L94">
-        <v>50</v>
-      </c>
-      <c r="M94" t="s">
-        <v>15</v>
-      </c>
-      <c r="N94" t="s">
-        <v>20</v>
-      </c>
+      <c r="D93" s="36">
+        <f t="shared" ref="D93:F93" si="26">AVERAGE(D90:D92)</f>
+        <v>1.2379616271729186</v>
+      </c>
+      <c r="E93" s="36">
+        <f t="shared" si="26"/>
+        <v>1.292969</v>
+      </c>
+      <c r="F93" s="36">
+        <f t="shared" si="26"/>
+        <v>0.18228433333333335</v>
+      </c>
+      <c r="O93" s="9"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
@@ -22038,26 +23189,26 @@
         <v>3</v>
       </c>
       <c r="D95" s="7">
-        <f t="shared" si="27"/>
-        <v>1.1264820896614822</v>
+        <f t="shared" ref="D95:D104" si="27">((E95/$D$8)+(E95/$E$8))/2</f>
+        <v>1.1798669940530651</v>
       </c>
       <c r="E95" s="7">
-        <v>1.176536</v>
+        <v>1.2322930000000001</v>
       </c>
       <c r="F95" s="7">
-        <v>0.17142199999999999</v>
+        <v>0.17486299999999999</v>
       </c>
       <c r="G95" s="7">
-        <v>25.813915000000001</v>
+        <v>19.907909</v>
       </c>
       <c r="H95" s="7">
-        <v>0.158583</v>
+        <v>0.16248299999999999</v>
       </c>
       <c r="I95" s="7">
-        <v>0.12996199999999999</v>
+        <v>0.114179</v>
       </c>
       <c r="J95">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K95">
         <v>100</v>
@@ -22084,25 +23235,25 @@
       </c>
       <c r="D96" s="7">
         <f t="shared" si="27"/>
-        <v>1.1201695786825252</v>
+        <v>1.1948645933211344</v>
       </c>
       <c r="E96" s="7">
-        <v>1.169943</v>
+        <v>1.247957</v>
       </c>
       <c r="F96" s="7">
-        <v>0.170094</v>
+        <v>0.17571899999999999</v>
       </c>
       <c r="G96" s="7">
-        <v>24.974618</v>
+        <v>19.419625</v>
       </c>
       <c r="H96" s="7">
-        <v>0.15729799999999999</v>
+        <v>0.163246</v>
       </c>
       <c r="I96" s="7">
-        <v>0.125362</v>
+        <v>0.113192</v>
       </c>
       <c r="J96">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K96">
         <v>100</v>
@@ -22129,25 +23280,25 @@
       </c>
       <c r="D97" s="7">
         <f t="shared" si="27"/>
-        <v>1.1381563572735589</v>
+        <v>1.1274022053979871</v>
       </c>
       <c r="E97" s="7">
-        <v>1.1887289999999999</v>
+        <v>1.177497</v>
       </c>
       <c r="F97" s="7">
-        <v>0.17150699999999999</v>
+        <v>0.164941</v>
       </c>
       <c r="G97" s="7">
-        <v>24.186653</v>
+        <v>25.232595</v>
       </c>
       <c r="H97" s="7">
-        <v>0.15909499999999999</v>
+        <v>0.15296899999999999</v>
       </c>
       <c r="I97" s="7">
-        <v>0.12392</v>
+        <v>0.12441099999999999</v>
       </c>
       <c r="J97">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K97">
         <v>100</v>
@@ -22174,25 +23325,25 @@
       </c>
       <c r="D98" s="7">
         <f t="shared" si="27"/>
-        <v>1.128748389295517</v>
+        <v>1.1264820896614822</v>
       </c>
       <c r="E98" s="7">
-        <v>1.178903</v>
+        <v>1.176536</v>
       </c>
       <c r="F98" s="7">
-        <v>0.172263</v>
+        <v>0.17142199999999999</v>
       </c>
       <c r="G98" s="7">
-        <v>24.553653000000001</v>
+        <v>25.813915000000001</v>
       </c>
       <c r="H98" s="7">
-        <v>0.159579</v>
+        <v>0.158583</v>
       </c>
       <c r="I98" s="7">
-        <v>0.125724</v>
+        <v>0.12996199999999999</v>
       </c>
       <c r="J98">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K98">
         <v>100</v>
@@ -22219,25 +23370,25 @@
       </c>
       <c r="D99" s="7">
         <f t="shared" si="27"/>
-        <v>1.1598370032021958</v>
+        <v>1.1201695786825252</v>
       </c>
       <c r="E99" s="7">
-        <v>1.211373</v>
+        <v>1.169943</v>
       </c>
       <c r="F99" s="7">
-        <v>0.17155599999999999</v>
+        <v>0.170094</v>
       </c>
       <c r="G99" s="7">
-        <v>21.001552</v>
+        <v>24.974618</v>
       </c>
       <c r="H99" s="7">
-        <v>0.159354</v>
+        <v>0.15729799999999999</v>
       </c>
       <c r="I99" s="7">
-        <v>0.115953</v>
+        <v>0.125362</v>
       </c>
       <c r="J99">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K99">
         <v>100</v>
@@ -22264,25 +23415,25 @@
       </c>
       <c r="D100" s="7">
         <f t="shared" si="27"/>
-        <v>1.1849472584629459</v>
+        <v>1.1381563572735589</v>
       </c>
       <c r="E100" s="7">
-        <v>1.2375989999999999</v>
+        <v>1.1887289999999999</v>
       </c>
       <c r="F100" s="7">
-        <v>0.17721799999999999</v>
+        <v>0.17150699999999999</v>
       </c>
       <c r="G100" s="7">
-        <v>23.820281999999999</v>
+        <v>24.186653</v>
       </c>
       <c r="H100" s="7">
-        <v>0.16422</v>
+        <v>0.15909499999999999</v>
       </c>
       <c r="I100" s="7">
-        <v>0.122726</v>
+        <v>0.12392</v>
       </c>
       <c r="J100">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K100">
         <v>100</v>
@@ -22309,25 +23460,25 @@
       </c>
       <c r="D101" s="7">
         <f t="shared" si="27"/>
-        <v>1.1207220311070447</v>
+        <v>1.128748389295517</v>
       </c>
       <c r="E101" s="7">
-        <v>1.17052</v>
+        <v>1.178903</v>
       </c>
       <c r="F101" s="7">
-        <v>0.16773199999999999</v>
+        <v>0.172263</v>
       </c>
       <c r="G101" s="7">
-        <v>23.524663</v>
+        <v>24.553653000000001</v>
       </c>
       <c r="H101" s="7">
-        <v>0.15543000000000001</v>
+        <v>0.159579</v>
       </c>
       <c r="I101" s="7">
-        <v>0.120392</v>
+        <v>0.125724</v>
       </c>
       <c r="J101">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K101">
         <v>100</v>
@@ -22343,166 +23494,166 @@
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D102" s="36">
-        <f>AVERAGE(D92:D101)</f>
+      <c r="A102" t="s">
+        <v>56</v>
+      </c>
+      <c r="B102">
+        <v>10987</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="7">
+        <f t="shared" si="27"/>
+        <v>1.1598370032021958</v>
+      </c>
+      <c r="E102" s="7">
+        <v>1.211373</v>
+      </c>
+      <c r="F102" s="7">
+        <v>0.17155599999999999</v>
+      </c>
+      <c r="G102" s="7">
+        <v>21.001552</v>
+      </c>
+      <c r="H102" s="7">
+        <v>0.159354</v>
+      </c>
+      <c r="I102" s="7">
+        <v>0.115953</v>
+      </c>
+      <c r="J102">
+        <v>49</v>
+      </c>
+      <c r="K102">
+        <v>100</v>
+      </c>
+      <c r="L102">
+        <v>50</v>
+      </c>
+      <c r="M102" t="s">
+        <v>15</v>
+      </c>
+      <c r="N102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>56</v>
+      </c>
+      <c r="B103">
+        <v>10987</v>
+      </c>
+      <c r="C103" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="7">
+        <f t="shared" si="27"/>
+        <v>1.1849472584629459</v>
+      </c>
+      <c r="E103" s="7">
+        <v>1.2375989999999999</v>
+      </c>
+      <c r="F103" s="7">
+        <v>0.17721799999999999</v>
+      </c>
+      <c r="G103" s="7">
+        <v>23.820281999999999</v>
+      </c>
+      <c r="H103" s="7">
+        <v>0.16422</v>
+      </c>
+      <c r="I103" s="7">
+        <v>0.122726</v>
+      </c>
+      <c r="J103">
+        <v>50</v>
+      </c>
+      <c r="K103">
+        <v>100</v>
+      </c>
+      <c r="L103">
+        <v>50</v>
+      </c>
+      <c r="M103" t="s">
+        <v>15</v>
+      </c>
+      <c r="N103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>56</v>
+      </c>
+      <c r="B104">
+        <v>10987</v>
+      </c>
+      <c r="C104" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" s="7">
+        <f t="shared" si="27"/>
+        <v>1.1207220311070447</v>
+      </c>
+      <c r="E104" s="7">
+        <v>1.17052</v>
+      </c>
+      <c r="F104" s="7">
+        <v>0.16773199999999999</v>
+      </c>
+      <c r="G104" s="7">
+        <v>23.524663</v>
+      </c>
+      <c r="H104" s="7">
+        <v>0.15543000000000001</v>
+      </c>
+      <c r="I104" s="7">
+        <v>0.120392</v>
+      </c>
+      <c r="J104">
+        <v>51</v>
+      </c>
+      <c r="K104">
+        <v>100</v>
+      </c>
+      <c r="L104">
+        <v>50</v>
+      </c>
+      <c r="M104" t="s">
+        <v>15</v>
+      </c>
+      <c r="N104" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D105" s="36">
+        <f>AVERAGE(D95:D104)</f>
         <v>1.1481196500457456</v>
       </c>
-      <c r="E102" s="36">
-        <f>AVERAGE(E92:E101)</f>
+      <c r="E105" s="36">
+        <f>AVERAGE(E95:E104)</f>
         <v>1.1991349999999998</v>
       </c>
-      <c r="F102" s="36">
-        <f>AVERAGE(F92:F101)</f>
+      <c r="F105" s="36">
+        <f>AVERAGE(F95:F104)</f>
         <v>0.17173150000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D103" s="36">
-        <f>MEDIAN(D92:D101)</f>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D106" s="36">
+        <f>MEDIAN(D95:D104)</f>
         <v>1.1334523732845381</v>
       </c>
-      <c r="E103" s="36">
-        <f>MEDIAN(E92:E101)</f>
+      <c r="E106" s="36">
+        <f>MEDIAN(E95:E104)</f>
         <v>1.183816</v>
       </c>
-      <c r="F103" s="36">
-        <f>MEDIAN(F92:F101)</f>
+      <c r="F106" s="36">
+        <f>MEDIAN(F95:F104)</f>
         <v>0.1715315</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>56</v>
-      </c>
-      <c r="B105">
-        <v>10987</v>
-      </c>
-      <c r="C105" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="7">
-        <f t="shared" ref="D105:D114" si="28">((E105/$D$8)+(E105/$E$8))/2</f>
-        <v>1.1479607122598354</v>
-      </c>
-      <c r="E105" s="7">
-        <v>1.198969</v>
-      </c>
-      <c r="F105" s="7">
-        <v>0.16498399999999999</v>
-      </c>
-      <c r="G105" s="7">
-        <v>19.436844000000001</v>
-      </c>
-      <c r="H105" s="7">
-        <v>0.15676100000000001</v>
-      </c>
-      <c r="I105" s="7">
-        <v>0.101368</v>
-      </c>
-      <c r="J105">
-        <v>42</v>
-      </c>
-      <c r="K105">
-        <v>100</v>
-      </c>
-      <c r="L105">
-        <v>100</v>
-      </c>
-      <c r="M105" t="s">
-        <v>15</v>
-      </c>
-      <c r="N105" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>56</v>
-      </c>
-      <c r="B106">
-        <v>10987</v>
-      </c>
-      <c r="C106" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="7">
-        <f t="shared" si="28"/>
-        <v>1.0731756967063131</v>
-      </c>
-      <c r="E106" s="7">
-        <v>1.1208610000000001</v>
-      </c>
-      <c r="F106" s="7">
-        <v>0.15604799999999999</v>
-      </c>
-      <c r="G106" s="7">
-        <v>18.544347999999999</v>
-      </c>
-      <c r="H106" s="7">
-        <v>0.14652100000000001</v>
-      </c>
-      <c r="I106" s="7">
-        <v>9.8779000000000006E-2</v>
-      </c>
-      <c r="J106">
-        <v>43</v>
-      </c>
-      <c r="K106">
-        <v>100</v>
-      </c>
-      <c r="L106">
-        <v>100</v>
-      </c>
-      <c r="M106" t="s">
-        <v>15</v>
-      </c>
-      <c r="N106" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>56</v>
-      </c>
-      <c r="B107">
-        <v>10987</v>
-      </c>
-      <c r="C107" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="7">
-        <f t="shared" si="28"/>
-        <v>1.1450002566331201</v>
-      </c>
-      <c r="E107" s="7">
-        <v>1.1958770000000001</v>
-      </c>
-      <c r="F107" s="7">
-        <v>0.165406</v>
-      </c>
-      <c r="G107" s="7">
-        <v>20.539697</v>
-      </c>
-      <c r="H107" s="7">
-        <v>0.159413</v>
-      </c>
-      <c r="I107" s="7">
-        <v>0.100018</v>
-      </c>
-      <c r="J107">
-        <v>44</v>
-      </c>
-      <c r="K107">
-        <v>100</v>
-      </c>
-      <c r="L107">
-        <v>100</v>
-      </c>
-      <c r="M107" t="s">
-        <v>15</v>
-      </c>
-      <c r="N107" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
@@ -22516,26 +23667,26 @@
         <v>3</v>
       </c>
       <c r="D108" s="7">
-        <f t="shared" si="28"/>
-        <v>1.1494304080512352</v>
+        <f t="shared" ref="D108:D117" si="28">((E108/$D$8)+(E108/$E$8))/2</f>
+        <v>1.1479607122598354</v>
       </c>
       <c r="E108" s="7">
-        <v>1.200504</v>
+        <v>1.198969</v>
       </c>
       <c r="F108" s="7">
-        <v>0.16708400000000001</v>
+        <v>0.16498399999999999</v>
       </c>
       <c r="G108" s="7">
-        <v>18.751373000000001</v>
+        <v>19.436844000000001</v>
       </c>
       <c r="H108" s="7">
-        <v>0.16172700000000001</v>
+        <v>0.15676100000000001</v>
       </c>
       <c r="I108" s="7">
-        <v>9.8215999999999998E-2</v>
+        <v>0.101368</v>
       </c>
       <c r="J108">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K108">
         <v>100</v>
@@ -22562,25 +23713,25 @@
       </c>
       <c r="D109" s="7">
         <f t="shared" si="28"/>
-        <v>1.1426420411710887</v>
+        <v>1.0731756967063131</v>
       </c>
       <c r="E109" s="7">
-        <v>1.193414</v>
+        <v>1.1208610000000001</v>
       </c>
       <c r="F109" s="7">
-        <v>0.171407</v>
+        <v>0.15604799999999999</v>
       </c>
       <c r="G109" s="7">
-        <v>18.323416000000002</v>
+        <v>18.544347999999999</v>
       </c>
       <c r="H109" s="7">
-        <v>0.16451499999999999</v>
+        <v>0.14652100000000001</v>
       </c>
       <c r="I109" s="7">
-        <v>9.9432999999999994E-2</v>
+        <v>9.8779000000000006E-2</v>
       </c>
       <c r="J109">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K109">
         <v>100</v>
@@ -22607,25 +23758,25 @@
       </c>
       <c r="D110" s="7">
         <f t="shared" si="28"/>
-        <v>1.1404159547118025</v>
+        <v>1.1450002566331201</v>
       </c>
       <c r="E110" s="7">
-        <v>1.1910890000000001</v>
+        <v>1.1958770000000001</v>
       </c>
       <c r="F110" s="7">
-        <v>0.16337499999999999</v>
+        <v>0.165406</v>
       </c>
       <c r="G110" s="7">
-        <v>19.08184</v>
+        <v>20.539697</v>
       </c>
       <c r="H110" s="7">
-        <v>0.15710399999999999</v>
+        <v>0.159413</v>
       </c>
       <c r="I110" s="7">
-        <v>9.9682000000000007E-2</v>
+        <v>0.100018</v>
       </c>
       <c r="J110">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K110">
         <v>100</v>
@@ -22652,25 +23803,25 @@
       </c>
       <c r="D111" s="7">
         <f t="shared" si="28"/>
-        <v>1.1400990365965233</v>
+        <v>1.1494304080512352</v>
       </c>
       <c r="E111" s="7">
-        <v>1.190758</v>
+        <v>1.200504</v>
       </c>
       <c r="F111" s="7">
-        <v>0.167044</v>
+        <v>0.16708400000000001</v>
       </c>
       <c r="G111" s="7">
-        <v>18.171569999999999</v>
+        <v>18.751373000000001</v>
       </c>
       <c r="H111" s="7">
-        <v>0.16015599999999999</v>
+        <v>0.16172700000000001</v>
       </c>
       <c r="I111" s="7">
-        <v>9.9176E-2</v>
+        <v>9.8215999999999998E-2</v>
       </c>
       <c r="J111">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K111">
         <v>100</v>
@@ -22697,25 +23848,25 @@
       </c>
       <c r="D112" s="7">
         <f t="shared" si="28"/>
-        <v>1.201337956999085</v>
+        <v>1.1426420411710887</v>
       </c>
       <c r="E112" s="7">
-        <v>1.254718</v>
+        <v>1.193414</v>
       </c>
       <c r="F112" s="7">
-        <v>0.17490800000000001</v>
+        <v>0.171407</v>
       </c>
       <c r="G112" s="7">
-        <v>19.749290999999999</v>
+        <v>18.323416000000002</v>
       </c>
       <c r="H112" s="7">
-        <v>0.17252200000000001</v>
+        <v>0.16451499999999999</v>
       </c>
       <c r="I112" s="7">
-        <v>0.10026500000000001</v>
+        <v>9.9432999999999994E-2</v>
       </c>
       <c r="J112">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K112">
         <v>100</v>
@@ -22742,25 +23893,25 @@
       </c>
       <c r="D113" s="7">
         <f t="shared" si="28"/>
-        <v>1.1276147607502287</v>
+        <v>1.1404159547118025</v>
       </c>
       <c r="E113" s="7">
-        <v>1.177719</v>
+        <v>1.1910890000000001</v>
       </c>
       <c r="F113" s="7">
-        <v>0.168327</v>
+        <v>0.16337499999999999</v>
       </c>
       <c r="G113" s="7">
-        <v>21.434521</v>
+        <v>19.08184</v>
       </c>
       <c r="H113" s="7">
-        <v>0.16345999999999999</v>
+        <v>0.15710399999999999</v>
       </c>
       <c r="I113" s="7">
-        <v>0.10000299999999999</v>
+        <v>9.9682000000000007E-2</v>
       </c>
       <c r="J113">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K113">
         <v>100</v>
@@ -22787,25 +23938,25 @@
       </c>
       <c r="D114" s="7">
         <f t="shared" si="28"/>
-        <v>1.1461042040256175</v>
+        <v>1.1400990365965233</v>
       </c>
       <c r="E114" s="7">
-        <v>1.19703</v>
+        <v>1.190758</v>
       </c>
       <c r="F114" s="7">
-        <v>0.16265399999999999</v>
+        <v>0.167044</v>
       </c>
       <c r="G114" s="7">
-        <v>18.785838999999999</v>
+        <v>18.171569999999999</v>
       </c>
       <c r="H114" s="7">
-        <v>0.15460099999999999</v>
+        <v>0.16015599999999999</v>
       </c>
       <c r="I114" s="7">
-        <v>0.101812</v>
+        <v>9.9176E-2</v>
       </c>
       <c r="J114">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K114">
         <v>100</v>
@@ -22821,169 +23972,166 @@
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D115" s="36">
-        <f>AVERAGE(D105:D114)</f>
+      <c r="A115" t="s">
+        <v>56</v>
+      </c>
+      <c r="B115">
+        <v>10987</v>
+      </c>
+      <c r="C115" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="7">
+        <f t="shared" si="28"/>
+        <v>1.201337956999085</v>
+      </c>
+      <c r="E115" s="7">
+        <v>1.254718</v>
+      </c>
+      <c r="F115" s="7">
+        <v>0.17490800000000001</v>
+      </c>
+      <c r="G115" s="7">
+        <v>19.749290999999999</v>
+      </c>
+      <c r="H115" s="7">
+        <v>0.17252200000000001</v>
+      </c>
+      <c r="I115" s="7">
+        <v>0.10026500000000001</v>
+      </c>
+      <c r="J115">
+        <v>49</v>
+      </c>
+      <c r="K115">
+        <v>100</v>
+      </c>
+      <c r="L115">
+        <v>100</v>
+      </c>
+      <c r="M115" t="s">
+        <v>15</v>
+      </c>
+      <c r="N115" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>56</v>
+      </c>
+      <c r="B116">
+        <v>10987</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="7">
+        <f t="shared" si="28"/>
+        <v>1.1276147607502287</v>
+      </c>
+      <c r="E116" s="7">
+        <v>1.177719</v>
+      </c>
+      <c r="F116" s="7">
+        <v>0.168327</v>
+      </c>
+      <c r="G116" s="7">
+        <v>21.434521</v>
+      </c>
+      <c r="H116" s="7">
+        <v>0.16345999999999999</v>
+      </c>
+      <c r="I116" s="7">
+        <v>0.10000299999999999</v>
+      </c>
+      <c r="J116">
+        <v>50</v>
+      </c>
+      <c r="K116">
+        <v>100</v>
+      </c>
+      <c r="L116">
+        <v>100</v>
+      </c>
+      <c r="M116" t="s">
+        <v>15</v>
+      </c>
+      <c r="N116" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>56</v>
+      </c>
+      <c r="B117">
+        <v>10987</v>
+      </c>
+      <c r="C117" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="7">
+        <f t="shared" si="28"/>
+        <v>1.1461042040256175</v>
+      </c>
+      <c r="E117" s="7">
+        <v>1.19703</v>
+      </c>
+      <c r="F117" s="7">
+        <v>0.16265399999999999</v>
+      </c>
+      <c r="G117" s="7">
+        <v>18.785838999999999</v>
+      </c>
+      <c r="H117" s="7">
+        <v>0.15460099999999999</v>
+      </c>
+      <c r="I117" s="7">
+        <v>0.101812</v>
+      </c>
+      <c r="J117">
+        <v>51</v>
+      </c>
+      <c r="K117">
+        <v>100</v>
+      </c>
+      <c r="L117">
+        <v>100</v>
+      </c>
+      <c r="M117" t="s">
+        <v>15</v>
+      </c>
+      <c r="N117" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D118" s="36">
+        <f>AVERAGE(D108:D117)</f>
         <v>1.1413781027904846</v>
       </c>
-      <c r="E115" s="36">
-        <f>AVERAGE(E105:E114)</f>
+      <c r="E118" s="36">
+        <f>AVERAGE(E108:E117)</f>
         <v>1.1920938999999999</v>
       </c>
-      <c r="F115" s="36">
-        <f>AVERAGE(F105:F114)</f>
+      <c r="F118" s="36">
+        <f>AVERAGE(F108:F117)</f>
         <v>0.16612370000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D116" s="36">
-        <f>MEDIAN(D105:D114)</f>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D119" s="36">
+        <f>MEDIAN(D108:D117)</f>
         <v>1.1438211489021044</v>
       </c>
-      <c r="E116" s="36">
-        <f>MEDIAN(E105:E114)</f>
+      <c r="E119" s="36">
+        <f>MEDIAN(E108:E117)</f>
         <v>1.1946455</v>
       </c>
-      <c r="F116" s="36">
-        <f>MEDIAN(F105:F114)</f>
+      <c r="F119" s="36">
+        <f>MEDIAN(F108:F117)</f>
         <v>0.16622500000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>56</v>
-      </c>
-      <c r="B118">
-        <v>10987</v>
-      </c>
-      <c r="C118" t="s">
-        <v>3</v>
-      </c>
-      <c r="D118" s="7">
-        <f t="shared" ref="D118:D127" si="29">((E118/$D$8)+(E118/$E$8))/2</f>
-        <v>1.1510590416285451</v>
-      </c>
-      <c r="E118" s="7">
-        <v>1.202205</v>
-      </c>
-      <c r="F118" s="7">
-        <v>0.16897899999999999</v>
-      </c>
-      <c r="G118" s="7">
-        <v>19.611668999999999</v>
-      </c>
-      <c r="H118" s="7">
-        <v>0.1569197</v>
-      </c>
-      <c r="I118" s="7">
-        <v>9.7892000000000007E-2</v>
-      </c>
-      <c r="J118">
-        <v>42</v>
-      </c>
-      <c r="K118">
-        <v>200</v>
-      </c>
-      <c r="L118">
-        <v>100</v>
-      </c>
-      <c r="M118" t="s">
-        <v>15</v>
-      </c>
-      <c r="N118" t="s">
-        <v>20</v>
-      </c>
-      <c r="P118">
-        <v>578699</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>56</v>
-      </c>
-      <c r="B119">
-        <v>10987</v>
-      </c>
-      <c r="C119" t="s">
-        <v>3</v>
-      </c>
-      <c r="D119" s="7">
-        <f t="shared" si="29"/>
-        <v>1.1131705713632205</v>
-      </c>
-      <c r="E119" s="7">
-        <v>1.162633</v>
-      </c>
-      <c r="F119" s="7">
-        <v>0.16370799999999999</v>
-      </c>
-      <c r="G119" s="7">
-        <v>19.917041000000001</v>
-      </c>
-      <c r="H119" s="7">
-        <v>0.15221000000000001</v>
-      </c>
-      <c r="I119" s="7">
-        <v>0.104086</v>
-      </c>
-      <c r="J119">
-        <v>43</v>
-      </c>
-      <c r="K119">
-        <v>200</v>
-      </c>
-      <c r="L119">
-        <v>100</v>
-      </c>
-      <c r="M119" t="s">
-        <v>15</v>
-      </c>
-      <c r="N119" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>56</v>
-      </c>
-      <c r="B120">
-        <v>10987</v>
-      </c>
-      <c r="C120" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" s="7">
-        <f t="shared" si="29"/>
-        <v>1.144144290484904</v>
-      </c>
-      <c r="E120" s="7">
-        <v>1.1949829999999999</v>
-      </c>
-      <c r="F120" s="7">
-        <v>0.16921700000000001</v>
-      </c>
-      <c r="G120" s="7">
-        <v>20.177575000000001</v>
-      </c>
-      <c r="H120" s="7">
-        <v>0.163302</v>
-      </c>
-      <c r="I120" s="7">
-        <v>9.6074999999999994E-2</v>
-      </c>
-      <c r="J120">
-        <v>44</v>
-      </c>
-      <c r="K120">
-        <v>200</v>
-      </c>
-      <c r="L120">
-        <v>100</v>
-      </c>
-      <c r="M120" t="s">
-        <v>15</v>
-      </c>
-      <c r="N120" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.35">
@@ -22997,26 +24145,26 @@
         <v>3</v>
       </c>
       <c r="D121" s="7">
-        <f t="shared" si="29"/>
-        <v>1.1598073220494052</v>
+        <f t="shared" ref="D121:D130" si="29">((E121/$D$8)+(E121/$E$8))/2</f>
+        <v>1.1510590416285451</v>
       </c>
       <c r="E121" s="7">
-        <v>1.2113419999999999</v>
+        <v>1.202205</v>
       </c>
       <c r="F121" s="7">
-        <v>0.17346700000000001</v>
+        <v>0.16897899999999999</v>
       </c>
       <c r="G121" s="7">
-        <v>19.064506999999999</v>
+        <v>19.611668999999999</v>
       </c>
       <c r="H121" s="7">
-        <v>0.167656</v>
+        <v>0.1569197</v>
       </c>
       <c r="I121" s="7">
-        <v>9.8664000000000002E-2</v>
+        <v>9.7892000000000007E-2</v>
       </c>
       <c r="J121">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K121">
         <v>200</v>
@@ -23029,6 +24177,9 @@
       </c>
       <c r="N121" t="s">
         <v>20</v>
+      </c>
+      <c r="P121">
+        <v>578699</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.35">
@@ -23043,25 +24194,25 @@
       </c>
       <c r="D122" s="7">
         <f t="shared" si="29"/>
-        <v>1.2609319670631289</v>
+        <v>1.1131705713632205</v>
       </c>
       <c r="E122" s="7">
-        <v>1.3169599999999999</v>
+        <v>1.162633</v>
       </c>
       <c r="F122" s="7">
-        <v>0.185339</v>
+        <v>0.16370799999999999</v>
       </c>
       <c r="G122" s="7">
-        <v>19.728273999999999</v>
+        <v>19.917041000000001</v>
       </c>
       <c r="H122" s="7">
-        <v>0.182056</v>
+        <v>0.15221000000000001</v>
       </c>
       <c r="I122" s="7">
-        <v>0.10736</v>
+        <v>0.104086</v>
       </c>
       <c r="J122">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K122">
         <v>200</v>
@@ -23088,25 +24239,25 @@
       </c>
       <c r="D123" s="7">
         <f t="shared" si="29"/>
-        <v>1.1348598344007321</v>
+        <v>1.144144290484904</v>
       </c>
       <c r="E123" s="7">
-        <v>1.1852860000000001</v>
+        <v>1.1949829999999999</v>
       </c>
       <c r="F123" s="7">
-        <v>0.16519500000000001</v>
+        <v>0.16921700000000001</v>
       </c>
       <c r="G123" s="7">
-        <v>18.609216</v>
+        <v>20.177575000000001</v>
       </c>
       <c r="H123" s="7">
-        <v>0.156998</v>
+        <v>0.163302</v>
       </c>
       <c r="I123" s="7">
-        <v>9.6268000000000006E-2</v>
+        <v>9.6074999999999994E-2</v>
       </c>
       <c r="J123">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K123">
         <v>200</v>
@@ -23133,25 +24284,25 @@
       </c>
       <c r="D124" s="7">
         <f t="shared" si="29"/>
-        <v>1.1432040681610247</v>
+        <v>1.1598073220494052</v>
       </c>
       <c r="E124" s="7">
-        <v>1.1940010000000001</v>
+        <v>1.2113419999999999</v>
       </c>
       <c r="F124" s="7">
-        <v>0.16753699999999999</v>
+        <v>0.17346700000000001</v>
       </c>
       <c r="G124" s="7">
-        <v>19.048884999999999</v>
+        <v>19.064506999999999</v>
       </c>
       <c r="H124" s="7">
-        <v>0.15864800000000001</v>
+        <v>0.167656</v>
       </c>
       <c r="I124" s="7">
-        <v>9.7682000000000005E-2</v>
+        <v>9.8664000000000002E-2</v>
       </c>
       <c r="J124">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K124">
         <v>200</v>
@@ -23178,25 +24329,25 @@
       </c>
       <c r="D125" s="7">
         <f t="shared" si="29"/>
-        <v>1.2344142506861848</v>
+        <v>1.2609319670631289</v>
       </c>
       <c r="E125" s="7">
-        <v>1.289264</v>
+        <v>1.3169599999999999</v>
       </c>
       <c r="F125" s="7">
-        <v>0.17704800000000001</v>
+        <v>0.185339</v>
       </c>
       <c r="G125" s="7">
-        <v>19.358984</v>
+        <v>19.728273999999999</v>
       </c>
       <c r="H125" s="7">
-        <v>0.17530999999999999</v>
+        <v>0.182056</v>
       </c>
       <c r="I125" s="7">
-        <v>9.6106999999999998E-2</v>
+        <v>0.10736</v>
       </c>
       <c r="J125">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K125">
         <v>200</v>
@@ -23223,25 +24374,25 @@
       </c>
       <c r="D126" s="7">
         <f t="shared" si="29"/>
-        <v>1.1480210320219579</v>
+        <v>1.1348598344007321</v>
       </c>
       <c r="E126" s="7">
-        <v>1.1990320000000001</v>
+        <v>1.1852860000000001</v>
       </c>
       <c r="F126" s="7">
-        <v>0.17256199999999999</v>
+        <v>0.16519500000000001</v>
       </c>
       <c r="G126" s="7">
-        <v>21.220148999999999</v>
+        <v>18.609216</v>
       </c>
       <c r="H126" s="7">
-        <v>0.16369600000000001</v>
+        <v>0.156998</v>
       </c>
       <c r="I126" s="7">
-        <v>0.104999</v>
+        <v>9.6268000000000006E-2</v>
       </c>
       <c r="J126">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K126">
         <v>200</v>
@@ -23268,25 +24419,25 @@
       </c>
       <c r="D127" s="7">
         <f t="shared" si="29"/>
-        <v>1.1521974574565417</v>
+        <v>1.1432040681610247</v>
       </c>
       <c r="E127" s="7">
-        <v>1.2033940000000001</v>
+        <v>1.1940010000000001</v>
       </c>
       <c r="F127" s="7">
-        <v>0.168964</v>
+        <v>0.16753699999999999</v>
       </c>
       <c r="G127" s="7">
-        <v>18.777432999999998</v>
+        <v>19.048884999999999</v>
       </c>
       <c r="H127" s="7">
-        <v>0.16165199999999999</v>
+        <v>0.15864800000000001</v>
       </c>
       <c r="I127" s="7">
-        <v>9.8603999999999997E-2</v>
+        <v>9.7682000000000005E-2</v>
       </c>
       <c r="J127">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K127">
         <v>200</v>
@@ -23302,37 +24453,172 @@
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D128" s="36">
-        <f>AVERAGE(D118:D127)</f>
+      <c r="A128" t="s">
+        <v>56</v>
+      </c>
+      <c r="B128">
+        <v>10987</v>
+      </c>
+      <c r="C128" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="7">
+        <f t="shared" si="29"/>
+        <v>1.2344142506861848</v>
+      </c>
+      <c r="E128" s="7">
+        <v>1.289264</v>
+      </c>
+      <c r="F128" s="7">
+        <v>0.17704800000000001</v>
+      </c>
+      <c r="G128" s="7">
+        <v>19.358984</v>
+      </c>
+      <c r="H128" s="7">
+        <v>0.17530999999999999</v>
+      </c>
+      <c r="I128" s="7">
+        <v>9.6106999999999998E-2</v>
+      </c>
+      <c r="J128">
+        <v>49</v>
+      </c>
+      <c r="K128">
+        <v>200</v>
+      </c>
+      <c r="L128">
+        <v>100</v>
+      </c>
+      <c r="M128" t="s">
+        <v>15</v>
+      </c>
+      <c r="N128" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>56</v>
+      </c>
+      <c r="B129">
+        <v>10987</v>
+      </c>
+      <c r="C129" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="7">
+        <f t="shared" si="29"/>
+        <v>1.1480210320219579</v>
+      </c>
+      <c r="E129" s="7">
+        <v>1.1990320000000001</v>
+      </c>
+      <c r="F129" s="7">
+        <v>0.17256199999999999</v>
+      </c>
+      <c r="G129" s="7">
+        <v>21.220148999999999</v>
+      </c>
+      <c r="H129" s="7">
+        <v>0.16369600000000001</v>
+      </c>
+      <c r="I129" s="7">
+        <v>0.104999</v>
+      </c>
+      <c r="J129">
+        <v>50</v>
+      </c>
+      <c r="K129">
+        <v>200</v>
+      </c>
+      <c r="L129">
+        <v>100</v>
+      </c>
+      <c r="M129" t="s">
+        <v>15</v>
+      </c>
+      <c r="N129" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>56</v>
+      </c>
+      <c r="B130">
+        <v>10987</v>
+      </c>
+      <c r="C130" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="7">
+        <f t="shared" si="29"/>
+        <v>1.1521974574565417</v>
+      </c>
+      <c r="E130" s="7">
+        <v>1.2033940000000001</v>
+      </c>
+      <c r="F130" s="7">
+        <v>0.168964</v>
+      </c>
+      <c r="G130" s="7">
+        <v>18.777432999999998</v>
+      </c>
+      <c r="H130" s="7">
+        <v>0.16165199999999999</v>
+      </c>
+      <c r="I130" s="7">
+        <v>9.8603999999999997E-2</v>
+      </c>
+      <c r="J130">
+        <v>51</v>
+      </c>
+      <c r="K130">
+        <v>200</v>
+      </c>
+      <c r="L130">
+        <v>100</v>
+      </c>
+      <c r="M130" t="s">
+        <v>15</v>
+      </c>
+      <c r="N130" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D131" s="36">
+        <f>AVERAGE(D121:D130)</f>
         <v>1.1641809835315644</v>
       </c>
-      <c r="E128" s="36">
-        <f>AVERAGE(E118:E127)</f>
+      <c r="E131" s="36">
+        <f>AVERAGE(E121:E130)</f>
         <v>1.2159099999999998</v>
       </c>
-      <c r="F128" s="36">
-        <f>AVERAGE(F118:F127)</f>
+      <c r="F131" s="36">
+        <f>AVERAGE(F121:F130)</f>
         <v>0.17120160000000001</v>
       </c>
     </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D129" s="36">
-        <f>MEDIAN(D118:D127)</f>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D132" s="36">
+        <f>MEDIAN(D121:D130)</f>
         <v>1.1495400368252515</v>
       </c>
-      <c r="E129" s="36">
-        <f>MEDIAN(E118:E127)</f>
+      <c r="E132" s="36">
+        <f>MEDIAN(E121:E130)</f>
         <v>1.2006185</v>
       </c>
-      <c r="F129" s="36">
-        <f>MEDIAN(F118:F127)</f>
+      <c r="F132" s="36">
+        <f>MEDIAN(F121:F130)</f>
         <v>0.169098</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A66:O66"/>
+    <mergeCell ref="A18:O18"/>
+    <mergeCell ref="A69:O69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/results/results_2_frequencies_subsetted_by_domain.xlsx
+++ b/results/results_2_frequencies_subsetted_by_domain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9B59CC-AF01-4517-93F5-5A39FCE6EFFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAA7669-4338-4EB2-A749-6DCD2E3A469E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="19200" windowHeight="10140" tabRatio="818" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="10140" tabRatio="818" firstSheet="16" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary" sheetId="30" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3499" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3519" uniqueCount="189">
   <si>
     <t>epochs</t>
   </si>
@@ -4708,8 +4708,8 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7931,8 +7931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5377C852-8DC9-4859-9A6E-541EF9FC1F47}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -30245,11 +30245,11 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EC5186-3C9F-4963-A58C-8828665F06F5}">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30676,7 +30676,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="7">
-        <f t="shared" ref="D21:D36" si="0">((E21/$E$7)+(F21/$F$7))/2</f>
+        <f t="shared" ref="D21:D35" si="0">((E21/$E$7)+(F21/$F$7))/2</f>
         <v>0.98889965417225678</v>
       </c>
       <c r="E21" s="7">
@@ -30713,7 +30713,7 @@
         <v>20</v>
       </c>
       <c r="P21" s="9">
-        <f t="shared" ref="P21:P55" si="1">(M21*L21*K21)/B21</f>
+        <f t="shared" ref="P21:P62" si="1">(M21*L21*K21)/B21</f>
         <v>577.61732851985562</v>
       </c>
     </row>
@@ -31179,13 +31179,56 @@
       <c r="P32" s="9"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="P33" s="9"/>
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33">
+        <v>277</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0183502863883409</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1.090198</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.13727700000000001</v>
+      </c>
+      <c r="G33" s="7">
+        <v>14.205</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0.12031</v>
+      </c>
+      <c r="I33" s="7">
+        <v>6.1123999999999998E-2</v>
+      </c>
+      <c r="J33">
+        <v>42</v>
+      </c>
+      <c r="K33">
+        <v>100</v>
+      </c>
+      <c r="L33">
+        <v>100</v>
+      </c>
+      <c r="M33" s="1">
+        <v>32</v>
+      </c>
+      <c r="N33" t="s">
+        <v>15</v>
+      </c>
+      <c r="O33" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="9">
+        <f t="shared" si="1"/>
+        <v>1155.2346570397112</v>
+      </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
@@ -31199,25 +31242,25 @@
       </c>
       <c r="D34" s="7">
         <f t="shared" si="0"/>
-        <v>1.0183502863883409</v>
+        <v>1.0113051489316529</v>
       </c>
       <c r="E34" s="7">
-        <v>1.090198</v>
+        <v>1.087053</v>
       </c>
       <c r="F34" s="7">
-        <v>0.13727700000000001</v>
+        <v>0.13569700000000001</v>
       </c>
       <c r="G34" s="7">
-        <v>14.205</v>
+        <v>15.464643000000001</v>
       </c>
       <c r="H34" s="7">
-        <v>0.12031</v>
+        <v>0.11831999999999999</v>
       </c>
       <c r="I34" s="7">
-        <v>6.1123999999999998E-2</v>
+        <v>6.7688999999999999E-2</v>
       </c>
       <c r="J34">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K34">
         <v>100</v>
@@ -31251,25 +31294,25 @@
       </c>
       <c r="D35" s="7">
         <f t="shared" si="0"/>
-        <v>1.0113051489316529</v>
+        <v>0.96522390571605277</v>
       </c>
       <c r="E35" s="7">
-        <v>1.087053</v>
+        <v>1.0010810000000001</v>
       </c>
       <c r="F35" s="7">
-        <v>0.13569700000000001</v>
+        <v>0.134737</v>
       </c>
       <c r="G35" s="7">
-        <v>15.464643000000001</v>
+        <v>13.484724</v>
       </c>
       <c r="H35" s="7">
-        <v>0.11831999999999999</v>
+        <v>0.11590399999999999</v>
       </c>
       <c r="I35" s="7">
-        <v>6.7688999999999999E-2</v>
+        <v>7.0889999999999995E-2</v>
       </c>
       <c r="J35">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K35">
         <v>100</v>
@@ -31302,26 +31345,26 @@
         <v>6</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" si="0"/>
-        <v>0.96522390571605277</v>
+        <f t="shared" ref="D36:D42" si="4">((E36/$E$7)+(F36/$F$7))/2</f>
+        <v>0.94252102999720455</v>
       </c>
       <c r="E36" s="7">
-        <v>1.0010810000000001</v>
+        <v>0.96771799999999997</v>
       </c>
       <c r="F36" s="7">
-        <v>0.134737</v>
+        <v>0.13297500000000001</v>
       </c>
       <c r="G36" s="7">
-        <v>13.484724</v>
+        <v>11.073032</v>
       </c>
       <c r="H36" s="7">
-        <v>0.11590399999999999</v>
+        <v>0.11681</v>
       </c>
       <c r="I36" s="7">
-        <v>7.0889999999999995E-2</v>
+        <v>5.6163999999999999E-2</v>
       </c>
       <c r="J36">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>100</v>
@@ -31329,19 +31372,7 @@
       <c r="L36">
         <v>100</v>
       </c>
-      <c r="M36" s="1">
-        <v>32</v>
-      </c>
-      <c r="N36" t="s">
-        <v>15</v>
-      </c>
-      <c r="O36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P36" s="9">
-        <f t="shared" si="1"/>
-        <v>1155.2346570397112</v>
-      </c>
+      <c r="P36" s="9"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
@@ -31354,26 +31385,26 @@
         <v>6</v>
       </c>
       <c r="D37" s="7">
-        <f t="shared" ref="D37:D43" si="4">((E37/$E$7)+(F37/$F$7))/2</f>
-        <v>0.94252102999720455</v>
+        <f t="shared" si="4"/>
+        <v>1.0222114310319663</v>
       </c>
       <c r="E37" s="7">
-        <v>0.96771799999999997</v>
+        <v>1.089898</v>
       </c>
       <c r="F37" s="7">
-        <v>0.13297500000000001</v>
+        <v>0.138433</v>
       </c>
       <c r="G37" s="7">
-        <v>11.073032</v>
+        <v>13.647982000000001</v>
       </c>
       <c r="H37" s="7">
-        <v>0.11681</v>
+        <v>0.12628500000000001</v>
       </c>
       <c r="I37" s="7">
-        <v>5.6163999999999999E-2</v>
+        <v>6.5240000000000006E-2</v>
       </c>
       <c r="J37">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K37">
         <v>100</v>
@@ -31395,25 +31426,25 @@
       </c>
       <c r="D38" s="7">
         <f t="shared" si="4"/>
-        <v>1.0222114310319663</v>
+        <v>0.97871013771779625</v>
       </c>
       <c r="E38" s="7">
-        <v>1.089898</v>
+        <v>1.0482800000000001</v>
       </c>
       <c r="F38" s="7">
-        <v>0.138433</v>
+        <v>0.131859</v>
       </c>
       <c r="G38" s="7">
-        <v>13.647982000000001</v>
+        <v>14.188673</v>
       </c>
       <c r="H38" s="7">
-        <v>0.12628500000000001</v>
+        <v>0.11443200000000001</v>
       </c>
       <c r="I38" s="7">
-        <v>6.5240000000000006E-2</v>
+        <v>6.3544000000000003E-2</v>
       </c>
       <c r="J38">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
         <v>100</v>
@@ -31435,25 +31466,25 @@
       </c>
       <c r="D39" s="7">
         <f t="shared" si="4"/>
-        <v>0.97871013771779625</v>
+        <v>1.003579677062568</v>
       </c>
       <c r="E39" s="7">
-        <v>1.0482800000000001</v>
+        <v>1.0552550000000001</v>
       </c>
       <c r="F39" s="7">
-        <v>0.131859</v>
+        <v>0.13802800000000001</v>
       </c>
       <c r="G39" s="7">
-        <v>14.188673</v>
+        <v>15.040861</v>
       </c>
       <c r="H39" s="7">
-        <v>0.11443200000000001</v>
+        <v>0.12128800000000001</v>
       </c>
       <c r="I39" s="7">
-        <v>6.3544000000000003E-2</v>
+        <v>7.1647000000000002E-2</v>
       </c>
       <c r="J39">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39">
         <v>100</v>
@@ -31475,25 +31506,25 @@
       </c>
       <c r="D40" s="7">
         <f t="shared" si="4"/>
-        <v>1.003579677062568</v>
+        <v>0.95082713168437272</v>
       </c>
       <c r="E40" s="7">
-        <v>1.0552550000000001</v>
+        <v>1.0005790000000001</v>
       </c>
       <c r="F40" s="7">
-        <v>0.13802800000000001</v>
+        <v>0.130659</v>
       </c>
       <c r="G40" s="7">
-        <v>15.040861</v>
+        <v>13.390243999999999</v>
       </c>
       <c r="H40" s="7">
-        <v>0.12128800000000001</v>
+        <v>0.111705</v>
       </c>
       <c r="I40" s="7">
-        <v>7.1647000000000002E-2</v>
+        <v>6.2074999999999998E-2</v>
       </c>
       <c r="J40">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
         <v>100</v>
@@ -31515,25 +31546,25 @@
       </c>
       <c r="D41" s="7">
         <f t="shared" si="4"/>
-        <v>0.95082713168437272</v>
+        <v>0.99545334706626876</v>
       </c>
       <c r="E41" s="7">
-        <v>1.0005790000000001</v>
+        <v>1.030904</v>
       </c>
       <c r="F41" s="7">
-        <v>0.130659</v>
+        <v>0.13917599999999999</v>
       </c>
       <c r="G41" s="7">
-        <v>13.390243999999999</v>
+        <v>15.273854</v>
       </c>
       <c r="H41" s="7">
-        <v>0.111705</v>
+        <v>0.11965000000000001</v>
       </c>
       <c r="I41" s="7">
-        <v>6.2074999999999998E-2</v>
+        <v>5.9281E-2</v>
       </c>
       <c r="J41">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41">
         <v>100</v>
@@ -31555,25 +31586,25 @@
       </c>
       <c r="D42" s="7">
         <f t="shared" si="4"/>
-        <v>0.99545334706626876</v>
+        <v>1.0202140414940297</v>
       </c>
       <c r="E42" s="7">
-        <v>1.030904</v>
+        <v>1.088916</v>
       </c>
       <c r="F42" s="7">
-        <v>0.13917599999999999</v>
+        <v>0.13799800000000001</v>
       </c>
       <c r="G42" s="7">
-        <v>15.273854</v>
+        <v>14.586864</v>
       </c>
       <c r="H42" s="7">
-        <v>0.11965000000000001</v>
+        <v>0.115632</v>
       </c>
       <c r="I42" s="7">
-        <v>5.9281E-2</v>
+        <v>6.1600000000000002E-2</v>
       </c>
       <c r="J42">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42">
         <v>100</v>
@@ -31584,57 +31615,35 @@
       <c r="P42" s="9"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43">
-        <v>277</v>
-      </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="7">
-        <f t="shared" si="4"/>
-        <v>1.0202140414940297</v>
-      </c>
-      <c r="E43" s="7">
-        <v>1.088916</v>
-      </c>
-      <c r="F43" s="7">
-        <v>0.13799800000000001</v>
-      </c>
-      <c r="G43" s="7">
-        <v>14.586864</v>
-      </c>
-      <c r="H43" s="7">
-        <v>0.115632</v>
-      </c>
-      <c r="I43" s="7">
-        <v>6.1600000000000002E-2</v>
-      </c>
-      <c r="J43">
-        <v>51</v>
-      </c>
-      <c r="K43">
-        <v>100</v>
-      </c>
-      <c r="L43">
-        <v>100</v>
-      </c>
+      <c r="D43" s="36">
+        <f>AVERAGE(D33:D42)</f>
+        <v>0.9908396137090254</v>
+      </c>
+      <c r="E43" s="36">
+        <f>AVERAGE(E33:E42)</f>
+        <v>1.0459881999999998</v>
+      </c>
+      <c r="F43" s="36">
+        <f>AVERAGE(F33:F42)</f>
+        <v>0.13568390000000002</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
       <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D44" s="36">
-        <f>AVERAGE(D34:D43)</f>
-        <v>0.9908396137090254</v>
+        <f>MEDIAN(D33:D42)</f>
+        <v>0.99951651206441838</v>
       </c>
       <c r="E44" s="36">
-        <f>AVERAGE(E34:E43)</f>
-        <v>1.0459881999999998</v>
+        <f>MEDIAN(E33:E42)</f>
+        <v>1.0517675</v>
       </c>
       <c r="F44" s="36">
-        <f>AVERAGE(F34:F43)</f>
-        <v>0.13568390000000002</v>
+        <f>MEDIAN(F33:F42)</f>
+        <v>0.13648700000000002</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -31642,90 +31651,293 @@
       <c r="P44" s="9"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D45" s="36">
-        <f>MEDIAN(D34:D43)</f>
-        <v>0.99951651206441838</v>
-      </c>
-      <c r="E45" s="36">
-        <f>MEDIAN(E34:E43)</f>
-        <v>1.0517675</v>
-      </c>
-      <c r="F45" s="36">
-        <f>MEDIAN(F34:F43)</f>
-        <v>0.13648700000000002</v>
-      </c>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="P45" s="9"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46">
+        <v>277</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="7">
+        <f t="shared" ref="D46:D55" si="5">((E46/$E$7)+(F46/$F$7))/2</f>
+        <v>0.97482248017508932</v>
+      </c>
+      <c r="E46" s="38">
+        <v>1.021193</v>
+      </c>
+      <c r="F46" s="38">
+        <v>0.13462099999999999</v>
+      </c>
+      <c r="G46" s="7">
+        <v>13.647618</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0.114993</v>
+      </c>
+      <c r="I46" s="7">
+        <v>6.3361000000000001E-2</v>
+      </c>
+      <c r="J46">
+        <v>42</v>
+      </c>
+      <c r="K46">
+        <v>200</v>
+      </c>
+      <c r="L46">
+        <v>100</v>
+      </c>
       <c r="P46" s="9"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47">
+        <v>277</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="5"/>
+        <v>0.93353433951024689</v>
+      </c>
+      <c r="E47" s="38">
+        <v>0.96970999999999996</v>
+      </c>
+      <c r="F47" s="38">
+        <v>0.13009899999999999</v>
+      </c>
+      <c r="G47" s="7">
+        <v>13.247975</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0.113751</v>
+      </c>
+      <c r="I47" s="7">
+        <v>6.5625000000000003E-2</v>
+      </c>
+      <c r="J47">
+        <v>43</v>
+      </c>
+      <c r="K47">
+        <v>200</v>
+      </c>
+      <c r="L47">
+        <v>100</v>
+      </c>
       <c r="P47" s="9"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>277</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="7">
+        <f t="shared" si="5"/>
+        <v>0.96016730788169502</v>
+      </c>
+      <c r="E48" s="38">
+        <v>0.99451900000000004</v>
+      </c>
+      <c r="F48" s="38">
+        <v>0.13422000000000001</v>
+      </c>
+      <c r="G48" s="7">
+        <v>13.084994</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0.114094</v>
+      </c>
+      <c r="I48" s="7">
+        <v>6.4396999999999996E-2</v>
+      </c>
+      <c r="J48">
+        <v>44</v>
+      </c>
+      <c r="K48">
+        <v>200</v>
+      </c>
+      <c r="L48">
+        <v>100</v>
+      </c>
       <c r="P48" s="9"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>277</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="7">
+        <f t="shared" si="5"/>
+        <v>0.92665829115762499</v>
+      </c>
+      <c r="E49" s="38">
+        <v>0.95507299999999995</v>
+      </c>
+      <c r="F49" s="38">
+        <v>0.130215</v>
+      </c>
+      <c r="G49" s="7">
+        <v>10.403596</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0.11346299999999999</v>
+      </c>
+      <c r="I49" s="7">
+        <v>5.5502000000000003E-2</v>
+      </c>
+      <c r="J49">
+        <v>45</v>
+      </c>
+      <c r="K49">
+        <v>200</v>
+      </c>
+      <c r="L49">
+        <v>100</v>
+      </c>
       <c r="P49" s="9"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50">
+        <v>277</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="7">
+        <f t="shared" si="5"/>
+        <v>0.99193836734328866</v>
+      </c>
+      <c r="E50" s="38">
+        <v>1.053555</v>
+      </c>
+      <c r="F50" s="38">
+        <v>0.13491600000000001</v>
+      </c>
+      <c r="G50" s="7">
+        <v>13.022247</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0.12266100000000001</v>
+      </c>
+      <c r="I50" s="7">
+        <v>6.3419000000000003E-2</v>
+      </c>
+      <c r="J50">
+        <v>46</v>
+      </c>
+      <c r="K50">
+        <v>200</v>
+      </c>
+      <c r="L50">
+        <v>100</v>
+      </c>
       <c r="P50" s="9"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51">
+        <v>277</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="7">
+        <f t="shared" si="5"/>
+        <v>0.95113699279296893</v>
+      </c>
+      <c r="E51" s="38">
+        <v>1.008939</v>
+      </c>
+      <c r="F51" s="38">
+        <v>0.12955</v>
+      </c>
+      <c r="G51" s="7">
+        <v>10.570684</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0.116062</v>
+      </c>
+      <c r="I51" s="7">
+        <v>5.7561000000000001E-2</v>
+      </c>
+      <c r="J51">
+        <v>47</v>
+      </c>
+      <c r="K51">
+        <v>200</v>
+      </c>
+      <c r="L51">
+        <v>100</v>
+      </c>
       <c r="P51" s="9"/>
     </row>
-    <row r="52" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A52" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="51"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="51"/>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>277</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="7">
+        <f t="shared" si="5"/>
+        <v>1.0114430311627522</v>
+      </c>
+      <c r="E52" s="38">
+        <v>1.057213</v>
+      </c>
+      <c r="F52" s="38">
+        <v>0.140014</v>
+      </c>
+      <c r="G52" s="7">
+        <v>14.504419</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0.120643</v>
+      </c>
+      <c r="I52" s="7">
+        <v>6.8288000000000001E-2</v>
+      </c>
+      <c r="J52">
+        <v>48</v>
+      </c>
+      <c r="K52">
+        <v>200</v>
+      </c>
+      <c r="L52">
+        <v>100</v>
+      </c>
+      <c r="P52" s="9"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
@@ -31735,49 +31947,37 @@
         <v>277</v>
       </c>
       <c r="C53" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D53" s="7">
-        <f t="shared" ref="D53:D55" si="5">((E53/$E$7)+(F53/$F$7))/2</f>
-        <v>1.07645531432141</v>
-      </c>
-      <c r="E53" s="7">
-        <v>1.1372340000000001</v>
-      </c>
-      <c r="F53" s="7">
-        <v>0.147284</v>
+        <f t="shared" si="5"/>
+        <v>0.97561029877414884</v>
+      </c>
+      <c r="E53" s="38">
+        <v>1.029677</v>
+      </c>
+      <c r="F53" s="38">
+        <v>0.133632</v>
       </c>
       <c r="G53" s="7">
-        <v>27.783618000000001</v>
+        <v>14.309419999999999</v>
       </c>
       <c r="H53" s="7">
-        <v>0.12789400000000001</v>
+        <v>0.112331</v>
       </c>
       <c r="I53" s="7">
-        <v>0.10034</v>
+        <v>6.2715999999999994E-2</v>
       </c>
       <c r="J53">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K53">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L53">
-        <v>50</v>
-      </c>
-      <c r="M53" s="1">
-        <v>32</v>
-      </c>
-      <c r="N53" t="s">
-        <v>15</v>
-      </c>
-      <c r="O53" t="s">
-        <v>20</v>
-      </c>
-      <c r="P53" s="9">
-        <f t="shared" si="1"/>
-        <v>577.61732851985562</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="P53" s="9"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
@@ -31787,49 +31987,37 @@
         <v>277</v>
       </c>
       <c r="C54" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D54" s="7">
         <f t="shared" si="5"/>
-        <v>1.0431418348754362</v>
-      </c>
-      <c r="E54" s="7">
-        <v>1.1160129999999999</v>
-      </c>
-      <c r="F54" s="7">
-        <v>0.14072299999999999</v>
+        <v>0.99987493589597798</v>
+      </c>
+      <c r="E54" s="38">
+        <v>1.0429980000000001</v>
+      </c>
+      <c r="F54" s="38">
+        <v>0.13871700000000001</v>
       </c>
       <c r="G54" s="7">
-        <v>23.749433</v>
+        <v>15.310528</v>
       </c>
       <c r="H54" s="7">
-        <v>0.12551000000000001</v>
+        <v>0.118737</v>
       </c>
       <c r="I54" s="7">
-        <v>8.3919999999999995E-2</v>
+        <v>6.2056E-2</v>
       </c>
       <c r="J54">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K54">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L54">
-        <v>50</v>
-      </c>
-      <c r="M54" s="1">
-        <v>32</v>
-      </c>
-      <c r="N54" t="s">
-        <v>15</v>
-      </c>
-      <c r="O54" t="s">
-        <v>20</v>
-      </c>
-      <c r="P54" s="9">
-        <f t="shared" si="1"/>
-        <v>577.61732851985562</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="P54" s="9"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
@@ -31839,178 +32027,96 @@
         <v>277</v>
       </c>
       <c r="C55" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D55" s="7">
         <f t="shared" si="5"/>
-        <v>0.93908496117987394</v>
-      </c>
-      <c r="E55" s="7">
-        <v>0.96970999999999996</v>
-      </c>
-      <c r="F55" s="7">
-        <v>0.13169900000000001</v>
+        <v>0.97717457758140602</v>
+      </c>
+      <c r="E55" s="38">
+        <v>1.0253509999999999</v>
+      </c>
+      <c r="F55" s="38">
+        <v>0.13470299999999999</v>
       </c>
       <c r="G55" s="7">
-        <v>20.010037000000001</v>
+        <v>12.961238</v>
       </c>
       <c r="H55" s="7">
-        <v>0.108365</v>
+        <v>0.110613</v>
       </c>
       <c r="I55" s="7">
-        <v>6.9144999999999998E-2</v>
+        <v>5.4995000000000002E-2</v>
       </c>
       <c r="J55">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K55">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L55">
-        <v>50</v>
-      </c>
-      <c r="M55" s="1">
-        <v>32</v>
-      </c>
-      <c r="N55" t="s">
-        <v>15</v>
-      </c>
-      <c r="O55" t="s">
-        <v>20</v>
-      </c>
-      <c r="P55" s="9">
-        <f t="shared" si="1"/>
-        <v>577.61732851985562</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="P55" s="9"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D56" s="36">
-        <f>AVERAGE(D53:D55)</f>
-        <v>1.0195607034589067</v>
+        <f>AVERAGE(D46:D55)</f>
+        <v>0.9702360622275199</v>
       </c>
       <c r="E56" s="36">
-        <f>AVERAGE(E53:E55)</f>
-        <v>1.074319</v>
+        <f>AVERAGE(E46:E55)</f>
+        <v>1.0158228</v>
       </c>
       <c r="F56" s="36">
-        <f t="shared" ref="F56" si="6">AVERAGE(F53:F55)</f>
-        <v>0.139902</v>
+        <f>AVERAGE(F46:F55)</f>
+        <v>0.13406869999999999</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
+      <c r="P56" s="9"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="D57" s="36">
+        <f>MEDIAN(D46:D55)</f>
+        <v>0.97521638947461908</v>
+      </c>
+      <c r="E57" s="36">
+        <f>MEDIAN(E46:E55)</f>
+        <v>1.023272</v>
+      </c>
+      <c r="F57" s="36">
+        <f>MEDIAN(F46:F55)</f>
+        <v>0.1344205</v>
+      </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
+      <c r="P57" s="9"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>277</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="P58" s="9"/>
+    </row>
+    <row r="59" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A59" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="7">
-        <f t="shared" ref="D58:D60" si="7">((E58/$E$7)+(F58/$F$7))/2</f>
-        <v>1.0726854591597896</v>
-      </c>
-      <c r="E58" s="7">
-        <v>1.1441079999999999</v>
-      </c>
-      <c r="F58" s="7">
-        <v>0.14521200000000001</v>
-      </c>
-      <c r="G58" s="7">
-        <v>31.557065999999999</v>
-      </c>
-      <c r="H58" s="7">
-        <v>0.12953300000000001</v>
-      </c>
-      <c r="I58" s="7">
-        <v>0.111709</v>
-      </c>
-      <c r="J58">
-        <v>42</v>
-      </c>
-      <c r="K58">
-        <v>100</v>
-      </c>
-      <c r="L58">
-        <v>100</v>
-      </c>
-      <c r="M58" s="1">
-        <v>32</v>
-      </c>
-      <c r="N58" t="s">
-        <v>15</v>
-      </c>
-      <c r="O58" t="s">
-        <v>20</v>
-      </c>
-      <c r="P58" s="9">
-        <f t="shared" ref="P58:P60" si="8">(M58*L58*K58)/B58</f>
-        <v>1155.2346570397112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>277</v>
-      </c>
-      <c r="C59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="7">
-        <f t="shared" si="7"/>
-        <v>1.0351040032899648</v>
-      </c>
-      <c r="E59" s="7">
-        <v>1.0805800000000001</v>
-      </c>
-      <c r="F59" s="7">
-        <v>0.143485</v>
-      </c>
-      <c r="G59" s="7">
-        <v>26.358661000000001</v>
-      </c>
-      <c r="H59" s="7">
-        <v>0.118878</v>
-      </c>
-      <c r="I59" s="7">
-        <v>8.6308999999999997E-2</v>
-      </c>
-      <c r="J59">
-        <v>43</v>
-      </c>
-      <c r="K59">
-        <v>100</v>
-      </c>
-      <c r="L59">
-        <v>100</v>
-      </c>
-      <c r="M59" s="1">
-        <v>32</v>
-      </c>
-      <c r="N59" t="s">
-        <v>15</v>
-      </c>
-      <c r="O59" t="s">
-        <v>20</v>
-      </c>
-      <c r="P59" s="9">
-        <f t="shared" si="8"/>
-        <v>1155.2346570397112</v>
-      </c>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="51"/>
+      <c r="M59" s="51"/>
+      <c r="N59" s="51"/>
+      <c r="O59" s="51"/>
+      <c r="P59" s="51"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
@@ -32023,32 +32129,32 @@
         <v>3</v>
       </c>
       <c r="D60" s="7">
-        <f t="shared" si="7"/>
-        <v>1.0067012139273073</v>
+        <f t="shared" ref="D60:D62" si="6">((E60/$E$7)+(F60/$F$7))/2</f>
+        <v>1.07645531432141</v>
       </c>
       <c r="E60" s="7">
-        <v>1.0687599999999999</v>
+        <v>1.1372340000000001</v>
       </c>
       <c r="F60" s="7">
-        <v>0.136992</v>
+        <v>0.147284</v>
       </c>
       <c r="G60" s="7">
-        <v>25.671219000000001</v>
+        <v>27.783618000000001</v>
       </c>
       <c r="H60" s="7">
-        <v>0.11576500000000001</v>
+        <v>0.12789400000000001</v>
       </c>
       <c r="I60" s="7">
-        <v>7.9544000000000004E-2</v>
+        <v>0.10034</v>
       </c>
       <c r="J60">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K60">
         <v>100</v>
       </c>
       <c r="L60">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M60" s="1">
         <v>32</v>
@@ -32060,127 +32166,138 @@
         <v>20</v>
       </c>
       <c r="P60" s="9">
-        <f t="shared" si="8"/>
-        <v>1155.2346570397112</v>
+        <f t="shared" si="1"/>
+        <v>577.61732851985562</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D61" s="36">
-        <f>AVERAGE(D58:D60)</f>
-        <v>1.0381635587923539</v>
-      </c>
-      <c r="E61" s="36">
-        <f>AVERAGE(E58:E60)</f>
-        <v>1.0978159999999999</v>
-      </c>
-      <c r="F61" s="36">
-        <f t="shared" ref="F61" si="9">AVERAGE(F58:F60)</f>
-        <v>0.14189633333333332</v>
+      <c r="A61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61">
+        <v>277</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="7">
+        <f t="shared" si="6"/>
+        <v>1.0431418348754362</v>
+      </c>
+      <c r="E61" s="7">
+        <v>1.1160129999999999</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0.14072299999999999</v>
+      </c>
+      <c r="G61" s="7">
+        <v>23.749433</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0.12551000000000001</v>
+      </c>
+      <c r="I61" s="7">
+        <v>8.3919999999999995E-2</v>
+      </c>
+      <c r="J61">
+        <v>43</v>
+      </c>
+      <c r="K61">
+        <v>100</v>
+      </c>
+      <c r="L61">
+        <v>50</v>
+      </c>
+      <c r="M61" s="1">
+        <v>32</v>
+      </c>
+      <c r="N61" t="s">
+        <v>15</v>
+      </c>
+      <c r="O61" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" s="9">
+        <f t="shared" si="1"/>
+        <v>577.61732851985562</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62">
+        <v>277</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="7">
+        <f t="shared" si="6"/>
+        <v>0.93908496117987394</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0.96970999999999996</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0.13169900000000001</v>
+      </c>
+      <c r="G62" s="7">
+        <v>20.010037000000001</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0.108365</v>
+      </c>
+      <c r="I62" s="7">
+        <v>6.9144999999999998E-2</v>
+      </c>
+      <c r="J62">
+        <v>44</v>
+      </c>
+      <c r="K62">
+        <v>100</v>
+      </c>
+      <c r="L62">
+        <v>50</v>
+      </c>
+      <c r="M62" s="1">
+        <v>32</v>
+      </c>
+      <c r="N62" t="s">
+        <v>15</v>
+      </c>
+      <c r="O62" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="9">
+        <f t="shared" si="1"/>
+        <v>577.61732851985562</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>57</v>
-      </c>
-      <c r="B63">
-        <v>277</v>
-      </c>
-      <c r="C63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="7">
-        <f t="shared" ref="D63:D65" si="10">((E63/$E$7)+(F63/$F$7))/2</f>
-        <v>1.0338731800806047</v>
-      </c>
-      <c r="E63">
-        <v>1.0961110000000001</v>
-      </c>
-      <c r="F63">
-        <v>0.140904</v>
-      </c>
-      <c r="G63">
-        <v>28.650158999999999</v>
-      </c>
-      <c r="H63">
-        <v>0.121949</v>
-      </c>
-      <c r="I63">
-        <v>9.5982999999999999E-2</v>
-      </c>
-      <c r="J63">
-        <v>42</v>
-      </c>
-      <c r="K63">
-        <v>100</v>
-      </c>
-      <c r="L63">
-        <v>100</v>
-      </c>
-      <c r="M63" s="1">
-        <v>64</v>
-      </c>
-      <c r="N63" t="s">
-        <v>15</v>
-      </c>
-      <c r="O63" t="s">
-        <v>20</v>
-      </c>
-      <c r="P63" s="9">
-        <f t="shared" ref="P63:P65" si="11">(M63*L63*K63)/B63</f>
-        <v>2310.4693140794225</v>
-      </c>
+      <c r="D63" s="36">
+        <f>AVERAGE(D60:D62)</f>
+        <v>1.0195607034589067</v>
+      </c>
+      <c r="E63" s="36">
+        <f>AVERAGE(E60:E62)</f>
+        <v>1.074319</v>
+      </c>
+      <c r="F63" s="36">
+        <f t="shared" ref="F63" si="7">AVERAGE(F60:F62)</f>
+        <v>0.139902</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>57</v>
-      </c>
-      <c r="B64">
-        <v>277</v>
-      </c>
-      <c r="C64" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="7">
-        <f t="shared" si="10"/>
-        <v>1.130126770871883</v>
-      </c>
-      <c r="E64">
-        <v>1.2138709999999999</v>
-      </c>
-      <c r="F64">
-        <v>0.15176999999999999</v>
-      </c>
-      <c r="G64">
-        <v>32.522351</v>
-      </c>
-      <c r="H64">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="I64">
-        <v>0.121309</v>
-      </c>
-      <c r="J64">
-        <v>43</v>
-      </c>
-      <c r="K64">
-        <v>100</v>
-      </c>
-      <c r="L64">
-        <v>100</v>
-      </c>
-      <c r="M64" s="1">
-        <v>64</v>
-      </c>
-      <c r="N64" t="s">
-        <v>15</v>
-      </c>
-      <c r="O64" t="s">
-        <v>20</v>
-      </c>
-      <c r="P64" s="9">
-        <f t="shared" si="11"/>
-        <v>2310.4693140794225</v>
-      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
@@ -32193,26 +32310,26 @@
         <v>3</v>
       </c>
       <c r="D65" s="7">
-        <f t="shared" si="10"/>
-        <v>1.0248172213957778</v>
-      </c>
-      <c r="E65">
-        <v>1.0647139999999999</v>
-      </c>
-      <c r="F65">
-        <v>0.142794</v>
-      </c>
-      <c r="G65">
-        <v>25.879951999999999</v>
-      </c>
-      <c r="H65">
-        <v>0.114981</v>
-      </c>
-      <c r="I65">
-        <v>8.2635E-2</v>
+        <f t="shared" ref="D65:D67" si="8">((E65/$E$7)+(F65/$F$7))/2</f>
+        <v>1.0726854591597896</v>
+      </c>
+      <c r="E65" s="7">
+        <v>1.1441079999999999</v>
+      </c>
+      <c r="F65" s="7">
+        <v>0.14521200000000001</v>
+      </c>
+      <c r="G65" s="7">
+        <v>31.557065999999999</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0.12953300000000001</v>
+      </c>
+      <c r="I65" s="7">
+        <v>0.111709</v>
       </c>
       <c r="J65">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K65">
         <v>100</v>
@@ -32221,7 +32338,7 @@
         <v>100</v>
       </c>
       <c r="M65" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="N65" t="s">
         <v>15</v>
@@ -32230,28 +32347,302 @@
         <v>20</v>
       </c>
       <c r="P65" s="9">
+        <f t="shared" ref="P65:P67" si="9">(M65*L65*K65)/B65</f>
+        <v>1155.2346570397112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66">
+        <v>277</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="7">
+        <f t="shared" si="8"/>
+        <v>1.0351040032899648</v>
+      </c>
+      <c r="E66" s="7">
+        <v>1.0805800000000001</v>
+      </c>
+      <c r="F66" s="7">
+        <v>0.143485</v>
+      </c>
+      <c r="G66" s="7">
+        <v>26.358661000000001</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0.118878</v>
+      </c>
+      <c r="I66" s="7">
+        <v>8.6308999999999997E-2</v>
+      </c>
+      <c r="J66">
+        <v>43</v>
+      </c>
+      <c r="K66">
+        <v>100</v>
+      </c>
+      <c r="L66">
+        <v>100</v>
+      </c>
+      <c r="M66" s="1">
+        <v>32</v>
+      </c>
+      <c r="N66" t="s">
+        <v>15</v>
+      </c>
+      <c r="O66" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="9">
+        <f t="shared" si="9"/>
+        <v>1155.2346570397112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67">
+        <v>277</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="7">
+        <f t="shared" si="8"/>
+        <v>1.0067012139273073</v>
+      </c>
+      <c r="E67" s="7">
+        <v>1.0687599999999999</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0.136992</v>
+      </c>
+      <c r="G67" s="7">
+        <v>25.671219000000001</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0.11576500000000001</v>
+      </c>
+      <c r="I67" s="7">
+        <v>7.9544000000000004E-2</v>
+      </c>
+      <c r="J67">
+        <v>44</v>
+      </c>
+      <c r="K67">
+        <v>100</v>
+      </c>
+      <c r="L67">
+        <v>100</v>
+      </c>
+      <c r="M67" s="1">
+        <v>32</v>
+      </c>
+      <c r="N67" t="s">
+        <v>15</v>
+      </c>
+      <c r="O67" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="9">
+        <f t="shared" si="9"/>
+        <v>1155.2346570397112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D68" s="36">
+        <f>AVERAGE(D65:D67)</f>
+        <v>1.0381635587923539</v>
+      </c>
+      <c r="E68" s="36">
+        <f>AVERAGE(E65:E67)</f>
+        <v>1.0978159999999999</v>
+      </c>
+      <c r="F68" s="36">
+        <f t="shared" ref="F68" si="10">AVERAGE(F65:F67)</f>
+        <v>0.14189633333333332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70">
+        <v>277</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="7">
+        <f t="shared" ref="D70:D72" si="11">((E70/$E$7)+(F70/$F$7))/2</f>
+        <v>1.0338731800806047</v>
+      </c>
+      <c r="E70">
+        <v>1.0961110000000001</v>
+      </c>
+      <c r="F70">
+        <v>0.140904</v>
+      </c>
+      <c r="G70">
+        <v>28.650158999999999</v>
+      </c>
+      <c r="H70">
+        <v>0.121949</v>
+      </c>
+      <c r="I70">
+        <v>9.5982999999999999E-2</v>
+      </c>
+      <c r="J70">
+        <v>42</v>
+      </c>
+      <c r="K70">
+        <v>100</v>
+      </c>
+      <c r="L70">
+        <v>100</v>
+      </c>
+      <c r="M70" s="1">
+        <v>64</v>
+      </c>
+      <c r="N70" t="s">
+        <v>15</v>
+      </c>
+      <c r="O70" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="9">
+        <f t="shared" ref="P70:P72" si="12">(M70*L70*K70)/B70</f>
+        <v>2310.4693140794225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71">
+        <v>277</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="7">
         <f t="shared" si="11"/>
+        <v>1.130126770871883</v>
+      </c>
+      <c r="E71">
+        <v>1.2138709999999999</v>
+      </c>
+      <c r="F71">
+        <v>0.15176999999999999</v>
+      </c>
+      <c r="G71">
+        <v>32.522351</v>
+      </c>
+      <c r="H71">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="I71">
+        <v>0.121309</v>
+      </c>
+      <c r="J71">
+        <v>43</v>
+      </c>
+      <c r="K71">
+        <v>100</v>
+      </c>
+      <c r="L71">
+        <v>100</v>
+      </c>
+      <c r="M71" s="1">
+        <v>64</v>
+      </c>
+      <c r="N71" t="s">
+        <v>15</v>
+      </c>
+      <c r="O71" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" s="9">
+        <f t="shared" si="12"/>
         <v>2310.4693140794225</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D66" s="36">
-        <f>AVERAGE(D63:D65)</f>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72">
+        <v>277</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="7">
+        <f t="shared" si="11"/>
+        <v>1.0248172213957778</v>
+      </c>
+      <c r="E72">
+        <v>1.0647139999999999</v>
+      </c>
+      <c r="F72">
+        <v>0.142794</v>
+      </c>
+      <c r="G72">
+        <v>25.879951999999999</v>
+      </c>
+      <c r="H72">
+        <v>0.114981</v>
+      </c>
+      <c r="I72">
+        <v>8.2635E-2</v>
+      </c>
+      <c r="J72">
+        <v>44</v>
+      </c>
+      <c r="K72">
+        <v>100</v>
+      </c>
+      <c r="L72">
+        <v>100</v>
+      </c>
+      <c r="M72" s="1">
+        <v>64</v>
+      </c>
+      <c r="N72" t="s">
+        <v>15</v>
+      </c>
+      <c r="O72" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" s="9">
+        <f t="shared" si="12"/>
+        <v>2310.4693140794225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D73" s="36">
+        <f>AVERAGE(D70:D72)</f>
         <v>1.062939057449422</v>
       </c>
-      <c r="E66" s="36">
-        <f>AVERAGE(E63:E65)</f>
+      <c r="E73" s="36">
+        <f>AVERAGE(E70:E72)</f>
         <v>1.1248986666666665</v>
       </c>
-      <c r="F66" s="36">
-        <f t="shared" ref="F66" si="12">AVERAGE(F63:F65)</f>
+      <c r="F73" s="36">
+        <f t="shared" ref="F73" si="13">AVERAGE(F70:F72)</f>
         <v>0.14515599999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A19:P19"/>
-    <mergeCell ref="A52:P52"/>
+    <mergeCell ref="A59:P59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/results/results_2_frequencies_subsetted_by_domain.xlsx
+++ b/results/results_2_frequencies_subsetted_by_domain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAA7669-4338-4EB2-A749-6DCD2E3A469E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337C735D-58C0-43CC-BB40-C20A88AD9C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="10140" tabRatio="818" firstSheet="16" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="380" windowWidth="19420" windowHeight="10420" tabRatio="818" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary" sheetId="30" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3519" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="189">
   <si>
     <t>epochs</t>
   </si>
@@ -9202,11 +9202,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6437E731-589B-456A-8DF8-17C2DD721C2A}">
-  <dimension ref="A1:O155"/>
+  <dimension ref="A1:O157"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O78" sqref="O78"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q121" sqref="Q121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13410,104 +13410,6 @@
         <v>0.17289199999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>47</v>
-      </c>
-      <c r="B126">
-        <v>10975</v>
-      </c>
-      <c r="C126" t="s">
-        <v>3</v>
-      </c>
-      <c r="D126" s="7">
-        <f t="shared" ref="D126:D128" si="19">((E126/$E$7)+(F126/$F$7))/2</f>
-        <v>1.0223582752145783</v>
-      </c>
-      <c r="E126" s="7">
-        <v>1.0200769999999999</v>
-      </c>
-      <c r="F126" s="7">
-        <v>0.16761599999999999</v>
-      </c>
-      <c r="G126" s="7">
-        <v>19.942409000000001</v>
-      </c>
-      <c r="H126" s="7">
-        <v>0.156529</v>
-      </c>
-      <c r="I126" s="7">
-        <v>0.105946</v>
-      </c>
-      <c r="J126">
-        <v>42</v>
-      </c>
-      <c r="K126">
-        <v>100</v>
-      </c>
-      <c r="L126">
-        <v>100</v>
-      </c>
-      <c r="M126" t="s">
-        <v>15</v>
-      </c>
-      <c r="N126" t="s">
-        <v>20</v>
-      </c>
-      <c r="O126" s="9">
-        <f t="shared" ref="O126:O128" si="20">(32*L126*K126)/B126</f>
-        <v>29.157175398633257</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>47</v>
-      </c>
-      <c r="B127">
-        <v>10975</v>
-      </c>
-      <c r="C127" t="s">
-        <v>3</v>
-      </c>
-      <c r="D127" s="7">
-        <f t="shared" si="19"/>
-        <v>1.0361668906297636</v>
-      </c>
-      <c r="E127" s="7">
-        <v>1.0622659999999999</v>
-      </c>
-      <c r="F127" s="7">
-        <v>0.16517499999999999</v>
-      </c>
-      <c r="G127" s="7">
-        <v>18.3813</v>
-      </c>
-      <c r="H127" s="7">
-        <v>0.154945</v>
-      </c>
-      <c r="I127" s="7">
-        <v>9.4059000000000004E-2</v>
-      </c>
-      <c r="J127">
-        <v>43</v>
-      </c>
-      <c r="K127">
-        <v>100</v>
-      </c>
-      <c r="L127">
-        <v>100</v>
-      </c>
-      <c r="M127" t="s">
-        <v>15</v>
-      </c>
-      <c r="N127" t="s">
-        <v>20</v>
-      </c>
-      <c r="O127" s="9">
-        <f t="shared" si="20"/>
-        <v>29.157175398633257</v>
-      </c>
-    </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>47</v>
@@ -13519,168 +13421,168 @@
         <v>3</v>
       </c>
       <c r="D128" s="7">
+        <f t="shared" ref="D128:D130" si="19">((E128/$E$7)+(F128/$F$7))/2</f>
+        <v>1.0223582752145783</v>
+      </c>
+      <c r="E128" s="7">
+        <v>1.0200769999999999</v>
+      </c>
+      <c r="F128" s="7">
+        <v>0.16761599999999999</v>
+      </c>
+      <c r="G128" s="7">
+        <v>19.942409000000001</v>
+      </c>
+      <c r="H128" s="7">
+        <v>0.156529</v>
+      </c>
+      <c r="I128" s="7">
+        <v>0.105946</v>
+      </c>
+      <c r="J128">
+        <v>42</v>
+      </c>
+      <c r="K128">
+        <v>100</v>
+      </c>
+      <c r="L128">
+        <v>100</v>
+      </c>
+      <c r="M128" t="s">
+        <v>15</v>
+      </c>
+      <c r="N128" t="s">
+        <v>20</v>
+      </c>
+      <c r="O128" s="9">
+        <f t="shared" ref="O128:O130" si="20">(32*L128*K128)/B128</f>
+        <v>29.157175398633257</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>47</v>
+      </c>
+      <c r="B129">
+        <v>10975</v>
+      </c>
+      <c r="C129" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="7">
+        <f t="shared" si="19"/>
+        <v>1.0361668906297636</v>
+      </c>
+      <c r="E129" s="7">
+        <v>1.0622659999999999</v>
+      </c>
+      <c r="F129" s="7">
+        <v>0.16517499999999999</v>
+      </c>
+      <c r="G129" s="7">
+        <v>18.3813</v>
+      </c>
+      <c r="H129" s="7">
+        <v>0.154945</v>
+      </c>
+      <c r="I129" s="7">
+        <v>9.4059000000000004E-2</v>
+      </c>
+      <c r="J129">
+        <v>43</v>
+      </c>
+      <c r="K129">
+        <v>100</v>
+      </c>
+      <c r="L129">
+        <v>100</v>
+      </c>
+      <c r="M129" t="s">
+        <v>15</v>
+      </c>
+      <c r="N129" t="s">
+        <v>20</v>
+      </c>
+      <c r="O129" s="9">
+        <f t="shared" si="20"/>
+        <v>29.157175398633257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>47</v>
+      </c>
+      <c r="B130">
+        <v>10975</v>
+      </c>
+      <c r="C130" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="7">
         <f t="shared" si="19"/>
         <v>1.0316384382491033</v>
       </c>
-      <c r="E128" s="7">
+      <c r="E130" s="7">
         <v>1.051803</v>
       </c>
-      <c r="F128" s="7">
+      <c r="F130" s="7">
         <v>0.16541700000000001</v>
       </c>
-      <c r="G128" s="7">
+      <c r="G130" s="7">
         <v>18.878889999999998</v>
       </c>
-      <c r="H128" s="7">
+      <c r="H130" s="7">
         <v>0.15465100000000001</v>
       </c>
-      <c r="I128" s="7">
+      <c r="I130" s="7">
         <v>9.5258999999999996E-2</v>
       </c>
-      <c r="J128">
+      <c r="J130">
         <v>44</v>
       </c>
-      <c r="K128">
-        <v>100</v>
-      </c>
-      <c r="L128">
-        <v>100</v>
-      </c>
-      <c r="M128" t="s">
-        <v>15</v>
-      </c>
-      <c r="N128" t="s">
+      <c r="K130">
+        <v>100</v>
+      </c>
+      <c r="L130">
+        <v>100</v>
+      </c>
+      <c r="M130" t="s">
+        <v>15</v>
+      </c>
+      <c r="N130" t="s">
         <v>20</v>
       </c>
-      <c r="O128" s="9">
+      <c r="O130" s="9">
         <f t="shared" si="20"/>
         <v>29.157175398633257</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D129" s="36">
-        <f>AVERAGE(D126:D128)</f>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D131" s="36">
+        <f>AVERAGE(D128:D130)</f>
         <v>1.0300545346978152</v>
       </c>
-      <c r="E129" s="36">
-        <f t="shared" ref="E129:F129" si="21">AVERAGE(E126:E128)</f>
+      <c r="E131" s="36">
+        <f t="shared" ref="E131:F131" si="21">AVERAGE(E128:E130)</f>
         <v>1.0447153333333332</v>
       </c>
-      <c r="F129" s="36">
+      <c r="F131" s="36">
         <f t="shared" si="21"/>
         <v>0.16606933333333332</v>
       </c>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
-      <c r="I129" s="7"/>
-      <c r="O129" s="9"/>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
-      <c r="I130" s="7"/>
-      <c r="O130" s="9"/>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>47</v>
-      </c>
-      <c r="B131">
-        <v>10975</v>
-      </c>
-      <c r="C131" t="s">
-        <v>3</v>
-      </c>
-      <c r="D131" s="7">
-        <f t="shared" ref="D131:D133" si="22">((E131/$E$7)+(F131/$F$7))/2</f>
-        <v>1.0505686268737735</v>
-      </c>
-      <c r="E131" s="7">
-        <v>1.0632429999999999</v>
-      </c>
-      <c r="F131" s="7">
-        <v>0.16975399999999999</v>
-      </c>
-      <c r="G131" s="7">
-        <v>19.795275</v>
-      </c>
-      <c r="H131" s="7">
-        <v>0.16044600000000001</v>
-      </c>
-      <c r="I131" s="7">
-        <v>0.101161</v>
-      </c>
-      <c r="J131">
-        <v>42</v>
-      </c>
-      <c r="K131">
-        <v>343</v>
-      </c>
-      <c r="L131">
-        <v>100</v>
-      </c>
-      <c r="M131" t="s">
-        <v>15</v>
-      </c>
-      <c r="N131" t="s">
-        <v>20</v>
-      </c>
-      <c r="O131" s="9">
-        <f t="shared" ref="O131:O133" si="23">(32*L131*K131)/B131</f>
-        <v>100.00911161731207</v>
-      </c>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7"/>
+      <c r="O131" s="9"/>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>47</v>
-      </c>
-      <c r="B132">
-        <v>10975</v>
-      </c>
-      <c r="C132" t="s">
-        <v>3</v>
-      </c>
-      <c r="D132" s="7">
-        <f t="shared" si="22"/>
-        <v>0.99936419183222003</v>
-      </c>
-      <c r="E132" s="7">
-        <v>0.98995500000000003</v>
-      </c>
-      <c r="F132" s="7">
-        <v>0.16503499999999999</v>
-      </c>
-      <c r="G132" s="7">
-        <v>18.073049999999999</v>
-      </c>
-      <c r="H132" s="7">
-        <v>0.152143</v>
-      </c>
-      <c r="I132" s="7">
-        <v>8.8846999999999995E-2</v>
-      </c>
-      <c r="J132">
-        <v>43</v>
-      </c>
-      <c r="K132">
-        <v>343</v>
-      </c>
-      <c r="L132">
-        <v>100</v>
-      </c>
-      <c r="M132" t="s">
-        <v>15</v>
-      </c>
-      <c r="N132" t="s">
-        <v>20</v>
-      </c>
-      <c r="O132" s="9">
-        <f t="shared" si="23"/>
-        <v>100.00911161731207</v>
-      </c>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7"/>
+      <c r="O132" s="9"/>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
@@ -13693,174 +13595,174 @@
         <v>3</v>
       </c>
       <c r="D133" s="7">
+        <f t="shared" ref="D133:D135" si="22">((E133/$E$7)+(F133/$F$7))/2</f>
+        <v>1.0505686268737735</v>
+      </c>
+      <c r="E133" s="7">
+        <v>1.0632429999999999</v>
+      </c>
+      <c r="F133" s="7">
+        <v>0.16975399999999999</v>
+      </c>
+      <c r="G133" s="7">
+        <v>19.795275</v>
+      </c>
+      <c r="H133" s="7">
+        <v>0.16044600000000001</v>
+      </c>
+      <c r="I133" s="7">
+        <v>0.101161</v>
+      </c>
+      <c r="J133">
+        <v>42</v>
+      </c>
+      <c r="K133">
+        <v>343</v>
+      </c>
+      <c r="L133">
+        <v>100</v>
+      </c>
+      <c r="M133" t="s">
+        <v>15</v>
+      </c>
+      <c r="N133" t="s">
+        <v>20</v>
+      </c>
+      <c r="O133" s="9">
+        <f t="shared" ref="O133:O135" si="23">(32*L133*K133)/B133</f>
+        <v>100.00911161731207</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>47</v>
+      </c>
+      <c r="B134">
+        <v>10975</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" s="7">
+        <f t="shared" si="22"/>
+        <v>0.99936419183222003</v>
+      </c>
+      <c r="E134" s="7">
+        <v>0.98995500000000003</v>
+      </c>
+      <c r="F134" s="7">
+        <v>0.16503499999999999</v>
+      </c>
+      <c r="G134" s="7">
+        <v>18.073049999999999</v>
+      </c>
+      <c r="H134" s="7">
+        <v>0.152143</v>
+      </c>
+      <c r="I134" s="7">
+        <v>8.8846999999999995E-2</v>
+      </c>
+      <c r="J134">
+        <v>43</v>
+      </c>
+      <c r="K134">
+        <v>343</v>
+      </c>
+      <c r="L134">
+        <v>100</v>
+      </c>
+      <c r="M134" t="s">
+        <v>15</v>
+      </c>
+      <c r="N134" t="s">
+        <v>20</v>
+      </c>
+      <c r="O134" s="9">
+        <f t="shared" si="23"/>
+        <v>100.00911161731207</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>47</v>
+      </c>
+      <c r="B135">
+        <v>10975</v>
+      </c>
+      <c r="C135" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" s="7">
         <f t="shared" si="22"/>
         <v>0.99951164378898927</v>
       </c>
-      <c r="E133" s="7">
+      <c r="E135" s="7">
         <v>0.99555000000000005</v>
       </c>
-      <c r="F133" s="7">
+      <c r="F135" s="7">
         <v>0.164157</v>
       </c>
-      <c r="G133" s="7">
+      <c r="G135" s="7">
         <v>19.064624999999999</v>
       </c>
-      <c r="H133" s="7">
+      <c r="H135" s="7">
         <v>0.153617</v>
       </c>
-      <c r="I133" s="7">
+      <c r="I135" s="7">
         <v>8.9994000000000005E-2</v>
       </c>
-      <c r="J133">
+      <c r="J135">
         <v>44</v>
       </c>
-      <c r="K133">
+      <c r="K135">
         <v>343</v>
       </c>
-      <c r="L133">
-        <v>100</v>
-      </c>
-      <c r="M133" t="s">
-        <v>15</v>
-      </c>
-      <c r="N133" t="s">
+      <c r="L135">
+        <v>100</v>
+      </c>
+      <c r="M135" t="s">
+        <v>15</v>
+      </c>
+      <c r="N135" t="s">
         <v>20</v>
       </c>
-      <c r="O133" s="9">
+      <c r="O135" s="9">
         <f t="shared" si="23"/>
         <v>100.00911161731207</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D134" s="36">
-        <f>AVERAGE(D131:D133)</f>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D136" s="36">
+        <f>AVERAGE(D133:D135)</f>
         <v>1.0164814874983277</v>
       </c>
-      <c r="E134" s="36">
-        <f t="shared" ref="E134:F134" si="24">AVERAGE(E131:E133)</f>
+      <c r="E136" s="36">
+        <f t="shared" ref="E136:F136" si="24">AVERAGE(E133:E135)</f>
         <v>1.0162493333333333</v>
       </c>
-      <c r="F134" s="36">
+      <c r="F136" s="36">
         <f t="shared" si="24"/>
         <v>0.16631533333333334</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A136" s="53" t="s">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A138" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B136" s="53"/>
-      <c r="C136" s="53"/>
-      <c r="D136" s="53"/>
-      <c r="E136" s="53"/>
-      <c r="F136" s="53"/>
-      <c r="G136" s="53"/>
-      <c r="H136" s="53"/>
-      <c r="I136" s="53"/>
-      <c r="J136" s="53"/>
-      <c r="K136" s="53"/>
-      <c r="L136" s="53"/>
-      <c r="M136" s="53"/>
-      <c r="N136" s="53"/>
-      <c r="O136" s="53"/>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>47</v>
-      </c>
-      <c r="B137">
-        <v>10975</v>
-      </c>
-      <c r="C137" t="s">
-        <v>163</v>
-      </c>
-      <c r="D137" s="7">
-        <f t="shared" ref="D137:D139" si="25">((E137/$E$7)+(F137/$F$7))/2</f>
-        <v>3.4823495856882447</v>
-      </c>
-      <c r="E137" s="7">
-        <v>4.7266079999999997</v>
-      </c>
-      <c r="F137" s="7">
-        <v>0.363595</v>
-      </c>
-      <c r="G137" s="7">
-        <v>91.137494000000004</v>
-      </c>
-      <c r="H137" s="7">
-        <v>0.368477</v>
-      </c>
-      <c r="I137" s="7">
-        <v>0.40915499999999999</v>
-      </c>
-      <c r="J137">
-        <v>42</v>
-      </c>
-      <c r="K137">
-        <v>100</v>
-      </c>
-      <c r="L137">
-        <v>50</v>
-      </c>
-      <c r="M137" t="s">
-        <v>15</v>
-      </c>
-      <c r="N137" t="s">
-        <v>20</v>
-      </c>
-      <c r="O137" s="9">
-        <f t="shared" ref="O137:O144" si="26">(32*L137*K137)/B137</f>
-        <v>14.578587699316628</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>47</v>
-      </c>
-      <c r="B138">
-        <v>10975</v>
-      </c>
-      <c r="C138" t="s">
-        <v>163</v>
-      </c>
-      <c r="D138" s="7">
-        <f t="shared" si="25"/>
-        <v>5.2575088846258895</v>
-      </c>
-      <c r="E138" s="7">
-        <v>7.3878120000000003</v>
-      </c>
-      <c r="F138" s="7">
-        <v>0.507247</v>
-      </c>
-      <c r="G138" s="7">
-        <v>145.850078</v>
-      </c>
-      <c r="H138" s="7">
-        <v>0.49855300000000002</v>
-      </c>
-      <c r="I138" s="7">
-        <v>0.622089</v>
-      </c>
-      <c r="J138">
-        <v>43</v>
-      </c>
-      <c r="K138">
-        <v>100</v>
-      </c>
-      <c r="L138">
-        <v>50</v>
-      </c>
-      <c r="M138" t="s">
-        <v>15</v>
-      </c>
-      <c r="N138" t="s">
-        <v>20</v>
-      </c>
-      <c r="O138" s="9">
-        <f t="shared" si="26"/>
-        <v>14.578587699316628</v>
-      </c>
+      <c r="B138" s="53"/>
+      <c r="C138" s="53"/>
+      <c r="D138" s="53"/>
+      <c r="E138" s="53"/>
+      <c r="F138" s="53"/>
+      <c r="G138" s="53"/>
+      <c r="H138" s="53"/>
+      <c r="I138" s="53"/>
+      <c r="J138" s="53"/>
+      <c r="K138" s="53"/>
+      <c r="L138" s="53"/>
+      <c r="M138" s="53"/>
+      <c r="N138" s="53"/>
+      <c r="O138" s="53"/>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
@@ -13873,166 +13775,166 @@
         <v>163</v>
       </c>
       <c r="D139" s="7">
+        <f t="shared" ref="D139:D141" si="25">((E139/$E$7)+(F139/$F$7))/2</f>
+        <v>3.4823495856882447</v>
+      </c>
+      <c r="E139" s="7">
+        <v>4.7266079999999997</v>
+      </c>
+      <c r="F139" s="7">
+        <v>0.363595</v>
+      </c>
+      <c r="G139" s="7">
+        <v>91.137494000000004</v>
+      </c>
+      <c r="H139" s="7">
+        <v>0.368477</v>
+      </c>
+      <c r="I139" s="7">
+        <v>0.40915499999999999</v>
+      </c>
+      <c r="J139">
+        <v>42</v>
+      </c>
+      <c r="K139">
+        <v>100</v>
+      </c>
+      <c r="L139">
+        <v>50</v>
+      </c>
+      <c r="M139" t="s">
+        <v>15</v>
+      </c>
+      <c r="N139" t="s">
+        <v>20</v>
+      </c>
+      <c r="O139" s="9">
+        <f t="shared" ref="O139:O146" si="26">(32*L139*K139)/B139</f>
+        <v>14.578587699316628</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>47</v>
+      </c>
+      <c r="B140">
+        <v>10975</v>
+      </c>
+      <c r="C140" t="s">
+        <v>163</v>
+      </c>
+      <c r="D140" s="7">
+        <f t="shared" si="25"/>
+        <v>5.2575088846258895</v>
+      </c>
+      <c r="E140" s="7">
+        <v>7.3878120000000003</v>
+      </c>
+      <c r="F140" s="7">
+        <v>0.507247</v>
+      </c>
+      <c r="G140" s="7">
+        <v>145.850078</v>
+      </c>
+      <c r="H140" s="7">
+        <v>0.49855300000000002</v>
+      </c>
+      <c r="I140" s="7">
+        <v>0.622089</v>
+      </c>
+      <c r="J140">
+        <v>43</v>
+      </c>
+      <c r="K140">
+        <v>100</v>
+      </c>
+      <c r="L140">
+        <v>50</v>
+      </c>
+      <c r="M140" t="s">
+        <v>15</v>
+      </c>
+      <c r="N140" t="s">
+        <v>20</v>
+      </c>
+      <c r="O140" s="9">
+        <f t="shared" si="26"/>
+        <v>14.578587699316628</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>47</v>
+      </c>
+      <c r="B141">
+        <v>10975</v>
+      </c>
+      <c r="C141" t="s">
+        <v>163</v>
+      </c>
+      <c r="D141" s="7">
         <f t="shared" si="25"/>
         <v>4.8717419788209586</v>
       </c>
-      <c r="E139" s="7">
+      <c r="E141" s="7">
         <v>6.8963570000000001</v>
       </c>
-      <c r="F139" s="7">
+      <c r="F141" s="7">
         <v>0.46164500000000003</v>
       </c>
-      <c r="G139" s="7">
+      <c r="G141" s="7">
         <v>95.412694000000002</v>
       </c>
-      <c r="H139" s="7">
+      <c r="H141" s="7">
         <v>0.45255499999999999</v>
       </c>
-      <c r="I139" s="7">
+      <c r="I141" s="7">
         <v>0.43602800000000003</v>
       </c>
-      <c r="J139">
+      <c r="J141">
         <v>44</v>
       </c>
-      <c r="K139">
-        <v>100</v>
-      </c>
-      <c r="L139">
+      <c r="K141">
+        <v>100</v>
+      </c>
+      <c r="L141">
         <v>50</v>
       </c>
-      <c r="M139" t="s">
-        <v>15</v>
-      </c>
-      <c r="N139" t="s">
+      <c r="M141" t="s">
+        <v>15</v>
+      </c>
+      <c r="N141" t="s">
         <v>20</v>
       </c>
-      <c r="O139" s="9">
+      <c r="O141" s="9">
         <f t="shared" si="26"/>
         <v>14.578587699316628</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D140" s="36">
-        <f>AVERAGE(D137:D139)</f>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D142" s="36">
+        <f>AVERAGE(D139:D141)</f>
         <v>4.5372001497116976</v>
       </c>
-      <c r="E140" s="36">
-        <f t="shared" ref="E140:F140" si="27">AVERAGE(E137:E139)</f>
+      <c r="E142" s="36">
+        <f t="shared" ref="E142:F142" si="27">AVERAGE(E139:E141)</f>
         <v>6.3369256666666658</v>
       </c>
-      <c r="F140" s="36">
+      <c r="F142" s="36">
         <f t="shared" si="27"/>
         <v>0.44416233333333333</v>
       </c>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-      <c r="I140" s="7"/>
-      <c r="O140" s="9"/>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
-      <c r="I141" s="7"/>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>47</v>
-      </c>
-      <c r="B142">
-        <v>10975</v>
-      </c>
-      <c r="C142" t="s">
-        <v>163</v>
-      </c>
-      <c r="D142" s="7">
-        <f t="shared" ref="D142:D144" si="28">((E142/$E$7)+(F142/$F$7))/2</f>
-        <v>3.2631682004294831</v>
-      </c>
-      <c r="E142" s="7">
-        <v>4.4363530000000004</v>
-      </c>
-      <c r="F142" s="7">
-        <v>0.33951100000000001</v>
-      </c>
-      <c r="G142" s="7">
-        <v>65.005438999999996</v>
-      </c>
-      <c r="H142" s="7">
-        <v>0.31287300000000001</v>
-      </c>
-      <c r="I142" s="7">
-        <v>0.247836</v>
-      </c>
-      <c r="J142">
-        <v>42</v>
-      </c>
-      <c r="K142">
-        <v>100</v>
-      </c>
-      <c r="L142">
-        <v>100</v>
-      </c>
-      <c r="M142" t="s">
-        <v>15</v>
-      </c>
-      <c r="N142" t="s">
-        <v>20</v>
-      </c>
-      <c r="O142" s="9">
-        <f t="shared" si="26"/>
-        <v>29.157175398633257</v>
-      </c>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7"/>
+      <c r="O142" s="9"/>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>47</v>
-      </c>
-      <c r="B143">
-        <v>10975</v>
-      </c>
-      <c r="C143" t="s">
-        <v>163</v>
-      </c>
-      <c r="D143" s="7">
-        <f t="shared" si="28"/>
-        <v>3.0939866572058414</v>
-      </c>
-      <c r="E143" s="7">
-        <v>4.1419860000000002</v>
-      </c>
-      <c r="F143" s="7">
-        <v>0.332567</v>
-      </c>
-      <c r="G143" s="7">
-        <v>53.841583999999997</v>
-      </c>
-      <c r="H143" s="7">
-        <v>0.32910099999999998</v>
-      </c>
-      <c r="I143" s="7">
-        <v>0.27523799999999998</v>
-      </c>
-      <c r="J143">
-        <v>43</v>
-      </c>
-      <c r="K143">
-        <v>100</v>
-      </c>
-      <c r="L143">
-        <v>100</v>
-      </c>
-      <c r="M143" t="s">
-        <v>15</v>
-      </c>
-      <c r="N143" t="s">
-        <v>20</v>
-      </c>
-      <c r="O143" s="9">
-        <f t="shared" si="26"/>
-        <v>29.157175398633257</v>
-      </c>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
@@ -14045,26 +13947,26 @@
         <v>163</v>
       </c>
       <c r="D144" s="7">
-        <f t="shared" si="28"/>
-        <v>4.0931258944717008</v>
+        <f t="shared" ref="D144:D146" si="28">((E144/$E$7)+(F144/$F$7))/2</f>
+        <v>3.2631682004294831</v>
       </c>
       <c r="E144" s="7">
-        <v>5.7675280000000004</v>
+        <v>4.4363530000000004</v>
       </c>
       <c r="F144" s="7">
-        <v>0.39227400000000001</v>
+        <v>0.33951100000000001</v>
       </c>
       <c r="G144" s="7">
-        <v>72.893980999999997</v>
+        <v>65.005438999999996</v>
       </c>
       <c r="H144" s="7">
-        <v>0.36931000000000003</v>
+        <v>0.31287300000000001</v>
       </c>
       <c r="I144" s="7">
-        <v>0.268926</v>
+        <v>0.247836</v>
       </c>
       <c r="J144">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K144">
         <v>100</v>
@@ -14084,126 +13986,126 @@
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D145" s="36">
-        <f>AVERAGE(D142:D144)</f>
+      <c r="A145" t="s">
+        <v>47</v>
+      </c>
+      <c r="B145">
+        <v>10975</v>
+      </c>
+      <c r="C145" t="s">
+        <v>163</v>
+      </c>
+      <c r="D145" s="7">
+        <f t="shared" si="28"/>
+        <v>3.0939866572058414</v>
+      </c>
+      <c r="E145" s="7">
+        <v>4.1419860000000002</v>
+      </c>
+      <c r="F145" s="7">
+        <v>0.332567</v>
+      </c>
+      <c r="G145" s="7">
+        <v>53.841583999999997</v>
+      </c>
+      <c r="H145" s="7">
+        <v>0.32910099999999998</v>
+      </c>
+      <c r="I145" s="7">
+        <v>0.27523799999999998</v>
+      </c>
+      <c r="J145">
+        <v>43</v>
+      </c>
+      <c r="K145">
+        <v>100</v>
+      </c>
+      <c r="L145">
+        <v>100</v>
+      </c>
+      <c r="M145" t="s">
+        <v>15</v>
+      </c>
+      <c r="N145" t="s">
+        <v>20</v>
+      </c>
+      <c r="O145" s="9">
+        <f t="shared" si="26"/>
+        <v>29.157175398633257</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>47</v>
+      </c>
+      <c r="B146">
+        <v>10975</v>
+      </c>
+      <c r="C146" t="s">
+        <v>163</v>
+      </c>
+      <c r="D146" s="7">
+        <f t="shared" si="28"/>
+        <v>4.0931258944717008</v>
+      </c>
+      <c r="E146" s="7">
+        <v>5.7675280000000004</v>
+      </c>
+      <c r="F146" s="7">
+        <v>0.39227400000000001</v>
+      </c>
+      <c r="G146" s="7">
+        <v>72.893980999999997</v>
+      </c>
+      <c r="H146" s="7">
+        <v>0.36931000000000003</v>
+      </c>
+      <c r="I146" s="7">
+        <v>0.268926</v>
+      </c>
+      <c r="J146">
+        <v>44</v>
+      </c>
+      <c r="K146">
+        <v>100</v>
+      </c>
+      <c r="L146">
+        <v>100</v>
+      </c>
+      <c r="M146" t="s">
+        <v>15</v>
+      </c>
+      <c r="N146" t="s">
+        <v>20</v>
+      </c>
+      <c r="O146" s="9">
+        <f t="shared" si="26"/>
+        <v>29.157175398633257</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D147" s="36">
+        <f>AVERAGE(D144:D146)</f>
         <v>3.4834269173690084</v>
       </c>
-      <c r="E145" s="36">
-        <f t="shared" ref="E145:F145" si="29">AVERAGE(E142:E144)</f>
+      <c r="E147" s="36">
+        <f t="shared" ref="E147:F147" si="29">AVERAGE(E144:E146)</f>
         <v>4.7819556666666667</v>
       </c>
-      <c r="F145" s="36">
+      <c r="F147" s="36">
         <f t="shared" si="29"/>
         <v>0.35478399999999999</v>
       </c>
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
-      <c r="I145" s="7"/>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="7"/>
-      <c r="I146" s="7"/>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>47</v>
-      </c>
-      <c r="B147">
-        <v>10975</v>
-      </c>
-      <c r="C147" t="s">
-        <v>163</v>
-      </c>
-      <c r="D147" s="7">
-        <f t="shared" ref="D147:D149" si="30">((E147/$E$7)+(F147/$F$7))/2</f>
-        <v>1.6996150097320482</v>
-      </c>
-      <c r="E147" s="7">
-        <v>2.0009380000000001</v>
-      </c>
-      <c r="F147" s="7">
-        <v>0.22812499999999999</v>
-      </c>
-      <c r="G147" s="7">
-        <v>30.176867999999999</v>
-      </c>
-      <c r="H147" s="7">
-        <v>0.22601099999999999</v>
-      </c>
-      <c r="I147" s="7">
-        <v>0.17843999999999999</v>
-      </c>
-      <c r="J147">
-        <v>42</v>
-      </c>
-      <c r="K147">
-        <v>343</v>
-      </c>
-      <c r="L147">
-        <v>100</v>
-      </c>
-      <c r="M147" t="s">
-        <v>15</v>
-      </c>
-      <c r="N147" t="s">
-        <v>20</v>
-      </c>
-      <c r="O147" s="9">
-        <f t="shared" ref="O147:O149" si="31">(32*L147*K147)/B147</f>
-        <v>100.00911161731207</v>
-      </c>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7"/>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>47</v>
-      </c>
-      <c r="B148">
-        <v>10975</v>
-      </c>
-      <c r="C148" t="s">
-        <v>163</v>
-      </c>
-      <c r="D148" s="7">
-        <f t="shared" si="30"/>
-        <v>1.4028819829307837</v>
-      </c>
-      <c r="E148" s="7">
-        <v>1.558114</v>
-      </c>
-      <c r="F148" s="7">
-        <v>0.20377799999999999</v>
-      </c>
-      <c r="G148" s="7">
-        <v>24.155787</v>
-      </c>
-      <c r="H148" s="7">
-        <v>0.20437</v>
-      </c>
-      <c r="I148" s="7">
-        <v>0.15140300000000001</v>
-      </c>
-      <c r="J148">
-        <v>43</v>
-      </c>
-      <c r="K148">
-        <v>343</v>
-      </c>
-      <c r="L148">
-        <v>100</v>
-      </c>
-      <c r="M148" t="s">
-        <v>15</v>
-      </c>
-      <c r="N148" t="s">
-        <v>20</v>
-      </c>
-      <c r="O148" s="9">
-        <f t="shared" si="31"/>
-        <v>100.00911161731207</v>
-      </c>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="7"/>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
@@ -14216,154 +14118,154 @@
         <v>163</v>
       </c>
       <c r="D149" s="7">
+        <f t="shared" ref="D149:D151" si="30">((E149/$E$7)+(F149/$F$7))/2</f>
+        <v>1.6996150097320482</v>
+      </c>
+      <c r="E149" s="7">
+        <v>2.0009380000000001</v>
+      </c>
+      <c r="F149" s="7">
+        <v>0.22812499999999999</v>
+      </c>
+      <c r="G149" s="7">
+        <v>30.176867999999999</v>
+      </c>
+      <c r="H149" s="7">
+        <v>0.22601099999999999</v>
+      </c>
+      <c r="I149" s="7">
+        <v>0.17843999999999999</v>
+      </c>
+      <c r="J149">
+        <v>42</v>
+      </c>
+      <c r="K149">
+        <v>343</v>
+      </c>
+      <c r="L149">
+        <v>100</v>
+      </c>
+      <c r="M149" t="s">
+        <v>15</v>
+      </c>
+      <c r="N149" t="s">
+        <v>20</v>
+      </c>
+      <c r="O149" s="9">
+        <f t="shared" ref="O149:O151" si="31">(32*L149*K149)/B149</f>
+        <v>100.00911161731207</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>47</v>
+      </c>
+      <c r="B150">
+        <v>10975</v>
+      </c>
+      <c r="C150" t="s">
+        <v>163</v>
+      </c>
+      <c r="D150" s="7">
+        <f t="shared" si="30"/>
+        <v>1.4028819829307837</v>
+      </c>
+      <c r="E150" s="7">
+        <v>1.558114</v>
+      </c>
+      <c r="F150" s="7">
+        <v>0.20377799999999999</v>
+      </c>
+      <c r="G150" s="7">
+        <v>24.155787</v>
+      </c>
+      <c r="H150" s="7">
+        <v>0.20437</v>
+      </c>
+      <c r="I150" s="7">
+        <v>0.15140300000000001</v>
+      </c>
+      <c r="J150">
+        <v>43</v>
+      </c>
+      <c r="K150">
+        <v>343</v>
+      </c>
+      <c r="L150">
+        <v>100</v>
+      </c>
+      <c r="M150" t="s">
+        <v>15</v>
+      </c>
+      <c r="N150" t="s">
+        <v>20</v>
+      </c>
+      <c r="O150" s="9">
+        <f t="shared" si="31"/>
+        <v>100.00911161731207</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>47</v>
+      </c>
+      <c r="B151">
+        <v>10975</v>
+      </c>
+      <c r="C151" t="s">
+        <v>163</v>
+      </c>
+      <c r="D151" s="7">
         <f t="shared" si="30"/>
         <v>1.3883377253236651</v>
       </c>
-      <c r="E149" s="7">
+      <c r="E151" s="7">
         <v>1.589124</v>
       </c>
-      <c r="F149" s="7">
+      <c r="F151" s="7">
         <v>0.193855</v>
       </c>
-      <c r="G149" s="7">
+      <c r="G151" s="7">
         <v>25.237525999999999</v>
       </c>
-      <c r="H149" s="7">
+      <c r="H151" s="7">
         <v>0.20855599999999999</v>
       </c>
-      <c r="I149" s="7">
+      <c r="I151" s="7">
         <v>0.159971</v>
       </c>
-      <c r="J149">
+      <c r="J151">
         <v>44</v>
       </c>
-      <c r="K149">
+      <c r="K151">
         <v>343</v>
       </c>
-      <c r="L149">
-        <v>100</v>
-      </c>
-      <c r="M149" t="s">
-        <v>15</v>
-      </c>
-      <c r="N149" t="s">
+      <c r="L151">
+        <v>100</v>
+      </c>
+      <c r="M151" t="s">
+        <v>15</v>
+      </c>
+      <c r="N151" t="s">
         <v>20</v>
       </c>
-      <c r="O149" s="9">
+      <c r="O151" s="9">
         <f t="shared" si="31"/>
         <v>100.00911161731207</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D150" s="36">
-        <f>AVERAGE(D147:D149)</f>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D152" s="36">
+        <f>AVERAGE(D149:D151)</f>
         <v>1.4969449059954989</v>
       </c>
-      <c r="E150" s="36">
-        <f t="shared" ref="E150:F150" si="32">AVERAGE(E147:E149)</f>
+      <c r="E152" s="36">
+        <f t="shared" ref="E152:F152" si="32">AVERAGE(E149:E151)</f>
         <v>1.7160586666666668</v>
       </c>
-      <c r="F150" s="36">
+      <c r="F152" s="36">
         <f t="shared" si="32"/>
         <v>0.20858600000000002</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>47</v>
-      </c>
-      <c r="B152">
-        <v>10975</v>
-      </c>
-      <c r="C152" t="s">
-        <v>163</v>
-      </c>
-      <c r="D152" s="7">
-        <f t="shared" ref="D152:D154" si="33">((E152/$E$7)+(F152/$F$7))/2</f>
-        <v>1.8485514518367132</v>
-      </c>
-      <c r="E152" s="7">
-        <v>2.2510279999999998</v>
-      </c>
-      <c r="F152" s="7">
-        <v>0.235737</v>
-      </c>
-      <c r="G152" s="7">
-        <v>27.835435</v>
-      </c>
-      <c r="H152" s="7">
-        <v>0.219806</v>
-      </c>
-      <c r="I152" s="7">
-        <v>0.14996000000000001</v>
-      </c>
-      <c r="J152">
-        <v>42</v>
-      </c>
-      <c r="K152">
-        <v>343</v>
-      </c>
-      <c r="L152">
-        <v>200</v>
-      </c>
-      <c r="M152" t="s">
-        <v>15</v>
-      </c>
-      <c r="N152" t="s">
-        <v>20</v>
-      </c>
-      <c r="O152" s="9">
-        <f t="shared" ref="O152:O154" si="34">(32*L152*K152)/B152</f>
-        <v>200.01822323462414</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>47</v>
-      </c>
-      <c r="B153">
-        <v>10975</v>
-      </c>
-      <c r="C153" t="s">
-        <v>163</v>
-      </c>
-      <c r="D153" s="7">
-        <f t="shared" si="33"/>
-        <v>1.398710804210757</v>
-      </c>
-      <c r="E153" s="7">
-        <v>1.5387900000000001</v>
-      </c>
-      <c r="F153" s="7">
-        <v>0.20560500000000001</v>
-      </c>
-      <c r="G153" s="7">
-        <v>23.612276999999999</v>
-      </c>
-      <c r="H153" s="7">
-        <v>0.19425700000000001</v>
-      </c>
-      <c r="I153" s="7">
-        <v>0.14138500000000001</v>
-      </c>
-      <c r="J153">
-        <v>43</v>
-      </c>
-      <c r="K153">
-        <v>343</v>
-      </c>
-      <c r="L153">
-        <v>200</v>
-      </c>
-      <c r="M153" t="s">
-        <v>15</v>
-      </c>
-      <c r="N153" t="s">
-        <v>20</v>
-      </c>
-      <c r="O153" s="9">
-        <f t="shared" si="34"/>
-        <v>200.01822323462414</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.35">
@@ -14377,61 +14279,159 @@
         <v>163</v>
       </c>
       <c r="D154" s="7">
+        <f t="shared" ref="D154:D156" si="33">((E154/$E$7)+(F154/$F$7))/2</f>
+        <v>1.8485514518367132</v>
+      </c>
+      <c r="E154" s="7">
+        <v>2.2510279999999998</v>
+      </c>
+      <c r="F154" s="7">
+        <v>0.235737</v>
+      </c>
+      <c r="G154" s="7">
+        <v>27.835435</v>
+      </c>
+      <c r="H154" s="7">
+        <v>0.219806</v>
+      </c>
+      <c r="I154" s="7">
+        <v>0.14996000000000001</v>
+      </c>
+      <c r="J154">
+        <v>42</v>
+      </c>
+      <c r="K154">
+        <v>343</v>
+      </c>
+      <c r="L154">
+        <v>200</v>
+      </c>
+      <c r="M154" t="s">
+        <v>15</v>
+      </c>
+      <c r="N154" t="s">
+        <v>20</v>
+      </c>
+      <c r="O154" s="9">
+        <f t="shared" ref="O154:O156" si="34">(32*L154*K154)/B154</f>
+        <v>200.01822323462414</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>47</v>
+      </c>
+      <c r="B155">
+        <v>10975</v>
+      </c>
+      <c r="C155" t="s">
+        <v>163</v>
+      </c>
+      <c r="D155" s="7">
+        <f t="shared" si="33"/>
+        <v>1.398710804210757</v>
+      </c>
+      <c r="E155" s="7">
+        <v>1.5387900000000001</v>
+      </c>
+      <c r="F155" s="7">
+        <v>0.20560500000000001</v>
+      </c>
+      <c r="G155" s="7">
+        <v>23.612276999999999</v>
+      </c>
+      <c r="H155" s="7">
+        <v>0.19425700000000001</v>
+      </c>
+      <c r="I155" s="7">
+        <v>0.14138500000000001</v>
+      </c>
+      <c r="J155">
+        <v>43</v>
+      </c>
+      <c r="K155">
+        <v>343</v>
+      </c>
+      <c r="L155">
+        <v>200</v>
+      </c>
+      <c r="M155" t="s">
+        <v>15</v>
+      </c>
+      <c r="N155" t="s">
+        <v>20</v>
+      </c>
+      <c r="O155" s="9">
+        <f t="shared" si="34"/>
+        <v>200.01822323462414</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>47</v>
+      </c>
+      <c r="B156">
+        <v>10975</v>
+      </c>
+      <c r="C156" t="s">
+        <v>163</v>
+      </c>
+      <c r="D156" s="7">
         <f t="shared" si="33"/>
         <v>1.3463383354473493</v>
       </c>
-      <c r="E154" s="7">
+      <c r="E156" s="7">
         <v>1.473319</v>
       </c>
-      <c r="F154" s="7">
+      <c r="F156" s="7">
         <v>0.199207</v>
       </c>
-      <c r="G154" s="7">
+      <c r="G156" s="7">
         <v>22.666561999999999</v>
       </c>
-      <c r="H154" s="7">
+      <c r="H156" s="7">
         <v>0.201681</v>
       </c>
-      <c r="I154" s="7">
+      <c r="I156" s="7">
         <v>0.14193800000000001</v>
       </c>
-      <c r="J154">
+      <c r="J156">
         <v>44</v>
       </c>
-      <c r="K154">
+      <c r="K156">
         <v>343</v>
       </c>
-      <c r="L154">
+      <c r="L156">
         <v>200</v>
       </c>
-      <c r="M154" t="s">
-        <v>15</v>
-      </c>
-      <c r="N154" t="s">
+      <c r="M156" t="s">
+        <v>15</v>
+      </c>
+      <c r="N156" t="s">
         <v>20</v>
       </c>
-      <c r="O154" s="9">
+      <c r="O156" s="9">
         <f t="shared" si="34"/>
         <v>200.01822323462414</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D155" s="36">
-        <f>AVERAGE(D152:D154)</f>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D157" s="36">
+        <f>AVERAGE(D154:D156)</f>
         <v>1.5312001971649398</v>
       </c>
-      <c r="E155" s="36">
-        <f t="shared" ref="E155:F155" si="35">AVERAGE(E152:E154)</f>
+      <c r="E157" s="36">
+        <f t="shared" ref="E157:F157" si="35">AVERAGE(E154:E156)</f>
         <v>1.7543790000000001</v>
       </c>
-      <c r="F155" s="36">
+      <c r="F157" s="36">
         <f t="shared" si="35"/>
         <v>0.21351633333333334</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A136:O136"/>
+    <mergeCell ref="A138:O138"/>
     <mergeCell ref="A83:O83"/>
     <mergeCell ref="A18:O18"/>
   </mergeCells>
@@ -19216,7 +19216,7 @@
   <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
@@ -21591,11 +21591,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E4179B-291C-43EA-ACC3-6101CBE12D43}">
-  <dimension ref="A1:P132"/>
+  <dimension ref="A1:P147"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S97" sqref="S97"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23318,6 +23318,10 @@
       <c r="L55">
         <v>100</v>
       </c>
+      <c r="O55" s="9">
+        <f t="shared" ref="O55:O64" si="11">(32*L55*K55)/B55</f>
+        <v>58.250659870756351</v>
+      </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
@@ -23357,6 +23361,10 @@
       <c r="L56">
         <v>100</v>
       </c>
+      <c r="O56" s="9">
+        <f t="shared" si="11"/>
+        <v>58.250659870756351</v>
+      </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
@@ -23396,6 +23404,10 @@
       <c r="L57">
         <v>100</v>
       </c>
+      <c r="O57" s="9">
+        <f t="shared" si="11"/>
+        <v>58.250659870756351</v>
+      </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
@@ -23435,6 +23447,10 @@
       <c r="L58">
         <v>100</v>
       </c>
+      <c r="O58" s="9">
+        <f t="shared" si="11"/>
+        <v>58.250659870756351</v>
+      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
@@ -23474,6 +23490,10 @@
       <c r="L59">
         <v>100</v>
       </c>
+      <c r="O59" s="9">
+        <f t="shared" si="11"/>
+        <v>58.250659870756351</v>
+      </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
@@ -23513,6 +23533,10 @@
       <c r="L60">
         <v>100</v>
       </c>
+      <c r="O60" s="9">
+        <f t="shared" si="11"/>
+        <v>58.250659870756351</v>
+      </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
@@ -23552,6 +23576,10 @@
       <c r="L61">
         <v>100</v>
       </c>
+      <c r="O61" s="9">
+        <f t="shared" si="11"/>
+        <v>58.250659870756351</v>
+      </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
@@ -23591,6 +23619,10 @@
       <c r="L62">
         <v>100</v>
       </c>
+      <c r="O62" s="9">
+        <f t="shared" si="11"/>
+        <v>58.250659870756351</v>
+      </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
@@ -23630,6 +23662,10 @@
       <c r="L63">
         <v>100</v>
       </c>
+      <c r="O63" s="9">
+        <f t="shared" si="11"/>
+        <v>58.250659870756351</v>
+      </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
@@ -23668,6 +23704,10 @@
       </c>
       <c r="L64">
         <v>100</v>
+      </c>
+      <c r="O64" s="9">
+        <f t="shared" si="11"/>
+        <v>58.250659870756351</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
@@ -23699,33 +23739,95 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D67" s="7"/>
+      <c r="D67" s="38"/>
       <c r="E67" s="38"/>
       <c r="F67" s="38"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-    </row>
-    <row r="69" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A69" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="51"/>
-      <c r="K69" s="51"/>
-      <c r="L69" s="51"/>
-      <c r="M69" s="51"/>
-      <c r="N69" s="51"/>
-      <c r="O69" s="51"/>
+      <c r="A68" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68">
+        <v>10987</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="7">
+        <f t="shared" ref="D68:D70" si="12">((E68/$D$8)+(E68/$E$8))/2</f>
+        <v>1.0460806340347668</v>
+      </c>
+      <c r="E68" s="38">
+        <v>1.092562</v>
+      </c>
+      <c r="F68" s="38">
+        <v>0.14782500000000001</v>
+      </c>
+      <c r="G68">
+        <v>13.952097999999999</v>
+      </c>
+      <c r="H68">
+        <v>0.13807800000000001</v>
+      </c>
+      <c r="I68">
+        <v>9.1179999999999997E-2</v>
+      </c>
+      <c r="J68">
+        <v>42</v>
+      </c>
+      <c r="K68">
+        <v>344</v>
+      </c>
+      <c r="L68">
+        <v>100</v>
+      </c>
+      <c r="O68" s="9">
+        <f t="shared" ref="O68:O70" si="13">(32*L68*K68)/B68</f>
+        <v>100.19113497770093</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69">
+        <v>10987</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="7">
+        <f t="shared" si="12"/>
+        <v>1.0411152644098811</v>
+      </c>
+      <c r="E69" s="38">
+        <v>1.0873759999999999</v>
+      </c>
+      <c r="F69" s="38">
+        <v>0.14754400000000001</v>
+      </c>
+      <c r="G69">
+        <v>14.183965000000001</v>
+      </c>
+      <c r="H69">
+        <v>0.13820499999999999</v>
+      </c>
+      <c r="I69">
+        <v>9.2063000000000006E-2</v>
+      </c>
+      <c r="J69">
+        <v>43</v>
+      </c>
+      <c r="K69">
+        <v>344</v>
+      </c>
+      <c r="L69">
+        <v>100</v>
+      </c>
+      <c r="O69" s="9">
+        <f t="shared" si="13"/>
+        <v>100.19113497770093</v>
+      </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
@@ -23735,480 +23837,124 @@
         <v>10987</v>
       </c>
       <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="7">
+        <f t="shared" si="12"/>
+        <v>1.018731845379689</v>
+      </c>
+      <c r="E70" s="38">
+        <v>1.063998</v>
+      </c>
+      <c r="F70" s="38">
+        <v>0.145152</v>
+      </c>
+      <c r="G70">
+        <v>13.356576</v>
+      </c>
+      <c r="H70">
+        <v>0.13570399999999999</v>
+      </c>
+      <c r="I70">
+        <v>8.9010000000000006E-2</v>
+      </c>
+      <c r="J70">
+        <v>44</v>
+      </c>
+      <c r="K70">
+        <v>344</v>
+      </c>
+      <c r="L70">
+        <v>100</v>
+      </c>
+      <c r="O70" s="9">
+        <f t="shared" si="13"/>
+        <v>100.19113497770093</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D78" s="38"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D81" s="38"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D83" s="38"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
+    </row>
+    <row r="84" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A84" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D70" s="7">
-        <f>((E70/$D$8)+(E70/$E$8))/2</f>
-        <v>1.1798669940530651</v>
-      </c>
-      <c r="E70" s="7">
-        <v>1.2322930000000001</v>
-      </c>
-      <c r="F70" s="7">
-        <v>0.17486299999999999</v>
-      </c>
-      <c r="G70" s="7">
-        <v>19.907909</v>
-      </c>
-      <c r="H70" s="7">
-        <v>0.16248299999999999</v>
-      </c>
-      <c r="I70" s="7">
-        <v>0.114179</v>
-      </c>
-      <c r="J70">
-        <v>42</v>
-      </c>
-      <c r="K70">
-        <v>100</v>
-      </c>
-      <c r="L70">
-        <v>50</v>
-      </c>
-      <c r="M70" t="s">
-        <v>15</v>
-      </c>
-      <c r="N70" t="s">
-        <v>20</v>
-      </c>
-      <c r="O70" s="9">
-        <f t="shared" ref="O70:O72" si="11">(32*L70*K70)/B70</f>
-        <v>14.562664967689088</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>55</v>
-      </c>
-      <c r="B71">
-        <v>10987</v>
-      </c>
-      <c r="C71" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="7">
-        <f t="shared" ref="D71:D72" si="12">((E71/$D$8)+(E71/$E$8))/2</f>
-        <v>1.1948645933211344</v>
-      </c>
-      <c r="E71" s="7">
-        <v>1.247957</v>
-      </c>
-      <c r="F71" s="7">
-        <v>0.17571899999999999</v>
-      </c>
-      <c r="G71" s="7">
-        <v>19.419625</v>
-      </c>
-      <c r="H71" s="7">
-        <v>0.163246</v>
-      </c>
-      <c r="I71" s="7">
-        <v>0.113192</v>
-      </c>
-      <c r="J71">
-        <v>43</v>
-      </c>
-      <c r="K71">
-        <v>100</v>
-      </c>
-      <c r="L71">
-        <v>50</v>
-      </c>
-      <c r="M71" t="s">
-        <v>15</v>
-      </c>
-      <c r="N71" t="s">
-        <v>20</v>
-      </c>
-      <c r="O71" s="9">
-        <f t="shared" si="11"/>
-        <v>14.562664967689088</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>55</v>
-      </c>
-      <c r="B72">
-        <v>10987</v>
-      </c>
-      <c r="C72" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="7">
-        <f t="shared" si="12"/>
-        <v>1.1274022053979871</v>
-      </c>
-      <c r="E72" s="7">
-        <v>1.177497</v>
-      </c>
-      <c r="F72" s="7">
-        <v>0.164941</v>
-      </c>
-      <c r="G72" s="7">
-        <v>25.232595</v>
-      </c>
-      <c r="H72" s="7">
-        <v>0.15296899999999999</v>
-      </c>
-      <c r="I72" s="7">
-        <v>0.12441099999999999</v>
-      </c>
-      <c r="J72">
-        <v>44</v>
-      </c>
-      <c r="K72">
-        <v>100</v>
-      </c>
-      <c r="L72">
-        <v>50</v>
-      </c>
-      <c r="M72" t="s">
-        <v>15</v>
-      </c>
-      <c r="N72" t="s">
-        <v>20</v>
-      </c>
-      <c r="O72" s="9">
-        <f t="shared" si="11"/>
-        <v>14.562664967689088</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D73" s="36">
-        <f t="shared" ref="D73:F73" si="13">AVERAGE(D70:D72)</f>
-        <v>1.1673779309240622</v>
-      </c>
-      <c r="E73" s="36">
-        <f t="shared" si="13"/>
-        <v>1.2192489999999998</v>
-      </c>
-      <c r="F73" s="36">
-        <f t="shared" si="13"/>
-        <v>0.17184099999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>55</v>
-      </c>
-      <c r="B75">
-        <v>10987</v>
-      </c>
-      <c r="C75" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" s="7">
-        <f t="shared" ref="D75:D77" si="14">((E75/$D$8)+(E75/$E$8))/2</f>
-        <v>1.1479607122598354</v>
-      </c>
-      <c r="E75" s="7">
-        <v>1.198969</v>
-      </c>
-      <c r="F75" s="7">
-        <v>0.16498399999999999</v>
-      </c>
-      <c r="G75" s="7">
-        <v>19.436844000000001</v>
-      </c>
-      <c r="H75" s="7">
-        <v>0.15676100000000001</v>
-      </c>
-      <c r="I75" s="7">
-        <v>0.101368</v>
-      </c>
-      <c r="J75">
-        <v>42</v>
-      </c>
-      <c r="K75">
-        <v>100</v>
-      </c>
-      <c r="L75">
-        <v>100</v>
-      </c>
-      <c r="M75" t="s">
-        <v>15</v>
-      </c>
-      <c r="N75" t="s">
-        <v>20</v>
-      </c>
-      <c r="O75" s="9">
-        <f t="shared" ref="O75:O77" si="15">(32*L75*K75)/B75</f>
-        <v>29.125329935378176</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>55</v>
-      </c>
-      <c r="B76">
-        <v>10987</v>
-      </c>
-      <c r="C76" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="7">
-        <f t="shared" si="14"/>
-        <v>1.0731756967063131</v>
-      </c>
-      <c r="E76" s="7">
-        <v>1.1208610000000001</v>
-      </c>
-      <c r="F76" s="7">
-        <v>0.15604799999999999</v>
-      </c>
-      <c r="G76" s="7">
-        <v>18.544347999999999</v>
-      </c>
-      <c r="H76" s="7">
-        <v>0.14652100000000001</v>
-      </c>
-      <c r="I76" s="7">
-        <v>9.8779000000000006E-2</v>
-      </c>
-      <c r="J76">
-        <v>43</v>
-      </c>
-      <c r="K76">
-        <v>100</v>
-      </c>
-      <c r="L76">
-        <v>100</v>
-      </c>
-      <c r="M76" t="s">
-        <v>15</v>
-      </c>
-      <c r="N76" t="s">
-        <v>20</v>
-      </c>
-      <c r="O76" s="9">
-        <f t="shared" si="15"/>
-        <v>29.125329935378176</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>55</v>
-      </c>
-      <c r="B77">
-        <v>10987</v>
-      </c>
-      <c r="C77" t="s">
-        <v>3</v>
-      </c>
-      <c r="D77" s="7">
-        <f t="shared" si="14"/>
-        <v>1.1450002566331201</v>
-      </c>
-      <c r="E77" s="7">
-        <v>1.1958770000000001</v>
-      </c>
-      <c r="F77" s="7">
-        <v>0.165406</v>
-      </c>
-      <c r="G77" s="7">
-        <v>20.539697</v>
-      </c>
-      <c r="H77" s="7">
-        <v>0.159413</v>
-      </c>
-      <c r="I77" s="7">
-        <v>0.100018</v>
-      </c>
-      <c r="J77">
-        <v>44</v>
-      </c>
-      <c r="K77">
-        <v>100</v>
-      </c>
-      <c r="L77">
-        <v>100</v>
-      </c>
-      <c r="M77" t="s">
-        <v>15</v>
-      </c>
-      <c r="N77" t="s">
-        <v>20</v>
-      </c>
-      <c r="O77" s="9">
-        <f t="shared" si="15"/>
-        <v>29.125329935378176</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D78" s="36">
-        <f t="shared" ref="D78:F78" si="16">AVERAGE(D75:D77)</f>
-        <v>1.1220455551997561</v>
-      </c>
-      <c r="E78" s="36">
-        <f t="shared" si="16"/>
-        <v>1.1719023333333334</v>
-      </c>
-      <c r="F78" s="36">
-        <f t="shared" si="16"/>
-        <v>0.16214599999999998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>55</v>
-      </c>
-      <c r="B80">
-        <v>10987</v>
-      </c>
-      <c r="C80" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="7">
-        <f t="shared" ref="D80" si="17">((E80/$D$8)+(E80/$E$8))/2</f>
-        <v>1.1646376903019213</v>
-      </c>
-      <c r="E80" s="7">
-        <v>1.2163870000000001</v>
-      </c>
-      <c r="F80" s="7">
-        <v>0.1666</v>
-      </c>
-      <c r="G80" s="7">
-        <v>23.876085</v>
-      </c>
-      <c r="H80" s="7">
-        <v>0.15624499999999999</v>
-      </c>
-      <c r="I80" s="7">
-        <v>0.121716</v>
-      </c>
-      <c r="J80">
-        <v>42</v>
-      </c>
-      <c r="K80">
-        <v>100</v>
-      </c>
-      <c r="L80">
-        <v>200</v>
-      </c>
-      <c r="M80" t="s">
-        <v>15</v>
-      </c>
-      <c r="N80" t="s">
-        <v>20</v>
-      </c>
-      <c r="O80" s="9">
-        <f t="shared" ref="O80:O82" si="18">(32*L80*K80)/B80</f>
-        <v>58.250659870756351</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>55</v>
-      </c>
-      <c r="B81">
-        <v>10987</v>
-      </c>
-      <c r="C81" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="7">
-        <f t="shared" ref="D81:D82" si="19">((E81/$D$8)+(E81/$E$8))/2</f>
-        <v>1.2102662392497714</v>
-      </c>
-      <c r="E81" s="7">
-        <v>1.264043</v>
-      </c>
-      <c r="F81" s="7">
-        <v>0.17772299999999999</v>
-      </c>
-      <c r="G81" s="7">
-        <v>28.471319000000001</v>
-      </c>
-      <c r="H81" s="7">
-        <v>0.16067799999999999</v>
-      </c>
-      <c r="I81" s="7">
-        <v>0.14185600000000001</v>
-      </c>
-      <c r="J81">
-        <v>43</v>
-      </c>
-      <c r="K81">
-        <v>100</v>
-      </c>
-      <c r="L81">
-        <v>200</v>
-      </c>
-      <c r="M81" t="s">
-        <v>15</v>
-      </c>
-      <c r="N81" t="s">
-        <v>20</v>
-      </c>
-      <c r="O81" s="9">
-        <f t="shared" si="18"/>
-        <v>58.250659870756351</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>55</v>
-      </c>
-      <c r="B82">
-        <v>10987</v>
-      </c>
-      <c r="C82" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="7">
-        <f t="shared" si="19"/>
-        <v>1.2621163408051235</v>
-      </c>
-      <c r="E82" s="7">
-        <v>1.3181970000000001</v>
-      </c>
-      <c r="F82" s="7">
-        <v>0.185255</v>
-      </c>
-      <c r="G82" s="7">
-        <v>29.934011999999999</v>
-      </c>
-      <c r="H82" s="7">
-        <v>0.17483399999999999</v>
-      </c>
-      <c r="I82" s="7">
-        <v>0.13478399999999999</v>
-      </c>
-      <c r="J82">
-        <v>44</v>
-      </c>
-      <c r="K82">
-        <v>100</v>
-      </c>
-      <c r="L82">
-        <v>200</v>
-      </c>
-      <c r="M82" t="s">
-        <v>15</v>
-      </c>
-      <c r="N82" t="s">
-        <v>20</v>
-      </c>
-      <c r="O82" s="9">
-        <f t="shared" si="18"/>
-        <v>58.250659870756351</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D83" s="36">
-        <f t="shared" ref="D83:F83" si="20">AVERAGE(D80:D82)</f>
-        <v>1.2123400901189387</v>
-      </c>
-      <c r="E83" s="36">
-        <f t="shared" si="20"/>
-        <v>1.2662090000000001</v>
-      </c>
-      <c r="F83" s="36">
-        <f t="shared" si="20"/>
-        <v>0.17652599999999999</v>
-      </c>
+      <c r="B84" s="51"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="51"/>
+      <c r="M84" s="51"/>
+      <c r="N84" s="51"/>
+      <c r="O84" s="51"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
@@ -24221,32 +23967,32 @@
         <v>3</v>
       </c>
       <c r="D85" s="7">
-        <f t="shared" ref="D85:D87" si="21">((E85/$D$8)+(E85/$E$8))/2</f>
-        <v>1.1510590416285451</v>
+        <f>((E85/$D$8)+(E85/$E$8))/2</f>
+        <v>1.1798669940530651</v>
       </c>
       <c r="E85" s="7">
-        <v>1.202205</v>
+        <v>1.2322930000000001</v>
       </c>
       <c r="F85" s="7">
-        <v>0.16897899999999999</v>
+        <v>0.17486299999999999</v>
       </c>
       <c r="G85" s="7">
-        <v>19.611668999999999</v>
+        <v>19.907909</v>
       </c>
       <c r="H85" s="7">
-        <v>0.15919700000000001</v>
+        <v>0.16248299999999999</v>
       </c>
       <c r="I85" s="7">
-        <v>9.7892000000000007E-2</v>
+        <v>0.114179</v>
       </c>
       <c r="J85">
         <v>42</v>
       </c>
       <c r="K85">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L85">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M85" t="s">
         <v>15</v>
@@ -24255,8 +24001,8 @@
         <v>20</v>
       </c>
       <c r="O85" s="9">
-        <f t="shared" ref="O85:O87" si="22">(32*L85*K85)/B85</f>
-        <v>58.250659870756351</v>
+        <f t="shared" ref="O85:O87" si="14">(32*L85*K85)/B85</f>
+        <v>14.562664967689088</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
@@ -24270,32 +24016,32 @@
         <v>3</v>
       </c>
       <c r="D86" s="7">
-        <f t="shared" si="21"/>
-        <v>1.1131705713632205</v>
+        <f t="shared" ref="D86:D87" si="15">((E86/$D$8)+(E86/$E$8))/2</f>
+        <v>1.1948645933211344</v>
       </c>
       <c r="E86" s="7">
-        <v>1.162633</v>
+        <v>1.247957</v>
       </c>
       <c r="F86" s="7">
-        <v>0.16370799999999999</v>
+        <v>0.17571899999999999</v>
       </c>
       <c r="G86" s="7">
-        <v>19.917041000000001</v>
+        <v>19.419625</v>
       </c>
       <c r="H86" s="7">
-        <v>0.15221000000000001</v>
+        <v>0.163246</v>
       </c>
       <c r="I86" s="7">
-        <v>0.104086</v>
+        <v>0.113192</v>
       </c>
       <c r="J86">
         <v>43</v>
       </c>
       <c r="K86">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L86">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M86" t="s">
         <v>15</v>
@@ -24304,8 +24050,8 @@
         <v>20</v>
       </c>
       <c r="O86" s="9">
-        <f t="shared" si="22"/>
-        <v>58.250659870756351</v>
+        <f t="shared" si="14"/>
+        <v>14.562664967689088</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
@@ -24319,32 +24065,32 @@
         <v>3</v>
       </c>
       <c r="D87" s="7">
-        <f t="shared" si="21"/>
-        <v>1.144144290484904</v>
+        <f t="shared" si="15"/>
+        <v>1.1274022053979871</v>
       </c>
       <c r="E87" s="7">
-        <v>1.1949829999999999</v>
+        <v>1.177497</v>
       </c>
       <c r="F87" s="7">
-        <v>0.16921700000000001</v>
+        <v>0.164941</v>
       </c>
       <c r="G87" s="7">
-        <v>20.177575000000001</v>
+        <v>25.232595</v>
       </c>
       <c r="H87" s="7">
-        <v>0.163302</v>
+        <v>0.15296899999999999</v>
       </c>
       <c r="I87" s="7">
-        <v>9.6074999999999994E-2</v>
+        <v>0.12441099999999999</v>
       </c>
       <c r="J87">
         <v>44</v>
       </c>
       <c r="K87">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L87">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M87" t="s">
         <v>15</v>
@@ -24353,22 +24099,22 @@
         <v>20</v>
       </c>
       <c r="O87" s="9">
-        <f t="shared" si="22"/>
-        <v>58.250659870756351</v>
+        <f t="shared" si="14"/>
+        <v>14.562664967689088</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D88" s="36">
-        <f t="shared" ref="D88:F88" si="23">AVERAGE(D85:D87)</f>
-        <v>1.1361246344922231</v>
+        <f t="shared" ref="D88:F88" si="16">AVERAGE(D85:D87)</f>
+        <v>1.1673779309240622</v>
       </c>
       <c r="E88" s="36">
-        <f t="shared" si="23"/>
-        <v>1.1866069999999997</v>
+        <f t="shared" si="16"/>
+        <v>1.2192489999999998</v>
       </c>
       <c r="F88" s="36">
-        <f t="shared" si="23"/>
-        <v>0.1673013333333333</v>
+        <f t="shared" si="16"/>
+        <v>0.17184099999999999</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
@@ -24382,29 +24128,29 @@
         <v>3</v>
       </c>
       <c r="D90" s="7">
-        <f t="shared" ref="D90:D92" si="24">((E90/$D$8)+(E90/$E$8))/2</f>
-        <v>1.2767453193046663</v>
+        <f t="shared" ref="D90:D92" si="17">((E90/$D$8)+(E90/$E$8))/2</f>
+        <v>1.1479607122598354</v>
       </c>
       <c r="E90" s="7">
-        <v>1.3334760000000001</v>
+        <v>1.198969</v>
       </c>
       <c r="F90" s="7">
-        <v>0.187944</v>
+        <v>0.16498399999999999</v>
       </c>
       <c r="G90" s="7">
-        <v>24.904685000000001</v>
+        <v>19.436844000000001</v>
       </c>
       <c r="H90" s="7">
-        <v>0.17991099999999999</v>
+        <v>0.15676100000000001</v>
       </c>
       <c r="I90" s="7">
-        <v>0.125642</v>
+        <v>0.101368</v>
       </c>
       <c r="J90">
         <v>42</v>
       </c>
       <c r="K90">
-        <v>344</v>
+        <v>100</v>
       </c>
       <c r="L90">
         <v>100</v>
@@ -24416,8 +24162,8 @@
         <v>20</v>
       </c>
       <c r="O90" s="9">
-        <f t="shared" ref="O90:O92" si="25">(32*L90*K90)/B90</f>
-        <v>100.19113497770093</v>
+        <f t="shared" ref="O90:O92" si="18">(32*L90*K90)/B90</f>
+        <v>29.125329935378176</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
@@ -24431,29 +24177,29 @@
         <v>3</v>
       </c>
       <c r="D91" s="7">
-        <f t="shared" si="24"/>
-        <v>1.1933575567246111</v>
+        <f t="shared" si="17"/>
+        <v>1.0731756967063131</v>
       </c>
       <c r="E91" s="7">
-        <v>1.246383</v>
+        <v>1.1208610000000001</v>
       </c>
       <c r="F91" s="7">
-        <v>0.17480299999999999</v>
+        <v>0.15604799999999999</v>
       </c>
       <c r="G91" s="7">
-        <v>24.467533</v>
+        <v>18.544347999999999</v>
       </c>
       <c r="H91" s="7">
-        <v>0.162552</v>
+        <v>0.14652100000000001</v>
       </c>
       <c r="I91" s="7">
-        <v>0.120666</v>
+        <v>9.8779000000000006E-2</v>
       </c>
       <c r="J91">
         <v>43</v>
       </c>
       <c r="K91">
-        <v>344</v>
+        <v>100</v>
       </c>
       <c r="L91">
         <v>100</v>
@@ -24465,8 +24211,8 @@
         <v>20</v>
       </c>
       <c r="O91" s="9">
-        <f t="shared" si="25"/>
-        <v>100.19113497770093</v>
+        <f t="shared" si="18"/>
+        <v>29.125329935378176</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
@@ -24480,29 +24226,29 @@
         <v>3</v>
       </c>
       <c r="D92" s="7">
-        <f t="shared" si="24"/>
-        <v>1.2437820054894786</v>
+        <f t="shared" si="17"/>
+        <v>1.1450002566331201</v>
       </c>
       <c r="E92" s="7">
-        <v>1.299048</v>
+        <v>1.1958770000000001</v>
       </c>
       <c r="F92" s="7">
-        <v>0.18410599999999999</v>
+        <v>0.165406</v>
       </c>
       <c r="G92" s="7">
-        <v>20.602916</v>
+        <v>20.539697</v>
       </c>
       <c r="H92" s="7">
-        <v>0.179261</v>
+        <v>0.159413</v>
       </c>
       <c r="I92" s="7">
-        <v>0.10452</v>
+        <v>0.100018</v>
       </c>
       <c r="J92">
         <v>44</v>
       </c>
       <c r="K92">
-        <v>344</v>
+        <v>100</v>
       </c>
       <c r="L92">
         <v>100</v>
@@ -24514,24 +24260,23 @@
         <v>20</v>
       </c>
       <c r="O92" s="9">
-        <f t="shared" si="25"/>
-        <v>100.19113497770093</v>
+        <f t="shared" si="18"/>
+        <v>29.125329935378176</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D93" s="36">
-        <f t="shared" ref="D93:F93" si="26">AVERAGE(D90:D92)</f>
-        <v>1.2379616271729186</v>
+        <f t="shared" ref="D93:F93" si="19">AVERAGE(D90:D92)</f>
+        <v>1.1220455551997561</v>
       </c>
       <c r="E93" s="36">
-        <f t="shared" si="26"/>
-        <v>1.292969</v>
+        <f t="shared" si="19"/>
+        <v>1.1719023333333334</v>
       </c>
       <c r="F93" s="36">
-        <f t="shared" si="26"/>
-        <v>0.18228433333333335</v>
-      </c>
-      <c r="O93" s="9"/>
+        <f t="shared" si="19"/>
+        <v>0.16214599999999998</v>
+      </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
@@ -24544,23 +24289,23 @@
         <v>3</v>
       </c>
       <c r="D95" s="7">
-        <f t="shared" ref="D95:D104" si="27">((E95/$D$8)+(E95/$E$8))/2</f>
-        <v>1.1798669940530651</v>
+        <f t="shared" ref="D95" si="20">((E95/$D$8)+(E95/$E$8))/2</f>
+        <v>1.1646376903019213</v>
       </c>
       <c r="E95" s="7">
-        <v>1.2322930000000001</v>
+        <v>1.2163870000000001</v>
       </c>
       <c r="F95" s="7">
-        <v>0.17486299999999999</v>
+        <v>0.1666</v>
       </c>
       <c r="G95" s="7">
-        <v>19.907909</v>
+        <v>23.876085</v>
       </c>
       <c r="H95" s="7">
-        <v>0.16248299999999999</v>
+        <v>0.15624499999999999</v>
       </c>
       <c r="I95" s="7">
-        <v>0.114179</v>
+        <v>0.121716</v>
       </c>
       <c r="J95">
         <v>42</v>
@@ -24569,7 +24314,7 @@
         <v>100</v>
       </c>
       <c r="L95">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="M95" t="s">
         <v>15</v>
@@ -24578,8 +24323,8 @@
         <v>20</v>
       </c>
       <c r="O95" s="9">
-        <f t="shared" ref="O95:O104" si="28">(32*L95*K95)/B95</f>
-        <v>14.562664967689088</v>
+        <f t="shared" ref="O95:O97" si="21">(32*L95*K95)/B95</f>
+        <v>58.250659870756351</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
@@ -24593,23 +24338,23 @@
         <v>3</v>
       </c>
       <c r="D96" s="7">
-        <f t="shared" si="27"/>
-        <v>1.1948645933211344</v>
+        <f t="shared" ref="D96:D97" si="22">((E96/$D$8)+(E96/$E$8))/2</f>
+        <v>1.2102662392497714</v>
       </c>
       <c r="E96" s="7">
-        <v>1.247957</v>
+        <v>1.264043</v>
       </c>
       <c r="F96" s="7">
-        <v>0.17571899999999999</v>
+        <v>0.17772299999999999</v>
       </c>
       <c r="G96" s="7">
-        <v>19.419625</v>
+        <v>28.471319000000001</v>
       </c>
       <c r="H96" s="7">
-        <v>0.163246</v>
+        <v>0.16067799999999999</v>
       </c>
       <c r="I96" s="7">
-        <v>0.113192</v>
+        <v>0.14185600000000001</v>
       </c>
       <c r="J96">
         <v>43</v>
@@ -24618,7 +24363,7 @@
         <v>100</v>
       </c>
       <c r="L96">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="M96" t="s">
         <v>15</v>
@@ -24627,8 +24372,8 @@
         <v>20</v>
       </c>
       <c r="O96" s="9">
-        <f t="shared" si="28"/>
-        <v>14.562664967689088</v>
+        <f t="shared" si="21"/>
+        <v>58.250659870756351</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
@@ -24642,23 +24387,23 @@
         <v>3</v>
       </c>
       <c r="D97" s="7">
-        <f t="shared" si="27"/>
-        <v>1.1274022053979871</v>
+        <f t="shared" si="22"/>
+        <v>1.2621163408051235</v>
       </c>
       <c r="E97" s="7">
-        <v>1.177497</v>
+        <v>1.3181970000000001</v>
       </c>
       <c r="F97" s="7">
-        <v>0.164941</v>
+        <v>0.185255</v>
       </c>
       <c r="G97" s="7">
-        <v>25.232595</v>
+        <v>29.934011999999999</v>
       </c>
       <c r="H97" s="7">
-        <v>0.15296899999999999</v>
+        <v>0.17483399999999999</v>
       </c>
       <c r="I97" s="7">
-        <v>0.12441099999999999</v>
+        <v>0.13478399999999999</v>
       </c>
       <c r="J97">
         <v>44</v>
@@ -24667,7 +24412,7 @@
         <v>100</v>
       </c>
       <c r="L97">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="M97" t="s">
         <v>15</v>
@@ -24676,106 +24421,22 @@
         <v>20</v>
       </c>
       <c r="O97" s="9">
-        <f t="shared" si="28"/>
-        <v>14.562664967689088</v>
+        <f t="shared" si="21"/>
+        <v>58.250659870756351</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>55</v>
-      </c>
-      <c r="B98">
-        <v>10987</v>
-      </c>
-      <c r="C98" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" s="7">
-        <f t="shared" si="27"/>
-        <v>1.1264820896614822</v>
-      </c>
-      <c r="E98" s="7">
-        <v>1.176536</v>
-      </c>
-      <c r="F98" s="7">
-        <v>0.17142199999999999</v>
-      </c>
-      <c r="G98" s="7">
-        <v>25.813915000000001</v>
-      </c>
-      <c r="H98" s="7">
-        <v>0.158583</v>
-      </c>
-      <c r="I98" s="7">
-        <v>0.12996199999999999</v>
-      </c>
-      <c r="J98">
-        <v>45</v>
-      </c>
-      <c r="K98">
-        <v>100</v>
-      </c>
-      <c r="L98">
-        <v>50</v>
-      </c>
-      <c r="M98" t="s">
-        <v>15</v>
-      </c>
-      <c r="N98" t="s">
-        <v>20</v>
-      </c>
-      <c r="O98" s="9">
-        <f t="shared" si="28"/>
-        <v>14.562664967689088</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>55</v>
-      </c>
-      <c r="B99">
-        <v>10987</v>
-      </c>
-      <c r="C99" t="s">
-        <v>3</v>
-      </c>
-      <c r="D99" s="7">
-        <f t="shared" si="27"/>
-        <v>1.1201695786825252</v>
-      </c>
-      <c r="E99" s="7">
-        <v>1.169943</v>
-      </c>
-      <c r="F99" s="7">
-        <v>0.170094</v>
-      </c>
-      <c r="G99" s="7">
-        <v>24.974618</v>
-      </c>
-      <c r="H99" s="7">
-        <v>0.15729799999999999</v>
-      </c>
-      <c r="I99" s="7">
-        <v>0.125362</v>
-      </c>
-      <c r="J99">
-        <v>46</v>
-      </c>
-      <c r="K99">
-        <v>100</v>
-      </c>
-      <c r="L99">
-        <v>50</v>
-      </c>
-      <c r="M99" t="s">
-        <v>15</v>
-      </c>
-      <c r="N99" t="s">
-        <v>20</v>
-      </c>
-      <c r="O99" s="9">
-        <f t="shared" si="28"/>
-        <v>14.562664967689088</v>
+      <c r="D98" s="36">
+        <f t="shared" ref="D98:F98" si="23">AVERAGE(D95:D97)</f>
+        <v>1.2123400901189387</v>
+      </c>
+      <c r="E98" s="36">
+        <f t="shared" si="23"/>
+        <v>1.2662090000000001</v>
+      </c>
+      <c r="F98" s="36">
+        <f t="shared" si="23"/>
+        <v>0.17652599999999999</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
@@ -24789,32 +24450,32 @@
         <v>3</v>
       </c>
       <c r="D100" s="7">
-        <f t="shared" si="27"/>
-        <v>1.1381563572735589</v>
+        <f t="shared" ref="D100:D102" si="24">((E100/$D$8)+(E100/$E$8))/2</f>
+        <v>1.1510590416285451</v>
       </c>
       <c r="E100" s="7">
-        <v>1.1887289999999999</v>
+        <v>1.202205</v>
       </c>
       <c r="F100" s="7">
-        <v>0.17150699999999999</v>
+        <v>0.16897899999999999</v>
       </c>
       <c r="G100" s="7">
-        <v>24.186653</v>
+        <v>19.611668999999999</v>
       </c>
       <c r="H100" s="7">
-        <v>0.15909499999999999</v>
+        <v>0.15919700000000001</v>
       </c>
       <c r="I100" s="7">
-        <v>0.12392</v>
+        <v>9.7892000000000007E-2</v>
       </c>
       <c r="J100">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L100">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M100" t="s">
         <v>15</v>
@@ -24823,8 +24484,8 @@
         <v>20</v>
       </c>
       <c r="O100" s="9">
-        <f t="shared" si="28"/>
-        <v>14.562664967689088</v>
+        <f t="shared" ref="O100:O102" si="25">(32*L100*K100)/B100</f>
+        <v>58.250659870756351</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
@@ -24838,32 +24499,32 @@
         <v>3</v>
       </c>
       <c r="D101" s="7">
-        <f t="shared" si="27"/>
-        <v>1.128748389295517</v>
+        <f t="shared" si="24"/>
+        <v>1.1131705713632205</v>
       </c>
       <c r="E101" s="7">
-        <v>1.178903</v>
+        <v>1.162633</v>
       </c>
       <c r="F101" s="7">
-        <v>0.172263</v>
+        <v>0.16370799999999999</v>
       </c>
       <c r="G101" s="7">
-        <v>24.553653000000001</v>
+        <v>19.917041000000001</v>
       </c>
       <c r="H101" s="7">
-        <v>0.159579</v>
+        <v>0.15221000000000001</v>
       </c>
       <c r="I101" s="7">
-        <v>0.125724</v>
+        <v>0.104086</v>
       </c>
       <c r="J101">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K101">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L101">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M101" t="s">
         <v>15</v>
@@ -24872,8 +24533,8 @@
         <v>20</v>
       </c>
       <c r="O101" s="9">
-        <f t="shared" si="28"/>
-        <v>14.562664967689088</v>
+        <f t="shared" si="25"/>
+        <v>58.250659870756351</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
@@ -24887,32 +24548,32 @@
         <v>3</v>
       </c>
       <c r="D102" s="7">
-        <f t="shared" si="27"/>
-        <v>1.1598370032021958</v>
+        <f t="shared" si="24"/>
+        <v>1.144144290484904</v>
       </c>
       <c r="E102" s="7">
-        <v>1.211373</v>
+        <v>1.1949829999999999</v>
       </c>
       <c r="F102" s="7">
-        <v>0.17155599999999999</v>
+        <v>0.16921700000000001</v>
       </c>
       <c r="G102" s="7">
-        <v>21.001552</v>
+        <v>20.177575000000001</v>
       </c>
       <c r="H102" s="7">
-        <v>0.159354</v>
+        <v>0.163302</v>
       </c>
       <c r="I102" s="7">
-        <v>0.115953</v>
+        <v>9.6074999999999994E-2</v>
       </c>
       <c r="J102">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K102">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L102">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M102" t="s">
         <v>15</v>
@@ -24921,225 +24582,185 @@
         <v>20</v>
       </c>
       <c r="O102" s="9">
+        <f t="shared" si="25"/>
+        <v>58.250659870756351</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D103" s="36">
+        <f t="shared" ref="D103:F103" si="26">AVERAGE(D100:D102)</f>
+        <v>1.1361246344922231</v>
+      </c>
+      <c r="E103" s="36">
+        <f t="shared" si="26"/>
+        <v>1.1866069999999997</v>
+      </c>
+      <c r="F103" s="36">
+        <f t="shared" si="26"/>
+        <v>0.1673013333333333</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>55</v>
+      </c>
+      <c r="B105">
+        <v>10987</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="7">
+        <f t="shared" ref="D105:D107" si="27">((E105/$D$8)+(E105/$E$8))/2</f>
+        <v>1.2767453193046663</v>
+      </c>
+      <c r="E105" s="7">
+        <v>1.3334760000000001</v>
+      </c>
+      <c r="F105" s="7">
+        <v>0.187944</v>
+      </c>
+      <c r="G105" s="7">
+        <v>24.904685000000001</v>
+      </c>
+      <c r="H105" s="7">
+        <v>0.17991099999999999</v>
+      </c>
+      <c r="I105" s="7">
+        <v>0.125642</v>
+      </c>
+      <c r="J105">
+        <v>42</v>
+      </c>
+      <c r="K105">
+        <v>344</v>
+      </c>
+      <c r="L105">
+        <v>100</v>
+      </c>
+      <c r="M105" t="s">
+        <v>15</v>
+      </c>
+      <c r="N105" t="s">
+        <v>20</v>
+      </c>
+      <c r="O105" s="9">
+        <f t="shared" ref="O105:O107" si="28">(32*L105*K105)/B105</f>
+        <v>100.19113497770093</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>55</v>
+      </c>
+      <c r="B106">
+        <v>10987</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="7">
+        <f t="shared" si="27"/>
+        <v>1.1933575567246111</v>
+      </c>
+      <c r="E106" s="7">
+        <v>1.246383</v>
+      </c>
+      <c r="F106" s="7">
+        <v>0.17480299999999999</v>
+      </c>
+      <c r="G106" s="7">
+        <v>24.467533</v>
+      </c>
+      <c r="H106" s="7">
+        <v>0.162552</v>
+      </c>
+      <c r="I106" s="7">
+        <v>0.120666</v>
+      </c>
+      <c r="J106">
+        <v>43</v>
+      </c>
+      <c r="K106">
+        <v>344</v>
+      </c>
+      <c r="L106">
+        <v>100</v>
+      </c>
+      <c r="M106" t="s">
+        <v>15</v>
+      </c>
+      <c r="N106" t="s">
+        <v>20</v>
+      </c>
+      <c r="O106" s="9">
         <f t="shared" si="28"/>
-        <v>14.562664967689088</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+        <v>100.19113497770093</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>55</v>
       </c>
-      <c r="B103">
+      <c r="B107">
         <v>10987</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C107" t="s">
         <v>3</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D107" s="7">
         <f t="shared" si="27"/>
-        <v>1.1849472584629459</v>
-      </c>
-      <c r="E103" s="7">
-        <v>1.2375989999999999</v>
-      </c>
-      <c r="F103" s="7">
-        <v>0.17721799999999999</v>
-      </c>
-      <c r="G103" s="7">
-        <v>23.820281999999999</v>
-      </c>
-      <c r="H103" s="7">
-        <v>0.16422</v>
-      </c>
-      <c r="I103" s="7">
-        <v>0.122726</v>
-      </c>
-      <c r="J103">
-        <v>50</v>
-      </c>
-      <c r="K103">
-        <v>100</v>
-      </c>
-      <c r="L103">
-        <v>50</v>
-      </c>
-      <c r="M103" t="s">
-        <v>15</v>
-      </c>
-      <c r="N103" t="s">
+        <v>1.2437820054894786</v>
+      </c>
+      <c r="E107" s="7">
+        <v>1.299048</v>
+      </c>
+      <c r="F107" s="7">
+        <v>0.18410599999999999</v>
+      </c>
+      <c r="G107" s="7">
+        <v>20.602916</v>
+      </c>
+      <c r="H107" s="7">
+        <v>0.179261</v>
+      </c>
+      <c r="I107" s="7">
+        <v>0.10452</v>
+      </c>
+      <c r="J107">
+        <v>44</v>
+      </c>
+      <c r="K107">
+        <v>344</v>
+      </c>
+      <c r="L107">
+        <v>100</v>
+      </c>
+      <c r="M107" t="s">
+        <v>15</v>
+      </c>
+      <c r="N107" t="s">
         <v>20</v>
       </c>
-      <c r="O103" s="9">
+      <c r="O107" s="9">
         <f t="shared" si="28"/>
-        <v>14.562664967689088</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>55</v>
-      </c>
-      <c r="B104">
-        <v>10987</v>
-      </c>
-      <c r="C104" t="s">
-        <v>3</v>
-      </c>
-      <c r="D104" s="7">
-        <f t="shared" si="27"/>
-        <v>1.1207220311070447</v>
-      </c>
-      <c r="E104" s="7">
-        <v>1.17052</v>
-      </c>
-      <c r="F104" s="7">
-        <v>0.16773199999999999</v>
-      </c>
-      <c r="G104" s="7">
-        <v>23.524663</v>
-      </c>
-      <c r="H104" s="7">
-        <v>0.15543000000000001</v>
-      </c>
-      <c r="I104" s="7">
-        <v>0.120392</v>
-      </c>
-      <c r="J104">
-        <v>51</v>
-      </c>
-      <c r="K104">
-        <v>100</v>
-      </c>
-      <c r="L104">
-        <v>50</v>
-      </c>
-      <c r="M104" t="s">
-        <v>15</v>
-      </c>
-      <c r="N104" t="s">
-        <v>20</v>
-      </c>
-      <c r="O104" s="9">
-        <f t="shared" si="28"/>
-        <v>14.562664967689088</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D105" s="36">
-        <f>AVERAGE(D95:D104)</f>
-        <v>1.1481196500457456</v>
-      </c>
-      <c r="E105" s="36">
-        <f>AVERAGE(E95:E104)</f>
-        <v>1.1991349999999998</v>
-      </c>
-      <c r="F105" s="36">
-        <f>AVERAGE(F95:F104)</f>
-        <v>0.17173150000000001</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D106" s="36">
-        <f>MEDIAN(D95:D104)</f>
-        <v>1.1334523732845381</v>
-      </c>
-      <c r="E106" s="36">
-        <f>MEDIAN(E95:E104)</f>
-        <v>1.183816</v>
-      </c>
-      <c r="F106" s="36">
-        <f>MEDIAN(F95:F104)</f>
-        <v>0.1715315</v>
+        <v>100.19113497770093</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>55</v>
-      </c>
-      <c r="B108">
-        <v>10987</v>
-      </c>
-      <c r="C108" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="7">
-        <f t="shared" ref="D108:D117" si="29">((E108/$D$8)+(E108/$E$8))/2</f>
-        <v>1.1479607122598354</v>
-      </c>
-      <c r="E108" s="7">
-        <v>1.198969</v>
-      </c>
-      <c r="F108" s="7">
-        <v>0.16498399999999999</v>
-      </c>
-      <c r="G108" s="7">
-        <v>19.436844000000001</v>
-      </c>
-      <c r="H108" s="7">
-        <v>0.15676100000000001</v>
-      </c>
-      <c r="I108" s="7">
-        <v>0.101368</v>
-      </c>
-      <c r="J108">
-        <v>42</v>
-      </c>
-      <c r="K108">
-        <v>100</v>
-      </c>
-      <c r="L108">
-        <v>100</v>
-      </c>
-      <c r="M108" t="s">
-        <v>15</v>
-      </c>
-      <c r="N108" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>55</v>
-      </c>
-      <c r="B109">
-        <v>10987</v>
-      </c>
-      <c r="C109" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" s="7">
+      <c r="D108" s="36">
+        <f t="shared" ref="D108:F108" si="29">AVERAGE(D105:D107)</f>
+        <v>1.2379616271729186</v>
+      </c>
+      <c r="E108" s="36">
         <f t="shared" si="29"/>
-        <v>1.0731756967063131</v>
-      </c>
-      <c r="E109" s="7">
-        <v>1.1208610000000001</v>
-      </c>
-      <c r="F109" s="7">
-        <v>0.15604799999999999</v>
-      </c>
-      <c r="G109" s="7">
-        <v>18.544347999999999</v>
-      </c>
-      <c r="H109" s="7">
-        <v>0.14652100000000001</v>
-      </c>
-      <c r="I109" s="7">
-        <v>9.8779000000000006E-2</v>
-      </c>
-      <c r="J109">
-        <v>43</v>
-      </c>
-      <c r="K109">
-        <v>100</v>
-      </c>
-      <c r="L109">
-        <v>100</v>
-      </c>
-      <c r="M109" t="s">
-        <v>15</v>
-      </c>
-      <c r="N109" t="s">
-        <v>20</v>
-      </c>
+        <v>1.292969</v>
+      </c>
+      <c r="F108" s="36">
+        <f t="shared" si="29"/>
+        <v>0.18228433333333335</v>
+      </c>
+      <c r="O108" s="9"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
@@ -25152,38 +24773,42 @@
         <v>3</v>
       </c>
       <c r="D110" s="7">
-        <f t="shared" si="29"/>
-        <v>1.1450002566331201</v>
+        <f t="shared" ref="D110:D119" si="30">((E110/$D$8)+(E110/$E$8))/2</f>
+        <v>1.1798669940530651</v>
       </c>
       <c r="E110" s="7">
-        <v>1.1958770000000001</v>
+        <v>1.2322930000000001</v>
       </c>
       <c r="F110" s="7">
-        <v>0.165406</v>
+        <v>0.17486299999999999</v>
       </c>
       <c r="G110" s="7">
-        <v>20.539697</v>
+        <v>19.907909</v>
       </c>
       <c r="H110" s="7">
-        <v>0.159413</v>
+        <v>0.16248299999999999</v>
       </c>
       <c r="I110" s="7">
-        <v>0.100018</v>
+        <v>0.114179</v>
       </c>
       <c r="J110">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K110">
         <v>100</v>
       </c>
       <c r="L110">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M110" t="s">
         <v>15</v>
       </c>
       <c r="N110" t="s">
         <v>20</v>
+      </c>
+      <c r="O110" s="9">
+        <f t="shared" ref="O110:O119" si="31">(32*L110*K110)/B110</f>
+        <v>14.562664967689088</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
@@ -25197,38 +24822,42 @@
         <v>3</v>
       </c>
       <c r="D111" s="7">
-        <f t="shared" si="29"/>
-        <v>1.1494304080512352</v>
+        <f t="shared" si="30"/>
+        <v>1.1948645933211344</v>
       </c>
       <c r="E111" s="7">
-        <v>1.200504</v>
+        <v>1.247957</v>
       </c>
       <c r="F111" s="7">
-        <v>0.16708400000000001</v>
+        <v>0.17571899999999999</v>
       </c>
       <c r="G111" s="7">
-        <v>18.751373000000001</v>
+        <v>19.419625</v>
       </c>
       <c r="H111" s="7">
-        <v>0.16172700000000001</v>
+        <v>0.163246</v>
       </c>
       <c r="I111" s="7">
-        <v>9.8215999999999998E-2</v>
+        <v>0.113192</v>
       </c>
       <c r="J111">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K111">
         <v>100</v>
       </c>
       <c r="L111">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M111" t="s">
         <v>15</v>
       </c>
       <c r="N111" t="s">
         <v>20</v>
+      </c>
+      <c r="O111" s="9">
+        <f t="shared" si="31"/>
+        <v>14.562664967689088</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
@@ -25242,32 +24871,32 @@
         <v>3</v>
       </c>
       <c r="D112" s="7">
-        <f t="shared" si="29"/>
-        <v>1.1426420411710887</v>
+        <f t="shared" si="30"/>
+        <v>1.1274022053979871</v>
       </c>
       <c r="E112" s="7">
-        <v>1.193414</v>
+        <v>1.177497</v>
       </c>
       <c r="F112" s="7">
-        <v>0.171407</v>
+        <v>0.164941</v>
       </c>
       <c r="G112" s="7">
-        <v>18.323416000000002</v>
+        <v>25.232595</v>
       </c>
       <c r="H112" s="7">
-        <v>0.16451499999999999</v>
+        <v>0.15296899999999999</v>
       </c>
       <c r="I112" s="7">
-        <v>9.9432999999999994E-2</v>
+        <v>0.12441099999999999</v>
       </c>
       <c r="J112">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K112">
         <v>100</v>
       </c>
       <c r="L112">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M112" t="s">
         <v>15</v>
@@ -25275,8 +24904,12 @@
       <c r="N112" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O112" s="9">
+        <f t="shared" si="31"/>
+        <v>14.562664967689088</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>55</v>
       </c>
@@ -25287,32 +24920,32 @@
         <v>3</v>
       </c>
       <c r="D113" s="7">
-        <f t="shared" si="29"/>
-        <v>1.1404159547118025</v>
+        <f t="shared" si="30"/>
+        <v>1.1264820896614822</v>
       </c>
       <c r="E113" s="7">
-        <v>1.1910890000000001</v>
+        <v>1.176536</v>
       </c>
       <c r="F113" s="7">
-        <v>0.16337499999999999</v>
+        <v>0.17142199999999999</v>
       </c>
       <c r="G113" s="7">
-        <v>19.08184</v>
+        <v>25.813915000000001</v>
       </c>
       <c r="H113" s="7">
-        <v>0.15710399999999999</v>
+        <v>0.158583</v>
       </c>
       <c r="I113" s="7">
-        <v>9.9682000000000007E-2</v>
+        <v>0.12996199999999999</v>
       </c>
       <c r="J113">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K113">
         <v>100</v>
       </c>
       <c r="L113">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M113" t="s">
         <v>15</v>
@@ -25320,8 +24953,12 @@
       <c r="N113" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O113" s="9">
+        <f t="shared" si="31"/>
+        <v>14.562664967689088</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>55</v>
       </c>
@@ -25332,32 +24969,32 @@
         <v>3</v>
       </c>
       <c r="D114" s="7">
-        <f t="shared" si="29"/>
-        <v>1.1400990365965233</v>
+        <f t="shared" si="30"/>
+        <v>1.1201695786825252</v>
       </c>
       <c r="E114" s="7">
-        <v>1.190758</v>
+        <v>1.169943</v>
       </c>
       <c r="F114" s="7">
-        <v>0.167044</v>
+        <v>0.170094</v>
       </c>
       <c r="G114" s="7">
-        <v>18.171569999999999</v>
+        <v>24.974618</v>
       </c>
       <c r="H114" s="7">
-        <v>0.16015599999999999</v>
+        <v>0.15729799999999999</v>
       </c>
       <c r="I114" s="7">
-        <v>9.9176E-2</v>
+        <v>0.125362</v>
       </c>
       <c r="J114">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K114">
         <v>100</v>
       </c>
       <c r="L114">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M114" t="s">
         <v>15</v>
@@ -25365,8 +25002,12 @@
       <c r="N114" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O114" s="9">
+        <f t="shared" si="31"/>
+        <v>14.562664967689088</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>55</v>
       </c>
@@ -25377,32 +25018,32 @@
         <v>3</v>
       </c>
       <c r="D115" s="7">
-        <f t="shared" si="29"/>
-        <v>1.201337956999085</v>
+        <f t="shared" si="30"/>
+        <v>1.1381563572735589</v>
       </c>
       <c r="E115" s="7">
-        <v>1.254718</v>
+        <v>1.1887289999999999</v>
       </c>
       <c r="F115" s="7">
-        <v>0.17490800000000001</v>
+        <v>0.17150699999999999</v>
       </c>
       <c r="G115" s="7">
-        <v>19.749290999999999</v>
+        <v>24.186653</v>
       </c>
       <c r="H115" s="7">
-        <v>0.17252200000000001</v>
+        <v>0.15909499999999999</v>
       </c>
       <c r="I115" s="7">
-        <v>0.10026500000000001</v>
+        <v>0.12392</v>
       </c>
       <c r="J115">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K115">
         <v>100</v>
       </c>
       <c r="L115">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M115" t="s">
         <v>15</v>
@@ -25410,8 +25051,12 @@
       <c r="N115" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O115" s="9">
+        <f t="shared" si="31"/>
+        <v>14.562664967689088</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>55</v>
       </c>
@@ -25422,32 +25067,32 @@
         <v>3</v>
       </c>
       <c r="D116" s="7">
-        <f t="shared" si="29"/>
-        <v>1.1276147607502287</v>
+        <f t="shared" si="30"/>
+        <v>1.128748389295517</v>
       </c>
       <c r="E116" s="7">
-        <v>1.177719</v>
+        <v>1.178903</v>
       </c>
       <c r="F116" s="7">
-        <v>0.168327</v>
+        <v>0.172263</v>
       </c>
       <c r="G116" s="7">
-        <v>21.434521</v>
+        <v>24.553653000000001</v>
       </c>
       <c r="H116" s="7">
-        <v>0.16345999999999999</v>
+        <v>0.159579</v>
       </c>
       <c r="I116" s="7">
-        <v>0.10000299999999999</v>
+        <v>0.125724</v>
       </c>
       <c r="J116">
+        <v>48</v>
+      </c>
+      <c r="K116">
+        <v>100</v>
+      </c>
+      <c r="L116">
         <v>50</v>
-      </c>
-      <c r="K116">
-        <v>100</v>
-      </c>
-      <c r="L116">
-        <v>100</v>
       </c>
       <c r="M116" t="s">
         <v>15</v>
@@ -25455,8 +25100,12 @@
       <c r="N116" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O116" s="9">
+        <f t="shared" si="31"/>
+        <v>14.562664967689088</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>55</v>
       </c>
@@ -25467,32 +25116,32 @@
         <v>3</v>
       </c>
       <c r="D117" s="7">
-        <f t="shared" si="29"/>
-        <v>1.1461042040256175</v>
+        <f t="shared" si="30"/>
+        <v>1.1598370032021958</v>
       </c>
       <c r="E117" s="7">
-        <v>1.19703</v>
+        <v>1.211373</v>
       </c>
       <c r="F117" s="7">
-        <v>0.16265399999999999</v>
+        <v>0.17155599999999999</v>
       </c>
       <c r="G117" s="7">
-        <v>18.785838999999999</v>
+        <v>21.001552</v>
       </c>
       <c r="H117" s="7">
-        <v>0.15460099999999999</v>
+        <v>0.159354</v>
       </c>
       <c r="I117" s="7">
-        <v>0.101812</v>
+        <v>0.115953</v>
       </c>
       <c r="J117">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K117">
         <v>100</v>
       </c>
       <c r="L117">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M117" t="s">
         <v>15</v>
@@ -25500,129 +25149,138 @@
       <c r="N117" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D118" s="36">
-        <f>AVERAGE(D108:D117)</f>
-        <v>1.1413781027904846</v>
-      </c>
-      <c r="E118" s="36">
-        <f>AVERAGE(E108:E117)</f>
-        <v>1.1920938999999999</v>
-      </c>
-      <c r="F118" s="36">
-        <f>AVERAGE(F108:F117)</f>
-        <v>0.16612370000000001</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D119" s="36">
-        <f>MEDIAN(D108:D117)</f>
-        <v>1.1438211489021044</v>
-      </c>
-      <c r="E119" s="36">
-        <f>MEDIAN(E108:E117)</f>
-        <v>1.1946455</v>
-      </c>
-      <c r="F119" s="36">
-        <f>MEDIAN(F108:F117)</f>
-        <v>0.16622500000000001</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+      <c r="O117" s="9">
+        <f t="shared" si="31"/>
+        <v>14.562664967689088</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>55</v>
       </c>
-      <c r="B121">
+      <c r="B118">
         <v>10987</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C118" t="s">
         <v>3</v>
       </c>
-      <c r="D121" s="7">
-        <f t="shared" ref="D121:D130" si="30">((E121/$D$8)+(E121/$E$8))/2</f>
-        <v>1.1510590416285451</v>
-      </c>
-      <c r="E121" s="7">
-        <v>1.202205</v>
-      </c>
-      <c r="F121" s="7">
-        <v>0.16897899999999999</v>
-      </c>
-      <c r="G121" s="7">
-        <v>19.611668999999999</v>
-      </c>
-      <c r="H121" s="7">
-        <v>0.1569197</v>
-      </c>
-      <c r="I121" s="7">
-        <v>9.7892000000000007E-2</v>
-      </c>
-      <c r="J121">
-        <v>42</v>
-      </c>
-      <c r="K121">
-        <v>200</v>
-      </c>
-      <c r="L121">
-        <v>100</v>
-      </c>
-      <c r="M121" t="s">
-        <v>15</v>
-      </c>
-      <c r="N121" t="s">
+      <c r="D118" s="7">
+        <f t="shared" si="30"/>
+        <v>1.1849472584629459</v>
+      </c>
+      <c r="E118" s="7">
+        <v>1.2375989999999999</v>
+      </c>
+      <c r="F118" s="7">
+        <v>0.17721799999999999</v>
+      </c>
+      <c r="G118" s="7">
+        <v>23.820281999999999</v>
+      </c>
+      <c r="H118" s="7">
+        <v>0.16422</v>
+      </c>
+      <c r="I118" s="7">
+        <v>0.122726</v>
+      </c>
+      <c r="J118">
+        <v>50</v>
+      </c>
+      <c r="K118">
+        <v>100</v>
+      </c>
+      <c r="L118">
+        <v>50</v>
+      </c>
+      <c r="M118" t="s">
+        <v>15</v>
+      </c>
+      <c r="N118" t="s">
         <v>20</v>
       </c>
-      <c r="P121">
-        <v>578699</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+      <c r="O118" s="9">
+        <f t="shared" si="31"/>
+        <v>14.562664967689088</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>55</v>
       </c>
-      <c r="B122">
+      <c r="B119">
         <v>10987</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C119" t="s">
         <v>3</v>
       </c>
-      <c r="D122" s="7">
+      <c r="D119" s="7">
         <f t="shared" si="30"/>
-        <v>1.1131705713632205</v>
-      </c>
-      <c r="E122" s="7">
-        <v>1.162633</v>
-      </c>
-      <c r="F122" s="7">
-        <v>0.16370799999999999</v>
-      </c>
-      <c r="G122" s="7">
-        <v>19.917041000000001</v>
-      </c>
-      <c r="H122" s="7">
-        <v>0.15221000000000001</v>
-      </c>
-      <c r="I122" s="7">
-        <v>0.104086</v>
-      </c>
-      <c r="J122">
-        <v>43</v>
-      </c>
-      <c r="K122">
-        <v>200</v>
-      </c>
-      <c r="L122">
-        <v>100</v>
-      </c>
-      <c r="M122" t="s">
-        <v>15</v>
-      </c>
-      <c r="N122" t="s">
+        <v>1.1207220311070447</v>
+      </c>
+      <c r="E119" s="7">
+        <v>1.17052</v>
+      </c>
+      <c r="F119" s="7">
+        <v>0.16773199999999999</v>
+      </c>
+      <c r="G119" s="7">
+        <v>23.524663</v>
+      </c>
+      <c r="H119" s="7">
+        <v>0.15543000000000001</v>
+      </c>
+      <c r="I119" s="7">
+        <v>0.120392</v>
+      </c>
+      <c r="J119">
+        <v>51</v>
+      </c>
+      <c r="K119">
+        <v>100</v>
+      </c>
+      <c r="L119">
+        <v>50</v>
+      </c>
+      <c r="M119" t="s">
+        <v>15</v>
+      </c>
+      <c r="N119" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O119" s="9">
+        <f t="shared" si="31"/>
+        <v>14.562664967689088</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D120" s="36">
+        <f>AVERAGE(D110:D119)</f>
+        <v>1.1481196500457456</v>
+      </c>
+      <c r="E120" s="36">
+        <f>AVERAGE(E110:E119)</f>
+        <v>1.1991349999999998</v>
+      </c>
+      <c r="F120" s="36">
+        <f>AVERAGE(F110:F119)</f>
+        <v>0.17173150000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D121" s="36">
+        <f>MEDIAN(D110:D119)</f>
+        <v>1.1334523732845381</v>
+      </c>
+      <c r="E121" s="36">
+        <f>MEDIAN(E110:E119)</f>
+        <v>1.183816</v>
+      </c>
+      <c r="F121" s="36">
+        <f>MEDIAN(F110:F119)</f>
+        <v>0.1715315</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>55</v>
       </c>
@@ -25633,29 +25291,29 @@
         <v>3</v>
       </c>
       <c r="D123" s="7">
-        <f t="shared" si="30"/>
-        <v>1.144144290484904</v>
+        <f t="shared" ref="D123:D132" si="32">((E123/$D$8)+(E123/$E$8))/2</f>
+        <v>1.1479607122598354</v>
       </c>
       <c r="E123" s="7">
-        <v>1.1949829999999999</v>
+        <v>1.198969</v>
       </c>
       <c r="F123" s="7">
-        <v>0.16921700000000001</v>
+        <v>0.16498399999999999</v>
       </c>
       <c r="G123" s="7">
-        <v>20.177575000000001</v>
+        <v>19.436844000000001</v>
       </c>
       <c r="H123" s="7">
-        <v>0.163302</v>
+        <v>0.15676100000000001</v>
       </c>
       <c r="I123" s="7">
-        <v>9.6074999999999994E-2</v>
+        <v>0.101368</v>
       </c>
       <c r="J123">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K123">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L123">
         <v>100</v>
@@ -25667,7 +25325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>55</v>
       </c>
@@ -25678,29 +25336,29 @@
         <v>3</v>
       </c>
       <c r="D124" s="7">
-        <f t="shared" si="30"/>
-        <v>1.1598073220494052</v>
+        <f t="shared" si="32"/>
+        <v>1.0731756967063131</v>
       </c>
       <c r="E124" s="7">
-        <v>1.2113419999999999</v>
+        <v>1.1208610000000001</v>
       </c>
       <c r="F124" s="7">
-        <v>0.17346700000000001</v>
+        <v>0.15604799999999999</v>
       </c>
       <c r="G124" s="7">
-        <v>19.064506999999999</v>
+        <v>18.544347999999999</v>
       </c>
       <c r="H124" s="7">
-        <v>0.167656</v>
+        <v>0.14652100000000001</v>
       </c>
       <c r="I124" s="7">
-        <v>9.8664000000000002E-2</v>
+        <v>9.8779000000000006E-2</v>
       </c>
       <c r="J124">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L124">
         <v>100</v>
@@ -25712,7 +25370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>55</v>
       </c>
@@ -25723,29 +25381,29 @@
         <v>3</v>
       </c>
       <c r="D125" s="7">
-        <f t="shared" si="30"/>
-        <v>1.2609319670631289</v>
+        <f t="shared" si="32"/>
+        <v>1.1450002566331201</v>
       </c>
       <c r="E125" s="7">
-        <v>1.3169599999999999</v>
+        <v>1.1958770000000001</v>
       </c>
       <c r="F125" s="7">
-        <v>0.185339</v>
+        <v>0.165406</v>
       </c>
       <c r="G125" s="7">
-        <v>19.728273999999999</v>
+        <v>20.539697</v>
       </c>
       <c r="H125" s="7">
-        <v>0.182056</v>
+        <v>0.159413</v>
       </c>
       <c r="I125" s="7">
-        <v>0.10736</v>
+        <v>0.100018</v>
       </c>
       <c r="J125">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K125">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L125">
         <v>100</v>
@@ -25757,7 +25415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>55</v>
       </c>
@@ -25768,29 +25426,29 @@
         <v>3</v>
       </c>
       <c r="D126" s="7">
-        <f t="shared" si="30"/>
-        <v>1.1348598344007321</v>
+        <f t="shared" si="32"/>
+        <v>1.1494304080512352</v>
       </c>
       <c r="E126" s="7">
-        <v>1.1852860000000001</v>
+        <v>1.200504</v>
       </c>
       <c r="F126" s="7">
-        <v>0.16519500000000001</v>
+        <v>0.16708400000000001</v>
       </c>
       <c r="G126" s="7">
-        <v>18.609216</v>
+        <v>18.751373000000001</v>
       </c>
       <c r="H126" s="7">
-        <v>0.156998</v>
+        <v>0.16172700000000001</v>
       </c>
       <c r="I126" s="7">
-        <v>9.6268000000000006E-2</v>
+        <v>9.8215999999999998E-2</v>
       </c>
       <c r="J126">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K126">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L126">
         <v>100</v>
@@ -25802,7 +25460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>55</v>
       </c>
@@ -25813,29 +25471,29 @@
         <v>3</v>
       </c>
       <c r="D127" s="7">
-        <f t="shared" si="30"/>
-        <v>1.1432040681610247</v>
+        <f t="shared" si="32"/>
+        <v>1.1426420411710887</v>
       </c>
       <c r="E127" s="7">
-        <v>1.1940010000000001</v>
+        <v>1.193414</v>
       </c>
       <c r="F127" s="7">
-        <v>0.16753699999999999</v>
+        <v>0.171407</v>
       </c>
       <c r="G127" s="7">
-        <v>19.048884999999999</v>
+        <v>18.323416000000002</v>
       </c>
       <c r="H127" s="7">
-        <v>0.15864800000000001</v>
+        <v>0.16451499999999999</v>
       </c>
       <c r="I127" s="7">
-        <v>9.7682000000000005E-2</v>
+        <v>9.9432999999999994E-2</v>
       </c>
       <c r="J127">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K127">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L127">
         <v>100</v>
@@ -25847,7 +25505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>55</v>
       </c>
@@ -25858,29 +25516,29 @@
         <v>3</v>
       </c>
       <c r="D128" s="7">
-        <f t="shared" si="30"/>
-        <v>1.2344142506861848</v>
+        <f t="shared" si="32"/>
+        <v>1.1404159547118025</v>
       </c>
       <c r="E128" s="7">
-        <v>1.289264</v>
+        <v>1.1910890000000001</v>
       </c>
       <c r="F128" s="7">
-        <v>0.17704800000000001</v>
+        <v>0.16337499999999999</v>
       </c>
       <c r="G128" s="7">
-        <v>19.358984</v>
+        <v>19.08184</v>
       </c>
       <c r="H128" s="7">
-        <v>0.17530999999999999</v>
+        <v>0.15710399999999999</v>
       </c>
       <c r="I128" s="7">
-        <v>9.6106999999999998E-2</v>
+        <v>9.9682000000000007E-2</v>
       </c>
       <c r="J128">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K128">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L128">
         <v>100</v>
@@ -25892,7 +25550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>55</v>
       </c>
@@ -25903,29 +25561,29 @@
         <v>3</v>
       </c>
       <c r="D129" s="7">
-        <f t="shared" si="30"/>
-        <v>1.1480210320219579</v>
+        <f t="shared" si="32"/>
+        <v>1.1400990365965233</v>
       </c>
       <c r="E129" s="7">
-        <v>1.1990320000000001</v>
+        <v>1.190758</v>
       </c>
       <c r="F129" s="7">
-        <v>0.17256199999999999</v>
+        <v>0.167044</v>
       </c>
       <c r="G129" s="7">
-        <v>21.220148999999999</v>
+        <v>18.171569999999999</v>
       </c>
       <c r="H129" s="7">
-        <v>0.16369600000000001</v>
+        <v>0.16015599999999999</v>
       </c>
       <c r="I129" s="7">
-        <v>0.104999</v>
+        <v>9.9176E-2</v>
       </c>
       <c r="J129">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K129">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L129">
         <v>100</v>
@@ -25937,7 +25595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>55</v>
       </c>
@@ -25948,29 +25606,29 @@
         <v>3</v>
       </c>
       <c r="D130" s="7">
-        <f t="shared" si="30"/>
-        <v>1.1521974574565417</v>
+        <f t="shared" si="32"/>
+        <v>1.201337956999085</v>
       </c>
       <c r="E130" s="7">
-        <v>1.2033940000000001</v>
+        <v>1.254718</v>
       </c>
       <c r="F130" s="7">
-        <v>0.168964</v>
+        <v>0.17490800000000001</v>
       </c>
       <c r="G130" s="7">
-        <v>18.777432999999998</v>
+        <v>19.749290999999999</v>
       </c>
       <c r="H130" s="7">
-        <v>0.16165199999999999</v>
+        <v>0.17252200000000001</v>
       </c>
       <c r="I130" s="7">
-        <v>9.8603999999999997E-2</v>
+        <v>0.10026500000000001</v>
       </c>
       <c r="J130">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K130">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L130">
         <v>100</v>
@@ -25982,38 +25640,609 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D131" s="36">
-        <f>AVERAGE(D121:D130)</f>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>55</v>
+      </c>
+      <c r="B131">
+        <v>10987</v>
+      </c>
+      <c r="C131" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="7">
+        <f t="shared" si="32"/>
+        <v>1.1276147607502287</v>
+      </c>
+      <c r="E131" s="7">
+        <v>1.177719</v>
+      </c>
+      <c r="F131" s="7">
+        <v>0.168327</v>
+      </c>
+      <c r="G131" s="7">
+        <v>21.434521</v>
+      </c>
+      <c r="H131" s="7">
+        <v>0.16345999999999999</v>
+      </c>
+      <c r="I131" s="7">
+        <v>0.10000299999999999</v>
+      </c>
+      <c r="J131">
+        <v>50</v>
+      </c>
+      <c r="K131">
+        <v>100</v>
+      </c>
+      <c r="L131">
+        <v>100</v>
+      </c>
+      <c r="M131" t="s">
+        <v>15</v>
+      </c>
+      <c r="N131" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>55</v>
+      </c>
+      <c r="B132">
+        <v>10987</v>
+      </c>
+      <c r="C132" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="7">
+        <f t="shared" si="32"/>
+        <v>1.1461042040256175</v>
+      </c>
+      <c r="E132" s="7">
+        <v>1.19703</v>
+      </c>
+      <c r="F132" s="7">
+        <v>0.16265399999999999</v>
+      </c>
+      <c r="G132" s="7">
+        <v>18.785838999999999</v>
+      </c>
+      <c r="H132" s="7">
+        <v>0.15460099999999999</v>
+      </c>
+      <c r="I132" s="7">
+        <v>0.101812</v>
+      </c>
+      <c r="J132">
+        <v>51</v>
+      </c>
+      <c r="K132">
+        <v>100</v>
+      </c>
+      <c r="L132">
+        <v>100</v>
+      </c>
+      <c r="M132" t="s">
+        <v>15</v>
+      </c>
+      <c r="N132" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D133" s="36">
+        <f>AVERAGE(D123:D132)</f>
+        <v>1.1413781027904846</v>
+      </c>
+      <c r="E133" s="36">
+        <f>AVERAGE(E123:E132)</f>
+        <v>1.1920938999999999</v>
+      </c>
+      <c r="F133" s="36">
+        <f>AVERAGE(F123:F132)</f>
+        <v>0.16612370000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D134" s="36">
+        <f>MEDIAN(D123:D132)</f>
+        <v>1.1438211489021044</v>
+      </c>
+      <c r="E134" s="36">
+        <f>MEDIAN(E123:E132)</f>
+        <v>1.1946455</v>
+      </c>
+      <c r="F134" s="36">
+        <f>MEDIAN(F123:F132)</f>
+        <v>0.16622500000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>55</v>
+      </c>
+      <c r="B136">
+        <v>10987</v>
+      </c>
+      <c r="C136" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="7">
+        <f t="shared" ref="D136:D145" si="33">((E136/$D$8)+(E136/$E$8))/2</f>
+        <v>1.1510590416285451</v>
+      </c>
+      <c r="E136" s="7">
+        <v>1.202205</v>
+      </c>
+      <c r="F136" s="7">
+        <v>0.16897899999999999</v>
+      </c>
+      <c r="G136" s="7">
+        <v>19.611668999999999</v>
+      </c>
+      <c r="H136" s="7">
+        <v>0.1569197</v>
+      </c>
+      <c r="I136" s="7">
+        <v>9.7892000000000007E-2</v>
+      </c>
+      <c r="J136">
+        <v>42</v>
+      </c>
+      <c r="K136">
+        <v>200</v>
+      </c>
+      <c r="L136">
+        <v>100</v>
+      </c>
+      <c r="M136" t="s">
+        <v>15</v>
+      </c>
+      <c r="N136" t="s">
+        <v>20</v>
+      </c>
+      <c r="P136">
+        <v>578699</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>55</v>
+      </c>
+      <c r="B137">
+        <v>10987</v>
+      </c>
+      <c r="C137" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137" s="7">
+        <f t="shared" si="33"/>
+        <v>1.1131705713632205</v>
+      </c>
+      <c r="E137" s="7">
+        <v>1.162633</v>
+      </c>
+      <c r="F137" s="7">
+        <v>0.16370799999999999</v>
+      </c>
+      <c r="G137" s="7">
+        <v>19.917041000000001</v>
+      </c>
+      <c r="H137" s="7">
+        <v>0.15221000000000001</v>
+      </c>
+      <c r="I137" s="7">
+        <v>0.104086</v>
+      </c>
+      <c r="J137">
+        <v>43</v>
+      </c>
+      <c r="K137">
+        <v>200</v>
+      </c>
+      <c r="L137">
+        <v>100</v>
+      </c>
+      <c r="M137" t="s">
+        <v>15</v>
+      </c>
+      <c r="N137" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>55</v>
+      </c>
+      <c r="B138">
+        <v>10987</v>
+      </c>
+      <c r="C138" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="7">
+        <f t="shared" si="33"/>
+        <v>1.144144290484904</v>
+      </c>
+      <c r="E138" s="7">
+        <v>1.1949829999999999</v>
+      </c>
+      <c r="F138" s="7">
+        <v>0.16921700000000001</v>
+      </c>
+      <c r="G138" s="7">
+        <v>20.177575000000001</v>
+      </c>
+      <c r="H138" s="7">
+        <v>0.163302</v>
+      </c>
+      <c r="I138" s="7">
+        <v>9.6074999999999994E-2</v>
+      </c>
+      <c r="J138">
+        <v>44</v>
+      </c>
+      <c r="K138">
+        <v>200</v>
+      </c>
+      <c r="L138">
+        <v>100</v>
+      </c>
+      <c r="M138" t="s">
+        <v>15</v>
+      </c>
+      <c r="N138" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>55</v>
+      </c>
+      <c r="B139">
+        <v>10987</v>
+      </c>
+      <c r="C139" t="s">
+        <v>3</v>
+      </c>
+      <c r="D139" s="7">
+        <f t="shared" si="33"/>
+        <v>1.1598073220494052</v>
+      </c>
+      <c r="E139" s="7">
+        <v>1.2113419999999999</v>
+      </c>
+      <c r="F139" s="7">
+        <v>0.17346700000000001</v>
+      </c>
+      <c r="G139" s="7">
+        <v>19.064506999999999</v>
+      </c>
+      <c r="H139" s="7">
+        <v>0.167656</v>
+      </c>
+      <c r="I139" s="7">
+        <v>9.8664000000000002E-2</v>
+      </c>
+      <c r="J139">
+        <v>45</v>
+      </c>
+      <c r="K139">
+        <v>200</v>
+      </c>
+      <c r="L139">
+        <v>100</v>
+      </c>
+      <c r="M139" t="s">
+        <v>15</v>
+      </c>
+      <c r="N139" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>55</v>
+      </c>
+      <c r="B140">
+        <v>10987</v>
+      </c>
+      <c r="C140" t="s">
+        <v>3</v>
+      </c>
+      <c r="D140" s="7">
+        <f t="shared" si="33"/>
+        <v>1.2609319670631289</v>
+      </c>
+      <c r="E140" s="7">
+        <v>1.3169599999999999</v>
+      </c>
+      <c r="F140" s="7">
+        <v>0.185339</v>
+      </c>
+      <c r="G140" s="7">
+        <v>19.728273999999999</v>
+      </c>
+      <c r="H140" s="7">
+        <v>0.182056</v>
+      </c>
+      <c r="I140" s="7">
+        <v>0.10736</v>
+      </c>
+      <c r="J140">
+        <v>46</v>
+      </c>
+      <c r="K140">
+        <v>200</v>
+      </c>
+      <c r="L140">
+        <v>100</v>
+      </c>
+      <c r="M140" t="s">
+        <v>15</v>
+      </c>
+      <c r="N140" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>55</v>
+      </c>
+      <c r="B141">
+        <v>10987</v>
+      </c>
+      <c r="C141" t="s">
+        <v>3</v>
+      </c>
+      <c r="D141" s="7">
+        <f t="shared" si="33"/>
+        <v>1.1348598344007321</v>
+      </c>
+      <c r="E141" s="7">
+        <v>1.1852860000000001</v>
+      </c>
+      <c r="F141" s="7">
+        <v>0.16519500000000001</v>
+      </c>
+      <c r="G141" s="7">
+        <v>18.609216</v>
+      </c>
+      <c r="H141" s="7">
+        <v>0.156998</v>
+      </c>
+      <c r="I141" s="7">
+        <v>9.6268000000000006E-2</v>
+      </c>
+      <c r="J141">
+        <v>47</v>
+      </c>
+      <c r="K141">
+        <v>200</v>
+      </c>
+      <c r="L141">
+        <v>100</v>
+      </c>
+      <c r="M141" t="s">
+        <v>15</v>
+      </c>
+      <c r="N141" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>55</v>
+      </c>
+      <c r="B142">
+        <v>10987</v>
+      </c>
+      <c r="C142" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="7">
+        <f t="shared" si="33"/>
+        <v>1.1432040681610247</v>
+      </c>
+      <c r="E142" s="7">
+        <v>1.1940010000000001</v>
+      </c>
+      <c r="F142" s="7">
+        <v>0.16753699999999999</v>
+      </c>
+      <c r="G142" s="7">
+        <v>19.048884999999999</v>
+      </c>
+      <c r="H142" s="7">
+        <v>0.15864800000000001</v>
+      </c>
+      <c r="I142" s="7">
+        <v>9.7682000000000005E-2</v>
+      </c>
+      <c r="J142">
+        <v>48</v>
+      </c>
+      <c r="K142">
+        <v>200</v>
+      </c>
+      <c r="L142">
+        <v>100</v>
+      </c>
+      <c r="M142" t="s">
+        <v>15</v>
+      </c>
+      <c r="N142" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>55</v>
+      </c>
+      <c r="B143">
+        <v>10987</v>
+      </c>
+      <c r="C143" t="s">
+        <v>3</v>
+      </c>
+      <c r="D143" s="7">
+        <f t="shared" si="33"/>
+        <v>1.2344142506861848</v>
+      </c>
+      <c r="E143" s="7">
+        <v>1.289264</v>
+      </c>
+      <c r="F143" s="7">
+        <v>0.17704800000000001</v>
+      </c>
+      <c r="G143" s="7">
+        <v>19.358984</v>
+      </c>
+      <c r="H143" s="7">
+        <v>0.17530999999999999</v>
+      </c>
+      <c r="I143" s="7">
+        <v>9.6106999999999998E-2</v>
+      </c>
+      <c r="J143">
+        <v>49</v>
+      </c>
+      <c r="K143">
+        <v>200</v>
+      </c>
+      <c r="L143">
+        <v>100</v>
+      </c>
+      <c r="M143" t="s">
+        <v>15</v>
+      </c>
+      <c r="N143" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>55</v>
+      </c>
+      <c r="B144">
+        <v>10987</v>
+      </c>
+      <c r="C144" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144" s="7">
+        <f t="shared" si="33"/>
+        <v>1.1480210320219579</v>
+      </c>
+      <c r="E144" s="7">
+        <v>1.1990320000000001</v>
+      </c>
+      <c r="F144" s="7">
+        <v>0.17256199999999999</v>
+      </c>
+      <c r="G144" s="7">
+        <v>21.220148999999999</v>
+      </c>
+      <c r="H144" s="7">
+        <v>0.16369600000000001</v>
+      </c>
+      <c r="I144" s="7">
+        <v>0.104999</v>
+      </c>
+      <c r="J144">
+        <v>50</v>
+      </c>
+      <c r="K144">
+        <v>200</v>
+      </c>
+      <c r="L144">
+        <v>100</v>
+      </c>
+      <c r="M144" t="s">
+        <v>15</v>
+      </c>
+      <c r="N144" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>55</v>
+      </c>
+      <c r="B145">
+        <v>10987</v>
+      </c>
+      <c r="C145" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="7">
+        <f t="shared" si="33"/>
+        <v>1.1521974574565417</v>
+      </c>
+      <c r="E145" s="7">
+        <v>1.2033940000000001</v>
+      </c>
+      <c r="F145" s="7">
+        <v>0.168964</v>
+      </c>
+      <c r="G145" s="7">
+        <v>18.777432999999998</v>
+      </c>
+      <c r="H145" s="7">
+        <v>0.16165199999999999</v>
+      </c>
+      <c r="I145" s="7">
+        <v>9.8603999999999997E-2</v>
+      </c>
+      <c r="J145">
+        <v>51</v>
+      </c>
+      <c r="K145">
+        <v>200</v>
+      </c>
+      <c r="L145">
+        <v>100</v>
+      </c>
+      <c r="M145" t="s">
+        <v>15</v>
+      </c>
+      <c r="N145" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D146" s="36">
+        <f>AVERAGE(D136:D145)</f>
         <v>1.1641809835315644</v>
       </c>
-      <c r="E131" s="36">
-        <f>AVERAGE(E121:E130)</f>
+      <c r="E146" s="36">
+        <f>AVERAGE(E136:E145)</f>
         <v>1.2159099999999998</v>
       </c>
-      <c r="F131" s="36">
-        <f>AVERAGE(F121:F130)</f>
+      <c r="F146" s="36">
+        <f>AVERAGE(F136:F145)</f>
         <v>0.17120160000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D132" s="36">
-        <f>MEDIAN(D121:D130)</f>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D147" s="36">
+        <f>MEDIAN(D136:D145)</f>
         <v>1.1495400368252515</v>
       </c>
-      <c r="E132" s="36">
-        <f>MEDIAN(E121:E130)</f>
+      <c r="E147" s="36">
+        <f>MEDIAN(E136:E145)</f>
         <v>1.2006185</v>
       </c>
-      <c r="F132" s="36">
-        <f>MEDIAN(F121:F130)</f>
+      <c r="F147" s="36">
+        <f>MEDIAN(F136:F145)</f>
         <v>0.169098</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A18:O18"/>
-    <mergeCell ref="A69:O69"/>
+    <mergeCell ref="A84:O84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26022,11 +26251,11 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B233DD3-5E5F-4814-A1F2-256959227989}">
-  <dimension ref="A1:P121"/>
+  <dimension ref="A1:P122"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P49" sqref="P49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26284,74 +26513,30 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="51" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14">
-        <v>5728</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="7">
-        <f t="shared" ref="D14:D16" si="1">((E14/$E$6)+(F14/$F$6))/2</f>
-        <v>0.99813967310386076</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1.0167649999999999</v>
-      </c>
-      <c r="F14" s="7">
-        <v>5.3719999999999997E-2</v>
-      </c>
-      <c r="G14" s="7">
-        <v>10.520937999999999</v>
-      </c>
-      <c r="H14" s="7">
-        <v>5.3120000000000001E-2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2.8027E-2</v>
-      </c>
-      <c r="J14">
-        <v>42</v>
-      </c>
-      <c r="K14">
-        <v>100</v>
-      </c>
-      <c r="L14">
-        <v>50</v>
-      </c>
-      <c r="M14" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14">
-        <v>32</v>
-      </c>
-      <c r="P14" s="9"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -26364,26 +26549,26 @@
         <v>6</v>
       </c>
       <c r="D15" s="7">
-        <f t="shared" si="1"/>
-        <v>0.9694909828303373</v>
+        <f t="shared" ref="D15:D17" si="1">((E15/$E$6)+(F15/$F$6))/2</f>
+        <v>0.99813967310386076</v>
       </c>
       <c r="E15" s="7">
-        <v>0.98997199999999996</v>
+        <v>1.0167649999999999</v>
       </c>
       <c r="F15" s="7">
-        <v>5.2053000000000002E-2</v>
+        <v>5.3719999999999997E-2</v>
       </c>
       <c r="G15" s="7">
-        <v>12.945753</v>
+        <v>10.520937999999999</v>
       </c>
       <c r="H15" s="7">
-        <v>5.1672000000000003E-2</v>
+        <v>5.3120000000000001E-2</v>
       </c>
       <c r="I15" s="7">
-        <v>3.0074E-2</v>
+        <v>2.8027E-2</v>
       </c>
       <c r="J15">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15">
         <v>100</v>
@@ -26414,25 +26599,25 @@
       </c>
       <c r="D16" s="7">
         <f t="shared" si="1"/>
-        <v>0.97003133270728015</v>
+        <v>0.9694909828303373</v>
       </c>
       <c r="E16" s="7">
-        <v>1.000515</v>
+        <v>0.98997199999999996</v>
       </c>
       <c r="F16" s="7">
-        <v>5.1559000000000001E-2</v>
+        <v>5.2053000000000002E-2</v>
       </c>
       <c r="G16" s="7">
-        <v>17.730823999999998</v>
+        <v>12.945753</v>
       </c>
       <c r="H16" s="7">
-        <v>5.0356999999999999E-2</v>
+        <v>5.1672000000000003E-2</v>
       </c>
       <c r="I16" s="7">
-        <v>2.801E-2</v>
+        <v>3.0074E-2</v>
       </c>
       <c r="J16">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16">
         <v>100</v>
@@ -26452,74 +26637,74 @@
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D17" s="36">
-        <f>AVERAGE(D14:D16)</f>
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17">
+        <v>5728</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.97003133270728015</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1.000515</v>
+      </c>
+      <c r="F17" s="7">
+        <v>5.1559000000000001E-2</v>
+      </c>
+      <c r="G17" s="7">
+        <v>17.730823999999998</v>
+      </c>
+      <c r="H17" s="7">
+        <v>5.0356999999999999E-2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2.801E-2</v>
+      </c>
+      <c r="J17">
+        <v>44</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <v>50</v>
+      </c>
+      <c r="M17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17">
+        <v>32</v>
+      </c>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D18" s="36">
+        <f>AVERAGE(D15:D17)</f>
         <v>0.97922066288049281</v>
       </c>
-      <c r="E17" s="36">
-        <f t="shared" ref="E17:F17" si="2">AVERAGE(E14:E16)</f>
+      <c r="E18" s="36">
+        <f t="shared" ref="E18:F18" si="2">AVERAGE(E15:E17)</f>
         <v>1.0024173333333333</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F18" s="36">
         <f t="shared" si="2"/>
         <v>5.2443999999999998E-2</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
       <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19">
-        <v>5728</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="7">
-        <f t="shared" ref="D19:D21" si="3">((E19/$E$6)+(F19/$F$6))/2</f>
-        <v>0.94329623778130678</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0.95511599999999997</v>
-      </c>
-      <c r="F19" s="7">
-        <v>5.1070999999999998E-2</v>
-      </c>
-      <c r="G19" s="7">
-        <v>9.0040209999999998</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5.0245999999999999E-2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2.5684999999999999E-2</v>
-      </c>
-      <c r="J19">
-        <v>42</v>
-      </c>
-      <c r="K19">
-        <v>100</v>
-      </c>
-      <c r="L19">
-        <v>100</v>
-      </c>
-      <c r="M19" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19">
-        <v>32</v>
-      </c>
+      <c r="D19" s="7"/>
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
@@ -26533,26 +26718,26 @@
         <v>6</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" si="3"/>
-        <v>0.93733790089914371</v>
+        <f t="shared" ref="D20:D22" si="3">((E20/$E$6)+(F20/$F$6))/2</f>
+        <v>0.94329623778130678</v>
       </c>
       <c r="E20" s="7">
-        <v>0.96355199999999996</v>
+        <v>0.95511599999999997</v>
       </c>
       <c r="F20" s="7">
-        <v>4.9991000000000001E-2</v>
+        <v>5.1070999999999998E-2</v>
       </c>
       <c r="G20" s="7">
-        <v>12.902528</v>
+        <v>9.0040209999999998</v>
       </c>
       <c r="H20" s="7">
-        <v>4.8619999999999997E-2</v>
+        <v>5.0245999999999999E-2</v>
       </c>
       <c r="I20" s="7">
-        <v>2.5381999999999998E-2</v>
+        <v>2.5684999999999999E-2</v>
       </c>
       <c r="J20">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K20">
         <v>100</v>
@@ -26583,25 +26768,25 @@
       </c>
       <c r="D21" s="7">
         <f t="shared" si="3"/>
-        <v>0.93904626020514426</v>
+        <v>0.93733790089914371</v>
       </c>
       <c r="E21" s="7">
-        <v>0.954345</v>
+        <v>0.96355199999999996</v>
       </c>
       <c r="F21" s="7">
-        <v>5.0656E-2</v>
+        <v>4.9991000000000001E-2</v>
       </c>
       <c r="G21" s="7">
-        <v>9.7171380000000003</v>
+        <v>12.902528</v>
       </c>
       <c r="H21" s="7">
-        <v>4.9391999999999998E-2</v>
+        <v>4.8619999999999997E-2</v>
       </c>
       <c r="I21" s="7">
-        <v>2.4788000000000001E-2</v>
+        <v>2.5381999999999998E-2</v>
       </c>
       <c r="J21">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21">
         <v>100</v>
@@ -26621,70 +26806,73 @@
       <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D22" s="36">
-        <f>AVERAGE(D19:D21)</f>
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22">
+        <v>5728</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="3"/>
+        <v>0.93904626020514426</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.954345</v>
+      </c>
+      <c r="F22" s="7">
+        <v>5.0656E-2</v>
+      </c>
+      <c r="G22" s="7">
+        <v>9.7171380000000003</v>
+      </c>
+      <c r="H22" s="7">
+        <v>4.9391999999999998E-2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2.4788000000000001E-2</v>
+      </c>
+      <c r="J22">
+        <v>44</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+      <c r="L22">
+        <v>100</v>
+      </c>
+      <c r="M22" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22">
+        <v>32</v>
+      </c>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D23" s="36">
+        <f>AVERAGE(D20:D22)</f>
         <v>0.93989346629519821</v>
       </c>
-      <c r="E22" s="36">
-        <f t="shared" ref="E22:F22" si="4">AVERAGE(E19:E21)</f>
+      <c r="E23" s="36">
+        <f t="shared" ref="E23:F23" si="4">AVERAGE(E20:E22)</f>
         <v>0.95767099999999994</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F23" s="36">
         <f t="shared" si="4"/>
         <v>5.0572666666666662E-2</v>
       </c>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
       <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24">
-        <v>5728</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="7">
-        <f t="shared" ref="D24:D33" si="5">((E24/$E$6)+(F24/$F$6))/2</f>
-        <v>1.0119994500815612</v>
-      </c>
-      <c r="E24" s="38">
-        <v>1.032888</v>
-      </c>
-      <c r="F24" s="38">
-        <v>5.4361E-2</v>
-      </c>
-      <c r="G24" s="7">
-        <v>10.618988999999999</v>
-      </c>
-      <c r="H24" s="7">
-        <v>5.3995000000000001E-2</v>
-      </c>
-      <c r="I24" s="7">
-        <v>2.8407999999999999E-2</v>
-      </c>
-      <c r="J24">
-        <v>42</v>
-      </c>
-      <c r="K24">
-        <v>100</v>
-      </c>
-      <c r="L24">
-        <v>50</v>
-      </c>
-      <c r="M24" t="s">
-        <v>15</v>
-      </c>
-      <c r="N24" t="s">
-        <v>20</v>
-      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
       <c r="P24" s="9"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
@@ -26698,26 +26886,26 @@
         <v>6</v>
       </c>
       <c r="D25" s="7">
-        <f t="shared" si="5"/>
-        <v>0.95681185317698614</v>
+        <f t="shared" ref="D25:D34" si="5">((E25/$E$6)+(F25/$F$6))/2</f>
+        <v>1.0119994500815612</v>
       </c>
       <c r="E25" s="38">
-        <v>0.97597900000000004</v>
+        <v>1.032888</v>
       </c>
       <c r="F25" s="38">
-        <v>5.1427E-2</v>
+        <v>5.4361E-2</v>
       </c>
       <c r="G25" s="7">
-        <v>11.583266</v>
+        <v>10.618988999999999</v>
       </c>
       <c r="H25" s="7">
-        <v>5.0444000000000003E-2</v>
+        <v>5.3995000000000001E-2</v>
       </c>
       <c r="I25" s="7">
-        <v>2.7740999999999998E-2</v>
+        <v>2.8407999999999999E-2</v>
       </c>
       <c r="J25">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K25">
         <v>100</v>
@@ -26745,25 +26933,25 @@
       </c>
       <c r="D26" s="7">
         <f t="shared" si="5"/>
-        <v>0.97793252408682019</v>
+        <v>0.95681185317698614</v>
       </c>
       <c r="E26" s="38">
-        <v>1.008148</v>
+        <v>0.97597900000000004</v>
       </c>
       <c r="F26" s="38">
-        <v>5.2005999999999997E-2</v>
+        <v>5.1427E-2</v>
       </c>
       <c r="G26" s="7">
-        <v>17.960583</v>
+        <v>11.583266</v>
       </c>
       <c r="H26" s="7">
-        <v>5.0867999999999997E-2</v>
+        <v>5.0444000000000003E-2</v>
       </c>
       <c r="I26" s="7">
-        <v>2.8250999999999998E-2</v>
+        <v>2.7740999999999998E-2</v>
       </c>
       <c r="J26">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K26">
         <v>100</v>
@@ -26791,25 +26979,25 @@
       </c>
       <c r="D27" s="7">
         <f t="shared" si="5"/>
-        <v>0.96629750090691235</v>
+        <v>0.97793252408682019</v>
       </c>
       <c r="E27" s="38">
-        <v>0.98647300000000004</v>
+        <v>1.008148</v>
       </c>
       <c r="F27" s="38">
-        <v>5.1894000000000003E-2</v>
+        <v>5.2005999999999997E-2</v>
       </c>
       <c r="G27" s="7">
-        <v>11.608395</v>
+        <v>17.960583</v>
       </c>
       <c r="H27" s="7">
-        <v>5.1074000000000001E-2</v>
+        <v>5.0867999999999997E-2</v>
       </c>
       <c r="I27" s="7">
-        <v>2.7491000000000002E-2</v>
+        <v>2.8250999999999998E-2</v>
       </c>
       <c r="J27">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
         <v>100</v>
@@ -26837,25 +27025,25 @@
       </c>
       <c r="D28" s="7">
         <f t="shared" si="5"/>
-        <v>1.0226489283156721</v>
+        <v>0.96629750090691235</v>
       </c>
       <c r="E28" s="38">
-        <v>1.06609</v>
+        <v>0.98647300000000004</v>
       </c>
       <c r="F28" s="38">
-        <v>5.3763999999999999E-2</v>
+        <v>5.1894000000000003E-2</v>
       </c>
       <c r="G28" s="7">
-        <v>13.068357000000001</v>
+        <v>11.608395</v>
       </c>
       <c r="H28" s="7">
-        <v>5.1840999999999998E-2</v>
+        <v>5.1074000000000001E-2</v>
       </c>
       <c r="I28" s="7">
-        <v>2.8483000000000001E-2</v>
+        <v>2.7491000000000002E-2</v>
       </c>
       <c r="J28">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K28">
         <v>100</v>
@@ -26883,25 +27071,25 @@
       </c>
       <c r="D29" s="7">
         <f t="shared" si="5"/>
-        <v>1.0389591129723801</v>
+        <v>1.0226489283156721</v>
       </c>
       <c r="E29" s="38">
-        <v>1.0884320000000001</v>
+        <v>1.06609</v>
       </c>
       <c r="F29" s="38">
-        <v>5.4342000000000001E-2</v>
+        <v>5.3763999999999999E-2</v>
       </c>
       <c r="G29" s="7">
-        <v>12.896196</v>
+        <v>13.068357000000001</v>
       </c>
       <c r="H29" s="7">
-        <v>5.3296999999999997E-2</v>
+        <v>5.1840999999999998E-2</v>
       </c>
       <c r="I29" s="7">
-        <v>3.0939000000000001E-2</v>
+        <v>2.8483000000000001E-2</v>
       </c>
       <c r="J29">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29">
         <v>100</v>
@@ -26929,25 +27117,25 @@
       </c>
       <c r="D30" s="7">
         <f t="shared" si="5"/>
-        <v>0.99104492236989317</v>
+        <v>1.0389591129723801</v>
       </c>
       <c r="E30" s="38">
-        <v>1.0323119999999999</v>
+        <v>1.0884320000000001</v>
       </c>
       <c r="F30" s="38">
-        <v>5.2145999999999998E-2</v>
+        <v>5.4342000000000001E-2</v>
       </c>
       <c r="G30" s="7">
-        <v>18.146823999999999</v>
+        <v>12.896196</v>
       </c>
       <c r="H30" s="7">
-        <v>5.0964000000000002E-2</v>
+        <v>5.3296999999999997E-2</v>
       </c>
       <c r="I30" s="7">
-        <v>3.2857999999999998E-2</v>
+        <v>3.0939000000000001E-2</v>
       </c>
       <c r="J30">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K30">
         <v>100</v>
@@ -26975,25 +27163,25 @@
       </c>
       <c r="D31" s="7">
         <f t="shared" si="5"/>
-        <v>0.96942509432202173</v>
+        <v>0.99104492236989317</v>
       </c>
       <c r="E31" s="38">
-        <v>1.0077560000000001</v>
+        <v>1.0323119999999999</v>
       </c>
       <c r="F31" s="38">
-        <v>5.1115000000000001E-2</v>
+        <v>5.2145999999999998E-2</v>
       </c>
       <c r="G31" s="7">
-        <v>16.307186000000002</v>
+        <v>18.146823999999999</v>
       </c>
       <c r="H31" s="7">
-        <v>5.0466999999999998E-2</v>
+        <v>5.0964000000000002E-2</v>
       </c>
       <c r="I31" s="7">
-        <v>3.2638E-2</v>
+        <v>3.2857999999999998E-2</v>
       </c>
       <c r="J31">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31">
         <v>100</v>
@@ -27021,25 +27209,25 @@
       </c>
       <c r="D32" s="7">
         <f t="shared" si="5"/>
-        <v>0.98977800058048815</v>
+        <v>0.96942509432202173</v>
       </c>
       <c r="E32" s="38">
-        <v>1.0264139999999999</v>
+        <v>1.0077560000000001</v>
       </c>
       <c r="F32" s="38">
-        <v>5.2318999999999997E-2</v>
+        <v>5.1115000000000001E-2</v>
       </c>
       <c r="G32" s="7">
-        <v>13.844282</v>
+        <v>16.307186000000002</v>
       </c>
       <c r="H32" s="7">
-        <v>5.0889999999999998E-2</v>
+        <v>5.0466999999999998E-2</v>
       </c>
       <c r="I32" s="7">
-        <v>2.9425E-2</v>
+        <v>3.2638E-2</v>
       </c>
       <c r="J32">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K32">
         <v>100</v>
@@ -27067,25 +27255,25 @@
       </c>
       <c r="D33" s="7">
         <f t="shared" si="5"/>
-        <v>1.1369336259957232</v>
+        <v>0.98977800058048815</v>
       </c>
       <c r="E33" s="38">
-        <v>1.2419340000000001</v>
+        <v>1.0264139999999999</v>
       </c>
       <c r="F33" s="38">
-        <v>5.6804E-2</v>
+        <v>5.2318999999999997E-2</v>
       </c>
       <c r="G33" s="7">
-        <v>27.041875999999998</v>
+        <v>13.844282</v>
       </c>
       <c r="H33" s="7">
-        <v>5.5086000000000003E-2</v>
+        <v>5.0889999999999998E-2</v>
       </c>
       <c r="I33" s="7">
-        <v>4.3852000000000002E-2</v>
+        <v>2.9425E-2</v>
       </c>
       <c r="J33">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33">
         <v>100</v>
@@ -27102,85 +27290,85 @@
       <c r="P33" s="9"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D34" s="36">
-        <f>AVERAGE(D24:D33)</f>
-        <v>1.0061831012808458</v>
-      </c>
-      <c r="E34" s="36">
-        <f>AVERAGE(E24:E33)</f>
-        <v>1.0466426000000002</v>
-      </c>
-      <c r="F34" s="36">
-        <f>AVERAGE(F24:F33)</f>
-        <v>5.301779999999999E-2</v>
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34">
+        <v>5728</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" si="5"/>
+        <v>1.1369336259957232</v>
+      </c>
+      <c r="E34" s="38">
+        <v>1.2419340000000001</v>
+      </c>
+      <c r="F34" s="38">
+        <v>5.6804E-2</v>
+      </c>
+      <c r="G34" s="7">
+        <v>27.041875999999998</v>
+      </c>
+      <c r="H34" s="7">
+        <v>5.5086000000000003E-2</v>
+      </c>
+      <c r="I34" s="7">
+        <v>4.3852000000000002E-2</v>
+      </c>
+      <c r="J34">
+        <v>51</v>
+      </c>
+      <c r="K34">
+        <v>100</v>
+      </c>
+      <c r="L34">
+        <v>50</v>
+      </c>
+      <c r="M34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N34" t="s">
+        <v>20</v>
       </c>
       <c r="P34" s="9"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D35" s="36">
-        <f>MEDIAN(D24:D33)</f>
+        <f>AVERAGE(D25:D34)</f>
+        <v>1.0061831012808458</v>
+      </c>
+      <c r="E35" s="36">
+        <f>AVERAGE(E25:E34)</f>
+        <v>1.0466426000000002</v>
+      </c>
+      <c r="F35" s="36">
+        <f>AVERAGE(F25:F34)</f>
+        <v>5.301779999999999E-2</v>
+      </c>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D36" s="36">
+        <f>MEDIAN(D25:D34)</f>
         <v>0.99041146147519066</v>
       </c>
-      <c r="E35" s="36">
-        <f>MEDIAN(E24:E33)</f>
+      <c r="E36" s="36">
+        <f>MEDIAN(E25:E34)</f>
         <v>1.029363</v>
       </c>
-      <c r="F35" s="36">
-        <f>MEDIAN(F24:F33)</f>
+      <c r="F36" s="36">
+        <f>MEDIAN(F25:F34)</f>
         <v>5.2232500000000001E-2</v>
       </c>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D36" s="7"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
       <c r="P36" s="9"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37">
-        <v>5728</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="7">
-        <f t="shared" ref="D37:D46" si="6">((E37/$E$6)+(F37/$F$6))/2</f>
-        <v>1.0313335179600309</v>
-      </c>
-      <c r="E37" s="38">
-        <v>1.0978110000000001</v>
-      </c>
-      <c r="F37" s="38">
-        <v>5.3033999999999998E-2</v>
-      </c>
-      <c r="G37" s="7">
-        <v>12.368924</v>
-      </c>
-      <c r="H37" s="7">
-        <v>5.2269000000000003E-2</v>
-      </c>
-      <c r="I37" s="7">
-        <v>2.7557999999999999E-2</v>
-      </c>
-      <c r="J37">
-        <v>42</v>
-      </c>
-      <c r="K37">
-        <v>100</v>
-      </c>
-      <c r="L37">
-        <v>100</v>
-      </c>
-      <c r="M37" t="s">
-        <v>15</v>
-      </c>
-      <c r="N37" t="s">
-        <v>20</v>
-      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
       <c r="P37" s="9"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
@@ -27194,26 +27382,26 @@
         <v>6</v>
       </c>
       <c r="D38" s="7">
-        <f t="shared" si="6"/>
-        <v>0.97256722883145597</v>
+        <f t="shared" ref="D38:D47" si="6">((E38/$E$6)+(F38/$F$6))/2</f>
+        <v>1.0313335179600309</v>
       </c>
       <c r="E38" s="38">
-        <v>1.0117229999999999</v>
+        <v>1.0978110000000001</v>
       </c>
       <c r="F38" s="38">
-        <v>5.1243999999999998E-2</v>
+        <v>5.3033999999999998E-2</v>
       </c>
       <c r="G38" s="7">
-        <v>12.884308000000001</v>
+        <v>12.368924</v>
       </c>
       <c r="H38" s="7">
-        <v>5.0317000000000001E-2</v>
+        <v>5.2269000000000003E-2</v>
       </c>
       <c r="I38" s="7">
-        <v>2.7230000000000001E-2</v>
+        <v>2.7557999999999999E-2</v>
       </c>
       <c r="J38">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K38">
         <v>100</v>
@@ -27241,25 +27429,25 @@
       </c>
       <c r="D39" s="7">
         <f t="shared" si="6"/>
-        <v>0.9944678669072764</v>
+        <v>0.97256722883145597</v>
       </c>
       <c r="E39" s="38">
-        <v>1.026538</v>
+        <v>1.0117229999999999</v>
       </c>
       <c r="F39" s="38">
-        <v>5.2815000000000001E-2</v>
+        <v>5.1243999999999998E-2</v>
       </c>
       <c r="G39" s="7">
-        <v>10.454112</v>
+        <v>12.884308000000001</v>
       </c>
       <c r="H39" s="7">
-        <v>5.1402000000000003E-2</v>
+        <v>5.0317000000000001E-2</v>
       </c>
       <c r="I39" s="7">
-        <v>2.5427000000000002E-2</v>
+        <v>2.7230000000000001E-2</v>
       </c>
       <c r="J39">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K39">
         <v>100</v>
@@ -27287,25 +27475,25 @@
       </c>
       <c r="D40" s="7">
         <f t="shared" si="6"/>
-        <v>0.91954240531876652</v>
+        <v>0.9944678669072764</v>
       </c>
       <c r="E40" s="38">
-        <v>0.92432000000000003</v>
+        <v>1.026538</v>
       </c>
       <c r="F40" s="38">
-        <v>5.0138000000000002E-2</v>
+        <v>5.2815000000000001E-2</v>
       </c>
       <c r="G40" s="7">
-        <v>10.797275000000001</v>
+        <v>10.454112</v>
       </c>
       <c r="H40" s="7">
-        <v>4.8523999999999998E-2</v>
+        <v>5.1402000000000003E-2</v>
       </c>
       <c r="I40" s="7">
-        <v>2.4725E-2</v>
+        <v>2.5427000000000002E-2</v>
       </c>
       <c r="J40">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K40">
         <v>100</v>
@@ -27333,25 +27521,25 @@
       </c>
       <c r="D41" s="7">
         <f t="shared" si="6"/>
-        <v>0.93914289866361811</v>
+        <v>0.91954240531876652</v>
       </c>
       <c r="E41" s="38">
-        <v>0.94810499999999998</v>
+        <v>0.92432000000000003</v>
       </c>
       <c r="F41" s="38">
-        <v>5.0992999999999997E-2</v>
+        <v>5.0138000000000002E-2</v>
       </c>
       <c r="G41" s="7">
-        <v>10.067432</v>
+        <v>10.797275000000001</v>
       </c>
       <c r="H41" s="7">
-        <v>5.0108E-2</v>
+        <v>4.8523999999999998E-2</v>
       </c>
       <c r="I41" s="7">
-        <v>2.5151E-2</v>
+        <v>2.4725E-2</v>
       </c>
       <c r="J41">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K41">
         <v>100</v>
@@ -27379,25 +27567,25 @@
       </c>
       <c r="D42" s="7">
         <f t="shared" si="6"/>
-        <v>0.91762220425964336</v>
+        <v>0.93914289866361811</v>
       </c>
       <c r="E42" s="38">
-        <v>0.93190899999999999</v>
+        <v>0.94810499999999998</v>
       </c>
       <c r="F42" s="38">
-        <v>4.9535000000000003E-2</v>
+        <v>5.0992999999999997E-2</v>
       </c>
       <c r="G42" s="7">
-        <v>11.896501000000001</v>
+        <v>10.067432</v>
       </c>
       <c r="H42" s="7">
-        <v>4.8833000000000001E-2</v>
+        <v>5.0108E-2</v>
       </c>
       <c r="I42" s="7">
-        <v>2.5873E-2</v>
+        <v>2.5151E-2</v>
       </c>
       <c r="J42">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K42">
         <v>100</v>
@@ -27425,25 +27613,25 @@
       </c>
       <c r="D43" s="7">
         <f t="shared" si="6"/>
-        <v>1.2367475689196845</v>
+        <v>0.91762220425964336</v>
       </c>
       <c r="E43" s="38">
-        <v>1.4042060000000001</v>
+        <v>0.93190899999999999</v>
       </c>
       <c r="F43" s="38">
-        <v>5.9004000000000001E-2</v>
+        <v>4.9535000000000003E-2</v>
       </c>
       <c r="G43" s="7">
-        <v>22.378800999999999</v>
+        <v>11.896501000000001</v>
       </c>
       <c r="H43" s="7">
-        <v>5.8384999999999999E-2</v>
+        <v>4.8833000000000001E-2</v>
       </c>
       <c r="I43" s="7">
-        <v>3.5963000000000002E-2</v>
+        <v>2.5873E-2</v>
       </c>
       <c r="J43">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K43">
         <v>100</v>
@@ -27471,25 +27659,25 @@
       </c>
       <c r="D44" s="7">
         <f t="shared" si="6"/>
-        <v>0.92732005795221362</v>
+        <v>1.2367475689196845</v>
       </c>
       <c r="E44" s="38">
-        <v>0.93555900000000003</v>
+        <v>1.4042060000000001</v>
       </c>
       <c r="F44" s="38">
-        <v>5.0382999999999997E-2</v>
+        <v>5.9004000000000001E-2</v>
       </c>
       <c r="G44" s="7">
-        <v>8.6898800000000005</v>
+        <v>22.378800999999999</v>
       </c>
       <c r="H44" s="7">
-        <v>4.9179E-2</v>
+        <v>5.8384999999999999E-2</v>
       </c>
       <c r="I44" s="7">
-        <v>2.4975000000000001E-2</v>
+        <v>3.5963000000000002E-2</v>
       </c>
       <c r="J44">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K44">
         <v>100</v>
@@ -27517,25 +27705,25 @@
       </c>
       <c r="D45" s="7">
         <f t="shared" si="6"/>
-        <v>0.93581708396113639</v>
+        <v>0.92732005795221362</v>
       </c>
       <c r="E45" s="38">
-        <v>0.94467900000000005</v>
+        <v>0.93555900000000003</v>
       </c>
       <c r="F45" s="38">
-        <v>5.0816E-2</v>
+        <v>5.0382999999999997E-2</v>
       </c>
       <c r="G45" s="7">
-        <v>10.49991</v>
+        <v>8.6898800000000005</v>
       </c>
       <c r="H45" s="7">
-        <v>5.0007000000000003E-2</v>
+        <v>4.9179E-2</v>
       </c>
       <c r="I45" s="7">
-        <v>2.5381999999999998E-2</v>
+        <v>2.4975000000000001E-2</v>
       </c>
       <c r="J45">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K45">
         <v>100</v>
@@ -27563,25 +27751,25 @@
       </c>
       <c r="D46" s="7">
         <f t="shared" si="6"/>
-        <v>0.90624355620188479</v>
+        <v>0.93581708396113639</v>
       </c>
       <c r="E46" s="38">
-        <v>0.92393999999999998</v>
+        <v>0.94467900000000005</v>
       </c>
       <c r="F46" s="38">
-        <v>4.8732999999999999E-2</v>
+        <v>5.0816E-2</v>
       </c>
       <c r="G46" s="7">
-        <v>10.559908</v>
+        <v>10.49991</v>
       </c>
       <c r="H46" s="7">
-        <v>4.8039999999999999E-2</v>
+        <v>5.0007000000000003E-2</v>
       </c>
       <c r="I46" s="7">
-        <v>2.5189E-2</v>
+        <v>2.5381999999999998E-2</v>
       </c>
       <c r="J46">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K46">
         <v>100</v>
@@ -27598,35 +27786,63 @@
       <c r="P46" s="9"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D47" s="36">
-        <f>AVERAGE(D37:D46)</f>
-        <v>0.97808043889757101</v>
-      </c>
-      <c r="E47" s="36">
-        <f>AVERAGE(E37:E46)</f>
-        <v>1.0148790000000001</v>
-      </c>
-      <c r="F47" s="36">
-        <f>AVERAGE(F37:F46)</f>
-        <v>5.16695E-2</v>
-      </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47">
+        <v>5728</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="6"/>
+        <v>0.90624355620188479</v>
+      </c>
+      <c r="E47" s="38">
+        <v>0.92393999999999998</v>
+      </c>
+      <c r="F47" s="38">
+        <v>4.8732999999999999E-2</v>
+      </c>
+      <c r="G47" s="7">
+        <v>10.559908</v>
+      </c>
+      <c r="H47" s="7">
+        <v>4.8039999999999999E-2</v>
+      </c>
+      <c r="I47" s="7">
+        <v>2.5189E-2</v>
+      </c>
+      <c r="J47">
+        <v>51</v>
+      </c>
+      <c r="K47">
+        <v>100</v>
+      </c>
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="M47" t="s">
+        <v>15</v>
+      </c>
+      <c r="N47" t="s">
+        <v>20</v>
+      </c>
       <c r="P47" s="9"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D48" s="36">
-        <f>MEDIAN(D37:D46)</f>
-        <v>0.93747999131237725</v>
+        <f>AVERAGE(D38:D47)</f>
+        <v>0.97808043889757101</v>
       </c>
       <c r="E48" s="36">
-        <f>MEDIAN(E37:E46)</f>
-        <v>0.94639200000000001</v>
+        <f>AVERAGE(E38:E47)</f>
+        <v>1.0148790000000001</v>
       </c>
       <c r="F48" s="36">
-        <f>MEDIAN(F37:F46)</f>
-        <v>5.0904499999999998E-2</v>
+        <f>AVERAGE(F38:F47)</f>
+        <v>5.16695E-2</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -27634,58 +27850,30 @@
       <c r="P48" s="9"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D49" s="7"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
+      <c r="D49" s="36">
+        <f>MEDIAN(D38:D47)</f>
+        <v>0.93747999131237725</v>
+      </c>
+      <c r="E49" s="36">
+        <f>MEDIAN(E38:E47)</f>
+        <v>0.94639200000000001</v>
+      </c>
+      <c r="F49" s="36">
+        <f>MEDIAN(F38:F47)</f>
+        <v>5.0904499999999998E-2</v>
+      </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="P49" s="9"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50">
-        <v>5728</v>
-      </c>
-      <c r="C50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="7">
-        <f t="shared" ref="D50:D59" si="7">((E50/$E$6)+(F50/$F$6))/2</f>
-        <v>0.94126876924803904</v>
-      </c>
-      <c r="E50" s="38">
-        <v>0.969248</v>
-      </c>
-      <c r="F50" s="38">
-        <v>5.0113999999999999E-2</v>
-      </c>
-      <c r="G50" s="7">
-        <v>9.5800990000000006</v>
-      </c>
-      <c r="H50" s="7">
-        <v>4.9488999999999998E-2</v>
-      </c>
-      <c r="I50" s="7">
-        <v>2.5035000000000002E-2</v>
-      </c>
-      <c r="J50">
-        <v>42</v>
-      </c>
-      <c r="K50">
-        <v>200</v>
-      </c>
-      <c r="L50">
-        <v>100</v>
-      </c>
-      <c r="M50" t="s">
-        <v>15</v>
-      </c>
-      <c r="N50" t="s">
-        <v>20</v>
-      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
       <c r="P50" s="9"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
@@ -27699,26 +27887,26 @@
         <v>6</v>
       </c>
       <c r="D51" s="7">
-        <f t="shared" si="7"/>
-        <v>0.92227477759617082</v>
+        <f t="shared" ref="D51:D60" si="7">((E51/$E$6)+(F51/$F$6))/2</f>
+        <v>0.94126876924803904</v>
       </c>
       <c r="E51" s="38">
-        <v>0.92979800000000001</v>
+        <v>0.969248</v>
       </c>
       <c r="F51" s="38">
-        <v>5.0144000000000001E-2</v>
+        <v>5.0113999999999999E-2</v>
       </c>
       <c r="G51" s="7">
-        <v>8.7154050000000005</v>
+        <v>9.5800990000000006</v>
       </c>
       <c r="H51" s="7">
-        <v>4.9269E-2</v>
+        <v>4.9488999999999998E-2</v>
       </c>
       <c r="I51" s="7">
-        <v>2.4764000000000001E-2</v>
+        <v>2.5035000000000002E-2</v>
       </c>
       <c r="J51">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K51">
         <v>200</v>
@@ -27746,25 +27934,25 @@
       </c>
       <c r="D52" s="7">
         <f t="shared" si="7"/>
-        <v>0.92032712428085217</v>
+        <v>0.92227477759617082</v>
       </c>
       <c r="E52" s="38">
-        <v>0.92848600000000003</v>
+        <v>0.92979800000000001</v>
       </c>
       <c r="F52" s="38">
-        <v>5.0004E-2</v>
+        <v>5.0144000000000001E-2</v>
       </c>
       <c r="G52" s="7">
-        <v>9.1929859999999994</v>
+        <v>8.7154050000000005</v>
       </c>
       <c r="H52" s="7">
-        <v>4.8971000000000001E-2</v>
+        <v>4.9269E-2</v>
       </c>
       <c r="I52" s="7">
-        <v>2.4841999999999999E-2</v>
+        <v>2.4764000000000001E-2</v>
       </c>
       <c r="J52">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K52">
         <v>200</v>
@@ -27792,25 +27980,25 @@
       </c>
       <c r="D53" s="7">
         <f t="shared" si="7"/>
-        <v>0.931820957065286</v>
+        <v>0.92032712428085217</v>
       </c>
       <c r="E53" s="38">
-        <v>0.94394999999999996</v>
+        <v>0.92848600000000003</v>
       </c>
       <c r="F53" s="38">
-        <v>5.0425999999999999E-2</v>
+        <v>5.0004E-2</v>
       </c>
       <c r="G53" s="7">
-        <v>10.037125</v>
+        <v>9.1929859999999994</v>
       </c>
       <c r="H53" s="7">
-        <v>4.8864999999999999E-2</v>
+        <v>4.8971000000000001E-2</v>
       </c>
       <c r="I53" s="7">
-        <v>2.4552000000000001E-2</v>
+        <v>2.4841999999999999E-2</v>
       </c>
       <c r="J53">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K53">
         <v>200</v>
@@ -27838,25 +28026,25 @@
       </c>
       <c r="D54" s="7">
         <f t="shared" si="7"/>
-        <v>0.91086201269302292</v>
+        <v>0.931820957065286</v>
       </c>
       <c r="E54" s="38">
-        <v>0.91081299999999998</v>
+        <v>0.94394999999999996</v>
       </c>
       <c r="F54" s="38">
-        <v>4.9915000000000001E-2</v>
+        <v>5.0425999999999999E-2</v>
       </c>
       <c r="G54" s="7">
-        <v>9.1905040000000007</v>
+        <v>10.037125</v>
       </c>
       <c r="H54" s="7">
-        <v>4.9758999999999998E-2</v>
+        <v>4.8864999999999999E-2</v>
       </c>
       <c r="I54" s="7">
-        <v>2.5486999999999999E-2</v>
+        <v>2.4552000000000001E-2</v>
       </c>
       <c r="J54">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K54">
         <v>200</v>
@@ -27884,25 +28072,25 @@
       </c>
       <c r="D55" s="7">
         <f t="shared" si="7"/>
-        <v>0.89818298602078939</v>
+        <v>0.91086201269302292</v>
       </c>
       <c r="E55" s="38">
-        <v>0.90788100000000005</v>
+        <v>0.91081299999999998</v>
       </c>
       <c r="F55" s="38">
-        <v>4.8710000000000003E-2</v>
+        <v>4.9915000000000001E-2</v>
       </c>
       <c r="G55" s="7">
-        <v>9.7260930000000005</v>
+        <v>9.1905040000000007</v>
       </c>
       <c r="H55" s="7">
-        <v>4.7648999999999997E-2</v>
+        <v>4.9758999999999998E-2</v>
       </c>
       <c r="I55" s="7">
-        <v>2.4128E-2</v>
+        <v>2.5486999999999999E-2</v>
       </c>
       <c r="J55">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K55">
         <v>200</v>
@@ -27930,25 +28118,25 @@
       </c>
       <c r="D56" s="7">
         <f t="shared" si="7"/>
-        <v>1.0240776188492202</v>
+        <v>0.89818298602078939</v>
       </c>
       <c r="E56" s="38">
-        <v>1.0763689999999999</v>
+        <v>0.90788100000000005</v>
       </c>
       <c r="F56" s="38">
-        <v>5.3379000000000003E-2</v>
+        <v>4.8710000000000003E-2</v>
       </c>
       <c r="G56" s="7">
-        <v>11.633986</v>
+        <v>9.7260930000000005</v>
       </c>
       <c r="H56" s="7">
-        <v>5.2984999999999997E-2</v>
+        <v>4.7648999999999997E-2</v>
       </c>
       <c r="I56" s="7">
-        <v>2.7612999999999999E-2</v>
+        <v>2.4128E-2</v>
       </c>
       <c r="J56">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K56">
         <v>200</v>
@@ -27976,25 +28164,25 @@
       </c>
       <c r="D57" s="7">
         <f t="shared" si="7"/>
-        <v>0.9135858347652317</v>
+        <v>1.0240776188492202</v>
       </c>
       <c r="E57" s="38">
-        <v>0.92154599999999998</v>
+        <v>1.0763689999999999</v>
       </c>
       <c r="F57" s="38">
-        <v>4.9645000000000002E-2</v>
+        <v>5.3379000000000003E-2</v>
       </c>
       <c r="G57" s="7">
-        <v>9.2563040000000001</v>
+        <v>11.633986</v>
       </c>
       <c r="H57" s="7">
-        <v>4.8682999999999997E-2</v>
+        <v>5.2984999999999997E-2</v>
       </c>
       <c r="I57" s="7">
-        <v>2.4799000000000002E-2</v>
+        <v>2.7612999999999999E-2</v>
       </c>
       <c r="J57">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K57">
         <v>200</v>
@@ -28022,25 +28210,25 @@
       </c>
       <c r="D58" s="7">
         <f t="shared" si="7"/>
-        <v>0.97824152927229702</v>
+        <v>0.9135858347652317</v>
       </c>
       <c r="E58" s="38">
-        <v>1.018313</v>
+        <v>0.92154599999999998</v>
       </c>
       <c r="F58" s="38">
-        <v>5.1506999999999997E-2</v>
+        <v>4.9645000000000002E-2</v>
       </c>
       <c r="G58" s="7">
-        <v>11.180441</v>
+        <v>9.2563040000000001</v>
       </c>
       <c r="H58" s="7">
-        <v>5.0238999999999999E-2</v>
+        <v>4.8682999999999997E-2</v>
       </c>
       <c r="I58" s="7">
-        <v>2.6386E-2</v>
+        <v>2.4799000000000002E-2</v>
       </c>
       <c r="J58">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K58">
         <v>200</v>
@@ -28068,25 +28256,25 @@
       </c>
       <c r="D59" s="7">
         <f t="shared" si="7"/>
-        <v>0.88642839096538006</v>
+        <v>0.97824152927229702</v>
       </c>
       <c r="E59" s="38">
-        <v>0.89146300000000001</v>
+        <v>1.018313</v>
       </c>
       <c r="F59" s="38">
-        <v>4.8309999999999999E-2</v>
+        <v>5.1506999999999997E-2</v>
       </c>
       <c r="G59" s="7">
-        <v>9.1003550000000004</v>
+        <v>11.180441</v>
       </c>
       <c r="H59" s="7">
-        <v>4.7482000000000003E-2</v>
+        <v>5.0238999999999999E-2</v>
       </c>
       <c r="I59" s="7">
-        <v>2.4004000000000001E-2</v>
+        <v>2.6386E-2</v>
       </c>
       <c r="J59">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K59">
         <v>200</v>
@@ -28103,106 +28291,103 @@
       <c r="P59" s="9"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D60" s="36">
-        <f>AVERAGE(D50:D59)</f>
-        <v>0.93270700007562879</v>
-      </c>
-      <c r="E60" s="36">
-        <f>AVERAGE(E50:E59)</f>
-        <v>0.94978669999999998</v>
-      </c>
-      <c r="F60" s="36">
-        <f>AVERAGE(F50:F59)</f>
-        <v>5.02154E-2</v>
+      <c r="A60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60">
+        <v>5728</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="7">
+        <f t="shared" si="7"/>
+        <v>0.88642839096538006</v>
+      </c>
+      <c r="E60" s="38">
+        <v>0.89146300000000001</v>
+      </c>
+      <c r="F60" s="38">
+        <v>4.8309999999999999E-2</v>
+      </c>
+      <c r="G60" s="7">
+        <v>9.1003550000000004</v>
+      </c>
+      <c r="H60" s="7">
+        <v>4.7482000000000003E-2</v>
+      </c>
+      <c r="I60" s="7">
+        <v>2.4004000000000001E-2</v>
+      </c>
+      <c r="J60">
+        <v>51</v>
+      </c>
+      <c r="K60">
+        <v>200</v>
+      </c>
+      <c r="L60">
+        <v>100</v>
+      </c>
+      <c r="M60" t="s">
+        <v>15</v>
+      </c>
+      <c r="N60" t="s">
+        <v>20</v>
       </c>
       <c r="P60" s="9"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D61" s="36">
-        <f>MEDIAN(D50:D59)</f>
+        <f>AVERAGE(D51:D60)</f>
+        <v>0.93270700007562879</v>
+      </c>
+      <c r="E61" s="36">
+        <f>AVERAGE(E51:E60)</f>
+        <v>0.94978669999999998</v>
+      </c>
+      <c r="F61" s="36">
+        <f>AVERAGE(F51:F60)</f>
+        <v>5.02154E-2</v>
+      </c>
+      <c r="P61" s="9"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D62" s="36">
+        <f>MEDIAN(D51:D60)</f>
         <v>0.9213009509385115</v>
       </c>
-      <c r="E61" s="36">
-        <f>MEDIAN(E50:E59)</f>
+      <c r="E62" s="36">
+        <f>MEDIAN(E51:E60)</f>
         <v>0.92914200000000002</v>
       </c>
-      <c r="F61" s="36">
-        <f>MEDIAN(F50:F59)</f>
+      <c r="F62" s="36">
+        <f>MEDIAN(F51:F60)</f>
         <v>5.0058999999999999E-2</v>
       </c>
-      <c r="P61" s="9"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="P62" s="9"/>
     </row>
-    <row r="63" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A63" s="51" t="s">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P63" s="9"/>
+    </row>
+    <row r="64" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A64" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="51"/>
-      <c r="J63" s="51"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="51"/>
-      <c r="M63" s="51"/>
-      <c r="N63" s="51"/>
-      <c r="O63" s="51"/>
-      <c r="P63" s="51"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64">
-        <v>5728</v>
-      </c>
-      <c r="C64" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="7">
-        <f>((E64/$E$6)+(F64/$F$6))/2</f>
-        <v>1.0264748382583599</v>
-      </c>
-      <c r="E64" s="7">
-        <v>1.046565</v>
-      </c>
-      <c r="F64" s="7">
-        <v>5.5196000000000002E-2</v>
-      </c>
-      <c r="G64" s="7">
-        <v>14.441508000000001</v>
-      </c>
-      <c r="H64" s="7">
-        <v>5.4916E-2</v>
-      </c>
-      <c r="I64" s="7">
-        <v>3.1238999999999999E-2</v>
-      </c>
-      <c r="J64">
-        <v>42</v>
-      </c>
-      <c r="K64">
-        <v>100</v>
-      </c>
-      <c r="L64">
-        <v>50</v>
-      </c>
-      <c r="M64" t="s">
-        <v>15</v>
-      </c>
-      <c r="N64" t="s">
-        <v>20</v>
-      </c>
-      <c r="O64">
-        <v>32</v>
-      </c>
-      <c r="P64" s="9"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="51"/>
+      <c r="M64" s="51"/>
+      <c r="N64" s="51"/>
+      <c r="O64" s="51"/>
+      <c r="P64" s="51"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
@@ -28216,25 +28401,25 @@
       </c>
       <c r="D65" s="7">
         <f>((E65/$E$6)+(F65/$F$6))/2</f>
-        <v>0.98684391649206815</v>
+        <v>1.0264748382583599</v>
       </c>
       <c r="E65" s="7">
-        <v>1.0167980000000001</v>
+        <v>1.046565</v>
       </c>
       <c r="F65" s="7">
-        <v>5.2507999999999999E-2</v>
+        <v>5.5196000000000002E-2</v>
       </c>
       <c r="G65" s="7">
-        <v>13.598958</v>
+        <v>14.441508000000001</v>
       </c>
       <c r="H65" s="7">
-        <v>5.2236999999999999E-2</v>
+        <v>5.4916E-2</v>
       </c>
       <c r="I65" s="7">
-        <v>3.0720999999999998E-2</v>
+        <v>3.1238999999999999E-2</v>
       </c>
       <c r="J65">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K65">
         <v>100</v>
@@ -28265,25 +28450,25 @@
       </c>
       <c r="D66" s="7">
         <f>((E66/$E$6)+(F66/$F$6))/2</f>
-        <v>0.99809186024405161</v>
+        <v>0.98684391649206815</v>
       </c>
       <c r="E66" s="7">
-        <v>1.0094270000000001</v>
+        <v>1.0167980000000001</v>
       </c>
       <c r="F66" s="7">
-        <v>5.4099000000000001E-2</v>
+        <v>5.2507999999999999E-2</v>
       </c>
       <c r="G66" s="7">
-        <v>14.465218</v>
+        <v>13.598958</v>
       </c>
       <c r="H66" s="7">
-        <v>5.3664000000000003E-2</v>
+        <v>5.2236999999999999E-2</v>
       </c>
       <c r="I66" s="7">
-        <v>3.1007E-2</v>
+        <v>3.0720999999999998E-2</v>
       </c>
       <c r="J66">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K66">
         <v>100</v>
@@ -28303,67 +28488,67 @@
       <c r="P66" s="9"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D67" s="36">
-        <f>AVERAGE(D64:D66)</f>
+      <c r="A67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67">
+        <v>5728</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="7">
+        <f>((E67/$E$6)+(F67/$F$6))/2</f>
+        <v>0.99809186024405161</v>
+      </c>
+      <c r="E67" s="7">
+        <v>1.0094270000000001</v>
+      </c>
+      <c r="F67" s="7">
+        <v>5.4099000000000001E-2</v>
+      </c>
+      <c r="G67" s="7">
+        <v>14.465218</v>
+      </c>
+      <c r="H67" s="7">
+        <v>5.3664000000000003E-2</v>
+      </c>
+      <c r="I67" s="7">
+        <v>3.1007E-2</v>
+      </c>
+      <c r="J67">
+        <v>44</v>
+      </c>
+      <c r="K67">
+        <v>100</v>
+      </c>
+      <c r="L67">
+        <v>50</v>
+      </c>
+      <c r="M67" t="s">
+        <v>15</v>
+      </c>
+      <c r="N67" t="s">
+        <v>20</v>
+      </c>
+      <c r="O67">
+        <v>32</v>
+      </c>
+      <c r="P67" s="9"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D68" s="36">
+        <f>AVERAGE(D65:D67)</f>
         <v>1.0038035383314934</v>
       </c>
-      <c r="E67" s="36">
-        <f t="shared" ref="E67:F67" si="8">AVERAGE(E64:E66)</f>
+      <c r="E68" s="36">
+        <f t="shared" ref="E68:F68" si="8">AVERAGE(E65:E67)</f>
         <v>1.0242633333333333</v>
       </c>
-      <c r="F67" s="36">
+      <c r="F68" s="36">
         <f t="shared" si="8"/>
         <v>5.3934333333333334E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>54</v>
-      </c>
-      <c r="B69">
-        <v>5728</v>
-      </c>
-      <c r="C69" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="7">
-        <f t="shared" ref="D69:D71" si="9">((E69/$E$6)+(F69/$F$6))/2</f>
-        <v>0.93084259489740995</v>
-      </c>
-      <c r="E69" s="7">
-        <v>0.949627</v>
-      </c>
-      <c r="F69" s="7">
-        <v>5.0023999999999999E-2</v>
-      </c>
-      <c r="G69" s="7">
-        <v>14.214729</v>
-      </c>
-      <c r="H69" s="7">
-        <v>4.9217999999999998E-2</v>
-      </c>
-      <c r="I69" s="7">
-        <v>2.7799000000000001E-2</v>
-      </c>
-      <c r="J69">
-        <v>42</v>
-      </c>
-      <c r="K69">
-        <v>100</v>
-      </c>
-      <c r="L69">
-        <v>100</v>
-      </c>
-      <c r="M69" t="s">
-        <v>15</v>
-      </c>
-      <c r="N69" t="s">
-        <v>20</v>
-      </c>
-      <c r="O69">
-        <v>32</v>
-      </c>
-      <c r="P69" s="9"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
@@ -28376,26 +28561,26 @@
         <v>3</v>
       </c>
       <c r="D70" s="7">
-        <f t="shared" si="9"/>
-        <v>0.92965207812977124</v>
+        <f t="shared" ref="D70:D72" si="9">((E70/$E$6)+(F70/$F$6))/2</f>
+        <v>0.93084259489740995</v>
       </c>
       <c r="E70" s="7">
-        <v>0.944554</v>
+        <v>0.949627</v>
       </c>
       <c r="F70" s="7">
-        <v>5.0161999999999998E-2</v>
+        <v>5.0023999999999999E-2</v>
       </c>
       <c r="G70" s="7">
-        <v>13.504451</v>
+        <v>14.214729</v>
       </c>
       <c r="H70" s="7">
-        <v>4.9356999999999998E-2</v>
+        <v>4.9217999999999998E-2</v>
       </c>
       <c r="I70" s="7">
-        <v>2.8638E-2</v>
+        <v>2.7799000000000001E-2</v>
       </c>
       <c r="J70">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K70">
         <v>100</v>
@@ -28426,25 +28611,25 @@
       </c>
       <c r="D71" s="7">
         <f t="shared" si="9"/>
-        <v>0.95310550741266331</v>
+        <v>0.92965207812977124</v>
       </c>
       <c r="E71" s="7">
-        <v>0.98507</v>
+        <v>0.944554</v>
       </c>
       <c r="F71" s="7">
-        <v>5.0554000000000002E-2</v>
+        <v>5.0161999999999998E-2</v>
       </c>
       <c r="G71" s="7">
-        <v>14.790940000000001</v>
+        <v>13.504451</v>
       </c>
       <c r="H71" s="7">
-        <v>4.9703999999999998E-2</v>
+        <v>4.9356999999999998E-2</v>
       </c>
       <c r="I71" s="7">
-        <v>2.93E-2</v>
+        <v>2.8638E-2</v>
       </c>
       <c r="J71">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K71">
         <v>100</v>
@@ -28464,67 +28649,67 @@
       <c r="P71" s="9"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D72" s="36">
-        <f>AVERAGE(D69:D71)</f>
+      <c r="A72" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72">
+        <v>5728</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="7">
+        <f t="shared" si="9"/>
+        <v>0.95310550741266331</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0.98507</v>
+      </c>
+      <c r="F72" s="7">
+        <v>5.0554000000000002E-2</v>
+      </c>
+      <c r="G72" s="7">
+        <v>14.790940000000001</v>
+      </c>
+      <c r="H72" s="7">
+        <v>4.9703999999999998E-2</v>
+      </c>
+      <c r="I72" s="7">
+        <v>2.93E-2</v>
+      </c>
+      <c r="J72">
+        <v>44</v>
+      </c>
+      <c r="K72">
+        <v>100</v>
+      </c>
+      <c r="L72">
+        <v>100</v>
+      </c>
+      <c r="M72" t="s">
+        <v>15</v>
+      </c>
+      <c r="N72" t="s">
+        <v>20</v>
+      </c>
+      <c r="O72">
+        <v>32</v>
+      </c>
+      <c r="P72" s="9"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D73" s="36">
+        <f>AVERAGE(D70:D72)</f>
         <v>0.93786672681328154</v>
       </c>
-      <c r="E72" s="36">
-        <f t="shared" ref="E72:F72" si="10">AVERAGE(E69:E71)</f>
+      <c r="E73" s="36">
+        <f t="shared" ref="E73:F73" si="10">AVERAGE(E70:E72)</f>
         <v>0.95975033333333337</v>
       </c>
-      <c r="F72" s="36">
+      <c r="F73" s="36">
         <f t="shared" si="10"/>
         <v>5.0246666666666662E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>54</v>
-      </c>
-      <c r="B74">
-        <v>5728</v>
-      </c>
-      <c r="C74" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="7">
-        <f t="shared" ref="D74:D76" si="11">((E74/$E$6)+(F74/$F$6))/2</f>
-        <v>0.93343082680624678</v>
-      </c>
-      <c r="E74" s="7">
-        <v>0.94852499999999995</v>
-      </c>
-      <c r="F74" s="7">
-        <v>5.0359000000000001E-2</v>
-      </c>
-      <c r="G74" s="7">
-        <v>13.586245</v>
-      </c>
-      <c r="H74" s="7">
-        <v>5.0152000000000002E-2</v>
-      </c>
-      <c r="I74" s="7">
-        <v>2.8164999999999999E-2</v>
-      </c>
-      <c r="J74">
-        <v>42</v>
-      </c>
-      <c r="K74">
-        <v>179</v>
-      </c>
-      <c r="L74">
-        <v>100</v>
-      </c>
-      <c r="M74" t="s">
-        <v>15</v>
-      </c>
-      <c r="N74" t="s">
-        <v>20</v>
-      </c>
-      <c r="O74">
-        <v>32</v>
-      </c>
-      <c r="P74" s="9"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
@@ -28537,26 +28722,26 @@
         <v>3</v>
       </c>
       <c r="D75" s="7">
-        <f t="shared" si="11"/>
-        <v>0.94705603847931963</v>
+        <f t="shared" ref="D75:D77" si="11">((E75/$E$6)+(F75/$F$6))/2</f>
+        <v>0.93343082680624678</v>
       </c>
       <c r="E75" s="7">
-        <v>0.96011800000000003</v>
+        <v>0.94852499999999995</v>
       </c>
       <c r="F75" s="7">
-        <v>5.1212000000000001E-2</v>
+        <v>5.0359000000000001E-2</v>
       </c>
       <c r="G75" s="7">
-        <v>14.171642</v>
+        <v>13.586245</v>
       </c>
       <c r="H75" s="7">
-        <v>5.0687000000000003E-2</v>
+        <v>5.0152000000000002E-2</v>
       </c>
       <c r="I75" s="7">
-        <v>2.9760999999999999E-2</v>
+        <v>2.8164999999999999E-2</v>
       </c>
       <c r="J75">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K75">
         <v>179</v>
@@ -28587,25 +28772,25 @@
       </c>
       <c r="D76" s="7">
         <f t="shared" si="11"/>
-        <v>0.95937143685515225</v>
+        <v>0.94705603847931963</v>
       </c>
       <c r="E76" s="7">
-        <v>0.98733099999999996</v>
+        <v>0.96011800000000003</v>
       </c>
       <c r="F76" s="7">
-        <v>5.1107E-2</v>
+        <v>5.1212000000000001E-2</v>
       </c>
       <c r="G76" s="7">
-        <v>15.097863</v>
+        <v>14.171642</v>
       </c>
       <c r="H76" s="7">
-        <v>5.0362999999999998E-2</v>
+        <v>5.0687000000000003E-2</v>
       </c>
       <c r="I76" s="7">
-        <v>2.9975999999999999E-2</v>
+        <v>2.9760999999999999E-2</v>
       </c>
       <c r="J76">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K76">
         <v>179</v>
@@ -28625,67 +28810,67 @@
       <c r="P76" s="9"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D77" s="36">
-        <f>AVERAGE(D74:D76)</f>
+      <c r="A77" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77">
+        <v>5728</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="7">
+        <f t="shared" si="11"/>
+        <v>0.95937143685515225</v>
+      </c>
+      <c r="E77" s="7">
+        <v>0.98733099999999996</v>
+      </c>
+      <c r="F77" s="7">
+        <v>5.1107E-2</v>
+      </c>
+      <c r="G77" s="7">
+        <v>15.097863</v>
+      </c>
+      <c r="H77" s="7">
+        <v>5.0362999999999998E-2</v>
+      </c>
+      <c r="I77" s="7">
+        <v>2.9975999999999999E-2</v>
+      </c>
+      <c r="J77">
+        <v>44</v>
+      </c>
+      <c r="K77">
+        <v>179</v>
+      </c>
+      <c r="L77">
+        <v>100</v>
+      </c>
+      <c r="M77" t="s">
+        <v>15</v>
+      </c>
+      <c r="N77" t="s">
+        <v>20</v>
+      </c>
+      <c r="O77">
+        <v>32</v>
+      </c>
+      <c r="P77" s="9"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D78" s="36">
+        <f>AVERAGE(D75:D77)</f>
         <v>0.94661943404690618</v>
       </c>
-      <c r="E77" s="36">
-        <f t="shared" ref="E77:F77" si="12">AVERAGE(E74:E76)</f>
+      <c r="E78" s="36">
+        <f t="shared" ref="E78:F78" si="12">AVERAGE(E75:E77)</f>
         <v>0.96532466666666661</v>
       </c>
-      <c r="F77" s="36">
+      <c r="F78" s="36">
         <f t="shared" si="12"/>
         <v>5.0892666666666662E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>54</v>
-      </c>
-      <c r="B79">
-        <v>5728</v>
-      </c>
-      <c r="C79" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="7">
-        <f>((E79/$E$6)+(F79/$F$6))/2</f>
-        <v>0.97493482776311402</v>
-      </c>
-      <c r="E79" s="7">
-        <v>1.0025090000000001</v>
-      </c>
-      <c r="F79" s="7">
-        <v>5.1979999999999998E-2</v>
-      </c>
-      <c r="G79" s="7">
-        <v>14.3985</v>
-      </c>
-      <c r="H79" s="7">
-        <v>5.1258999999999999E-2</v>
-      </c>
-      <c r="I79" s="7">
-        <v>2.9846000000000001E-2</v>
-      </c>
-      <c r="J79">
-        <v>42</v>
-      </c>
-      <c r="K79">
-        <v>100</v>
-      </c>
-      <c r="L79">
-        <v>100</v>
-      </c>
-      <c r="M79" t="s">
-        <v>15</v>
-      </c>
-      <c r="N79" t="s">
-        <v>20</v>
-      </c>
-      <c r="O79">
-        <v>64</v>
-      </c>
-      <c r="P79" s="9"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
@@ -28699,25 +28884,25 @@
       </c>
       <c r="D80" s="7">
         <f>((E80/$E$6)+(F80/$F$6))/2</f>
-        <v>1.0007583797993524</v>
+        <v>0.97493482776311402</v>
       </c>
       <c r="E80" s="7">
-        <v>1.008256</v>
+        <v>1.0025090000000001</v>
       </c>
       <c r="F80" s="7">
-        <v>5.4446000000000001E-2</v>
+        <v>5.1979999999999998E-2</v>
       </c>
       <c r="G80" s="7">
-        <v>14.431642999999999</v>
+        <v>14.3985</v>
       </c>
       <c r="H80" s="7">
-        <v>5.4231000000000001E-2</v>
+        <v>5.1258999999999999E-2</v>
       </c>
       <c r="I80" s="7">
-        <v>2.8705999999999999E-2</v>
+        <v>2.9846000000000001E-2</v>
       </c>
       <c r="J80">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K80">
         <v>100</v>
@@ -28748,25 +28933,25 @@
       </c>
       <c r="D81" s="7">
         <f>((E81/$E$6)+(F81/$F$6))/2</f>
-        <v>0.98111594337248187</v>
+        <v>1.0007583797993524</v>
       </c>
       <c r="E81" s="7">
-        <v>0.99638199999999999</v>
+        <v>1.008256</v>
       </c>
       <c r="F81" s="7">
-        <v>5.2963000000000003E-2</v>
+        <v>5.4446000000000001E-2</v>
       </c>
       <c r="G81" s="7">
-        <v>14.555837</v>
+        <v>14.431642999999999</v>
       </c>
       <c r="H81" s="7">
-        <v>5.2306999999999999E-2</v>
+        <v>5.4231000000000001E-2</v>
       </c>
       <c r="I81" s="7">
-        <v>2.9583000000000002E-2</v>
+        <v>2.8705999999999999E-2</v>
       </c>
       <c r="J81">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K81">
         <v>100</v>
@@ -28786,62 +28971,66 @@
       <c r="P81" s="9"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D82" s="36">
-        <f>AVERAGE(D79:D81)</f>
+      <c r="A82" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82">
+        <v>5728</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="7">
+        <f>((E82/$E$6)+(F82/$F$6))/2</f>
+        <v>0.98111594337248187</v>
+      </c>
+      <c r="E82" s="7">
+        <v>0.99638199999999999</v>
+      </c>
+      <c r="F82" s="7">
+        <v>5.2963000000000003E-2</v>
+      </c>
+      <c r="G82" s="7">
+        <v>14.555837</v>
+      </c>
+      <c r="H82" s="7">
+        <v>5.2306999999999999E-2</v>
+      </c>
+      <c r="I82" s="7">
+        <v>2.9583000000000002E-2</v>
+      </c>
+      <c r="J82">
+        <v>44</v>
+      </c>
+      <c r="K82">
+        <v>100</v>
+      </c>
+      <c r="L82">
+        <v>100</v>
+      </c>
+      <c r="M82" t="s">
+        <v>15</v>
+      </c>
+      <c r="N82" t="s">
+        <v>20</v>
+      </c>
+      <c r="O82">
+        <v>64</v>
+      </c>
+      <c r="P82" s="9"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D83" s="36">
+        <f>AVERAGE(D80:D82)</f>
         <v>0.98560305031164941</v>
       </c>
-      <c r="E82" s="36">
-        <f t="shared" ref="E82:F82" si="13">AVERAGE(E79:E81)</f>
+      <c r="E83" s="36">
+        <f t="shared" ref="E83:F83" si="13">AVERAGE(E80:E82)</f>
         <v>1.0023823333333335</v>
       </c>
-      <c r="F82" s="36">
+      <c r="F83" s="36">
         <f t="shared" si="13"/>
         <v>5.3129666666666665E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>54</v>
-      </c>
-      <c r="B84">
-        <v>5728</v>
-      </c>
-      <c r="C84" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="7">
-        <f t="shared" ref="D84:D93" si="14">((E84/$E$6)+(F84/$F$6))/2</f>
-        <v>1.0264748382583599</v>
-      </c>
-      <c r="E84" s="7">
-        <v>1.046565</v>
-      </c>
-      <c r="F84" s="7">
-        <v>5.5196000000000002E-2</v>
-      </c>
-      <c r="G84" s="7">
-        <v>14.441508000000001</v>
-      </c>
-      <c r="H84" s="7">
-        <v>5.4916E-2</v>
-      </c>
-      <c r="I84" s="7">
-        <v>3.1238999999999999E-2</v>
-      </c>
-      <c r="J84">
-        <v>42</v>
-      </c>
-      <c r="K84">
-        <v>100</v>
-      </c>
-      <c r="L84">
-        <v>50</v>
-      </c>
-      <c r="M84" t="s">
-        <v>15</v>
-      </c>
-      <c r="N84" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.35">
@@ -28855,26 +29044,26 @@
         <v>3</v>
       </c>
       <c r="D85" s="7">
-        <f t="shared" si="14"/>
-        <v>0.98684391649206815</v>
+        <f t="shared" ref="D85:D94" si="14">((E85/$E$6)+(F85/$F$6))/2</f>
+        <v>1.0264748382583599</v>
       </c>
       <c r="E85" s="7">
-        <v>1.0167980000000001</v>
+        <v>1.046565</v>
       </c>
       <c r="F85" s="7">
-        <v>5.2507999999999999E-2</v>
+        <v>5.5196000000000002E-2</v>
       </c>
       <c r="G85" s="7">
-        <v>13.598958</v>
+        <v>14.441508000000001</v>
       </c>
       <c r="H85" s="7">
-        <v>5.2236999999999999E-2</v>
+        <v>5.4916E-2</v>
       </c>
       <c r="I85" s="7">
-        <v>3.0720999999999998E-2</v>
+        <v>3.1238999999999999E-2</v>
       </c>
       <c r="J85">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K85">
         <v>100</v>
@@ -28901,25 +29090,25 @@
       </c>
       <c r="D86" s="7">
         <f t="shared" si="14"/>
-        <v>0.99809186024405161</v>
+        <v>0.98684391649206815</v>
       </c>
       <c r="E86" s="7">
-        <v>1.0094270000000001</v>
+        <v>1.0167980000000001</v>
       </c>
       <c r="F86" s="7">
-        <v>5.4099000000000001E-2</v>
+        <v>5.2507999999999999E-2</v>
       </c>
       <c r="G86" s="7">
-        <v>14.465218</v>
+        <v>13.598958</v>
       </c>
       <c r="H86" s="7">
-        <v>5.3664000000000003E-2</v>
+        <v>5.2236999999999999E-2</v>
       </c>
       <c r="I86" s="7">
-        <v>3.1007E-2</v>
+        <v>3.0720999999999998E-2</v>
       </c>
       <c r="J86">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K86">
         <v>100</v>
@@ -28946,25 +29135,25 @@
       </c>
       <c r="D87" s="7">
         <f t="shared" si="14"/>
-        <v>1.0191046348127599</v>
+        <v>0.99809186024405161</v>
       </c>
       <c r="E87" s="7">
-        <v>1.039866</v>
+        <v>1.0094270000000001</v>
       </c>
       <c r="F87" s="7">
-        <v>5.4757E-2</v>
+        <v>5.4099000000000001E-2</v>
       </c>
       <c r="G87" s="7">
-        <v>13.711828000000001</v>
+        <v>14.465218</v>
       </c>
       <c r="H87" s="7">
-        <v>5.4550000000000001E-2</v>
+        <v>5.3664000000000003E-2</v>
       </c>
       <c r="I87" s="7">
-        <v>3.0464000000000001E-2</v>
+        <v>3.1007E-2</v>
       </c>
       <c r="J87">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K87">
         <v>100</v>
@@ -28991,25 +29180,25 @@
       </c>
       <c r="D88" s="7">
         <f t="shared" si="14"/>
-        <v>0.98766543571825238</v>
+        <v>1.0191046348127599</v>
       </c>
       <c r="E88" s="7">
-        <v>1.0009999999999999</v>
+        <v>1.039866</v>
       </c>
       <c r="F88" s="7">
-        <v>5.3422999999999998E-2</v>
+        <v>5.4757E-2</v>
       </c>
       <c r="G88" s="7">
-        <v>12.204344000000001</v>
+        <v>13.711828000000001</v>
       </c>
       <c r="H88" s="7">
-        <v>5.3057E-2</v>
+        <v>5.4550000000000001E-2</v>
       </c>
       <c r="I88" s="7">
-        <v>2.9097000000000001E-2</v>
+        <v>3.0464000000000001E-2</v>
       </c>
       <c r="J88">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K88">
         <v>100</v>
@@ -29036,25 +29225,25 @@
       </c>
       <c r="D89" s="7">
         <f t="shared" si="14"/>
-        <v>1.0129309547829939</v>
+        <v>0.98766543571825238</v>
       </c>
       <c r="E89" s="7">
-        <v>1.0295030000000001</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="F89" s="7">
-        <v>5.4637999999999999E-2</v>
+        <v>5.3422999999999998E-2</v>
       </c>
       <c r="G89" s="7">
-        <v>15.204542999999999</v>
+        <v>12.204344000000001</v>
       </c>
       <c r="H89" s="7">
-        <v>5.4274000000000003E-2</v>
+        <v>5.3057E-2</v>
       </c>
       <c r="I89" s="7">
-        <v>3.1666E-2</v>
+        <v>2.9097000000000001E-2</v>
       </c>
       <c r="J89">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K89">
         <v>100</v>
@@ -29081,25 +29270,25 @@
       </c>
       <c r="D90" s="7">
         <f t="shared" si="14"/>
-        <v>0.99777749901903467</v>
+        <v>1.0129309547829939</v>
       </c>
       <c r="E90" s="7">
-        <v>1.0066440000000001</v>
+        <v>1.0295030000000001</v>
       </c>
       <c r="F90" s="7">
-        <v>5.4211000000000002E-2</v>
+        <v>5.4637999999999999E-2</v>
       </c>
       <c r="G90" s="7">
-        <v>13.706065000000001</v>
+        <v>15.204542999999999</v>
       </c>
       <c r="H90" s="7">
-        <v>5.3772E-2</v>
+        <v>5.4274000000000003E-2</v>
       </c>
       <c r="I90" s="7">
-        <v>3.0197000000000002E-2</v>
+        <v>3.1666E-2</v>
       </c>
       <c r="J90">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K90">
         <v>100</v>
@@ -29126,25 +29315,25 @@
       </c>
       <c r="D91" s="7">
         <f t="shared" si="14"/>
-        <v>0.94474545114200037</v>
+        <v>0.99777749901903467</v>
       </c>
       <c r="E91" s="7">
-        <v>0.95896099999999995</v>
+        <v>1.0066440000000001</v>
       </c>
       <c r="F91" s="7">
-        <v>5.1025000000000001E-2</v>
+        <v>5.4211000000000002E-2</v>
       </c>
       <c r="G91" s="7">
-        <v>16.197112000000001</v>
+        <v>13.706065000000001</v>
       </c>
       <c r="H91" s="7">
-        <v>5.0541999999999997E-2</v>
+        <v>5.3772E-2</v>
       </c>
       <c r="I91" s="7">
-        <v>3.1653000000000001E-2</v>
+        <v>3.0197000000000002E-2</v>
       </c>
       <c r="J91">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K91">
         <v>100</v>
@@ -29171,25 +29360,25 @@
       </c>
       <c r="D92" s="7">
         <f t="shared" si="14"/>
-        <v>1.0277444980760151</v>
+        <v>0.94474545114200037</v>
       </c>
       <c r="E92" s="7">
-        <v>1.0436620000000001</v>
+        <v>0.95896099999999995</v>
       </c>
       <c r="F92" s="7">
-        <v>5.5483999999999999E-2</v>
+        <v>5.1025000000000001E-2</v>
       </c>
       <c r="G92" s="7">
-        <v>14.735352000000001</v>
+        <v>16.197112000000001</v>
       </c>
       <c r="H92" s="7">
-        <v>5.5112000000000001E-2</v>
+        <v>5.0541999999999997E-2</v>
       </c>
       <c r="I92" s="7">
-        <v>3.1803999999999999E-2</v>
+        <v>3.1653000000000001E-2</v>
       </c>
       <c r="J92">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K92">
         <v>100</v>
@@ -29216,25 +29405,25 @@
       </c>
       <c r="D93" s="7">
         <f t="shared" si="14"/>
-        <v>1.0792261307169859</v>
+        <v>1.0277444980760151</v>
       </c>
       <c r="E93" s="7">
-        <v>1.1261680000000001</v>
+        <v>1.0436620000000001</v>
       </c>
       <c r="F93" s="7">
-        <v>5.6681000000000002E-2</v>
+        <v>5.5483999999999999E-2</v>
       </c>
       <c r="G93" s="7">
-        <v>14.667415</v>
+        <v>14.735352000000001</v>
       </c>
       <c r="H93" s="7">
-        <v>5.6438000000000002E-2</v>
+        <v>5.5112000000000001E-2</v>
       </c>
       <c r="I93" s="7">
-        <v>3.1787000000000003E-2</v>
+        <v>3.1803999999999999E-2</v>
       </c>
       <c r="J93">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K93">
         <v>100</v>
@@ -29250,76 +29439,76 @@
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D94" s="36">
-        <f>AVERAGE(D84:D93)</f>
-        <v>1.0080605219262524</v>
-      </c>
-      <c r="E94" s="36">
-        <f>AVERAGE(E84:E93)</f>
-        <v>1.0278593999999999</v>
-      </c>
-      <c r="F94" s="36">
-        <f>AVERAGE(F84:F93)</f>
-        <v>5.4202199999999999E-2</v>
+      <c r="A94" t="s">
+        <v>54</v>
+      </c>
+      <c r="B94">
+        <v>5728</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="7">
+        <f t="shared" si="14"/>
+        <v>1.0792261307169859</v>
+      </c>
+      <c r="E94" s="7">
+        <v>1.1261680000000001</v>
+      </c>
+      <c r="F94" s="7">
+        <v>5.6681000000000002E-2</v>
+      </c>
+      <c r="G94" s="7">
+        <v>14.667415</v>
+      </c>
+      <c r="H94" s="7">
+        <v>5.6438000000000002E-2</v>
+      </c>
+      <c r="I94" s="7">
+        <v>3.1787000000000003E-2</v>
+      </c>
+      <c r="J94">
+        <v>51</v>
+      </c>
+      <c r="K94">
+        <v>100</v>
+      </c>
+      <c r="L94">
+        <v>50</v>
+      </c>
+      <c r="M94" t="s">
+        <v>15</v>
+      </c>
+      <c r="N94" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D95" s="36">
-        <f>MEDIAN(D84:D93)</f>
+        <f>AVERAGE(D85:D94)</f>
+        <v>1.0080605219262524</v>
+      </c>
+      <c r="E95" s="36">
+        <f>AVERAGE(E85:E94)</f>
+        <v>1.0278593999999999</v>
+      </c>
+      <c r="F95" s="36">
+        <f>AVERAGE(F85:F94)</f>
+        <v>5.4202199999999999E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D96" s="36">
+        <f>MEDIAN(D85:D94)</f>
         <v>1.0055114075135227</v>
       </c>
-      <c r="E95" s="36">
-        <f>MEDIAN(E84:E93)</f>
+      <c r="E96" s="36">
+        <f>MEDIAN(E85:E94)</f>
         <v>1.0231505000000001</v>
       </c>
-      <c r="F95" s="36">
-        <f>MEDIAN(F84:F93)</f>
+      <c r="F96" s="36">
+        <f>MEDIAN(F85:F94)</f>
         <v>5.4424500000000001E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>54</v>
-      </c>
-      <c r="B97">
-        <v>5728</v>
-      </c>
-      <c r="C97" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="7">
-        <f t="shared" ref="D97:D106" si="15">((E97/$E$6)+(F97/$F$6))/2</f>
-        <v>0.93084259489740995</v>
-      </c>
-      <c r="E97" s="7">
-        <v>0.949627</v>
-      </c>
-      <c r="F97" s="7">
-        <v>5.0023999999999999E-2</v>
-      </c>
-      <c r="G97" s="7">
-        <v>14.214729</v>
-      </c>
-      <c r="H97" s="7">
-        <v>4.9217999999999998E-2</v>
-      </c>
-      <c r="I97" s="7">
-        <v>2.7799000000000001E-2</v>
-      </c>
-      <c r="J97">
-        <v>42</v>
-      </c>
-      <c r="K97">
-        <v>100</v>
-      </c>
-      <c r="L97">
-        <v>100</v>
-      </c>
-      <c r="M97" t="s">
-        <v>15</v>
-      </c>
-      <c r="N97" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
@@ -29333,26 +29522,26 @@
         <v>3</v>
       </c>
       <c r="D98" s="7">
-        <f t="shared" si="15"/>
-        <v>0.92965207812977124</v>
+        <f t="shared" ref="D98:D107" si="15">((E98/$E$6)+(F98/$F$6))/2</f>
+        <v>0.93084259489740995</v>
       </c>
       <c r="E98" s="7">
-        <v>0.944554</v>
+        <v>0.949627</v>
       </c>
       <c r="F98" s="7">
-        <v>5.0161999999999998E-2</v>
+        <v>5.0023999999999999E-2</v>
       </c>
       <c r="G98" s="7">
-        <v>13.504451</v>
+        <v>14.214729</v>
       </c>
       <c r="H98" s="7">
-        <v>4.9356999999999998E-2</v>
+        <v>4.9217999999999998E-2</v>
       </c>
       <c r="I98" s="7">
-        <v>2.8638E-2</v>
+        <v>2.7799000000000001E-2</v>
       </c>
       <c r="J98">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K98">
         <v>100</v>
@@ -29379,25 +29568,25 @@
       </c>
       <c r="D99" s="7">
         <f t="shared" si="15"/>
-        <v>0.95310550741266331</v>
+        <v>0.92965207812977124</v>
       </c>
       <c r="E99" s="7">
-        <v>0.98507</v>
+        <v>0.944554</v>
       </c>
       <c r="F99" s="7">
-        <v>5.0554000000000002E-2</v>
+        <v>5.0161999999999998E-2</v>
       </c>
       <c r="G99" s="7">
-        <v>14.790940000000001</v>
+        <v>13.504451</v>
       </c>
       <c r="H99" s="7">
-        <v>4.9703999999999998E-2</v>
+        <v>4.9356999999999998E-2</v>
       </c>
       <c r="I99" s="7">
-        <v>2.93E-2</v>
+        <v>2.8638E-2</v>
       </c>
       <c r="J99">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K99">
         <v>100</v>
@@ -29424,25 +29613,25 @@
       </c>
       <c r="D100" s="7">
         <f t="shared" si="15"/>
-        <v>0.94557103423728561</v>
+        <v>0.95310550741266331</v>
       </c>
       <c r="E100" s="7">
-        <v>0.96882699999999999</v>
+        <v>0.98507</v>
       </c>
       <c r="F100" s="7">
-        <v>5.0597000000000003E-2</v>
+        <v>5.0554000000000002E-2</v>
       </c>
       <c r="G100" s="7">
-        <v>13.322487000000001</v>
+        <v>14.790940000000001</v>
       </c>
       <c r="H100" s="7">
-        <v>4.9938000000000003E-2</v>
+        <v>4.9703999999999998E-2</v>
       </c>
       <c r="I100" s="7">
-        <v>2.7878E-2</v>
+        <v>2.93E-2</v>
       </c>
       <c r="J100">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K100">
         <v>100</v>
@@ -29469,25 +29658,25 @@
       </c>
       <c r="D101" s="7">
         <f t="shared" si="15"/>
-        <v>0.99576383411417813</v>
+        <v>0.94557103423728561</v>
       </c>
       <c r="E101" s="7">
-        <v>0.99004800000000004</v>
+        <v>0.96882699999999999</v>
       </c>
       <c r="F101" s="7">
-        <v>5.4864000000000003E-2</v>
+        <v>5.0597000000000003E-2</v>
       </c>
       <c r="G101" s="7">
-        <v>14.304396000000001</v>
+        <v>13.322487000000001</v>
       </c>
       <c r="H101" s="7">
-        <v>5.3575999999999999E-2</v>
+        <v>4.9938000000000003E-2</v>
       </c>
       <c r="I101" s="7">
-        <v>2.9666000000000001E-2</v>
+        <v>2.7878E-2</v>
       </c>
       <c r="J101">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K101">
         <v>100</v>
@@ -29514,25 +29703,25 @@
       </c>
       <c r="D102" s="7">
         <f t="shared" si="15"/>
-        <v>0.90298318291718438</v>
+        <v>0.99576383411417813</v>
       </c>
       <c r="E102" s="7">
-        <v>0.92213800000000001</v>
+        <v>0.99004800000000004</v>
       </c>
       <c r="F102" s="7">
-        <v>4.8478E-2</v>
+        <v>5.4864000000000003E-2</v>
       </c>
       <c r="G102" s="7">
-        <v>14.589055</v>
+        <v>14.304396000000001</v>
       </c>
       <c r="H102" s="7">
-        <v>4.8085000000000003E-2</v>
+        <v>5.3575999999999999E-2</v>
       </c>
       <c r="I102" s="7">
-        <v>2.7945000000000001E-2</v>
+        <v>2.9666000000000001E-2</v>
       </c>
       <c r="J102">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K102">
         <v>100</v>
@@ -29559,25 +29748,25 @@
       </c>
       <c r="D103" s="7">
         <f t="shared" si="15"/>
-        <v>0.9667921712711034</v>
+        <v>0.90298318291718438</v>
       </c>
       <c r="E103" s="7">
-        <v>0.96704500000000004</v>
+        <v>0.92213800000000001</v>
       </c>
       <c r="F103" s="7">
-        <v>5.2963999999999997E-2</v>
+        <v>4.8478E-2</v>
       </c>
       <c r="G103" s="7">
-        <v>14.601637999999999</v>
+        <v>14.589055</v>
       </c>
       <c r="H103" s="7">
-        <v>5.2207999999999997E-2</v>
+        <v>4.8085000000000003E-2</v>
       </c>
       <c r="I103" s="7">
-        <v>3.2183000000000003E-2</v>
+        <v>2.7945000000000001E-2</v>
       </c>
       <c r="J103">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K103">
         <v>100</v>
@@ -29604,25 +29793,25 @@
       </c>
       <c r="D104" s="7">
         <f t="shared" si="15"/>
-        <v>0.95620827573917644</v>
+        <v>0.9667921712711034</v>
       </c>
       <c r="E104" s="7">
-        <v>0.97592800000000002</v>
+        <v>0.96704500000000004</v>
       </c>
       <c r="F104" s="7">
-        <v>5.1365000000000001E-2</v>
+        <v>5.2963999999999997E-2</v>
       </c>
       <c r="G104" s="7">
-        <v>14.805868</v>
+        <v>14.601637999999999</v>
       </c>
       <c r="H104" s="7">
-        <v>5.0616000000000001E-2</v>
+        <v>5.2207999999999997E-2</v>
       </c>
       <c r="I104" s="7">
-        <v>2.9964999999999999E-2</v>
+        <v>3.2183000000000003E-2</v>
       </c>
       <c r="J104">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K104">
         <v>100</v>
@@ -29649,25 +29838,25 @@
       </c>
       <c r="D105" s="7">
         <f t="shared" si="15"/>
-        <v>0.94813133582845066</v>
+        <v>0.95620827573917644</v>
       </c>
       <c r="E105" s="7">
-        <v>0.96103899999999998</v>
+        <v>0.97592800000000002</v>
       </c>
       <c r="F105" s="7">
-        <v>5.1278999999999998E-2</v>
+        <v>5.1365000000000001E-2</v>
       </c>
       <c r="G105" s="7">
-        <v>13.825601000000001</v>
+        <v>14.805868</v>
       </c>
       <c r="H105" s="7">
-        <v>5.0312999999999997E-2</v>
+        <v>5.0616000000000001E-2</v>
       </c>
       <c r="I105" s="7">
-        <v>2.8101000000000001E-2</v>
+        <v>2.9964999999999999E-2</v>
       </c>
       <c r="J105">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K105">
         <v>100</v>
@@ -29694,25 +29883,25 @@
       </c>
       <c r="D106" s="7">
         <f t="shared" si="15"/>
-        <v>0.95079829313558006</v>
+        <v>0.94813133582845066</v>
       </c>
       <c r="E106" s="7">
-        <v>0.96691800000000006</v>
+        <v>0.96103899999999998</v>
       </c>
       <c r="F106" s="7">
-        <v>5.1256999999999997E-2</v>
+        <v>5.1278999999999998E-2</v>
       </c>
       <c r="G106" s="7">
-        <v>14.42665</v>
+        <v>13.825601000000001</v>
       </c>
       <c r="H106" s="7">
-        <v>5.0437000000000003E-2</v>
+        <v>5.0312999999999997E-2</v>
       </c>
       <c r="I106" s="7">
-        <v>2.9412000000000001E-2</v>
+        <v>2.8101000000000001E-2</v>
       </c>
       <c r="J106">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K106">
         <v>100</v>
@@ -29728,76 +29917,76 @@
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D107" s="36">
-        <f>AVERAGE(D97:D106)</f>
-        <v>0.94798483076828044</v>
-      </c>
-      <c r="E107" s="36">
-        <f>AVERAGE(E97:E106)</f>
-        <v>0.96311939999999985</v>
-      </c>
-      <c r="F107" s="36">
-        <f>AVERAGE(F97:F106)</f>
-        <v>5.1154400000000003E-2</v>
+      <c r="A107" t="s">
+        <v>54</v>
+      </c>
+      <c r="B107">
+        <v>5728</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="7">
+        <f t="shared" si="15"/>
+        <v>0.95079829313558006</v>
+      </c>
+      <c r="E107" s="7">
+        <v>0.96691800000000006</v>
+      </c>
+      <c r="F107" s="7">
+        <v>5.1256999999999997E-2</v>
+      </c>
+      <c r="G107" s="7">
+        <v>14.42665</v>
+      </c>
+      <c r="H107" s="7">
+        <v>5.0437000000000003E-2</v>
+      </c>
+      <c r="I107" s="7">
+        <v>2.9412000000000001E-2</v>
+      </c>
+      <c r="J107">
+        <v>51</v>
+      </c>
+      <c r="K107">
+        <v>100</v>
+      </c>
+      <c r="L107">
+        <v>100</v>
+      </c>
+      <c r="M107" t="s">
+        <v>15</v>
+      </c>
+      <c r="N107" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D108" s="36">
-        <f>MEDIAN(D97:D106)</f>
+        <f>AVERAGE(D98:D107)</f>
+        <v>0.94798483076828044</v>
+      </c>
+      <c r="E108" s="36">
+        <f>AVERAGE(E98:E107)</f>
+        <v>0.96311939999999985</v>
+      </c>
+      <c r="F108" s="36">
+        <f>AVERAGE(F98:F107)</f>
+        <v>5.1154400000000003E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D109" s="36">
+        <f>MEDIAN(D98:D107)</f>
         <v>0.94946481448201536</v>
       </c>
-      <c r="E108" s="36">
-        <f>MEDIAN(E97:E106)</f>
+      <c r="E109" s="36">
+        <f>MEDIAN(E98:E107)</f>
         <v>0.96698150000000005</v>
       </c>
-      <c r="F108" s="36">
-        <f>MEDIAN(F97:F106)</f>
+      <c r="F109" s="36">
+        <f>MEDIAN(F98:F107)</f>
         <v>5.0927E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>54</v>
-      </c>
-      <c r="B110">
-        <v>5728</v>
-      </c>
-      <c r="C110" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" s="7">
-        <f t="shared" ref="D110:D119" si="16">((E110/$E$6)+(F110/$F$6))/2</f>
-        <v>0.93335811520609624</v>
-      </c>
-      <c r="E110" s="7">
-        <v>0.94852899999999996</v>
-      </c>
-      <c r="F110" s="7">
-        <v>5.0351E-2</v>
-      </c>
-      <c r="G110" s="7">
-        <v>13.585741000000001</v>
-      </c>
-      <c r="H110" s="7">
-        <v>5.0138000000000002E-2</v>
-      </c>
-      <c r="I110" s="7">
-        <v>2.8162E-2</v>
-      </c>
-      <c r="J110">
-        <v>42</v>
-      </c>
-      <c r="K110">
-        <v>200</v>
-      </c>
-      <c r="L110">
-        <v>100</v>
-      </c>
-      <c r="M110" t="s">
-        <v>15</v>
-      </c>
-      <c r="N110" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
@@ -29811,26 +30000,26 @@
         <v>3</v>
       </c>
       <c r="D111" s="7">
-        <f t="shared" si="16"/>
-        <v>0.94717946019975696</v>
+        <f t="shared" ref="D111:D120" si="16">((E111/$E$6)+(F111/$F$6))/2</f>
+        <v>0.93335811520609624</v>
       </c>
       <c r="E111" s="7">
-        <v>0.960256</v>
+        <v>0.94852899999999996</v>
       </c>
       <c r="F111" s="7">
-        <v>5.1218E-2</v>
+        <v>5.0351E-2</v>
       </c>
       <c r="G111" s="7">
-        <v>14.176114999999999</v>
+        <v>13.585741000000001</v>
       </c>
       <c r="H111" s="7">
-        <v>5.0695999999999998E-2</v>
+        <v>5.0138000000000002E-2</v>
       </c>
       <c r="I111" s="7">
-        <v>2.9758E-2</v>
+        <v>2.8162E-2</v>
       </c>
       <c r="J111">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111">
         <v>200</v>
@@ -29857,25 +30046,25 @@
       </c>
       <c r="D112" s="7">
         <f t="shared" si="16"/>
-        <v>0.96910350847730498</v>
+        <v>0.94717946019975696</v>
       </c>
       <c r="E112" s="7">
-        <v>0.998444</v>
+        <v>0.960256</v>
       </c>
       <c r="F112" s="7">
-        <v>5.1568000000000003E-2</v>
+        <v>5.1218E-2</v>
       </c>
       <c r="G112" s="7">
-        <v>15.067114999999999</v>
+        <v>14.176114999999999</v>
       </c>
       <c r="H112" s="7">
-        <v>5.0899E-2</v>
+        <v>5.0695999999999998E-2</v>
       </c>
       <c r="I112" s="7">
-        <v>3.0144000000000001E-2</v>
+        <v>2.9758E-2</v>
       </c>
       <c r="J112">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K112">
         <v>200</v>
@@ -29902,25 +30091,25 @@
       </c>
       <c r="D113" s="7">
         <f t="shared" si="16"/>
-        <v>0.96454304669815394</v>
+        <v>0.96910350847730498</v>
       </c>
       <c r="E113" s="7">
-        <v>0.98824999999999996</v>
+        <v>0.998444</v>
       </c>
       <c r="F113" s="7">
-        <v>5.1612999999999999E-2</v>
+        <v>5.1568000000000003E-2</v>
       </c>
       <c r="G113" s="7">
-        <v>14.949938</v>
+        <v>15.067114999999999</v>
       </c>
       <c r="H113" s="7">
-        <v>5.0861000000000003E-2</v>
+        <v>5.0899E-2</v>
       </c>
       <c r="I113" s="7">
-        <v>2.9725000000000001E-2</v>
+        <v>3.0144000000000001E-2</v>
       </c>
       <c r="J113">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K113">
         <v>200</v>
@@ -29947,25 +30136,25 @@
       </c>
       <c r="D114" s="7">
         <f t="shared" si="16"/>
-        <v>1.0441413440609577</v>
+        <v>0.96454304669815394</v>
       </c>
       <c r="E114" s="7">
-        <v>1.0341070000000001</v>
+        <v>0.98824999999999996</v>
       </c>
       <c r="F114" s="7">
-        <v>5.7741000000000001E-2</v>
+        <v>5.1612999999999999E-2</v>
       </c>
       <c r="G114" s="7">
-        <v>16.525355999999999</v>
+        <v>14.949938</v>
       </c>
       <c r="H114" s="7">
-        <v>5.6417000000000002E-2</v>
+        <v>5.0861000000000003E-2</v>
       </c>
       <c r="I114" s="7">
-        <v>3.4376999999999998E-2</v>
+        <v>2.9725000000000001E-2</v>
       </c>
       <c r="J114">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K114">
         <v>200</v>
@@ -29992,25 +30181,25 @@
       </c>
       <c r="D115" s="7">
         <f t="shared" si="16"/>
-        <v>0.92605671708220427</v>
+        <v>1.0441413440609577</v>
       </c>
       <c r="E115" s="7">
-        <v>0.94940199999999997</v>
+        <v>1.0341070000000001</v>
       </c>
       <c r="F115" s="7">
-        <v>4.9522999999999998E-2</v>
+        <v>5.7741000000000001E-2</v>
       </c>
       <c r="G115" s="7">
-        <v>13.013000999999999</v>
+        <v>16.525355999999999</v>
       </c>
       <c r="H115" s="7">
-        <v>4.9251999999999997E-2</v>
+        <v>5.6417000000000002E-2</v>
       </c>
       <c r="I115" s="7">
-        <v>2.7363999999999999E-2</v>
+        <v>3.4376999999999998E-2</v>
       </c>
       <c r="J115">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K115">
         <v>200</v>
@@ -30037,25 +30226,25 @@
       </c>
       <c r="D116" s="7">
         <f t="shared" si="16"/>
-        <v>1.0241195138514967</v>
+        <v>0.92605671708220427</v>
       </c>
       <c r="E116" s="7">
-        <v>1.0187820000000001</v>
+        <v>0.94940199999999997</v>
       </c>
       <c r="F116" s="7">
-        <v>5.6397999999999997E-2</v>
+        <v>4.9522999999999998E-2</v>
       </c>
       <c r="G116" s="7">
-        <v>15.03116</v>
+        <v>13.013000999999999</v>
       </c>
       <c r="H116" s="7">
-        <v>5.5539999999999999E-2</v>
+        <v>4.9251999999999997E-2</v>
       </c>
       <c r="I116" s="7">
-        <v>3.4526000000000001E-2</v>
+        <v>2.7363999999999999E-2</v>
       </c>
       <c r="J116">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K116">
         <v>200</v>
@@ -30082,25 +30271,25 @@
       </c>
       <c r="D117" s="7">
         <f t="shared" si="16"/>
-        <v>0.97290094798952331</v>
+        <v>1.0241195138514967</v>
       </c>
       <c r="E117" s="7">
-        <v>0.99334100000000003</v>
+        <v>1.0187820000000001</v>
       </c>
       <c r="F117" s="7">
-        <v>5.2241999999999997E-2</v>
+        <v>5.6397999999999997E-2</v>
       </c>
       <c r="G117" s="7">
-        <v>14.583679999999999</v>
+        <v>15.03116</v>
       </c>
       <c r="H117" s="7">
-        <v>5.1505000000000002E-2</v>
+        <v>5.5539999999999999E-2</v>
       </c>
       <c r="I117" s="7">
-        <v>2.9912999999999999E-2</v>
+        <v>3.4526000000000001E-2</v>
       </c>
       <c r="J117">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K117">
         <v>200</v>
@@ -30127,25 +30316,25 @@
       </c>
       <c r="D118" s="7">
         <f t="shared" si="16"/>
-        <v>0.96195120705762172</v>
+        <v>0.97290094798952331</v>
       </c>
       <c r="E118" s="7">
-        <v>0.97461600000000004</v>
+        <v>0.99334100000000003</v>
       </c>
       <c r="F118" s="7">
-        <v>5.2048999999999998E-2</v>
+        <v>5.2241999999999997E-2</v>
       </c>
       <c r="G118" s="7">
-        <v>14.588120999999999</v>
+        <v>14.583679999999999</v>
       </c>
       <c r="H118" s="7">
-        <v>5.1631999999999997E-2</v>
+        <v>5.1505000000000002E-2</v>
       </c>
       <c r="I118" s="7">
-        <v>2.9849000000000001E-2</v>
+        <v>2.9912999999999999E-2</v>
       </c>
       <c r="J118">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K118">
         <v>200</v>
@@ -30172,25 +30361,25 @@
       </c>
       <c r="D119" s="7">
         <f t="shared" si="16"/>
-        <v>0.97505541427439546</v>
+        <v>0.96195120705762172</v>
       </c>
       <c r="E119" s="7">
-        <v>0.99095</v>
+        <v>0.97461600000000004</v>
       </c>
       <c r="F119" s="7">
-        <v>5.2597999999999999E-2</v>
+        <v>5.2048999999999998E-2</v>
       </c>
       <c r="G119" s="7">
-        <v>14.265757000000001</v>
+        <v>14.588120999999999</v>
       </c>
       <c r="H119" s="7">
-        <v>5.2170000000000001E-2</v>
+        <v>5.1631999999999997E-2</v>
       </c>
       <c r="I119" s="7">
-        <v>3.1205E-2</v>
+        <v>2.9849000000000001E-2</v>
       </c>
       <c r="J119">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K119">
         <v>200</v>
@@ -30206,37 +30395,82 @@
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D120" s="36">
-        <f>AVERAGE(D110:D119)</f>
-        <v>0.97184092748975126</v>
-      </c>
-      <c r="E120" s="36">
-        <f>AVERAGE(E110:E119)</f>
-        <v>0.98566769999999992</v>
-      </c>
-      <c r="F120" s="36">
-        <f>AVERAGE(F110:F119)</f>
-        <v>5.2530100000000003E-2</v>
+      <c r="A120" t="s">
+        <v>54</v>
+      </c>
+      <c r="B120">
+        <v>5728</v>
+      </c>
+      <c r="C120" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="7">
+        <f t="shared" si="16"/>
+        <v>0.97505541427439546</v>
+      </c>
+      <c r="E120" s="7">
+        <v>0.99095</v>
+      </c>
+      <c r="F120" s="7">
+        <v>5.2597999999999999E-2</v>
+      </c>
+      <c r="G120" s="7">
+        <v>14.265757000000001</v>
+      </c>
+      <c r="H120" s="7">
+        <v>5.2170000000000001E-2</v>
+      </c>
+      <c r="I120" s="7">
+        <v>3.1205E-2</v>
+      </c>
+      <c r="J120">
+        <v>51</v>
+      </c>
+      <c r="K120">
+        <v>200</v>
+      </c>
+      <c r="L120">
+        <v>100</v>
+      </c>
+      <c r="M120" t="s">
+        <v>15</v>
+      </c>
+      <c r="N120" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D121" s="36">
-        <f>MEDIAN(D110:D119)</f>
+        <f>AVERAGE(D111:D120)</f>
+        <v>0.97184092748975126</v>
+      </c>
+      <c r="E121" s="36">
+        <f>AVERAGE(E111:E120)</f>
+        <v>0.98566769999999992</v>
+      </c>
+      <c r="F121" s="36">
+        <f>AVERAGE(F111:F120)</f>
+        <v>5.2530100000000003E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D122" s="36">
+        <f>MEDIAN(D111:D120)</f>
         <v>0.96682327758772946</v>
       </c>
-      <c r="E121" s="36">
-        <f>MEDIAN(E110:E119)</f>
+      <c r="E122" s="36">
+        <f>MEDIAN(E111:E120)</f>
         <v>0.98960000000000004</v>
       </c>
-      <c r="F121" s="36">
-        <f>MEDIAN(F110:F119)</f>
+      <c r="F122" s="36">
+        <f>MEDIAN(F111:F120)</f>
         <v>5.1831000000000002E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A13:P13"/>
-    <mergeCell ref="A63:P63"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="A64:P64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30247,9 +30481,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EC5186-3C9F-4963-A58C-8828665F06F5}">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56:F57"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/results/results_2_frequencies_subsetted_by_domain.xlsx
+++ b/results/results_2_frequencies_subsetted_by_domain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337C735D-58C0-43CC-BB40-C20A88AD9C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3EB86B-F28F-48BA-A0E6-18152466F864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="380" windowWidth="19420" windowHeight="10420" tabRatio="818" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" tabRatio="818" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary" sheetId="30" r:id="rId1"/>
@@ -21594,8 +21594,8 @@
   <dimension ref="A1:P147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23873,9 +23873,18 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
+      <c r="D71" s="36">
+        <f>MEDIAN(D68:D70)</f>
+        <v>1.0411152644098811</v>
+      </c>
+      <c r="E71" s="36">
+        <f>MEDIAN(E68:E70)</f>
+        <v>1.0873759999999999</v>
+      </c>
+      <c r="F71" s="36">
+        <f>MEDIAN(F68:F70)</f>
+        <v>0.14754400000000001</v>
+      </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D72" s="38"/>

--- a/results/results_2_frequencies_subsetted_by_domain.xlsx
+++ b/results/results_2_frequencies_subsetted_by_domain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3EB86B-F28F-48BA-A0E6-18152466F864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780B65EE-444C-4C5B-BA49-D803ED9BA1FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" tabRatio="818" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="818" firstSheet="12" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary" sheetId="30" r:id="rId1"/>
@@ -9205,7 +9205,7 @@
   <dimension ref="A1:O157"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q121" sqref="Q121"/>
     </sheetView>
   </sheetViews>
@@ -14444,8 +14444,8 @@
   <dimension ref="A1:O134"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q61" sqref="Q61"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19215,8 +19215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916E5D1D-E0B0-4535-9497-2DBD8C30A89E}">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
@@ -21593,8 +21593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E4179B-291C-43EA-ACC3-6101CBE12D43}">
   <dimension ref="A1:P147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
@@ -26264,7 +26264,7 @@
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R7" sqref="R7"/>
+      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26283,7 +26283,7 @@
     <col min="13" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.6328125" customWidth="1"/>
     <col min="15" max="15" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -26594,7 +26594,10 @@
       <c r="O15">
         <v>32</v>
       </c>
-      <c r="P15" s="9"/>
+      <c r="P15" s="9">
+        <f>(32*L15*K15)/B15</f>
+        <v>27.932960893854748</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -26643,7 +26646,10 @@
       <c r="O16">
         <v>32</v>
       </c>
-      <c r="P16" s="9"/>
+      <c r="P16" s="9">
+        <f>(32*L16*K16)/B16</f>
+        <v>27.932960893854748</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -26692,7 +26698,10 @@
       <c r="O17">
         <v>32</v>
       </c>
-      <c r="P17" s="9"/>
+      <c r="P17" s="9">
+        <f>(32*L17*K17)/B17</f>
+        <v>27.932960893854748</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D18" s="36">
@@ -26763,7 +26772,10 @@
       <c r="O20">
         <v>32</v>
       </c>
-      <c r="P20" s="9"/>
+      <c r="P20" s="9">
+        <f>(32*L20*K20)/B20</f>
+        <v>55.865921787709496</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
@@ -26812,7 +26824,10 @@
       <c r="O21">
         <v>32</v>
       </c>
-      <c r="P21" s="9"/>
+      <c r="P21" s="9">
+        <f>(32*L21*K21)/B21</f>
+        <v>55.865921787709496</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -26861,7 +26876,10 @@
       <c r="O22">
         <v>32</v>
       </c>
-      <c r="P22" s="9"/>
+      <c r="P22" s="9">
+        <f>(32*L22*K22)/B22</f>
+        <v>55.865921787709496</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D23" s="36">
@@ -26928,7 +26946,10 @@
       <c r="N25" t="s">
         <v>20</v>
       </c>
-      <c r="P25" s="9"/>
+      <c r="P25" s="9">
+        <f t="shared" ref="P25:P34" si="6">(32*L25*K25)/B25</f>
+        <v>27.932960893854748</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
@@ -26974,7 +26995,10 @@
       <c r="N26" t="s">
         <v>20</v>
       </c>
-      <c r="P26" s="9"/>
+      <c r="P26" s="9">
+        <f t="shared" si="6"/>
+        <v>27.932960893854748</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
@@ -27020,7 +27044,10 @@
       <c r="N27" t="s">
         <v>20</v>
       </c>
-      <c r="P27" s="9"/>
+      <c r="P27" s="9">
+        <f t="shared" si="6"/>
+        <v>27.932960893854748</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
@@ -27066,7 +27093,10 @@
       <c r="N28" t="s">
         <v>20</v>
       </c>
-      <c r="P28" s="9"/>
+      <c r="P28" s="9">
+        <f t="shared" si="6"/>
+        <v>27.932960893854748</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
@@ -27112,7 +27142,10 @@
       <c r="N29" t="s">
         <v>20</v>
       </c>
-      <c r="P29" s="9"/>
+      <c r="P29" s="9">
+        <f t="shared" si="6"/>
+        <v>27.932960893854748</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
@@ -27158,7 +27191,10 @@
       <c r="N30" t="s">
         <v>20</v>
       </c>
-      <c r="P30" s="9"/>
+      <c r="P30" s="9">
+        <f t="shared" si="6"/>
+        <v>27.932960893854748</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
@@ -27204,7 +27240,10 @@
       <c r="N31" t="s">
         <v>20</v>
       </c>
-      <c r="P31" s="9"/>
+      <c r="P31" s="9">
+        <f t="shared" si="6"/>
+        <v>27.932960893854748</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
@@ -27250,7 +27289,10 @@
       <c r="N32" t="s">
         <v>20</v>
       </c>
-      <c r="P32" s="9"/>
+      <c r="P32" s="9">
+        <f t="shared" si="6"/>
+        <v>27.932960893854748</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
@@ -27296,7 +27338,10 @@
       <c r="N33" t="s">
         <v>20</v>
       </c>
-      <c r="P33" s="9"/>
+      <c r="P33" s="9">
+        <f t="shared" si="6"/>
+        <v>27.932960893854748</v>
+      </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
@@ -27342,7 +27387,10 @@
       <c r="N34" t="s">
         <v>20</v>
       </c>
-      <c r="P34" s="9"/>
+      <c r="P34" s="9">
+        <f t="shared" si="6"/>
+        <v>27.932960893854748</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D35" s="36">
@@ -27391,7 +27439,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="7">
-        <f t="shared" ref="D38:D47" si="6">((E38/$E$6)+(F38/$F$6))/2</f>
+        <f t="shared" ref="D38:D47" si="7">((E38/$E$6)+(F38/$F$6))/2</f>
         <v>1.0313335179600309</v>
       </c>
       <c r="E38" s="38">
@@ -27424,7 +27472,10 @@
       <c r="N38" t="s">
         <v>20</v>
       </c>
-      <c r="P38" s="9"/>
+      <c r="P38" s="9">
+        <f t="shared" ref="P38:P47" si="8">(32*L38*K38)/B38</f>
+        <v>55.865921787709496</v>
+      </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
@@ -27437,7 +27488,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.97256722883145597</v>
       </c>
       <c r="E39" s="38">
@@ -27470,7 +27521,10 @@
       <c r="N39" t="s">
         <v>20</v>
       </c>
-      <c r="P39" s="9"/>
+      <c r="P39" s="9">
+        <f t="shared" si="8"/>
+        <v>55.865921787709496</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
@@ -27483,7 +27537,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.9944678669072764</v>
       </c>
       <c r="E40" s="38">
@@ -27516,7 +27570,10 @@
       <c r="N40" t="s">
         <v>20</v>
       </c>
-      <c r="P40" s="9"/>
+      <c r="P40" s="9">
+        <f t="shared" si="8"/>
+        <v>55.865921787709496</v>
+      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
@@ -27529,7 +27586,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.91954240531876652</v>
       </c>
       <c r="E41" s="38">
@@ -27562,7 +27619,10 @@
       <c r="N41" t="s">
         <v>20</v>
       </c>
-      <c r="P41" s="9"/>
+      <c r="P41" s="9">
+        <f t="shared" si="8"/>
+        <v>55.865921787709496</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
@@ -27575,7 +27635,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.93914289866361811</v>
       </c>
       <c r="E42" s="38">
@@ -27608,7 +27668,10 @@
       <c r="N42" t="s">
         <v>20</v>
       </c>
-      <c r="P42" s="9"/>
+      <c r="P42" s="9">
+        <f t="shared" si="8"/>
+        <v>55.865921787709496</v>
+      </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
@@ -27621,7 +27684,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.91762220425964336</v>
       </c>
       <c r="E43" s="38">
@@ -27654,7 +27717,10 @@
       <c r="N43" t="s">
         <v>20</v>
       </c>
-      <c r="P43" s="9"/>
+      <c r="P43" s="9">
+        <f t="shared" si="8"/>
+        <v>55.865921787709496</v>
+      </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
@@ -27667,7 +27733,7 @@
         <v>6</v>
       </c>
       <c r="D44" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2367475689196845</v>
       </c>
       <c r="E44" s="38">
@@ -27700,7 +27766,10 @@
       <c r="N44" t="s">
         <v>20</v>
       </c>
-      <c r="P44" s="9"/>
+      <c r="P44" s="9">
+        <f t="shared" si="8"/>
+        <v>55.865921787709496</v>
+      </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
@@ -27713,7 +27782,7 @@
         <v>6</v>
       </c>
       <c r="D45" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.92732005795221362</v>
       </c>
       <c r="E45" s="38">
@@ -27746,7 +27815,10 @@
       <c r="N45" t="s">
         <v>20</v>
       </c>
-      <c r="P45" s="9"/>
+      <c r="P45" s="9">
+        <f t="shared" si="8"/>
+        <v>55.865921787709496</v>
+      </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
@@ -27759,7 +27831,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.93581708396113639</v>
       </c>
       <c r="E46" s="38">
@@ -27792,7 +27864,10 @@
       <c r="N46" t="s">
         <v>20</v>
       </c>
-      <c r="P46" s="9"/>
+      <c r="P46" s="9">
+        <f t="shared" si="8"/>
+        <v>55.865921787709496</v>
+      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
@@ -27805,7 +27880,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.90624355620188479</v>
       </c>
       <c r="E47" s="38">
@@ -27838,7 +27913,10 @@
       <c r="N47" t="s">
         <v>20</v>
       </c>
-      <c r="P47" s="9"/>
+      <c r="P47" s="9">
+        <f t="shared" si="8"/>
+        <v>55.865921787709496</v>
+      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D48" s="36">
@@ -27896,7 +27974,7 @@
         <v>6</v>
       </c>
       <c r="D51" s="7">
-        <f t="shared" ref="D51:D60" si="7">((E51/$E$6)+(F51/$F$6))/2</f>
+        <f t="shared" ref="D51:D60" si="9">((E51/$E$6)+(F51/$F$6))/2</f>
         <v>0.94126876924803904</v>
       </c>
       <c r="E51" s="38">
@@ -27929,7 +28007,10 @@
       <c r="N51" t="s">
         <v>20</v>
       </c>
-      <c r="P51" s="9"/>
+      <c r="P51" s="9">
+        <f t="shared" ref="P51:P60" si="10">(32*L51*K51)/B51</f>
+        <v>111.73184357541899</v>
+      </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
@@ -27942,7 +28023,7 @@
         <v>6</v>
       </c>
       <c r="D52" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.92227477759617082</v>
       </c>
       <c r="E52" s="38">
@@ -27975,7 +28056,10 @@
       <c r="N52" t="s">
         <v>20</v>
       </c>
-      <c r="P52" s="9"/>
+      <c r="P52" s="9">
+        <f t="shared" si="10"/>
+        <v>111.73184357541899</v>
+      </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
@@ -27988,7 +28072,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.92032712428085217</v>
       </c>
       <c r="E53" s="38">
@@ -28021,7 +28105,10 @@
       <c r="N53" t="s">
         <v>20</v>
       </c>
-      <c r="P53" s="9"/>
+      <c r="P53" s="9">
+        <f t="shared" si="10"/>
+        <v>111.73184357541899</v>
+      </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
@@ -28034,7 +28121,7 @@
         <v>6</v>
       </c>
       <c r="D54" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.931820957065286</v>
       </c>
       <c r="E54" s="38">
@@ -28067,7 +28154,10 @@
       <c r="N54" t="s">
         <v>20</v>
       </c>
-      <c r="P54" s="9"/>
+      <c r="P54" s="9">
+        <f t="shared" si="10"/>
+        <v>111.73184357541899</v>
+      </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
@@ -28080,7 +28170,7 @@
         <v>6</v>
       </c>
       <c r="D55" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.91086201269302292</v>
       </c>
       <c r="E55" s="38">
@@ -28113,7 +28203,10 @@
       <c r="N55" t="s">
         <v>20</v>
       </c>
-      <c r="P55" s="9"/>
+      <c r="P55" s="9">
+        <f t="shared" si="10"/>
+        <v>111.73184357541899</v>
+      </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
@@ -28126,7 +28219,7 @@
         <v>6</v>
       </c>
       <c r="D56" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.89818298602078939</v>
       </c>
       <c r="E56" s="38">
@@ -28159,7 +28252,10 @@
       <c r="N56" t="s">
         <v>20</v>
       </c>
-      <c r="P56" s="9"/>
+      <c r="P56" s="9">
+        <f t="shared" si="10"/>
+        <v>111.73184357541899</v>
+      </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
@@ -28172,7 +28268,7 @@
         <v>6</v>
       </c>
       <c r="D57" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0240776188492202</v>
       </c>
       <c r="E57" s="38">
@@ -28205,7 +28301,10 @@
       <c r="N57" t="s">
         <v>20</v>
       </c>
-      <c r="P57" s="9"/>
+      <c r="P57" s="9">
+        <f t="shared" si="10"/>
+        <v>111.73184357541899</v>
+      </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
@@ -28218,7 +28317,7 @@
         <v>6</v>
       </c>
       <c r="D58" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.9135858347652317</v>
       </c>
       <c r="E58" s="38">
@@ -28251,7 +28350,10 @@
       <c r="N58" t="s">
         <v>20</v>
       </c>
-      <c r="P58" s="9"/>
+      <c r="P58" s="9">
+        <f t="shared" si="10"/>
+        <v>111.73184357541899</v>
+      </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
@@ -28264,7 +28366,7 @@
         <v>6</v>
       </c>
       <c r="D59" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.97824152927229702</v>
       </c>
       <c r="E59" s="38">
@@ -28297,7 +28399,10 @@
       <c r="N59" t="s">
         <v>20</v>
       </c>
-      <c r="P59" s="9"/>
+      <c r="P59" s="9">
+        <f t="shared" si="10"/>
+        <v>111.73184357541899</v>
+      </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
@@ -28310,7 +28415,7 @@
         <v>6</v>
       </c>
       <c r="D60" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.88642839096538006</v>
       </c>
       <c r="E60" s="38">
@@ -28343,7 +28448,10 @@
       <c r="N60" t="s">
         <v>20</v>
       </c>
-      <c r="P60" s="9"/>
+      <c r="P60" s="9">
+        <f t="shared" si="10"/>
+        <v>111.73184357541899</v>
+      </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D61" s="36">
@@ -28551,11 +28659,11 @@
         <v>1.0038035383314934</v>
       </c>
       <c r="E68" s="36">
-        <f t="shared" ref="E68:F68" si="8">AVERAGE(E65:E67)</f>
+        <f t="shared" ref="E68:F68" si="11">AVERAGE(E65:E67)</f>
         <v>1.0242633333333333</v>
       </c>
       <c r="F68" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.3934333333333334E-2</v>
       </c>
     </row>
@@ -28570,7 +28678,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="7">
-        <f t="shared" ref="D70:D72" si="9">((E70/$E$6)+(F70/$F$6))/2</f>
+        <f t="shared" ref="D70:D72" si="12">((E70/$E$6)+(F70/$F$6))/2</f>
         <v>0.93084259489740995</v>
       </c>
       <c r="E70" s="7">
@@ -28619,7 +28727,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.92965207812977124</v>
       </c>
       <c r="E71" s="7">
@@ -28668,7 +28776,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.95310550741266331</v>
       </c>
       <c r="E72" s="7">
@@ -28712,11 +28820,11 @@
         <v>0.93786672681328154</v>
       </c>
       <c r="E73" s="36">
-        <f t="shared" ref="E73:F73" si="10">AVERAGE(E70:E72)</f>
+        <f t="shared" ref="E73:F73" si="13">AVERAGE(E70:E72)</f>
         <v>0.95975033333333337</v>
       </c>
       <c r="F73" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.0246666666666662E-2</v>
       </c>
     </row>
@@ -28731,7 +28839,7 @@
         <v>3</v>
       </c>
       <c r="D75" s="7">
-        <f t="shared" ref="D75:D77" si="11">((E75/$E$6)+(F75/$F$6))/2</f>
+        <f t="shared" ref="D75:D77" si="14">((E75/$E$6)+(F75/$F$6))/2</f>
         <v>0.93343082680624678</v>
       </c>
       <c r="E75" s="7">
@@ -28780,7 +28888,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.94705603847931963</v>
       </c>
       <c r="E76" s="7">
@@ -28829,7 +28937,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.95937143685515225</v>
       </c>
       <c r="E77" s="7">
@@ -28873,11 +28981,11 @@
         <v>0.94661943404690618</v>
       </c>
       <c r="E78" s="36">
-        <f t="shared" ref="E78:F78" si="12">AVERAGE(E75:E77)</f>
+        <f t="shared" ref="E78:F78" si="15">AVERAGE(E75:E77)</f>
         <v>0.96532466666666661</v>
       </c>
       <c r="F78" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.0892666666666662E-2</v>
       </c>
     </row>
@@ -29034,11 +29142,11 @@
         <v>0.98560305031164941</v>
       </c>
       <c r="E83" s="36">
-        <f t="shared" ref="E83:F83" si="13">AVERAGE(E80:E82)</f>
+        <f t="shared" ref="E83:F83" si="16">AVERAGE(E80:E82)</f>
         <v>1.0023823333333335</v>
       </c>
       <c r="F83" s="36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.3129666666666665E-2</v>
       </c>
     </row>
@@ -29053,7 +29161,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="7">
-        <f t="shared" ref="D85:D94" si="14">((E85/$E$6)+(F85/$F$6))/2</f>
+        <f t="shared" ref="D85:D94" si="17">((E85/$E$6)+(F85/$F$6))/2</f>
         <v>1.0264748382583599</v>
       </c>
       <c r="E85" s="7">
@@ -29098,7 +29206,7 @@
         <v>3</v>
       </c>
       <c r="D86" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.98684391649206815</v>
       </c>
       <c r="E86" s="7">
@@ -29143,7 +29251,7 @@
         <v>3</v>
       </c>
       <c r="D87" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.99809186024405161</v>
       </c>
       <c r="E87" s="7">
@@ -29188,7 +29296,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0191046348127599</v>
       </c>
       <c r="E88" s="7">
@@ -29233,7 +29341,7 @@
         <v>3</v>
       </c>
       <c r="D89" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.98766543571825238</v>
       </c>
       <c r="E89" s="7">
@@ -29278,7 +29386,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0129309547829939</v>
       </c>
       <c r="E90" s="7">
@@ -29323,7 +29431,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.99777749901903467</v>
       </c>
       <c r="E91" s="7">
@@ -29368,7 +29476,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.94474545114200037</v>
       </c>
       <c r="E92" s="7">
@@ -29413,7 +29521,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0277444980760151</v>
       </c>
       <c r="E93" s="7">
@@ -29458,7 +29566,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0792261307169859</v>
       </c>
       <c r="E94" s="7">
@@ -29531,7 +29639,7 @@
         <v>3</v>
       </c>
       <c r="D98" s="7">
-        <f t="shared" ref="D98:D107" si="15">((E98/$E$6)+(F98/$F$6))/2</f>
+        <f t="shared" ref="D98:D107" si="18">((E98/$E$6)+(F98/$F$6))/2</f>
         <v>0.93084259489740995</v>
       </c>
       <c r="E98" s="7">
@@ -29576,7 +29684,7 @@
         <v>3</v>
       </c>
       <c r="D99" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.92965207812977124</v>
       </c>
       <c r="E99" s="7">
@@ -29621,7 +29729,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.95310550741266331</v>
       </c>
       <c r="E100" s="7">
@@ -29666,7 +29774,7 @@
         <v>3</v>
       </c>
       <c r="D101" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.94557103423728561</v>
       </c>
       <c r="E101" s="7">
@@ -29711,7 +29819,7 @@
         <v>3</v>
       </c>
       <c r="D102" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.99576383411417813</v>
       </c>
       <c r="E102" s="7">
@@ -29756,7 +29864,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.90298318291718438</v>
       </c>
       <c r="E103" s="7">
@@ -29801,7 +29909,7 @@
         <v>3</v>
       </c>
       <c r="D104" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.9667921712711034</v>
       </c>
       <c r="E104" s="7">
@@ -29846,7 +29954,7 @@
         <v>3</v>
       </c>
       <c r="D105" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.95620827573917644</v>
       </c>
       <c r="E105" s="7">
@@ -29891,7 +29999,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.94813133582845066</v>
       </c>
       <c r="E106" s="7">
@@ -29936,7 +30044,7 @@
         <v>3</v>
       </c>
       <c r="D107" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.95079829313558006</v>
       </c>
       <c r="E107" s="7">
@@ -30009,7 +30117,7 @@
         <v>3</v>
       </c>
       <c r="D111" s="7">
-        <f t="shared" ref="D111:D120" si="16">((E111/$E$6)+(F111/$F$6))/2</f>
+        <f t="shared" ref="D111:D120" si="19">((E111/$E$6)+(F111/$F$6))/2</f>
         <v>0.93335811520609624</v>
       </c>
       <c r="E111" s="7">
@@ -30054,7 +30162,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.94717946019975696</v>
       </c>
       <c r="E112" s="7">
@@ -30099,7 +30207,7 @@
         <v>3</v>
       </c>
       <c r="D113" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.96910350847730498</v>
       </c>
       <c r="E113" s="7">
@@ -30144,7 +30252,7 @@
         <v>3</v>
       </c>
       <c r="D114" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.96454304669815394</v>
       </c>
       <c r="E114" s="7">
@@ -30189,7 +30297,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0441413440609577</v>
       </c>
       <c r="E115" s="7">
@@ -30234,7 +30342,7 @@
         <v>3</v>
       </c>
       <c r="D116" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.92605671708220427</v>
       </c>
       <c r="E116" s="7">
@@ -30279,7 +30387,7 @@
         <v>3</v>
       </c>
       <c r="D117" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0241195138514967</v>
       </c>
       <c r="E117" s="7">
@@ -30324,7 +30432,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.97290094798952331</v>
       </c>
       <c r="E118" s="7">
@@ -30369,7 +30477,7 @@
         <v>3</v>
       </c>
       <c r="D119" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.96195120705762172</v>
       </c>
       <c r="E119" s="7">
@@ -30414,7 +30522,7 @@
         <v>3</v>
       </c>
       <c r="D120" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.97505541427439546</v>
       </c>
       <c r="E120" s="7">
@@ -30491,7 +30599,7 @@
   <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>

--- a/results/results_2_frequencies_subsetted_by_domain.xlsx
+++ b/results/results_2_frequencies_subsetted_by_domain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780B65EE-444C-4C5B-BA49-D803ED9BA1FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F51480-183B-4898-BCAF-56BDD1A4FB57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="818" firstSheet="12" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="10200" tabRatio="818" firstSheet="13" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary" sheetId="30" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3527" uniqueCount="189">
   <si>
     <t>epochs</t>
   </si>
@@ -14445,7 +14445,7 @@
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P39" sqref="P39"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14515,13 +14515,20 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10017</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="8">
+      <c r="D2" s="4"/>
+      <c r="E2" s="5">
         <v>0.94969999999999999</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="5">
         <v>0.1308</v>
       </c>
       <c r="L2" s="3"/>
@@ -19217,7 +19224,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q52" sqref="Q52"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19292,13 +19299,19 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>10016</v>
+      </c>
       <c r="C3" t="s">
         <v>185</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="7">
         <v>0.87490000000000001</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <v>0.12479999999999999</v>
       </c>
     </row>
